--- a/$NKE.xlsx
+++ b/$NKE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9CB87B-41A6-4882-AC3E-00C9C5853C74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C6CEE2-B065-4356-A13C-87D1B67C02C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="495" windowWidth="31095" windowHeight="18900" xr2:uid="{7612E5BF-E27D-45C9-936D-073FAE02F148}"/>
+    <workbookView xWindow="2505" yWindow="495" windowWidth="31095" windowHeight="18900" activeTab="1" xr2:uid="{7612E5BF-E27D-45C9-936D-073FAE02F148}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -289,9 +289,6 @@
     <t>Net Margin</t>
   </si>
   <si>
-    <t>Taxes %</t>
-  </si>
-  <si>
     <t>Balance Sheet</t>
   </si>
   <si>
@@ -449,6 +446,9 @@
   </si>
   <si>
     <t>Inventory/Revenue</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
   </si>
 </sst>
 </file>
@@ -780,10 +780,33 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -796,29 +819,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1309,7 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EA867B-521D-45A9-9B00-27085D6F4DA0}">
   <dimension ref="A2:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C27" sqref="C27:D27"/>
     </sheetView>
   </sheetViews>
@@ -1332,16 +1332,16 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-      <c r="T5" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="U5" s="61"/>
-      <c r="V5" s="62"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="T5" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="U5" s="58"/>
+      <c r="V5" s="59"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="D6" s="39"/>
       <c r="T6" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="8"/>
@@ -1368,7 +1368,7 @@
         <v>68</v>
       </c>
       <c r="T7" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U7" s="7"/>
       <c r="V7" s="8"/>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="D8" s="39"/>
       <c r="T8" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U8" s="7"/>
       <c r="V8" s="8"/>
@@ -1400,7 +1400,7 @@
         <v>68</v>
       </c>
       <c r="T9" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U9" s="7"/>
       <c r="V9" s="8"/>
@@ -1417,7 +1417,7 @@
         <v>68</v>
       </c>
       <c r="T10" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="7"/>
       <c r="V10" s="8"/>
@@ -1434,7 +1434,7 @@
         <v>68</v>
       </c>
       <c r="T11" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U11" s="7"/>
       <c r="V11" s="8"/>
@@ -1449,17 +1449,17 @@
       </c>
       <c r="D12" s="40"/>
       <c r="T12" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U12" s="9"/>
       <c r="V12" s="10"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1468,10 +1468,10 @@
       <c r="B16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="55"/>
+      <c r="D16" s="61"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -1480,10 +1480,10 @@
       <c r="B17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="55"/>
+      <c r="D17" s="61"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
@@ -1492,66 +1492,66 @@
       <c r="B18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="61"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="59"/>
+      <c r="D19" s="68"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="55"/>
+      <c r="D23" s="61"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="60">
         <v>1964</v>
       </c>
-      <c r="D24" s="55"/>
+      <c r="D24" s="61"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="64">
         <f>'Financial Model'!W44</f>
         <v>9662</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="61"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
@@ -1560,7 +1560,7 @@
       <c r="C28" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="68">
+      <c r="D28" s="54">
         <v>44833</v>
       </c>
     </row>
@@ -1568,94 +1568,86 @@
       <c r="B29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="64"/>
+      <c r="D29" s="56"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="59"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="56">
+        <v>126</v>
+      </c>
+      <c r="C33" s="65">
         <f>C12/('Financial Model'!AD21*1000)</f>
         <v>24.304770592127053</v>
       </c>
-      <c r="D33" s="57"/>
+      <c r="D33" s="66"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="56">
+        <v>127</v>
+      </c>
+      <c r="C34" s="65">
         <f>C6/('Financial Model'!AD22*1000)</f>
         <v>24.880641209063874</v>
       </c>
-      <c r="D34" s="57"/>
+      <c r="D34" s="66"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="55"/>
+        <v>128</v>
+      </c>
+      <c r="C35" s="60"/>
+      <c r="D35" s="61"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="56">
+        <v>129</v>
+      </c>
+      <c r="C36" s="65">
         <f>C6/'Financial Model'!W70</f>
         <v>9.4420201618000252</v>
       </c>
-      <c r="D36" s="57"/>
+      <c r="D36" s="66"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="55"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="61"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="56">
+        <v>130</v>
+      </c>
+      <c r="C38" s="65">
         <f>'Financial Model'!AC79/('Financial Model'!AC22*1000)</f>
         <v>37.504159682207103</v>
       </c>
-      <c r="D38" s="57"/>
+      <c r="D38" s="66"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="55"/>
+        <v>131</v>
+      </c>
+      <c r="C39" s="60"/>
+      <c r="D39" s="61"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="58"/>
-      <c r="D40" s="59"/>
+        <v>132</v>
+      </c>
+      <c r="C40" s="67"/>
+      <c r="D40" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
@@ -1671,6 +1663,14 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{6430964A-0169-5B4A-BCFC-F02355D9307D}"/>
@@ -1685,11 +1685,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F137E7D-55F8-4ACC-BDF9-DCDC53EC521C}">
   <dimension ref="A1:AO85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q30" sqref="Q30"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1705,7 +1705,7 @@
   <sheetData>
     <row r="1" spans="1:41" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>48</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="3" spans="1:41" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G3" s="29">
         <v>6.0359999999999996</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="4" spans="1:41" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" s="29">
         <v>2.9489999999999998</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="5" spans="1:41" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" s="29">
         <v>0.41599999999999998</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="6" spans="1:41" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" s="29">
         <v>1.6E-2</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="7" spans="1:41" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" s="27">
         <f t="shared" ref="G7:W7" si="2">SUM(G3:G6)</f>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="8" spans="1:41" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G8" s="27">
         <v>0.52700000000000002</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="9" spans="1:41" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" s="27">
         <v>4.0000000000000001E-3</v>
@@ -3538,16 +3538,16 @@
         <v>82</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K25" s="21">
         <f t="shared" ref="K25" si="21">K10/G10-1</f>
@@ -3602,10 +3602,10 @@
         <v>3.5842586544742483E-2</v>
       </c>
       <c r="Z25" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA25" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB25" s="21">
         <f t="shared" ref="AB25" si="27">AB10/AA10-1</f>
@@ -3622,19 +3622,19 @@
     </row>
     <row r="26" spans="2:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K26" s="34">
         <f t="shared" ref="K26:K28" si="29">K3/G3-1</f>
@@ -3689,10 +3689,10 @@
         <v>5.1308629178543841E-2</v>
       </c>
       <c r="Z26" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA26" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB26" s="34">
         <f t="shared" ref="AB26" si="35">AB3/AA3-1</f>
@@ -3709,19 +3709,19 @@
     </row>
     <row r="27" spans="2:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K27" s="34">
         <f t="shared" si="29"/>
@@ -3776,10 +3776,10 @@
         <v>-4.6376811594203149E-3</v>
       </c>
       <c r="Z27" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA27" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB27" s="34">
         <f t="shared" ref="AB27" si="38">AB4/AA4-1</f>
@@ -3796,19 +3796,19 @@
     </row>
     <row r="28" spans="2:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K28" s="34">
         <f t="shared" si="29"/>
@@ -3863,10 +3863,10 @@
         <v>4.5161290322580649E-2</v>
       </c>
       <c r="Z28" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA28" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB28" s="34">
         <f t="shared" ref="AB28" si="40">AB5/AA5-1</f>
@@ -3883,19 +3883,19 @@
     </row>
     <row r="29" spans="2:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K29" s="34">
         <f t="shared" ref="K29:K31" si="42">K7/G7-1</f>
@@ -3950,10 +3950,10 @@
         <v>3.5051546391752897E-2</v>
       </c>
       <c r="Z29" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA29" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB29" s="34">
         <f t="shared" ref="AB29" si="49">AB7/AA7-1</f>
@@ -3970,19 +3970,19 @@
     </row>
     <row r="30" spans="2:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K30" s="34">
         <f t="shared" si="42"/>
@@ -4037,10 +4037,10 @@
         <v>2.2257551669316422E-2</v>
       </c>
       <c r="Z30" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA30" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB30" s="34">
         <f t="shared" ref="AB30" si="51">AB8/AA8-1</f>
@@ -4057,19 +4057,19 @@
     </row>
     <row r="31" spans="2:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K31" s="34">
         <f t="shared" si="42"/>
@@ -4080,7 +4080,7 @@
         <v>-0.33333333333333337</v>
       </c>
       <c r="M31" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N31" s="34">
         <f t="shared" si="43"/>
@@ -4123,10 +4123,10 @@
         <v>-0.80952380952380953</v>
       </c>
       <c r="Z31" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA31" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB31" s="34">
         <f t="shared" ref="AB31" si="53">AB9/AA9-1</f>
@@ -4146,7 +4146,7 @@
         <v>83</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H32" s="25">
         <f t="shared" ref="H32:L32" si="54">H10/G10-1</f>
@@ -4213,13 +4213,13 @@
         <v>3.7027954879843117E-2</v>
       </c>
       <c r="Z32" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA32" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD32" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.2">
@@ -4491,7 +4491,7 @@
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="G37" s="25">
         <f t="shared" ref="G37" si="92">G20/G19</f>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B40" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4649,7 +4649,7 @@
     </row>
     <row r="42" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G42" s="19">
         <v>987</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G43" s="20">
         <v>4330</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="44" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G44" s="19">
         <v>5227</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G45" s="20">
         <v>1675</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G46" s="20">
         <f t="shared" ref="G46:L46" si="105">SUM(G41:G45)</f>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G47" s="20">
         <v>4487</v>
@@ -5050,7 +5050,7 @@
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G48" s="20">
         <v>0</v>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="49" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G49" s="20">
         <f>284+154</f>
@@ -5195,7 +5195,7 @@
     </row>
     <row r="50" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G50" s="20">
         <v>2057</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="51" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G51" s="20">
         <f t="shared" ref="G51:L51" si="108">G46+SUM(G47:G50)</f>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="53" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G53" s="19">
         <v>6</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="54" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G54" s="19">
         <v>13</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="55" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G55" s="20">
         <v>2333</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="56" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G56" s="20">
         <v>0</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="57" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G57" s="20">
         <v>4174</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="58" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G58" s="20">
         <v>182</v>
@@ -5743,7 +5743,7 @@
     </row>
     <row r="59" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G59" s="20">
         <f t="shared" ref="G59:L59" si="113">SUM(G53:G58)</f>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="60" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G60" s="19">
         <v>3467</v>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="61" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G61" s="20">
         <v>0</v>
@@ -5952,7 +5952,7 @@
     </row>
     <row r="62" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G62" s="20">
         <v>3316</v>
@@ -6016,7 +6016,7 @@
     </row>
     <row r="63" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G63" s="20">
         <v>0</v>
@@ -6080,7 +6080,7 @@
     </row>
     <row r="64" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G64" s="20">
         <f t="shared" ref="G64:L64" si="117">G59+SUM(G60:G63)</f>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G66" s="20">
         <v>8992</v>
@@ -6241,7 +6241,7 @@
     </row>
     <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G67" s="20">
         <f t="shared" ref="G67:W67" si="119">G66+G64</f>
@@ -6338,7 +6338,7 @@
     </row>
     <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G69" s="20">
         <f t="shared" ref="G69:V69" si="120">G51-G64</f>
@@ -6419,7 +6419,7 @@
     </row>
     <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G70" s="20">
         <f t="shared" ref="G70:V70" si="122">G69/G23</f>
@@ -6500,19 +6500,19 @@
     </row>
     <row r="72" spans="2:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I72" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J72" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K72" s="34">
         <f>K44/G44-1</f>
@@ -6573,10 +6573,10 @@
     </row>
     <row r="73" spans="2:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G73" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H73" s="34">
         <f t="shared" ref="H73:V73" si="127">H44/G44-1</f>
@@ -6643,7 +6643,7 @@
         <v>0.14750593824228031</v>
       </c>
       <c r="AD73" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="2:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -6894,7 +6894,7 @@
     </row>
     <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G79" s="1">
         <v>82.2</v>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G80" s="20">
         <f>G79*G23</f>
@@ -7120,7 +7120,7 @@
     </row>
     <row r="83" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA83" s="52"/>
       <c r="AB83" s="52"/>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="85" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G85" s="25">
         <f t="shared" ref="G85:W85" si="159">G44/(G10*1000)</f>

--- a/$NKE.xlsx
+++ b/$NKE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C6CEE2-B065-4356-A13C-87D1B67C02C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4964CFCC-83BF-49AF-A691-848DBB83B055}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="495" windowWidth="31095" windowHeight="18900" activeTab="1" xr2:uid="{7612E5BF-E27D-45C9-936D-073FAE02F148}"/>
+    <workbookView xWindow="2505" yWindow="495" windowWidth="31095" windowHeight="18900" xr2:uid="{7612E5BF-E27D-45C9-936D-073FAE02F148}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="142">
   <si>
     <t>$NKE</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Key Events</t>
   </si>
 </sst>
 </file>
@@ -679,7 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -783,30 +786,12 @@
     <xf numFmtId="15" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,6 +806,28 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1309,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EA867B-521D-45A9-9B00-27085D6F4DA0}">
   <dimension ref="A2:V40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:D27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1332,25 +1339,53 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="T5" s="57" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="F5" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="65"/>
+      <c r="T5" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="U5" s="58"/>
-      <c r="V5" s="59"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="65"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>95.33</v>
+        <v>93.83</v>
       </c>
       <c r="D6" s="39"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="56"/>
       <c r="T6" s="43" t="s">
         <v>134</v>
       </c>
@@ -1367,6 +1402,19 @@
       <c r="D7" s="39" t="s">
         <v>68</v>
       </c>
+      <c r="F7" s="71"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
       <c r="T7" s="42" t="s">
         <v>89</v>
       </c>
@@ -1379,9 +1427,22 @@
       </c>
       <c r="C8" s="37">
         <f>C6*C7</f>
-        <v>149391.64299999998</v>
+        <v>147040.99299999999</v>
       </c>
       <c r="D8" s="39"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
       <c r="T8" s="42" t="s">
         <v>88</v>
       </c>
@@ -1399,6 +1460,19 @@
       <c r="D9" s="39" t="s">
         <v>68</v>
       </c>
+      <c r="F9" s="71"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
       <c r="T9" s="42" t="s">
         <v>90</v>
       </c>
@@ -1416,6 +1490,19 @@
       <c r="D10" s="39" t="s">
         <v>68</v>
       </c>
+      <c r="F10" s="71"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
       <c r="T10" s="42" t="s">
         <v>91</v>
       </c>
@@ -1433,6 +1520,19 @@
       <c r="D11" s="39" t="s">
         <v>68</v>
       </c>
+      <c r="F11" s="71"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
       <c r="T11" s="43" t="s">
         <v>93</v>
       </c>
@@ -1445,21 +1545,77 @@
       </c>
       <c r="C12" s="38">
         <f>C8-C11</f>
-        <v>146946.64299999998</v>
+        <v>144595.99299999999</v>
       </c>
       <c r="D12" s="40"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
       <c r="T12" s="44" t="s">
         <v>94</v>
       </c>
       <c r="U12" s="9"/>
       <c r="V12" s="10"/>
     </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F13" s="71"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F14" s="71"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+    </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1468,92 +1624,252 @@
       <c r="B16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="61"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="58"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="61"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="58"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="61"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="58"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="68"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="57" t="s">
+      <c r="D19" s="62"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="56"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F20" s="71"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="56"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F21" s="71"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="56"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="56"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="61"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="58"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="56"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="60">
+      <c r="C24" s="57">
         <v>1964</v>
       </c>
-      <c r="D24" s="61"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="58"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="56"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="56"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="70">
         <f>'Financial Model'!W44</f>
         <v>9662</v>
       </c>
-      <c r="D26" s="61"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="58"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="56"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="56"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>18</v>
       </c>
@@ -1563,91 +1879,272 @@
       <c r="D28" s="54">
         <v>44833</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F28" s="71"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="56"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="56"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="57" t="s">
+      <c r="D29" s="67"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="56"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F30" s="71"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="56"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F31" s="71"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="56"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B32" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="56"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="65">
+      <c r="C33" s="59">
         <f>C12/('Financial Model'!AD21*1000)</f>
-        <v>24.304770592127053</v>
-      </c>
-      <c r="D33" s="66"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+        <v>23.915976347998704</v>
+      </c>
+      <c r="D33" s="60"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="56"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="65">
+      <c r="C34" s="59">
         <f>C6/('Financial Model'!AD22*1000)</f>
-        <v>24.880641209063874</v>
-      </c>
-      <c r="D34" s="66"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+        <v>24.48914890009927</v>
+      </c>
+      <c r="D34" s="60"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="56"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="61"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="56"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="65">
+      <c r="C36" s="59">
         <f>C6/'Financial Model'!W70</f>
-        <v>9.4420201618000252</v>
-      </c>
-      <c r="D36" s="66"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+        <v>9.2934517128049539</v>
+      </c>
+      <c r="D36" s="60"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="56"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="61"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="56"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="65">
+      <c r="C38" s="59">
         <f>'Financial Model'!AC79/('Financial Model'!AC22*1000)</f>
         <v>37.504159682207103</v>
       </c>
-      <c r="D38" s="66"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="60"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="56"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B39" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="61"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C39" s="57"/>
+      <c r="D39" s="58"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="56"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="67"/>
-      <c r="D40" s="68"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="62"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="F5:R5"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
@@ -1664,13 +2161,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{6430964A-0169-5B4A-BCFC-F02355D9307D}"/>
@@ -1685,7 +2175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F137E7D-55F8-4ACC-BDF9-DCDC53EC521C}">
   <dimension ref="A1:AO85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/$NKE.xlsx
+++ b/$NKE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4964CFCC-83BF-49AF-A691-848DBB83B055}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDDE27C-423E-493F-AA2D-23E355B00D57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2505" yWindow="495" windowWidth="31095" windowHeight="18900" xr2:uid="{7612E5BF-E27D-45C9-936D-073FAE02F148}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="142">
   <si>
     <t>$NKE</t>
   </si>
@@ -788,10 +788,26 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -806,28 +822,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1317,7 +1317,7 @@
   <dimension ref="A2:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1339,41 +1339,41 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
-      <c r="F5" s="63" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="F5" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="65"/>
-      <c r="T5" s="63" t="s">
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="61"/>
+      <c r="T5" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="U5" s="64"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="61"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>93.83</v>
+        <v>105.42</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="F6" s="71"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="55"/>
       <c r="H6" s="55"/>
       <c r="I6" s="55"/>
@@ -1402,7 +1402,7 @@
       <c r="D7" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="71"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="55"/>
       <c r="H7" s="55"/>
       <c r="I7" s="55"/>
@@ -1427,10 +1427,10 @@
       </c>
       <c r="C8" s="37">
         <f>C6*C7</f>
-        <v>147040.99299999999</v>
+        <v>165203.682</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="F8" s="71"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="55"/>
       <c r="H8" s="55"/>
       <c r="I8" s="55"/>
@@ -1460,7 +1460,7 @@
       <c r="D9" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="71"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="55"/>
       <c r="H9" s="55"/>
       <c r="I9" s="55"/>
@@ -1490,7 +1490,7 @@
       <c r="D10" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="71"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="55"/>
       <c r="H10" s="55"/>
       <c r="I10" s="55"/>
@@ -1520,7 +1520,7 @@
       <c r="D11" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="71"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="55"/>
       <c r="H11" s="55"/>
       <c r="I11" s="55"/>
@@ -1545,10 +1545,10 @@
       </c>
       <c r="C12" s="38">
         <f>C8-C11</f>
-        <v>144595.99299999999</v>
+        <v>162758.682</v>
       </c>
       <c r="D12" s="40"/>
-      <c r="F12" s="71"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="55"/>
       <c r="H12" s="55"/>
       <c r="I12" s="55"/>
@@ -1568,7 +1568,7 @@
       <c r="V12" s="10"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="F13" s="71"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="55"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
@@ -1583,7 +1583,7 @@
       <c r="R13" s="56"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="F14" s="71"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="55"/>
       <c r="H14" s="55"/>
       <c r="I14" s="55"/>
@@ -1598,12 +1598,12 @@
       <c r="R14" s="56"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
-      <c r="F15" s="71"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="55"/>
       <c r="H15" s="55"/>
       <c r="I15" s="55"/>
@@ -1624,11 +1624,11 @@
       <c r="B16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="F16" s="71"/>
+      <c r="D16" s="63"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
       <c r="I16" s="55"/>
@@ -1649,11 +1649,11 @@
       <c r="B17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="F17" s="71"/>
+      <c r="D17" s="63"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="55"/>
       <c r="H17" s="55"/>
       <c r="I17" s="55"/>
@@ -1674,11 +1674,11 @@
       <c r="B18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="58"/>
-      <c r="F18" s="71"/>
+      <c r="D18" s="63"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="55"/>
       <c r="H18" s="55"/>
       <c r="I18" s="55"/>
@@ -1696,11 +1696,11 @@
       <c r="B19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="F19" s="71"/>
+      <c r="D19" s="70"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="55"/>
       <c r="H19" s="55"/>
       <c r="I19" s="55"/>
@@ -1715,7 +1715,7 @@
       <c r="R19" s="56"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F20" s="71"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="55"/>
       <c r="H20" s="55"/>
       <c r="I20" s="55"/>
@@ -1730,7 +1730,7 @@
       <c r="R20" s="56"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F21" s="71"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="55"/>
       <c r="H21" s="55"/>
       <c r="I21" s="55"/>
@@ -1745,12 +1745,12 @@
       <c r="R21" s="56"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="F22" s="71"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="55"/>
       <c r="H22" s="55"/>
       <c r="I22" s="55"/>
@@ -1768,11 +1768,11 @@
       <c r="B23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="F23" s="71"/>
+      <c r="D23" s="63"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="55"/>
       <c r="H23" s="55"/>
       <c r="I23" s="55"/>
@@ -1790,11 +1790,11 @@
       <c r="B24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="62">
         <v>1964</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="F24" s="71"/>
+      <c r="D24" s="63"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
       <c r="I24" s="55"/>
@@ -1812,9 +1812,9 @@
       <c r="B25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="69"/>
-      <c r="F25" s="71"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="55"/>
       <c r="H25" s="55"/>
       <c r="I25" s="55"/>
@@ -1832,12 +1832,12 @@
       <c r="B26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="70">
+      <c r="C26" s="66">
         <f>'Financial Model'!W44</f>
         <v>9662</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="F26" s="71"/>
+      <c r="D26" s="63"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="55"/>
       <c r="H26" s="55"/>
       <c r="I26" s="55"/>
@@ -1853,9 +1853,9 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
-      <c r="F27" s="71"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="65"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="55"/>
       <c r="H27" s="55"/>
       <c r="I27" s="55"/>
@@ -1879,7 +1879,7 @@
       <c r="D28" s="54">
         <v>44833</v>
       </c>
-      <c r="F28" s="71"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="55"/>
       <c r="H28" s="55"/>
       <c r="I28" s="55"/>
@@ -1897,11 +1897,11 @@
       <c r="B29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="F29" s="71"/>
+      <c r="D29" s="72"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="55"/>
       <c r="H29" s="55"/>
       <c r="I29" s="55"/>
@@ -1916,7 +1916,7 @@
       <c r="R29" s="56"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F30" s="71"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="55"/>
       <c r="H30" s="55"/>
       <c r="I30" s="55"/>
@@ -1931,7 +1931,7 @@
       <c r="R30" s="56"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F31" s="71"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="55"/>
       <c r="H31" s="55"/>
       <c r="I31" s="55"/>
@@ -1946,12 +1946,12 @@
       <c r="R31" s="56"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
-      <c r="F32" s="71"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="61"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="55"/>
       <c r="H32" s="55"/>
       <c r="I32" s="55"/>
@@ -1969,12 +1969,12 @@
       <c r="B33" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="59">
+      <c r="C33" s="67">
         <f>C12/('Financial Model'!AD21*1000)</f>
-        <v>23.915976347998704</v>
-      </c>
-      <c r="D33" s="60"/>
-      <c r="F33" s="71"/>
+        <v>26.920059874297088</v>
+      </c>
+      <c r="D33" s="68"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="55"/>
       <c r="H33" s="55"/>
       <c r="I33" s="55"/>
@@ -1992,12 +1992,12 @@
       <c r="B34" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="59">
+      <c r="C34" s="67">
         <f>C6/('Financial Model'!AD22*1000)</f>
-        <v>24.48914890009927</v>
-      </c>
-      <c r="D34" s="60"/>
-      <c r="F34" s="71"/>
+        <v>27.514079474032453</v>
+      </c>
+      <c r="D34" s="68"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="55"/>
       <c r="H34" s="55"/>
       <c r="I34" s="55"/>
@@ -2015,9 +2015,9 @@
       <c r="B35" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="58"/>
-      <c r="F35" s="71"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="55"/>
       <c r="H35" s="55"/>
       <c r="I35" s="55"/>
@@ -2035,12 +2035,12 @@
       <c r="B36" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="59">
+      <c r="C36" s="67">
         <f>C6/'Financial Model'!W70</f>
-        <v>9.2934517128049539</v>
-      </c>
-      <c r="D36" s="60"/>
-      <c r="F36" s="71"/>
+        <v>10.44139059537353</v>
+      </c>
+      <c r="D36" s="68"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="55"/>
       <c r="H36" s="55"/>
       <c r="I36" s="55"/>
@@ -2056,9 +2056,9 @@
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="58"/>
-      <c r="F37" s="71"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="63"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="55"/>
       <c r="H37" s="55"/>
       <c r="I37" s="55"/>
@@ -2076,12 +2076,12 @@
       <c r="B38" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="59">
+      <c r="C38" s="67">
         <f>'Financial Model'!AC79/('Financial Model'!AC22*1000)</f>
         <v>37.504159682207103</v>
       </c>
-      <c r="D38" s="60"/>
-      <c r="F38" s="71"/>
+      <c r="D38" s="68"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="55"/>
       <c r="H38" s="55"/>
       <c r="I38" s="55"/>
@@ -2099,9 +2099,9 @@
       <c r="B39" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="57"/>
-      <c r="D39" s="58"/>
-      <c r="F39" s="71"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="63"/>
+      <c r="F39" s="57"/>
       <c r="G39" s="55"/>
       <c r="H39" s="55"/>
       <c r="I39" s="55"/>
@@ -2119,9 +2119,9 @@
       <c r="B40" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="62"/>
-      <c r="F40" s="72"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="70"/>
+      <c r="F40" s="58"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -2137,14 +2137,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F5:R5"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
@@ -2161,6 +2153,14 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F5:R5"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{6430964A-0169-5B4A-BCFC-F02355D9307D}"/>

--- a/$NKE.xlsx
+++ b/$NKE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDDE27C-423E-493F-AA2D-23E355B00D57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7449D1B0-59BC-6446-AF83-9245482D9C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="495" windowWidth="31095" windowHeight="18900" xr2:uid="{7612E5BF-E27D-45C9-936D-073FAE02F148}"/>
+    <workbookView xWindow="2500" yWindow="500" windowWidth="31100" windowHeight="18900" activeTab="1" xr2:uid="{7612E5BF-E27D-45C9-936D-073FAE02F148}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="143">
   <si>
     <t>$NKE</t>
   </si>
@@ -452,6 +462,9 @@
   </si>
   <si>
     <t>Key Events</t>
+  </si>
+  <si>
+    <t>FQ223</t>
   </si>
 </sst>
 </file>
@@ -464,7 +477,7 @@
     <numFmt numFmtId="166" formatCode="0.0\x"/>
     <numFmt numFmtId="167" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,6 +572,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -682,15 +702,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -752,7 +771,6 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -780,37 +798,21 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -822,12 +824,27 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -924,8 +941,8 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -940,8 +957,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14662150" y="12700"/>
-          <a:ext cx="0" cy="13963650"/>
+          <a:off x="16789400" y="12700"/>
+          <a:ext cx="0" cy="14706600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -974,8 +991,8 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -991,7 +1008,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="21666200" y="0"/>
-          <a:ext cx="0" cy="14224000"/>
+          <a:ext cx="0" cy="15341600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1018,7 +1035,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1306,7 +1323,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1316,827 +1333,835 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EA867B-521D-45A9-9B00-27085D6F4DA0}">
   <dimension ref="A2:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:Q43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="59" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="F5" s="59" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="F5" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="61"/>
-      <c r="T5" s="59" t="s">
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="63"/>
+      <c r="T5" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="U5" s="60"/>
-      <c r="V5" s="61"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+      <c r="U5" s="62"/>
+      <c r="V5" s="63"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>105.42</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="56"/>
-      <c r="T6" s="43" t="s">
+      <c r="D6" s="37"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="7"/>
+      <c r="T6" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="U6" s="7"/>
-      <c r="V6" s="8"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
+      <c r="U6" s="6"/>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="35">
         <v>1567.1</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="56"/>
-      <c r="T7" s="42" t="s">
+      <c r="F7" s="53"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="7"/>
+      <c r="T7" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="U7" s="7"/>
-      <c r="V7" s="8"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
+      <c r="U7" s="6"/>
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="35">
         <f>C6*C7</f>
         <v>165203.682</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="56"/>
-      <c r="T8" s="42" t="s">
+      <c r="D8" s="37"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="7"/>
+      <c r="T8" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="U8" s="7"/>
-      <c r="V8" s="8"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
+      <c r="U8" s="6"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="35">
         <f>'Financial Model'!W75</f>
         <v>11876</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="T9" s="42" t="s">
+      <c r="F9" s="53"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="7"/>
+      <c r="T9" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="U9" s="7"/>
-      <c r="V9" s="8"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
+      <c r="U9" s="6"/>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="35">
         <f>'Financial Model'!W76</f>
         <v>9431</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="T10" s="42" t="s">
+      <c r="F10" s="53"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="7"/>
+      <c r="T10" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="U10" s="7"/>
-      <c r="V10" s="8"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
+      <c r="U10" s="6"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="35">
         <f>'Financial Model'!W77</f>
         <v>2445</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="T11" s="43" t="s">
+      <c r="F11" s="53"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="7"/>
+      <c r="T11" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="U11" s="7"/>
-      <c r="V11" s="8"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
+      <c r="U11" s="6"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="36">
         <f>C8-C11</f>
         <v>162758.682</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="T12" s="44" t="s">
+      <c r="D12" s="38"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="7"/>
+      <c r="T12" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="U12" s="9"/>
-      <c r="V12" s="10"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="F13" s="57"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="56"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="F14" s="57"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="56"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="59" t="s">
+      <c r="U12" s="8"/>
+      <c r="V12" s="9"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="F13" s="53"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="F14" s="53"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B15" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="63"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D16" s="56"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="D17" s="56"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="7"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="56"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="14" t="s">
+      <c r="D18" s="56"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="7"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F20" s="57"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="56"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F21" s="57"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="56"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="59" t="s">
+      <c r="D19" s="60"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F20" s="53"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F21" s="53"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B22" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="56"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="11" t="s">
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="7"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="56"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="11" t="s">
+      <c r="D23" s="56"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="7"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="62">
+      <c r="C24" s="55">
         <v>1964</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="56"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="11" t="s">
+      <c r="D24" s="56"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="56"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="11" t="s">
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="7"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="66">
+      <c r="C26" s="68">
         <f>'Financial Model'!W44</f>
         <v>9662</v>
       </c>
-      <c r="D26" s="63"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="56"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="11"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="65"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="56"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="11" t="s">
+      <c r="D26" s="56"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="7"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B27" s="10"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="67"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="7"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B28" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="54">
+      <c r="D28" s="52">
         <v>44833</v>
       </c>
-      <c r="F28" s="57"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="56"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="12" t="s">
+      <c r="F28" s="53"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="7"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="72"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="56"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F30" s="57"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="56"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F31" s="57"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="56"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="59" t="s">
+      <c r="D29" s="65"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="7"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F30" s="53"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="7"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F31" s="53"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="7"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B32" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="61"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="56"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="11" t="s">
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="7"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B33" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="67">
+      <c r="C33" s="57">
         <f>C12/('Financial Model'!AD21*1000)</f>
         <v>26.920059874297088</v>
       </c>
-      <c r="D33" s="68"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="56"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="11" t="s">
+      <c r="D33" s="58"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="7"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B34" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="67">
+      <c r="C34" s="57">
         <f>C6/('Financial Model'!AD22*1000)</f>
         <v>27.514079474032453</v>
       </c>
-      <c r="D34" s="68"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="56"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="11" t="s">
+      <c r="D34" s="58"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="7"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B35" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="56"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="11" t="s">
+      <c r="C35" s="55"/>
+      <c r="D35" s="56"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="7"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B36" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="67">
+      <c r="C36" s="57">
         <f>C6/'Financial Model'!W70</f>
         <v>10.44139059537353</v>
       </c>
-      <c r="D36" s="68"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="56"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="11"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="63"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="56"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="11" t="s">
+      <c r="D36" s="58"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="7"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B37" s="10"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="56"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="7"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B38" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="67">
+      <c r="C38" s="57">
         <f>'Financial Model'!AC79/('Financial Model'!AC22*1000)</f>
         <v>37.504159682207103</v>
       </c>
-      <c r="D38" s="68"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="56"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="11" t="s">
+      <c r="D38" s="58"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="7"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B39" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="63"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="56"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="12" t="s">
+      <c r="C39" s="55"/>
+      <c r="D39" s="56"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="7"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B40" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="69"/>
-      <c r="D40" s="70"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="10"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="60"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F5:R5"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
@@ -2153,14 +2178,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F5:R5"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{6430964A-0169-5B4A-BCFC-F02355D9307D}"/>
@@ -2173,5216 +2190,5219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F137E7D-55F8-4ACC-BDF9-DCDC53EC521C}">
-  <dimension ref="A1:AO85"/>
+  <dimension ref="A1:AO87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="9.140625" style="1"/>
-    <col min="21" max="22" width="9.140625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="9.1640625" style="1"/>
+    <col min="18" max="18" width="9.1640625" style="1" customWidth="1"/>
+    <col min="19" max="20" width="9.1640625" style="1"/>
+    <col min="21" max="22" width="9.1640625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="1:41" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="W1" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="X1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AA1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AB1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AC1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AD1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AE1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AF1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AG1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AH1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AI1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AJ1" s="16" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="16" t="s">
+      <c r="AK1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AL1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AM1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AN1" s="16" t="s">
+      <c r="AN1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AO1" s="16" t="s">
+      <c r="AO1" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="G2" s="23">
+    <row r="2" spans="1:41" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="G2" s="22">
         <v>43343</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="22">
         <v>43434</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="22">
         <v>43524</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="22">
         <v>43616</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="22">
         <v>43708</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="22">
         <v>43799</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="22">
         <v>43890</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="22">
         <v>43982</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="22">
         <v>44074</v>
       </c>
-      <c r="P2" s="23">
+      <c r="P2" s="22">
         <v>44165</v>
       </c>
-      <c r="Q2" s="23">
+      <c r="Q2" s="22">
         <v>44255</v>
       </c>
-      <c r="R2" s="23">
+      <c r="R2" s="22">
         <v>44347</v>
       </c>
-      <c r="S2" s="23">
+      <c r="S2" s="22">
         <v>44439</v>
       </c>
-      <c r="T2" s="23">
+      <c r="T2" s="22">
         <v>44530</v>
       </c>
-      <c r="U2" s="23">
+      <c r="U2" s="22">
         <v>44620</v>
       </c>
-      <c r="V2" s="23">
+      <c r="V2" s="22">
         <v>44712</v>
       </c>
-      <c r="W2" s="23">
+      <c r="W2" s="22">
         <v>44804</v>
       </c>
-      <c r="AA2" s="23">
+      <c r="AA2" s="22">
         <v>43616</v>
       </c>
-      <c r="AB2" s="23">
+      <c r="AB2" s="22">
         <v>43982</v>
       </c>
-      <c r="AC2" s="23">
+      <c r="AC2" s="22">
         <v>44347</v>
       </c>
-      <c r="AD2" s="23">
+      <c r="AD2" s="22">
         <v>44712</v>
       </c>
     </row>
-    <row r="3" spans="1:41" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="1:41" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="28">
         <v>6.0359999999999996</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="28">
         <v>5.5650000000000004</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="28">
         <v>6.1219999999999999</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="28">
         <v>6.4989999999999997</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="28">
         <v>6.5209999999999999</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="28">
         <v>6.2060000000000004</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="28">
         <v>6.3769999999999998</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="28">
         <v>4.2009999999999996</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3" s="28">
         <v>6.7679999999999998</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="28">
         <v>6.8010000000000002</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="Q3" s="28">
         <v>6.5049999999999999</v>
       </c>
-      <c r="R3" s="29">
+      <c r="R3" s="28">
         <v>7.9470000000000001</v>
       </c>
-      <c r="S3" s="29">
+      <c r="S3" s="28">
         <v>7.718</v>
       </c>
-      <c r="T3" s="29">
+      <c r="T3" s="28">
         <v>6.78</v>
       </c>
-      <c r="U3" s="29">
+      <c r="U3" s="28">
         <v>6.66</v>
       </c>
-      <c r="V3" s="29">
+      <c r="V3" s="28">
         <v>7.9850000000000003</v>
       </c>
-      <c r="W3" s="29">
+      <c r="W3" s="28">
         <v>8.1140000000000008</v>
       </c>
-      <c r="AA3" s="29">
+      <c r="AA3" s="28">
         <f>SUM(G3:J3)</f>
         <v>24.221999999999998</v>
       </c>
-      <c r="AB3" s="29">
+      <c r="AB3" s="28">
         <f>SUM(K3:N3)</f>
         <v>23.305</v>
       </c>
-      <c r="AC3" s="29">
+      <c r="AC3" s="28">
         <f>SUM(O3:R3)</f>
         <v>28.020999999999997</v>
       </c>
-      <c r="AD3" s="29">
+      <c r="AD3" s="28">
         <f>SUM(S3:V3)</f>
         <v>29.143000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:41" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="31" t="s">
+    <row r="4" spans="1:41" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="28">
         <v>2.9489999999999998</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="28">
         <v>3.0489999999999999</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="28">
         <v>2.7069999999999999</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="28">
         <v>2.8450000000000002</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="28">
         <v>3.121</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="28">
         <v>3.2869999999999999</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="28">
         <v>2.9049999999999998</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4" s="28">
         <v>1.64</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4" s="28">
         <v>2.875</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="28">
         <v>3.585</v>
       </c>
-      <c r="Q4" s="29">
+      <c r="Q4" s="28">
         <v>2.9660000000000002</v>
       </c>
-      <c r="R4" s="29">
+      <c r="R4" s="28">
         <v>3.4390000000000001</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4" s="28">
         <v>3.45</v>
       </c>
-      <c r="T4" s="29">
+      <c r="T4" s="28">
         <v>3.6480000000000001</v>
       </c>
-      <c r="U4" s="29">
+      <c r="U4" s="28">
         <v>3.2320000000000002</v>
       </c>
-      <c r="V4" s="29">
+      <c r="V4" s="28">
         <v>3.2370000000000001</v>
       </c>
-      <c r="W4" s="29">
+      <c r="W4" s="28">
         <v>3.4340000000000002</v>
       </c>
-      <c r="AA4" s="29">
+      <c r="AA4" s="28">
         <f t="shared" ref="AA4:AA9" si="0">SUM(G4:J4)</f>
         <v>11.549999999999999</v>
       </c>
-      <c r="AB4" s="29">
+      <c r="AB4" s="28">
         <f t="shared" ref="AB4:AB5" si="1">SUM(K4:N4)</f>
         <v>10.952999999999999</v>
       </c>
-      <c r="AC4" s="29">
+      <c r="AC4" s="28">
         <f>SUM(O4:R4)</f>
         <v>12.865</v>
       </c>
-      <c r="AD4" s="29">
+      <c r="AD4" s="28">
         <f>SUM(S4:V4)</f>
         <v>13.567000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:41" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="31" t="s">
+    <row r="5" spans="1:41" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="28">
         <v>0.41599999999999998</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="28">
         <v>0.32300000000000001</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="28">
         <v>0.311</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="28">
         <v>0.35399999999999998</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="28">
         <v>0.44800000000000001</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="28">
         <v>0.34100000000000003</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="28">
         <v>0.32600000000000001</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="28">
         <v>0.16500000000000001</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="28">
         <v>0.371</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="28">
         <v>0.34699999999999998</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="Q5" s="28">
         <v>0.29599999999999999</v>
       </c>
-      <c r="R5" s="29">
+      <c r="R5" s="28">
         <v>0.36799999999999999</v>
       </c>
-      <c r="S5" s="29">
+      <c r="S5" s="28">
         <v>0.46500000000000002</v>
       </c>
-      <c r="T5" s="29">
+      <c r="T5" s="28">
         <v>0.38200000000000001</v>
       </c>
-      <c r="U5" s="29">
+      <c r="U5" s="28">
         <v>0.39</v>
       </c>
-      <c r="V5" s="29">
+      <c r="V5" s="28">
         <v>0.38700000000000001</v>
       </c>
-      <c r="W5" s="29">
+      <c r="W5" s="28">
         <v>0.48599999999999999</v>
       </c>
-      <c r="AA5" s="29">
+      <c r="AA5" s="28">
         <f t="shared" si="0"/>
         <v>1.4039999999999999</v>
       </c>
-      <c r="AB5" s="29">
+      <c r="AB5" s="28">
         <f t="shared" si="1"/>
         <v>1.28</v>
       </c>
-      <c r="AC5" s="29">
+      <c r="AC5" s="28">
         <f>SUM(O5:R5)</f>
         <v>1.3820000000000001</v>
       </c>
-      <c r="AD5" s="29">
+      <c r="AD5" s="28">
         <f>SUM(S5:V5)</f>
         <v>1.6240000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:41" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="1:41" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="28">
         <v>1.6E-2</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="28">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="28">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="28">
         <v>0.01</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="28">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="28">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="O6" s="29">
+      <c r="O6" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="28">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="Q6" s="28">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="R6" s="29">
+      <c r="R6" s="28">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="S6" s="29">
+      <c r="S6" s="28">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6" s="28">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6" s="28">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="V6" s="29">
+      <c r="V6" s="28">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="W6" s="29">
+      <c r="W6" s="28">
         <v>1.4E-2</v>
       </c>
-      <c r="AA6" s="29">
+      <c r="AA6" s="28">
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AB6" s="29">
+      <c r="AB6" s="28">
         <f>SUM(K6:N6)</f>
         <v>0.03</v>
       </c>
-      <c r="AC6" s="29">
+      <c r="AC6" s="28">
         <f>SUM(O6:R6)</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AD6" s="29">
+      <c r="AD6" s="28">
         <f>SUM(S6:V6)</f>
         <v>0.10200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:41" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="32" t="s">
+    <row r="7" spans="1:41" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="26">
         <f t="shared" ref="G7:W7" si="2">SUM(G3:G6)</f>
         <v>9.4169999999999998</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="26">
         <f t="shared" si="2"/>
         <v>8.9460000000000015</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="26">
         <f t="shared" si="2"/>
         <v>9.1479999999999997</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="26">
         <f t="shared" si="2"/>
         <v>9.706999999999999</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="26">
         <f t="shared" si="2"/>
         <v>10.096</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="26">
         <f t="shared" si="2"/>
         <v>9.8439999999999994</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="26">
         <f t="shared" si="2"/>
         <v>9.6159999999999997</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="26">
         <f t="shared" si="2"/>
         <v>6.0119999999999996</v>
       </c>
-      <c r="O7" s="27">
+      <c r="O7" s="26">
         <f t="shared" si="2"/>
         <v>10.018000000000001</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="26">
         <f t="shared" si="2"/>
         <v>10.740999999999998</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="Q7" s="26">
         <f t="shared" si="2"/>
         <v>9.7729999999999997</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="26">
         <f t="shared" si="2"/>
         <v>11.760999999999999</v>
       </c>
-      <c r="S7" s="27">
+      <c r="S7" s="26">
         <f t="shared" si="2"/>
         <v>11.639999999999999</v>
       </c>
-      <c r="T7" s="27">
+      <c r="T7" s="26">
         <f t="shared" si="2"/>
         <v>10.816000000000001</v>
       </c>
-      <c r="U7" s="27">
+      <c r="U7" s="26">
         <f t="shared" si="2"/>
         <v>10.323</v>
       </c>
-      <c r="V7" s="27">
+      <c r="V7" s="26">
         <f t="shared" si="2"/>
         <v>11.657000000000002</v>
       </c>
-      <c r="W7" s="27">
+      <c r="W7" s="26">
         <f t="shared" si="2"/>
         <v>12.048000000000002</v>
       </c>
-      <c r="AA7" s="27">
+      <c r="AA7" s="26">
         <f>SUM(AA3:AA6)</f>
         <v>37.218000000000004</v>
       </c>
-      <c r="AB7" s="27">
+      <c r="AB7" s="26">
         <f>SUM(AB3:AB6)</f>
         <v>35.567999999999998</v>
       </c>
-      <c r="AC7" s="27">
+      <c r="AC7" s="26">
         <f>SUM(AC3:AC6)</f>
         <v>42.292999999999992</v>
       </c>
-      <c r="AD7" s="27">
+      <c r="AD7" s="26">
         <f>SUM(AD3:AD6)</f>
         <v>44.436</v>
       </c>
     </row>
-    <row r="8" spans="1:41" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="32" t="s">
+    <row r="8" spans="1:41" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="26">
         <v>0.52700000000000002</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="26">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="26">
         <v>0.46300000000000002</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="26">
         <v>0.49099999999999999</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="26">
         <v>0.55500000000000005</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="26">
         <v>0.48</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="26">
         <v>0.50600000000000001</v>
       </c>
-      <c r="N8" s="48">
+      <c r="N8" s="46">
         <v>0.30499999999999999</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="26">
         <v>0.56299999999999994</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="26">
         <v>0.47599999999999998</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="26">
         <v>0.56999999999999995</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="26">
         <v>0.59599999999999997</v>
       </c>
-      <c r="S8" s="27">
+      <c r="S8" s="26">
         <v>0.629</v>
       </c>
-      <c r="T8" s="27">
+      <c r="T8" s="26">
         <v>0.55700000000000005</v>
       </c>
-      <c r="U8" s="27">
+      <c r="U8" s="26">
         <v>0.56699999999999995</v>
       </c>
-      <c r="V8" s="27">
+      <c r="V8" s="26">
         <v>0.59299999999999997</v>
       </c>
-      <c r="W8" s="27">
+      <c r="W8" s="26">
         <v>0.64300000000000002</v>
       </c>
-      <c r="AA8" s="29">
+      <c r="AA8" s="28">
         <f t="shared" si="0"/>
         <v>1.9060000000000001</v>
       </c>
-      <c r="AB8" s="29">
+      <c r="AB8" s="28">
         <f t="shared" ref="AB8:AB9" si="3">SUM(K8:N8)</f>
         <v>1.8460000000000001</v>
       </c>
-      <c r="AC8" s="29">
+      <c r="AC8" s="28">
         <f>SUM(O8:R8)</f>
         <v>2.2050000000000001</v>
       </c>
-      <c r="AD8" s="29">
+      <c r="AD8" s="28">
         <f t="shared" ref="AD8:AD14" si="4">SUM(S8:V8)</f>
         <v>2.3460000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:41" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="32" t="s">
+    <row r="9" spans="1:41" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="26">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="26">
         <v>0</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="26">
         <v>-1.4E-2</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="26">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="26">
         <v>2E-3</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="26">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="26">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="26">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="26">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="26">
         <v>1.4E-2</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="26">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="S9" s="27">
+      <c r="S9" s="26">
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="T9" s="27">
+      <c r="T9" s="26">
         <v>-1.6E-2</v>
       </c>
-      <c r="U9" s="27">
+      <c r="U9" s="26">
         <v>-1.9E-2</v>
       </c>
-      <c r="V9" s="27">
+      <c r="V9" s="26">
         <v>-1.6E-2</v>
       </c>
-      <c r="W9" s="27">
+      <c r="W9" s="26">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="AA9" s="29">
+      <c r="AA9" s="28">
         <f t="shared" si="0"/>
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="AB9" s="29">
+      <c r="AB9" s="28">
         <f t="shared" si="3"/>
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="AC9" s="29">
+      <c r="AC9" s="28">
         <f>SUM(O9:R9)</f>
         <v>0.04</v>
       </c>
-      <c r="AD9" s="29">
+      <c r="AD9" s="28">
         <f t="shared" si="4"/>
         <v>-7.2000000000000008E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="18">
         <f t="shared" ref="G10:W10" si="5">G7+G8+G9</f>
         <v>9.9479999999999986</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="18">
         <f t="shared" si="5"/>
         <v>9.3740000000000023</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="18">
         <f t="shared" si="5"/>
         <v>9.6109999999999989</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="18">
         <f t="shared" si="5"/>
         <v>10.183999999999999</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="18">
         <f t="shared" si="5"/>
         <v>10.66</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="18">
         <f t="shared" si="5"/>
         <v>10.326000000000001</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="18">
         <f t="shared" si="5"/>
         <v>10.103999999999999</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="18">
         <f t="shared" si="5"/>
         <v>6.3129999999999997</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="18">
         <f t="shared" si="5"/>
         <v>10.594000000000001</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="18">
         <f t="shared" si="5"/>
         <v>11.242999999999999</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="Q10" s="18">
         <f t="shared" si="5"/>
         <v>10.356999999999999</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10" s="18">
         <f t="shared" si="5"/>
         <v>12.343999999999999</v>
       </c>
-      <c r="S10" s="19">
+      <c r="S10" s="18">
         <f t="shared" si="5"/>
         <v>12.247999999999998</v>
       </c>
-      <c r="T10" s="19">
+      <c r="T10" s="18">
         <f t="shared" si="5"/>
         <v>11.357000000000001</v>
       </c>
-      <c r="U10" s="19">
+      <c r="U10" s="18">
         <f t="shared" si="5"/>
         <v>10.871</v>
       </c>
-      <c r="V10" s="19">
+      <c r="V10" s="18">
         <f t="shared" si="5"/>
         <v>12.234000000000002</v>
       </c>
-      <c r="W10" s="19">
+      <c r="W10" s="18">
         <f t="shared" si="5"/>
         <v>12.687000000000003</v>
       </c>
-      <c r="AA10" s="19">
+      <c r="AA10" s="18">
         <f>AA7+AA8+AA9</f>
         <v>39.117000000000004</v>
       </c>
-      <c r="AB10" s="19">
+      <c r="AB10" s="18">
         <f>AB7+AB8+AB9</f>
         <v>37.402999999999999</v>
       </c>
-      <c r="AC10" s="19">
+      <c r="AC10" s="18">
         <f>AC7+AC8+AC9</f>
         <v>44.53799999999999</v>
       </c>
-      <c r="AD10" s="19">
+      <c r="AD10" s="18">
         <f>AD7+AD8+AD9</f>
         <v>46.709999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <v>5.5510000000000002</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <v>5.2690000000000001</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <v>5.2720000000000002</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="19">
         <v>5.5510000000000002</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="19">
         <v>5.7889999999999997</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="19">
         <v>5.782</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="19">
         <v>5.6310000000000002</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="19">
         <v>3.96</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="19">
         <v>5.8529999999999998</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="19">
         <v>6.3959999999999999</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="19">
         <v>5.6379999999999999</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="19">
         <v>6.6890000000000001</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11" s="19">
         <v>6.5519999999999996</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11" s="19">
         <v>6.1440000000000001</v>
       </c>
-      <c r="U11" s="20">
+      <c r="U11" s="19">
         <v>5.8040000000000003</v>
       </c>
-      <c r="V11" s="20">
+      <c r="V11" s="19">
         <v>6.7309999999999999</v>
       </c>
-      <c r="W11" s="20">
+      <c r="W11" s="19">
         <v>7.0720000000000001</v>
       </c>
-      <c r="AA11" s="20">
+      <c r="AA11" s="19">
         <f>SUM(G11:J11)</f>
         <v>21.643000000000001</v>
       </c>
-      <c r="AB11" s="20">
+      <c r="AB11" s="19">
         <f>SUM(K11:N11)</f>
         <v>21.161999999999999</v>
       </c>
-      <c r="AC11" s="20">
+      <c r="AC11" s="19">
         <f>SUM(O11:R11)</f>
         <v>24.576000000000001</v>
       </c>
-      <c r="AD11" s="29">
+      <c r="AD11" s="28">
         <f t="shared" si="4"/>
         <v>25.231000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="18">
         <f t="shared" ref="G12:W12" si="6">G10-G11</f>
         <v>4.3969999999999985</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="18">
         <f t="shared" si="6"/>
         <v>4.1050000000000022</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="18">
         <f t="shared" si="6"/>
         <v>4.3389999999999986</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="18">
         <f t="shared" si="6"/>
         <v>4.6329999999999991</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="18">
         <f t="shared" si="6"/>
         <v>4.8710000000000004</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="18">
         <f t="shared" si="6"/>
         <v>4.5440000000000005</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="18">
         <f t="shared" si="6"/>
         <v>4.472999999999999</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12" s="18">
         <f t="shared" si="6"/>
         <v>2.3529999999999998</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O12" s="18">
         <f t="shared" si="6"/>
         <v>4.7410000000000014</v>
       </c>
-      <c r="P12" s="19">
+      <c r="P12" s="18">
         <f t="shared" si="6"/>
         <v>4.8469999999999986</v>
       </c>
-      <c r="Q12" s="19">
+      <c r="Q12" s="18">
         <f t="shared" si="6"/>
         <v>4.7189999999999994</v>
       </c>
-      <c r="R12" s="19">
+      <c r="R12" s="18">
         <f t="shared" si="6"/>
         <v>5.6549999999999994</v>
       </c>
-      <c r="S12" s="19">
+      <c r="S12" s="18">
         <f t="shared" si="6"/>
         <v>5.695999999999998</v>
       </c>
-      <c r="T12" s="19">
+      <c r="T12" s="18">
         <f t="shared" si="6"/>
         <v>5.213000000000001</v>
       </c>
-      <c r="U12" s="19">
+      <c r="U12" s="18">
         <f t="shared" si="6"/>
         <v>5.0670000000000002</v>
       </c>
-      <c r="V12" s="19">
+      <c r="V12" s="18">
         <f t="shared" si="6"/>
         <v>5.5030000000000019</v>
       </c>
-      <c r="W12" s="19">
+      <c r="W12" s="18">
         <f t="shared" si="6"/>
         <v>5.6150000000000029</v>
       </c>
-      <c r="AA12" s="19">
+      <c r="AA12" s="18">
         <f>AA10-AA11</f>
         <v>17.474000000000004</v>
       </c>
-      <c r="AB12" s="19">
+      <c r="AB12" s="18">
         <f>AB10-AB11</f>
         <v>16.241</v>
       </c>
-      <c r="AC12" s="19">
+      <c r="AC12" s="18">
         <f>AC10-AC11</f>
         <v>19.961999999999989</v>
       </c>
-      <c r="AD12" s="19">
+      <c r="AD12" s="18">
         <f>AD10-AD11</f>
         <v>21.478999999999992</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="19">
         <v>0.96399999999999997</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <v>0.91</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <v>0.86499999999999999</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="19">
         <v>1.014</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="19">
         <v>1.018</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="19">
         <v>0.88100000000000001</v>
       </c>
       <c r="M13" s="1">
         <v>0.87</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="19">
         <v>0.82299999999999995</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="19">
         <v>0.67700000000000005</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13" s="19">
         <v>0.72899999999999998</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13" s="19">
         <v>0.71099999999999997</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="19">
         <v>0.997</v>
       </c>
-      <c r="S13" s="20">
+      <c r="S13" s="19">
         <v>0.91800000000000004</v>
       </c>
-      <c r="T13" s="20">
+      <c r="T13" s="19">
         <v>1.0169999999999999</v>
       </c>
-      <c r="U13" s="20">
+      <c r="U13" s="19">
         <v>0.85399999999999998</v>
       </c>
-      <c r="V13" s="20">
+      <c r="V13" s="19">
         <v>1.0609999999999999</v>
       </c>
-      <c r="W13" s="20">
+      <c r="W13" s="19">
         <v>0.94299999999999995</v>
       </c>
-      <c r="AA13" s="20">
+      <c r="AA13" s="19">
         <f t="shared" ref="AA13:AA15" si="7">SUM(G13:J13)</f>
         <v>3.7530000000000001</v>
       </c>
-      <c r="AB13" s="20">
+      <c r="AB13" s="19">
         <f t="shared" ref="AB13:AB14" si="8">SUM(K13:N13)</f>
         <v>3.5920000000000001</v>
       </c>
-      <c r="AC13" s="20">
+      <c r="AC13" s="19">
         <f>SUM(O13:R13)</f>
         <v>3.1139999999999999</v>
       </c>
-      <c r="AD13" s="29">
+      <c r="AD13" s="28">
         <f t="shared" si="4"/>
         <v>3.85</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <v>2.0990000000000002</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>2.2320000000000002</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <v>2.226</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="19">
         <v>2.3919999999999999</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="19">
         <v>2.31</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="19">
         <v>2.4430000000000001</v>
       </c>
       <c r="M14" s="1">
         <v>2.4129999999999998</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="19">
         <v>2.3679999999999999</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="19">
         <v>2.298</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="19">
         <v>2.5379999999999998</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="19">
         <v>2.33</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="19">
         <v>2.7450000000000001</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="19">
         <v>2.6539999999999999</v>
       </c>
-      <c r="T14" s="20">
+      <c r="T14" s="19">
         <v>2.742</v>
       </c>
-      <c r="U14" s="20">
+      <c r="U14" s="19">
         <v>2.5840000000000001</v>
       </c>
-      <c r="V14" s="20">
+      <c r="V14" s="19">
         <v>2.9740000000000002</v>
       </c>
-      <c r="W14" s="20">
+      <c r="W14" s="19">
         <v>2.9769999999999999</v>
       </c>
-      <c r="AA14" s="20">
+      <c r="AA14" s="19">
         <f t="shared" si="7"/>
         <v>8.9489999999999998</v>
       </c>
-      <c r="AB14" s="20">
+      <c r="AB14" s="19">
         <f t="shared" si="8"/>
         <v>9.5340000000000007</v>
       </c>
-      <c r="AC14" s="20">
+      <c r="AC14" s="19">
         <f>SUM(O14:R14)</f>
         <v>9.9110000000000014</v>
       </c>
-      <c r="AD14" s="29">
+      <c r="AD14" s="28">
         <f t="shared" si="4"/>
         <v>10.954000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="19">
         <f t="shared" ref="G15:H15" si="9">G13+G14</f>
         <v>3.0630000000000002</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <f t="shared" si="9"/>
         <v>3.1420000000000003</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <f t="shared" ref="I15:W15" si="10">I13+I14</f>
         <v>3.0910000000000002</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="19">
         <f t="shared" si="10"/>
         <v>3.4059999999999997</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="19">
         <f t="shared" si="10"/>
         <v>3.3280000000000003</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="19">
         <f t="shared" si="10"/>
         <v>3.3239999999999998</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="19">
         <f t="shared" si="10"/>
         <v>3.2829999999999999</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="19">
         <f t="shared" si="10"/>
         <v>3.1909999999999998</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15" s="19">
         <f t="shared" si="10"/>
         <v>2.9750000000000001</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P15" s="19">
         <f t="shared" si="10"/>
         <v>3.2669999999999999</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15" s="19">
         <f t="shared" si="10"/>
         <v>3.0409999999999999</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15" s="19">
         <f t="shared" si="10"/>
         <v>3.742</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15" s="19">
         <f t="shared" si="10"/>
         <v>3.5720000000000001</v>
       </c>
-      <c r="T15" s="20">
+      <c r="T15" s="19">
         <f t="shared" si="10"/>
         <v>3.7589999999999999</v>
       </c>
-      <c r="U15" s="20">
+      <c r="U15" s="19">
         <f t="shared" si="10"/>
         <v>3.4380000000000002</v>
       </c>
-      <c r="V15" s="20">
+      <c r="V15" s="19">
         <f t="shared" si="10"/>
         <v>4.0350000000000001</v>
       </c>
-      <c r="W15" s="20">
+      <c r="W15" s="19">
         <f t="shared" si="10"/>
         <v>3.92</v>
       </c>
-      <c r="AA15" s="20">
+      <c r="AA15" s="19">
         <f t="shared" si="7"/>
         <v>12.701999999999998</v>
       </c>
-      <c r="AB15" s="20">
+      <c r="AB15" s="19">
         <f>AB13+AB14</f>
         <v>13.126000000000001</v>
       </c>
-      <c r="AC15" s="20">
+      <c r="AC15" s="19">
         <f>AC13+AC14</f>
         <v>13.025000000000002</v>
       </c>
-      <c r="AD15" s="20">
+      <c r="AD15" s="19">
         <f>AD13+AD14</f>
         <v>14.804</v>
       </c>
     </row>
-    <row r="16" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="18">
         <f t="shared" ref="G16:H16" si="11">G12-G15</f>
         <v>1.3339999999999983</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="18">
         <f t="shared" si="11"/>
         <v>0.96300000000000185</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="18">
         <f t="shared" ref="I16:W16" si="12">I12-I15</f>
         <v>1.2479999999999984</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="18">
         <f t="shared" si="12"/>
         <v>1.2269999999999994</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="18">
         <f t="shared" si="12"/>
         <v>1.5430000000000001</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="18">
         <f t="shared" si="12"/>
         <v>1.2200000000000006</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="18">
         <f t="shared" si="12"/>
         <v>1.1899999999999991</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N16" s="18">
         <f t="shared" si="12"/>
         <v>-0.83800000000000008</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="18">
         <f t="shared" si="12"/>
         <v>1.7660000000000013</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16" s="18">
         <f t="shared" si="12"/>
         <v>1.5799999999999987</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="Q16" s="18">
         <f t="shared" si="12"/>
         <v>1.6779999999999995</v>
       </c>
-      <c r="R16" s="19">
+      <c r="R16" s="18">
         <f t="shared" si="12"/>
         <v>1.9129999999999994</v>
       </c>
-      <c r="S16" s="19">
+      <c r="S16" s="18">
         <f t="shared" si="12"/>
         <v>2.1239999999999979</v>
       </c>
-      <c r="T16" s="19">
+      <c r="T16" s="18">
         <f t="shared" si="12"/>
         <v>1.4540000000000011</v>
       </c>
-      <c r="U16" s="19">
+      <c r="U16" s="18">
         <f t="shared" si="12"/>
         <v>1.629</v>
       </c>
-      <c r="V16" s="19">
+      <c r="V16" s="18">
         <f t="shared" si="12"/>
         <v>1.4680000000000017</v>
       </c>
-      <c r="W16" s="19">
+      <c r="W16" s="18">
         <f t="shared" si="12"/>
         <v>1.6950000000000029</v>
       </c>
-      <c r="AA16" s="19">
+      <c r="AA16" s="18">
         <f>AA13+AA14+AA15</f>
         <v>25.403999999999996</v>
       </c>
-      <c r="AB16" s="19">
+      <c r="AB16" s="18">
         <f>AB12-AB15</f>
         <v>3.1149999999999984</v>
       </c>
-      <c r="AC16" s="19">
+      <c r="AC16" s="18">
         <f>AC12-AC15</f>
         <v>6.936999999999987</v>
       </c>
-      <c r="AD16" s="19">
+      <c r="AD16" s="18">
         <f>AD12-AD15</f>
         <v>6.6749999999999918</v>
       </c>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <v>1.4E-2</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <v>1.2E-2</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="19">
         <v>1.2E-2</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="19">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="19">
         <v>1.2E-2</v>
       </c>
       <c r="M17" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17" s="19">
         <v>0.05</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="19">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="P17" s="20">
+      <c r="P17" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17" s="19">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="19">
         <v>6.3E-2</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17" s="19">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="T17" s="20">
+      <c r="T17" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="U17" s="41">
+      <c r="U17" s="39">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="V17" s="20">
+      <c r="V17" s="19">
         <v>0.04</v>
       </c>
-      <c r="W17" s="20">
+      <c r="W17" s="19">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AA17" s="20">
+      <c r="AA17" s="19">
         <f t="shared" ref="AA17:AA18" si="13">SUM(G17:J17)</f>
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="AB17" s="20">
+      <c r="AB17" s="19">
         <f t="shared" ref="AB17:AB18" si="14">SUM(K17:N17)</f>
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="AC17" s="20">
+      <c r="AC17" s="19">
         <f>SUM(O17:R17)</f>
         <v>0.26200000000000001</v>
       </c>
-      <c r="AD17" s="29">
+      <c r="AD17" s="28">
         <f t="shared" ref="AD17:AD18" si="15">SUM(S17:V17)</f>
         <v>0.20500000000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="19">
         <v>-4.8000000000000001E-2</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="19">
         <v>-5.5E-2</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="19">
         <v>-2.8000000000000001E-2</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="19">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="19">
         <v>-4.1000000000000002E-2</v>
       </c>
       <c r="M18" s="1">
         <v>0.29699999999999999</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="19">
         <v>-8.4000000000000005E-2</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="19">
         <v>-1.4E-2</v>
       </c>
-      <c r="P18" s="20">
+      <c r="P18" s="19">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18" s="19">
         <v>-2.1999999999999999E-2</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18" s="19">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S18" s="19">
         <v>-3.9E-2</v>
       </c>
-      <c r="T18" s="20">
+      <c r="T18" s="19">
         <v>-0.10199999999999999</v>
       </c>
-      <c r="U18" s="41">
+      <c r="U18" s="39">
         <v>-9.4E-2</v>
       </c>
-      <c r="V18" s="20">
+      <c r="V18" s="19">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="W18" s="20">
+      <c r="W18" s="19">
         <v>-0.14599999999999999</v>
       </c>
-      <c r="AA18" s="20">
+      <c r="AA18" s="19">
         <f t="shared" si="13"/>
         <v>-7.8E-2</v>
       </c>
-      <c r="AB18" s="20">
+      <c r="AB18" s="19">
         <f t="shared" si="14"/>
         <v>0.13899999999999996</v>
       </c>
-      <c r="AC18" s="20">
+      <c r="AC18" s="19">
         <f>SUM(O18:R18)</f>
         <v>1.4000000000000002E-2</v>
       </c>
-      <c r="AD18" s="29">
+      <c r="AD18" s="28">
         <f t="shared" si="15"/>
         <v>-0.18099999999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="19">
         <f t="shared" ref="G19:W19" si="16">G16-G17-G18</f>
         <v>1.2699999999999985</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <f t="shared" si="16"/>
         <v>0.99700000000000188</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="19">
         <f t="shared" si="16"/>
         <v>1.2909999999999984</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="19">
         <f t="shared" si="16"/>
         <v>1.2429999999999994</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="19">
         <f t="shared" si="16"/>
         <v>1.5610000000000002</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="19">
         <f t="shared" si="16"/>
         <v>1.2490000000000006</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="19">
         <f t="shared" si="16"/>
         <v>0.88099999999999912</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="19">
         <f t="shared" si="16"/>
         <v>-0.80400000000000016</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="19">
         <f t="shared" si="16"/>
         <v>1.7150000000000014</v>
       </c>
-      <c r="P19" s="20">
+      <c r="P19" s="19">
         <f t="shared" si="16"/>
         <v>1.4559999999999986</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="Q19" s="19">
         <f t="shared" si="16"/>
         <v>1.6359999999999995</v>
       </c>
-      <c r="R19" s="20">
+      <c r="R19" s="19">
         <f t="shared" si="16"/>
         <v>1.8539999999999994</v>
       </c>
-      <c r="S19" s="20">
+      <c r="S19" s="19">
         <f t="shared" si="16"/>
         <v>2.1059999999999981</v>
       </c>
-      <c r="T19" s="20">
+      <c r="T19" s="19">
         <f t="shared" si="16"/>
         <v>1.5010000000000012</v>
       </c>
-      <c r="U19" s="20">
+      <c r="U19" s="19">
         <f t="shared" si="16"/>
         <v>1.6700000000000002</v>
       </c>
-      <c r="V19" s="20">
+      <c r="V19" s="19">
         <f t="shared" si="16"/>
         <v>1.3740000000000017</v>
       </c>
-      <c r="W19" s="20">
+      <c r="W19" s="19">
         <f t="shared" si="16"/>
         <v>1.828000000000003</v>
       </c>
-      <c r="AA19" s="20">
+      <c r="AA19" s="19">
         <f>SUM(G19:J19)</f>
         <v>4.8009999999999984</v>
       </c>
-      <c r="AB19" s="20">
+      <c r="AB19" s="19">
         <f>SUM(N19:Q19)</f>
         <v>4.0029999999999992</v>
       </c>
-      <c r="AC19" s="20">
+      <c r="AC19" s="19">
         <f>SUM(O19:R19)</f>
         <v>6.6609999999999987</v>
       </c>
-      <c r="AD19" s="20">
+      <c r="AD19" s="19">
         <f>AD16-AD17-AD18</f>
         <v>6.6509999999999918</v>
       </c>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="19">
         <v>0.17799999999999999</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="19">
         <v>0.15</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="19">
         <v>0.19</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="19">
         <v>0.254</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="19">
         <v>0.19400000000000001</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="19">
         <v>0.13400000000000001</v>
       </c>
       <c r="M20" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="19">
         <v>-1.4E-2</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="19">
         <v>0.19700000000000001</v>
       </c>
-      <c r="P20" s="20">
+      <c r="P20" s="19">
         <v>0.20499999999999999</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="Q20" s="19">
         <v>0.187</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="19">
         <v>0.34499999999999997</v>
       </c>
-      <c r="S20" s="20">
+      <c r="S20" s="19">
         <v>0.23200000000000001</v>
       </c>
-      <c r="T20" s="20">
+      <c r="T20" s="19">
         <v>0.16400000000000001</v>
       </c>
       <c r="U20" s="1">
         <v>0.27400000000000002</v>
       </c>
-      <c r="V20" s="20">
+      <c r="V20" s="19">
         <v>-6.5000000000000002E-2</v>
       </c>
-      <c r="W20" s="20">
+      <c r="W20" s="19">
         <v>0.36</v>
       </c>
-      <c r="AA20" s="20">
+      <c r="AA20" s="19">
         <f t="shared" ref="AA20" si="17">SUM(G20:J20)</f>
         <v>0.77200000000000002</v>
       </c>
-      <c r="AB20" s="20">
+      <c r="AB20" s="19">
         <f>SUM(K20:N20)</f>
         <v>0.34799999999999998</v>
       </c>
-      <c r="AC20" s="20">
+      <c r="AC20" s="19">
         <f>SUM(O20:R20)</f>
         <v>0.93399999999999994</v>
       </c>
-      <c r="AD20" s="29">
+      <c r="AD20" s="28">
         <f t="shared" ref="AD20" si="18">SUM(S20:V20)</f>
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="18">
         <f t="shared" ref="G21:W21" si="19">G19-G20</f>
         <v>1.0919999999999985</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="18">
         <f t="shared" si="19"/>
         <v>0.84700000000000186</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="18">
         <f t="shared" si="19"/>
         <v>1.1009999999999984</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="18">
         <f t="shared" si="19"/>
         <v>0.98899999999999944</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="18">
         <f t="shared" si="19"/>
         <v>1.3670000000000002</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="18">
         <f t="shared" si="19"/>
         <v>1.1150000000000007</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M21" s="18">
         <f t="shared" si="19"/>
         <v>0.84699999999999909</v>
       </c>
-      <c r="N21" s="19">
+      <c r="N21" s="18">
         <f t="shared" si="19"/>
         <v>-0.79000000000000015</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O21" s="18">
         <f t="shared" si="19"/>
         <v>1.5180000000000013</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P21" s="18">
         <f t="shared" si="19"/>
         <v>1.2509999999999986</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="Q21" s="18">
         <f t="shared" si="19"/>
         <v>1.4489999999999994</v>
       </c>
-      <c r="R21" s="19">
+      <c r="R21" s="18">
         <f t="shared" si="19"/>
         <v>1.5089999999999995</v>
       </c>
-      <c r="S21" s="19">
+      <c r="S21" s="18">
         <f t="shared" si="19"/>
         <v>1.8739999999999981</v>
       </c>
-      <c r="T21" s="19">
+      <c r="T21" s="18">
         <f t="shared" si="19"/>
         <v>1.3370000000000013</v>
       </c>
-      <c r="U21" s="19">
+      <c r="U21" s="18">
         <f t="shared" si="19"/>
         <v>1.3960000000000001</v>
       </c>
-      <c r="V21" s="19">
+      <c r="V21" s="18">
         <f t="shared" si="19"/>
         <v>1.4390000000000016</v>
       </c>
-      <c r="W21" s="19">
+      <c r="W21" s="18">
         <f t="shared" si="19"/>
         <v>1.4680000000000031</v>
       </c>
-      <c r="AA21" s="19">
+      <c r="AA21" s="18">
         <f>AA18+AA19+AA20</f>
         <v>5.4949999999999983</v>
       </c>
-      <c r="AB21" s="19">
+      <c r="AB21" s="18">
         <f>SUM(K21:N21)</f>
         <v>2.5390000000000001</v>
       </c>
-      <c r="AC21" s="19">
+      <c r="AC21" s="18">
         <f>AC19-AC20</f>
         <v>5.7269999999999985</v>
       </c>
-      <c r="AD21" s="19">
+      <c r="AD21" s="18">
         <f>AD19-AD20</f>
         <v>6.0459999999999923</v>
       </c>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="43">
         <f t="shared" ref="G22:W22" si="20">G21/G23</f>
         <v>6.8506900878293506E-4</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="43">
         <f t="shared" si="20"/>
         <v>5.3560136587833677E-4</v>
       </c>
-      <c r="I22" s="45">
+      <c r="I22" s="43">
         <f t="shared" si="20"/>
         <v>7.0002543234994811E-4</v>
       </c>
-      <c r="J22" s="45">
+      <c r="J22" s="43">
         <f t="shared" si="20"/>
         <v>6.2985606929053591E-4</v>
       </c>
-      <c r="K22" s="45">
+      <c r="K22" s="43">
         <f t="shared" si="20"/>
         <v>8.7493599590373792E-4</v>
       </c>
-      <c r="L22" s="45">
+      <c r="L22" s="43">
         <f t="shared" si="20"/>
         <v>7.1446879405356965E-4</v>
       </c>
-      <c r="M22" s="45">
+      <c r="M22" s="43">
         <f t="shared" si="20"/>
         <v>5.4423954250465791E-4</v>
       </c>
-      <c r="N22" s="45">
+      <c r="N22" s="43">
         <f t="shared" si="20"/>
         <v>-5.0780998907244332E-4</v>
       </c>
-      <c r="O22" s="45">
+      <c r="O22" s="43">
         <f t="shared" si="20"/>
         <v>9.719554360353447E-4</v>
       </c>
-      <c r="P22" s="45">
+      <c r="P22" s="43">
         <f t="shared" si="20"/>
         <v>7.9529561347743076E-4</v>
       </c>
-      <c r="Q22" s="45">
+      <c r="Q22" s="43">
         <f t="shared" si="20"/>
         <v>9.1825095057034185E-4</v>
       </c>
-      <c r="R22" s="45">
+      <c r="R22" s="43">
         <f t="shared" si="20"/>
         <v>9.5566814439518647E-4</v>
       </c>
-      <c r="S22" s="45">
+      <c r="S22" s="43">
         <f t="shared" si="20"/>
         <v>1.1846513686073696E-3</v>
       </c>
-      <c r="T22" s="45">
+      <c r="T22" s="43">
         <f t="shared" si="20"/>
         <v>8.4673844205193248E-4</v>
       </c>
-      <c r="U22" s="45">
+      <c r="U22" s="43">
         <f t="shared" si="20"/>
         <v>8.8410386320455993E-4</v>
       </c>
-      <c r="V22" s="45">
+      <c r="V22" s="43">
         <f t="shared" si="20"/>
         <v>9.1539440203562445E-4</v>
       </c>
-      <c r="W22" s="45">
+      <c r="W22" s="43">
         <f t="shared" si="20"/>
         <v>9.3676217216514786E-4</v>
       </c>
-      <c r="AA22" s="45">
+      <c r="AA22" s="43">
         <f>AA21/AA23</f>
         <v>3.4787287920992646E-3</v>
       </c>
-      <c r="AB22" s="45">
+      <c r="AB22" s="43">
         <f>AB21/AB23</f>
         <v>1.6288692862870891E-3</v>
       </c>
-      <c r="AC22" s="45">
+      <c r="AC22" s="43">
         <f>AC21/AC23</f>
         <v>3.6409294637464625E-3</v>
       </c>
-      <c r="AD22" s="45">
+      <c r="AD22" s="43">
         <f>AD21/AD23</f>
         <v>3.831492894374114E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="19">
         <v>1594</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="19">
         <v>1581.4</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="19">
         <v>1572.8</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="19">
         <v>1570.2</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="19">
         <v>1562.4</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="19">
         <v>1560.6</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23" s="19">
         <v>1556.3</v>
       </c>
-      <c r="N23" s="20">
+      <c r="N23" s="19">
         <v>1555.7</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O23" s="19">
         <v>1561.8</v>
       </c>
-      <c r="P23" s="20">
+      <c r="P23" s="19">
         <v>1573</v>
       </c>
-      <c r="Q23" s="20">
+      <c r="Q23" s="19">
         <v>1578</v>
       </c>
-      <c r="R23" s="20">
+      <c r="R23" s="19">
         <v>1579</v>
       </c>
-      <c r="S23" s="20">
+      <c r="S23" s="19">
         <v>1581.9</v>
       </c>
-      <c r="T23" s="20">
+      <c r="T23" s="19">
         <v>1579</v>
       </c>
-      <c r="U23" s="20">
+      <c r="U23" s="19">
         <v>1579</v>
       </c>
-      <c r="V23" s="20">
+      <c r="V23" s="19">
         <v>1572</v>
       </c>
-      <c r="W23" s="20">
+      <c r="W23" s="19">
         <v>1567.1</v>
       </c>
-      <c r="AA23" s="20">
+      <c r="AA23" s="19">
         <f>AVERAGE(G23:J23)</f>
         <v>1579.6</v>
       </c>
-      <c r="AB23" s="20">
+      <c r="AB23" s="19">
         <f>AVERAGE(K23:N23)</f>
         <v>1558.75</v>
       </c>
-      <c r="AC23" s="20">
+      <c r="AC23" s="19">
         <f>AVERAGE(O23:R23)</f>
         <v>1572.95</v>
       </c>
-      <c r="AD23" s="20">
+      <c r="AD23" s="19">
         <f>AVERAGE(S23:V23)</f>
         <v>1577.9749999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="H25" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="20">
         <f t="shared" ref="K25" si="21">K10/G10-1</f>
         <v>7.1572175311620523E-2</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L25" s="20">
         <f t="shared" ref="L25:N25" si="22">L10/H10-1</f>
         <v>0.10155749946660952</v>
       </c>
-      <c r="M25" s="21">
+      <c r="M25" s="20">
         <f t="shared" si="22"/>
         <v>5.1295390698158361E-2</v>
       </c>
-      <c r="N25" s="21">
+      <c r="N25" s="20">
         <f t="shared" si="22"/>
         <v>-0.38010604870384912</v>
       </c>
-      <c r="O25" s="21">
+      <c r="O25" s="20">
         <f t="shared" ref="O25" si="23">O10/K10-1</f>
         <v>-6.1913696060036383E-3</v>
       </c>
-      <c r="P25" s="21">
+      <c r="P25" s="20">
         <f t="shared" ref="P25:Q25" si="24">P10/L10-1</f>
         <v>8.8804958357543873E-2</v>
       </c>
-      <c r="Q25" s="21">
+      <c r="Q25" s="20">
         <f t="shared" si="24"/>
         <v>2.5039588281868586E-2</v>
       </c>
-      <c r="R25" s="21">
+      <c r="R25" s="20">
         <f t="shared" ref="R25:S25" si="25">R10/N10-1</f>
         <v>0.95533027086963407</v>
       </c>
-      <c r="S25" s="21">
+      <c r="S25" s="20">
         <f t="shared" si="25"/>
         <v>0.15612610911836855</v>
       </c>
-      <c r="T25" s="21">
+      <c r="T25" s="20">
         <f>T10/P10-1</f>
         <v>1.0139642444187746E-2</v>
       </c>
-      <c r="U25" s="21">
+      <c r="U25" s="20">
         <f>U10/Q10-1</f>
         <v>4.9628270734768831E-2</v>
       </c>
-      <c r="V25" s="21">
+      <c r="V25" s="20">
         <f>V10/R10-1</f>
         <v>-8.9112119248215826E-3</v>
       </c>
-      <c r="W25" s="21">
+      <c r="W25" s="20">
         <f t="shared" ref="W25" si="26">W10/S10-1</f>
         <v>3.5842586544742483E-2</v>
       </c>
-      <c r="Z25" s="17" t="s">
+      <c r="Z25" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AA25" s="17" t="s">
+      <c r="AA25" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AB25" s="21">
+      <c r="AB25" s="20">
         <f t="shared" ref="AB25" si="27">AB10/AA10-1</f>
         <v>-4.3817266150267264E-2</v>
       </c>
-      <c r="AC25" s="21">
+      <c r="AC25" s="20">
         <f t="shared" ref="AC25" si="28">AC10/AB10-1</f>
         <v>0.19076009945726247</v>
       </c>
-      <c r="AD25" s="21">
+      <c r="AD25" s="20">
         <f>AD10/AC10-1</f>
         <v>4.8767344739323759E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="28" t="s">
+    <row r="26" spans="2:30" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="H26" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I26" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26" s="33">
         <f t="shared" ref="K26:K28" si="29">K3/G3-1</f>
         <v>8.0351225977468577E-2</v>
       </c>
-      <c r="L26" s="34">
+      <c r="L26" s="33">
         <f t="shared" ref="L26:N28" si="30">L3/H3-1</f>
         <v>0.11518418688230003</v>
       </c>
-      <c r="M26" s="34">
+      <c r="M26" s="33">
         <f t="shared" si="30"/>
         <v>4.1653054557334146E-2</v>
       </c>
-      <c r="N26" s="34">
+      <c r="N26" s="33">
         <f t="shared" si="30"/>
         <v>-0.35359286044006777</v>
       </c>
-      <c r="O26" s="34">
+      <c r="O26" s="33">
         <f t="shared" ref="O26:O28" si="31">O3/K3-1</f>
         <v>3.7877626130961461E-2</v>
       </c>
-      <c r="P26" s="34">
+      <c r="P26" s="33">
         <f t="shared" ref="P26:Q28" si="32">P3/L3-1</f>
         <v>9.5874959716403474E-2</v>
       </c>
-      <c r="Q26" s="34">
+      <c r="Q26" s="33">
         <f t="shared" si="32"/>
         <v>2.0072134232397731E-2</v>
       </c>
-      <c r="R26" s="34">
+      <c r="R26" s="33">
         <f t="shared" ref="R26:S28" si="33">R3/N3-1</f>
         <v>0.89169245417757703</v>
       </c>
-      <c r="S26" s="34">
+      <c r="S26" s="33">
         <f t="shared" si="33"/>
         <v>0.14036643026004736</v>
       </c>
-      <c r="T26" s="34">
+      <c r="T26" s="33">
         <f>T3/P3-1</f>
         <v>-3.0877812086457235E-3</v>
       </c>
-      <c r="U26" s="34">
+      <c r="U26" s="33">
         <f>U3/Q3-1</f>
         <v>2.3827824750192184E-2</v>
       </c>
-      <c r="V26" s="34">
+      <c r="V26" s="33">
         <f>V3/R3-1</f>
         <v>4.7816786208632056E-3</v>
       </c>
-      <c r="W26" s="34">
+      <c r="W26" s="33">
         <f t="shared" ref="W26:W28" si="34">W3/S3-1</f>
         <v>5.1308629178543841E-2</v>
       </c>
-      <c r="Z26" s="17" t="s">
+      <c r="Z26" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AA26" s="17" t="s">
+      <c r="AA26" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AB26" s="34">
+      <c r="AB26" s="33">
         <f t="shared" ref="AB26" si="35">AB3/AA3-1</f>
         <v>-3.7858145487573158E-2</v>
       </c>
-      <c r="AC26" s="34">
+      <c r="AC26" s="33">
         <f t="shared" ref="AC26" si="36">AC3/AB3-1</f>
         <v>0.20236000858184933</v>
       </c>
-      <c r="AD26" s="34">
+      <c r="AD26" s="33">
         <f>AD3/AC3-1</f>
         <v>4.0041397523286282E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="28" t="s">
+    <row r="27" spans="2:30" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="33">
         <f t="shared" si="29"/>
         <v>5.8324855883350235E-2</v>
       </c>
-      <c r="L27" s="34">
+      <c r="L27" s="33">
         <f t="shared" si="30"/>
         <v>7.8058379796654531E-2</v>
       </c>
-      <c r="M27" s="34">
+      <c r="M27" s="33">
         <f t="shared" si="30"/>
         <v>7.3143701514591708E-2</v>
       </c>
-      <c r="N27" s="34">
+      <c r="N27" s="33">
         <f t="shared" si="30"/>
         <v>-0.42355008787346227</v>
       </c>
-      <c r="O27" s="34">
+      <c r="O27" s="33">
         <f t="shared" si="31"/>
         <v>-7.882089074014742E-2</v>
       </c>
-      <c r="P27" s="34">
+      <c r="P27" s="33">
         <f t="shared" si="32"/>
         <v>9.066017645269242E-2</v>
       </c>
-      <c r="Q27" s="34">
+      <c r="Q27" s="33">
         <f t="shared" si="32"/>
         <v>2.0998278829604367E-2</v>
       </c>
-      <c r="R27" s="34">
+      <c r="R27" s="33">
         <f t="shared" si="33"/>
         <v>1.0969512195121953</v>
       </c>
-      <c r="S27" s="34">
+      <c r="S27" s="33">
         <f t="shared" si="33"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="T27" s="34">
+      <c r="T27" s="33">
         <f t="shared" ref="T27:V28" si="37">T4/P4-1</f>
         <v>1.7573221757322122E-2</v>
       </c>
-      <c r="U27" s="34">
+      <c r="U27" s="33">
         <f t="shared" si="37"/>
         <v>8.968307484828042E-2</v>
       </c>
-      <c r="V27" s="34">
+      <c r="V27" s="33">
         <f t="shared" si="37"/>
         <v>-5.8738005234079682E-2</v>
       </c>
-      <c r="W27" s="34">
+      <c r="W27" s="33">
         <f t="shared" si="34"/>
         <v>-4.6376811594203149E-3</v>
       </c>
-      <c r="Z27" s="17" t="s">
+      <c r="Z27" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AA27" s="17" t="s">
+      <c r="AA27" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AB27" s="34">
+      <c r="AB27" s="33">
         <f t="shared" ref="AB27" si="38">AB4/AA4-1</f>
         <v>-5.1688311688311672E-2</v>
       </c>
-      <c r="AC27" s="34">
+      <c r="AC27" s="33">
         <f t="shared" ref="AC27" si="39">AC4/AB4-1</f>
         <v>0.17456404637998735</v>
       </c>
-      <c r="AD27" s="34">
+      <c r="AD27" s="33">
         <f>AD4/AC4-1</f>
         <v>5.4566653711620727E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="28" t="s">
+    <row r="28" spans="2:30" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="33">
         <f t="shared" si="29"/>
         <v>7.6923076923077094E-2</v>
       </c>
-      <c r="L28" s="34">
+      <c r="L28" s="33">
         <f t="shared" si="30"/>
         <v>5.5727554179566541E-2</v>
       </c>
-      <c r="M28" s="34">
+      <c r="M28" s="33">
         <f t="shared" si="30"/>
         <v>4.8231511254019255E-2</v>
       </c>
-      <c r="N28" s="34">
+      <c r="N28" s="33">
         <f t="shared" si="30"/>
         <v>-0.53389830508474567</v>
       </c>
-      <c r="O28" s="34">
+      <c r="O28" s="33">
         <f t="shared" si="31"/>
         <v>-0.171875</v>
       </c>
-      <c r="P28" s="34">
+      <c r="P28" s="33">
         <f t="shared" si="32"/>
         <v>1.7595307917888325E-2</v>
       </c>
-      <c r="Q28" s="34">
+      <c r="Q28" s="33">
         <f t="shared" si="32"/>
         <v>-9.2024539877300637E-2</v>
       </c>
-      <c r="R28" s="34">
+      <c r="R28" s="33">
         <f t="shared" si="33"/>
         <v>1.23030303030303</v>
       </c>
-      <c r="S28" s="34">
+      <c r="S28" s="33">
         <f t="shared" si="33"/>
         <v>0.25336927223719674</v>
       </c>
-      <c r="T28" s="34">
+      <c r="T28" s="33">
         <f t="shared" si="37"/>
         <v>0.10086455331412103</v>
       </c>
-      <c r="U28" s="34">
+      <c r="U28" s="33">
         <f t="shared" si="37"/>
         <v>0.31756756756756777</v>
       </c>
-      <c r="V28" s="34">
+      <c r="V28" s="33">
         <f t="shared" si="37"/>
         <v>5.1630434782608647E-2</v>
       </c>
-      <c r="W28" s="34">
+      <c r="W28" s="33">
         <f t="shared" si="34"/>
         <v>4.5161290322580649E-2</v>
       </c>
-      <c r="Z28" s="17" t="s">
+      <c r="Z28" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AA28" s="17" t="s">
+      <c r="AA28" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AB28" s="34">
+      <c r="AB28" s="33">
         <f t="shared" ref="AB28" si="40">AB5/AA5-1</f>
         <v>-8.831908831908819E-2</v>
       </c>
-      <c r="AC28" s="34">
+      <c r="AC28" s="33">
         <f t="shared" ref="AC28" si="41">AC5/AB5-1</f>
         <v>7.9687500000000133E-2</v>
       </c>
-      <c r="AD28" s="34">
+      <c r="AD28" s="33">
         <f>AD5/AC5-1</f>
         <v>0.17510853835021711</v>
       </c>
     </row>
-    <row r="29" spans="2:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="30" t="s">
+    <row r="29" spans="2:30" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="H29" s="24" t="s">
+      <c r="H29" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="33">
         <f t="shared" ref="K29:K31" si="42">K7/G7-1</f>
         <v>7.2103642348943398E-2</v>
       </c>
-      <c r="L29" s="34">
+      <c r="L29" s="33">
         <f t="shared" ref="L29:N31" si="43">L7/H7-1</f>
         <v>0.10038005812653683</v>
       </c>
-      <c r="M29" s="34">
+      <c r="M29" s="33">
         <f t="shared" si="43"/>
         <v>5.1158723218189817E-2</v>
       </c>
-      <c r="N29" s="34">
+      <c r="N29" s="33">
         <f t="shared" si="43"/>
         <v>-0.38065313691150715</v>
       </c>
-      <c r="O29" s="34">
+      <c r="O29" s="33">
         <f t="shared" ref="O29:O31" si="44">O7/K7-1</f>
         <v>-7.7258320126781799E-3</v>
       </c>
-      <c r="P29" s="34">
+      <c r="P29" s="33">
         <f t="shared" ref="P29:Q31" si="45">P7/L7-1</f>
         <v>9.1121495327102675E-2</v>
       </c>
-      <c r="Q29" s="34">
+      <c r="Q29" s="33">
         <f t="shared" si="45"/>
         <v>1.6326955074875249E-2</v>
       </c>
-      <c r="R29" s="34">
+      <c r="R29" s="33">
         <f t="shared" ref="R29:S31" si="46">R7/N7-1</f>
         <v>0.95625415834996685</v>
       </c>
-      <c r="S29" s="34">
+      <c r="S29" s="33">
         <f t="shared" si="46"/>
         <v>0.16190856458374903</v>
       </c>
-      <c r="T29" s="34">
+      <c r="T29" s="33">
         <f t="shared" ref="T29:V31" si="47">T7/P7-1</f>
         <v>6.9825900754121317E-3</v>
       </c>
-      <c r="U29" s="34">
+      <c r="U29" s="33">
         <f t="shared" si="47"/>
         <v>5.6277499232579631E-2</v>
       </c>
-      <c r="V29" s="34">
+      <c r="V29" s="33">
         <f t="shared" si="47"/>
         <v>-8.8427854774251191E-3</v>
       </c>
-      <c r="W29" s="34">
+      <c r="W29" s="33">
         <f t="shared" ref="W29:W31" si="48">W7/S7-1</f>
         <v>3.5051546391752897E-2</v>
       </c>
-      <c r="Z29" s="17" t="s">
+      <c r="Z29" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AA29" s="17" t="s">
+      <c r="AA29" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AB29" s="34">
+      <c r="AB29" s="33">
         <f t="shared" ref="AB29" si="49">AB7/AA7-1</f>
         <v>-4.433338707077239E-2</v>
       </c>
-      <c r="AC29" s="34">
+      <c r="AC29" s="33">
         <f t="shared" ref="AC29" si="50">AC7/AB7-1</f>
         <v>0.18907444894286995</v>
       </c>
-      <c r="AD29" s="34">
+      <c r="AD29" s="33">
         <f>AD7/AC7-1</f>
         <v>5.0670323694228525E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="30" t="s">
+    <row r="30" spans="2:30" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="H30" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="K30" s="34">
+      <c r="K30" s="33">
         <f t="shared" si="42"/>
         <v>5.3130929791271431E-2</v>
       </c>
-      <c r="L30" s="34">
+      <c r="L30" s="33">
         <f t="shared" si="43"/>
         <v>0.12941176470588234</v>
       </c>
-      <c r="M30" s="34">
+      <c r="M30" s="33">
         <f t="shared" si="43"/>
         <v>9.2872570194384441E-2</v>
       </c>
-      <c r="N30" s="34">
+      <c r="N30" s="33">
         <f t="shared" si="43"/>
         <v>-0.37881873727087578</v>
       </c>
-      <c r="O30" s="34">
+      <c r="O30" s="33">
         <f t="shared" si="44"/>
         <v>1.4414414414414267E-2</v>
       </c>
-      <c r="P30" s="34">
+      <c r="P30" s="33">
         <f t="shared" si="45"/>
         <v>-8.3333333333333037E-3</v>
       </c>
-      <c r="Q30" s="34">
+      <c r="Q30" s="33">
         <f t="shared" si="45"/>
         <v>0.12648221343873511</v>
       </c>
-      <c r="R30" s="34">
+      <c r="R30" s="33">
         <f t="shared" si="46"/>
         <v>0.95409836065573761</v>
       </c>
-      <c r="S30" s="34">
+      <c r="S30" s="33">
         <f t="shared" si="46"/>
         <v>0.1172291296625223</v>
       </c>
-      <c r="T30" s="34">
+      <c r="T30" s="33">
         <f t="shared" si="47"/>
         <v>0.17016806722689082</v>
       </c>
-      <c r="U30" s="34">
+      <c r="U30" s="33">
         <f t="shared" si="47"/>
         <v>-5.2631578947368585E-3</v>
       </c>
-      <c r="V30" s="34">
+      <c r="V30" s="33">
         <f t="shared" si="47"/>
         <v>-5.0335570469798308E-3</v>
       </c>
-      <c r="W30" s="34">
+      <c r="W30" s="33">
         <f t="shared" si="48"/>
         <v>2.2257551669316422E-2</v>
       </c>
-      <c r="Z30" s="17" t="s">
+      <c r="Z30" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AA30" s="17" t="s">
+      <c r="AA30" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AB30" s="34">
+      <c r="AB30" s="33">
         <f t="shared" ref="AB30" si="51">AB8/AA8-1</f>
         <v>-3.147953830010497E-2</v>
       </c>
-      <c r="AC30" s="34">
+      <c r="AC30" s="33">
         <f t="shared" ref="AC30:AD31" si="52">AC8/AB8-1</f>
         <v>0.19447453954496208</v>
       </c>
-      <c r="AD30" s="34">
+      <c r="AD30" s="33">
         <f t="shared" si="52"/>
         <v>6.3945578231292544E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="30" t="s">
+    <row r="31" spans="2:30" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="H31" s="24" t="s">
+      <c r="H31" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K31" s="33">
         <f t="shared" si="42"/>
         <v>1.25</v>
       </c>
-      <c r="L31" s="34">
+      <c r="L31" s="33">
         <f t="shared" si="43"/>
         <v>-0.33333333333333337</v>
       </c>
-      <c r="M31" s="49" t="s">
+      <c r="M31" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="N31" s="34">
+      <c r="N31" s="33">
         <f t="shared" si="43"/>
         <v>-0.7142857142857143</v>
       </c>
-      <c r="O31" s="34">
+      <c r="O31" s="33">
         <f t="shared" si="44"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="P31" s="34">
+      <c r="P31" s="33">
         <f t="shared" si="45"/>
         <v>12</v>
       </c>
-      <c r="Q31" s="34">
+      <c r="Q31" s="33">
         <f t="shared" si="45"/>
         <v>-1.7777777777777779</v>
       </c>
-      <c r="R31" s="34">
+      <c r="R31" s="33">
         <f t="shared" si="46"/>
         <v>2.25</v>
       </c>
-      <c r="S31" s="34">
+      <c r="S31" s="33">
         <f t="shared" si="46"/>
         <v>-2.6153846153846159</v>
       </c>
-      <c r="T31" s="34">
+      <c r="T31" s="33">
         <f t="shared" si="47"/>
         <v>-1.6153846153846154</v>
       </c>
-      <c r="U31" s="34">
+      <c r="U31" s="33">
         <f t="shared" si="47"/>
         <v>-2.3571428571428568</v>
       </c>
-      <c r="V31" s="34">
+      <c r="V31" s="33">
         <f t="shared" si="47"/>
         <v>0.23076923076923084</v>
       </c>
-      <c r="W31" s="34">
+      <c r="W31" s="33">
         <f t="shared" si="48"/>
         <v>-0.80952380952380953</v>
       </c>
-      <c r="Z31" s="17" t="s">
+      <c r="Z31" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AA31" s="17" t="s">
+      <c r="AA31" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AB31" s="34">
+      <c r="AB31" s="33">
         <f t="shared" ref="AB31" si="53">AB9/AA9-1</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="AC31" s="34">
+      <c r="AC31" s="33">
         <f t="shared" si="52"/>
         <v>-4.6363636363636367</v>
       </c>
-      <c r="AD31" s="34">
+      <c r="AD31" s="33">
         <f t="shared" si="52"/>
         <v>-2.8000000000000003</v>
       </c>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="24">
         <f t="shared" ref="H32:L32" si="54">H10/G10-1</f>
         <v>-5.7700040209086922E-2</v>
       </c>
-      <c r="I32" s="25">
+      <c r="I32" s="24">
         <f t="shared" si="54"/>
         <v>2.5282696820993822E-2</v>
       </c>
-      <c r="J32" s="25">
+      <c r="J32" s="24">
         <f t="shared" si="54"/>
         <v>5.9619186348975228E-2</v>
       </c>
-      <c r="K32" s="25">
+      <c r="K32" s="24">
         <f t="shared" si="54"/>
         <v>4.6739984289080994E-2</v>
       </c>
-      <c r="L32" s="25">
+      <c r="L32" s="24">
         <f t="shared" si="54"/>
         <v>-3.1332082551594698E-2</v>
       </c>
-      <c r="M32" s="25">
+      <c r="M32" s="24">
         <f t="shared" ref="M32:N32" si="55">M10/L10-1</f>
         <v>-2.1499128413713042E-2</v>
       </c>
-      <c r="N32" s="25">
+      <c r="N32" s="24">
         <f t="shared" si="55"/>
         <v>-0.37519794140934282</v>
       </c>
-      <c r="O32" s="25">
+      <c r="O32" s="24">
         <f t="shared" ref="O32:T32" si="56">O10/N10-1</f>
         <v>0.678124504989704</v>
       </c>
-      <c r="P32" s="25">
+      <c r="P32" s="24">
         <f t="shared" si="56"/>
         <v>6.126109118368861E-2</v>
       </c>
-      <c r="Q32" s="25">
+      <c r="Q32" s="24">
         <f t="shared" si="56"/>
         <v>-7.8804589522369461E-2</v>
       </c>
-      <c r="R32" s="25">
+      <c r="R32" s="24">
         <f t="shared" si="56"/>
         <v>0.19185092208168397</v>
       </c>
-      <c r="S32" s="25">
+      <c r="S32" s="24">
         <f t="shared" si="56"/>
         <v>-7.7770576798446012E-3</v>
       </c>
-      <c r="T32" s="25">
+      <c r="T32" s="24">
         <f t="shared" si="56"/>
         <v>-7.2746570868712945E-2</v>
       </c>
-      <c r="U32" s="25">
+      <c r="U32" s="24">
         <f t="shared" ref="U32" si="57">U10/T10-1</f>
         <v>-4.2792991106806455E-2</v>
       </c>
-      <c r="V32" s="25">
+      <c r="V32" s="24">
         <f>V10/U10-1</f>
         <v>0.12537944991261174</v>
       </c>
-      <c r="W32" s="25">
+      <c r="W32" s="24">
         <f t="shared" ref="W32" si="58">W10/V10-1</f>
         <v>3.7027954879843117E-2</v>
       </c>
-      <c r="Z32" s="17" t="s">
+      <c r="Z32" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AA32" s="17" t="s">
+      <c r="AA32" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AD32" s="17" t="s">
+      <c r="AD32" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="24">
         <f t="shared" ref="G34" si="59">G12/G10</f>
         <v>0.44199839163650978</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="24">
         <f t="shared" ref="H34" si="60">H12/H10</f>
         <v>0.43791337742692565</v>
       </c>
-      <c r="I34" s="25">
+      <c r="I34" s="24">
         <f t="shared" ref="I34:K34" si="61">I12/I10</f>
         <v>0.4514618666111746</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J34" s="24">
         <f t="shared" si="61"/>
         <v>0.45492930086410049</v>
       </c>
-      <c r="K34" s="25">
+      <c r="K34" s="24">
         <f t="shared" si="61"/>
         <v>0.45694183864915577</v>
       </c>
-      <c r="L34" s="25">
+      <c r="L34" s="24">
         <f t="shared" ref="L34" si="62">L12/L10</f>
         <v>0.4400542320356382</v>
       </c>
-      <c r="M34" s="25">
+      <c r="M34" s="24">
         <f t="shared" ref="M34" si="63">M12/M10</f>
         <v>0.44269596199524935</v>
       </c>
-      <c r="N34" s="25">
+      <c r="N34" s="24">
         <f t="shared" ref="N34:O34" si="64">N12/N10</f>
         <v>0.37272295263741484</v>
       </c>
-      <c r="O34" s="25">
+      <c r="O34" s="24">
         <f t="shared" si="64"/>
         <v>0.4475174627147443</v>
       </c>
-      <c r="P34" s="25">
+      <c r="P34" s="24">
         <f>P12/P10</f>
         <v>0.43111269234190158</v>
       </c>
-      <c r="Q34" s="25">
+      <c r="Q34" s="24">
         <f>Q12/Q10</f>
         <v>0.45563387081201118</v>
       </c>
-      <c r="R34" s="25">
+      <c r="R34" s="24">
         <f>R12/R10</f>
         <v>0.45811730395333761</v>
       </c>
-      <c r="S34" s="25">
+      <c r="S34" s="24">
         <f t="shared" ref="S34:T34" si="65">S12/S10</f>
         <v>0.4650555192684519</v>
       </c>
-      <c r="T34" s="25">
+      <c r="T34" s="24">
         <f t="shared" si="65"/>
         <v>0.45901206304481823</v>
       </c>
-      <c r="U34" s="25">
+      <c r="U34" s="24">
         <f t="shared" ref="U34" si="66">U12/U10</f>
         <v>0.4661024744733695</v>
       </c>
-      <c r="V34" s="25">
+      <c r="V34" s="24">
         <f>V12/V10</f>
         <v>0.44981199934608479</v>
       </c>
-      <c r="W34" s="25">
+      <c r="W34" s="24">
         <f t="shared" ref="W34" si="67">W12/W10</f>
         <v>0.44257901789233084</v>
       </c>
-      <c r="AA34" s="25">
+      <c r="AA34" s="24">
         <f t="shared" ref="AA34" si="68">AA12/AA10</f>
         <v>0.44671114860546568</v>
       </c>
-      <c r="AB34" s="25">
+      <c r="AB34" s="24">
         <f t="shared" ref="AB34" si="69">AB12/AB10</f>
         <v>0.43421650669732376</v>
       </c>
-      <c r="AC34" s="25">
+      <c r="AC34" s="24">
         <f>AC12/AC10</f>
         <v>0.44820153576720989</v>
       </c>
-      <c r="AD34" s="25">
+      <c r="AD34" s="24">
         <f>AD12/AD10</f>
         <v>0.4598372939413401</v>
       </c>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="24">
         <f t="shared" ref="G35" si="70">G16/G10</f>
         <v>0.13409730599115385</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="24">
         <f t="shared" ref="H35" si="71">H16/H10</f>
         <v>0.10273095796885018</v>
       </c>
-      <c r="I35" s="25">
+      <c r="I35" s="24">
         <f t="shared" ref="I35:K35" si="72">I16/I10</f>
         <v>0.12985121215274151</v>
       </c>
-      <c r="J35" s="25">
+      <c r="J35" s="24">
         <f t="shared" si="72"/>
         <v>0.12048311076197953</v>
       </c>
-      <c r="K35" s="25">
+      <c r="K35" s="24">
         <f t="shared" si="72"/>
         <v>0.14474671669793623</v>
       </c>
-      <c r="L35" s="25">
+      <c r="L35" s="24">
         <f t="shared" ref="L35" si="73">L16/L10</f>
         <v>0.11814836335463884</v>
       </c>
-      <c r="M35" s="25">
+      <c r="M35" s="24">
         <f t="shared" ref="M35" si="74">M16/M10</f>
         <v>0.11777513855898646</v>
       </c>
-      <c r="N35" s="25">
+      <c r="N35" s="24">
         <f t="shared" ref="N35:O35" si="75">N16/N10</f>
         <v>-0.13274196103278951</v>
       </c>
-      <c r="O35" s="25">
+      <c r="O35" s="24">
         <f t="shared" si="75"/>
         <v>0.16669813101755721</v>
       </c>
-      <c r="P35" s="25">
+      <c r="P35" s="24">
         <f>P16/P10</f>
         <v>0.14053188650715992</v>
       </c>
-      <c r="Q35" s="25">
+      <c r="Q35" s="24">
         <f>Q16/Q10</f>
         <v>0.16201602780728006</v>
       </c>
-      <c r="R35" s="25">
+      <c r="R35" s="24">
         <f>R16/R10</f>
         <v>0.15497407647440048</v>
       </c>
-      <c r="S35" s="25">
+      <c r="S35" s="24">
         <f t="shared" ref="S35:T35" si="76">S16/S10</f>
         <v>0.17341606792945774</v>
       </c>
-      <c r="T35" s="25">
+      <c r="T35" s="24">
         <f t="shared" si="76"/>
         <v>0.12802676763229734</v>
       </c>
-      <c r="U35" s="25">
+      <c r="U35" s="24">
         <f t="shared" ref="U35" si="77">U16/U10</f>
         <v>0.14984822003495538</v>
       </c>
-      <c r="V35" s="25">
+      <c r="V35" s="24">
         <f>V16/V10</f>
         <v>0.11999346084682046</v>
       </c>
-      <c r="W35" s="25">
+      <c r="W35" s="24">
         <f t="shared" ref="W35" si="78">W16/W10</f>
         <v>0.13360132419011606</v>
       </c>
-      <c r="AA35" s="25">
+      <c r="AA35" s="24">
         <f t="shared" ref="AA35" si="79">AA16/AA10</f>
         <v>0.64943630646521955</v>
       </c>
-      <c r="AB35" s="25">
+      <c r="AB35" s="24">
         <f t="shared" ref="AB35" si="80">AB16/AB10</f>
         <v>8.3282089671951415E-2</v>
       </c>
-      <c r="AC35" s="25">
+      <c r="AC35" s="24">
         <f>AC16/AC10</f>
         <v>0.15575463649018789</v>
       </c>
-      <c r="AD35" s="25">
+      <c r="AD35" s="24">
         <f>AD16/AD10</f>
         <v>0.14290301862556182</v>
       </c>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="24">
         <f t="shared" ref="G36" si="81">G21/G10</f>
         <v>0.10977080820265367</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="24">
         <f t="shared" ref="H36" si="82">H21/H10</f>
         <v>9.0356304672498569E-2</v>
       </c>
-      <c r="I36" s="25">
+      <c r="I36" s="24">
         <f t="shared" ref="I36:K36" si="83">I21/I10</f>
         <v>0.11455623764436568</v>
       </c>
-      <c r="J36" s="25">
+      <c r="J36" s="24">
         <f t="shared" si="83"/>
         <v>9.711311861743907E-2</v>
       </c>
-      <c r="K36" s="25">
+      <c r="K36" s="24">
         <f t="shared" si="83"/>
         <v>0.12823639774859288</v>
       </c>
-      <c r="L36" s="25">
+      <c r="L36" s="24">
         <f t="shared" ref="L36" si="84">L21/L10</f>
         <v>0.1079798566724773</v>
       </c>
-      <c r="M36" s="25">
+      <c r="M36" s="24">
         <f t="shared" ref="M36" si="85">M21/M10</f>
         <v>8.3828186856690343E-2</v>
       </c>
-      <c r="N36" s="25">
+      <c r="N36" s="24">
         <f t="shared" ref="N36:O36" si="86">N21/N10</f>
         <v>-0.12513860288293999</v>
       </c>
-      <c r="O36" s="25">
+      <c r="O36" s="24">
         <f t="shared" si="86"/>
         <v>0.14328865395506901</v>
       </c>
-      <c r="P36" s="25">
+      <c r="P36" s="24">
         <f>P21/P10</f>
         <v>0.11126923419016266</v>
       </c>
-      <c r="Q36" s="25">
+      <c r="Q36" s="24">
         <f>Q21/Q10</f>
         <v>0.13990537800521383</v>
       </c>
-      <c r="R36" s="25">
+      <c r="R36" s="24">
         <f>R21/R10</f>
         <v>0.12224562540505506</v>
       </c>
-      <c r="S36" s="25">
+      <c r="S36" s="24">
         <f t="shared" ref="S36:T36" si="87">S21/S10</f>
         <v>0.15300457217504887</v>
       </c>
-      <c r="T36" s="25">
+      <c r="T36" s="24">
         <f t="shared" si="87"/>
         <v>0.11772475125473286</v>
       </c>
-      <c r="U36" s="25">
+      <c r="U36" s="24">
         <f t="shared" ref="U36" si="88">U21/U10</f>
         <v>0.12841504921350383</v>
       </c>
-      <c r="V36" s="25">
+      <c r="V36" s="24">
         <f>V21/V10</f>
         <v>0.11762301781919253</v>
       </c>
-      <c r="W36" s="25">
+      <c r="W36" s="24">
         <f t="shared" ref="W36" si="89">W21/W10</f>
         <v>0.11570899345787047</v>
       </c>
-      <c r="AA36" s="25">
+      <c r="AA36" s="24">
         <f t="shared" ref="AA36" si="90">AA21/AA10</f>
         <v>0.1404760078738144</v>
       </c>
-      <c r="AB36" s="25">
+      <c r="AB36" s="24">
         <f t="shared" ref="AB36" si="91">AB21/AB10</f>
         <v>6.7882255434056099E-2</v>
       </c>
-      <c r="AC36" s="25">
+      <c r="AC36" s="24">
         <f>AC21/AC10</f>
         <v>0.12858682473393507</v>
       </c>
-      <c r="AD36" s="25">
+      <c r="AD36" s="24">
         <f>AD21/AD10</f>
         <v>0.12943695140226918</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="24">
         <f t="shared" ref="G37" si="92">G20/G19</f>
         <v>0.14015748031496078</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="24">
         <f t="shared" ref="H37" si="93">H20/H19</f>
         <v>0.15045135406218627</v>
       </c>
-      <c r="I37" s="25">
+      <c r="I37" s="24">
         <f t="shared" ref="I37:K37" si="94">I20/I19</f>
         <v>0.14717273431448508</v>
       </c>
-      <c r="J37" s="25">
+      <c r="J37" s="24">
         <f t="shared" si="94"/>
         <v>0.20434432823813364</v>
       </c>
-      <c r="K37" s="25">
+      <c r="K37" s="24">
         <f t="shared" si="94"/>
         <v>0.12427930813581037</v>
       </c>
-      <c r="L37" s="25">
+      <c r="L37" s="24">
         <f t="shared" ref="L37" si="95">L20/L19</f>
         <v>0.10728582866293031</v>
       </c>
-      <c r="M37" s="25">
+      <c r="M37" s="24">
         <f t="shared" ref="M37" si="96">M20/M19</f>
         <v>3.8592508513053389E-2</v>
       </c>
-      <c r="N37" s="25">
+      <c r="N37" s="24">
         <f t="shared" ref="N37:O37" si="97">N20/N19</f>
         <v>1.7412935323383082E-2</v>
       </c>
-      <c r="O37" s="25">
+      <c r="O37" s="24">
         <f t="shared" si="97"/>
         <v>0.11486880466472295</v>
       </c>
-      <c r="P37" s="25">
+      <c r="P37" s="24">
         <f>P20/P19</f>
         <v>0.14079670329670341</v>
       </c>
-      <c r="Q37" s="25">
+      <c r="Q37" s="24">
         <f>Q20/Q19</f>
         <v>0.11430317848410762</v>
       </c>
-      <c r="R37" s="25">
+      <c r="R37" s="24">
         <f>R20/R19</f>
         <v>0.18608414239482204</v>
       </c>
-      <c r="S37" s="25">
+      <c r="S37" s="24">
         <f t="shared" ref="S37:T37" si="98">S20/S19</f>
         <v>0.11016144349477694</v>
       </c>
-      <c r="T37" s="25">
+      <c r="T37" s="24">
         <f t="shared" si="98"/>
         <v>0.10926049300466348</v>
       </c>
-      <c r="U37" s="25">
+      <c r="U37" s="24">
         <f t="shared" ref="U37" si="99">U20/U19</f>
         <v>0.16407185628742516</v>
       </c>
-      <c r="V37" s="25">
+      <c r="V37" s="24">
         <f>V20/V19</f>
         <v>-4.7307132459970834E-2</v>
       </c>
-      <c r="W37" s="25">
+      <c r="W37" s="24">
         <f t="shared" ref="W37" si="100">W20/W19</f>
         <v>0.19693654266958391</v>
       </c>
-      <c r="AA37" s="25">
+      <c r="AA37" s="24">
         <f t="shared" ref="AA37" si="101">AA20/AA19</f>
         <v>0.16079983336804837</v>
       </c>
-      <c r="AB37" s="25">
+      <c r="AB37" s="24">
         <f t="shared" ref="AB37" si="102">AB20/AB19</f>
         <v>8.6934798900824395E-2</v>
       </c>
-      <c r="AC37" s="25">
+      <c r="AC37" s="24">
         <f>AC20/AC19</f>
         <v>0.14021918630836214</v>
       </c>
-      <c r="AD37" s="25">
+      <c r="AD37" s="24">
         <f>AD20/AD19</f>
         <v>9.0963764847391479E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B40" s="18" t="s">
+    <row r="40" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B40" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="18">
         <v>3282</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="18">
         <v>3423</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I41" s="18">
         <v>3695</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J41" s="18">
         <v>4466</v>
       </c>
-      <c r="K41" s="19">
+      <c r="K41" s="18">
         <v>3446</v>
       </c>
-      <c r="L41" s="19">
+      <c r="L41" s="18">
         <v>3070</v>
       </c>
-      <c r="M41" s="19">
+      <c r="M41" s="18">
         <v>2863</v>
       </c>
-      <c r="N41" s="19">
+      <c r="N41" s="18">
         <v>8438</v>
       </c>
-      <c r="O41" s="19">
+      <c r="O41" s="18">
         <v>8148</v>
       </c>
-      <c r="P41" s="35">
+      <c r="P41" s="34">
         <v>8635</v>
       </c>
-      <c r="Q41" s="35">
+      <c r="Q41" s="34">
         <v>8516</v>
       </c>
-      <c r="R41" s="35">
+      <c r="R41" s="34">
         <v>9889</v>
       </c>
-      <c r="S41" s="35">
+      <c r="S41" s="34">
         <v>10720</v>
       </c>
-      <c r="T41" s="35">
+      <c r="T41" s="34">
         <v>10751</v>
       </c>
-      <c r="U41" s="35">
+      <c r="U41" s="34">
         <v>8704</v>
       </c>
-      <c r="V41" s="35">
+      <c r="V41" s="34">
         <v>8574</v>
       </c>
-      <c r="W41" s="35">
+      <c r="W41" s="34">
         <v>7226</v>
       </c>
-      <c r="AC41" s="35">
+      <c r="AC41" s="34">
         <f t="shared" ref="AC41:AC46" si="103">R41</f>
         <v>9889</v>
       </c>
-      <c r="AD41" s="35">
+      <c r="AD41" s="34">
         <f>V41</f>
         <v>8574</v>
       </c>
     </row>
-    <row r="42" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="18">
         <v>987</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H42" s="18">
         <v>618</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I42" s="18">
         <v>351</v>
       </c>
-      <c r="J42" s="19">
+      <c r="J42" s="18">
         <v>197</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K42" s="18">
         <v>198</v>
       </c>
-      <c r="L42" s="19">
+      <c r="L42" s="18">
         <v>432</v>
       </c>
-      <c r="M42" s="19">
+      <c r="M42" s="18">
         <v>319</v>
       </c>
-      <c r="N42" s="19">
+      <c r="N42" s="18">
         <v>439</v>
       </c>
-      <c r="O42" s="19">
+      <c r="O42" s="18">
         <v>1332</v>
       </c>
-      <c r="P42" s="35">
+      <c r="P42" s="34">
         <v>3177</v>
       </c>
-      <c r="Q42" s="35">
+      <c r="Q42" s="34">
         <v>4012</v>
       </c>
-      <c r="R42" s="35">
+      <c r="R42" s="34">
         <v>3587</v>
       </c>
-      <c r="S42" s="35">
+      <c r="S42" s="34">
         <v>2975</v>
       </c>
-      <c r="T42" s="35">
+      <c r="T42" s="34">
         <v>4352</v>
       </c>
       <c r="U42" s="3">
         <v>4763</v>
       </c>
-      <c r="V42" s="35">
+      <c r="V42" s="34">
         <v>4423</v>
       </c>
-      <c r="W42" s="35">
+      <c r="W42" s="34">
         <v>4650</v>
       </c>
-      <c r="AC42" s="35">
+      <c r="AC42" s="34">
         <f t="shared" si="103"/>
         <v>3587</v>
       </c>
-      <c r="AD42" s="35">
+      <c r="AD42" s="34">
         <f>V42</f>
         <v>4423</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G43" s="19">
         <v>4330</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="19">
         <v>4346</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I43" s="19">
         <v>4549</v>
       </c>
-      <c r="J43" s="20">
+      <c r="J43" s="19">
         <v>4272</v>
       </c>
-      <c r="K43" s="20">
+      <c r="K43" s="19">
         <v>4656</v>
       </c>
-      <c r="L43" s="20">
+      <c r="L43" s="19">
         <v>4792</v>
       </c>
-      <c r="M43" s="20">
+      <c r="M43" s="19">
         <v>4473</v>
       </c>
-      <c r="N43" s="20">
+      <c r="N43" s="19">
         <v>2749</v>
       </c>
-      <c r="O43" s="20">
+      <c r="O43" s="19">
         <v>3813</v>
       </c>
-      <c r="P43" s="36">
+      <c r="P43" s="35">
         <v>3713</v>
       </c>
-      <c r="Q43" s="36">
+      <c r="Q43" s="35">
         <v>3669</v>
       </c>
-      <c r="R43" s="36">
+      <c r="R43" s="35">
         <v>4463</v>
       </c>
-      <c r="S43" s="36">
+      <c r="S43" s="35">
         <v>4341</v>
       </c>
-      <c r="T43" s="36">
+      <c r="T43" s="35">
         <v>3746</v>
       </c>
-      <c r="U43" s="36">
+      <c r="U43" s="35">
         <v>3827</v>
       </c>
-      <c r="V43" s="36">
+      <c r="V43" s="35">
         <v>4667</v>
       </c>
-      <c r="W43" s="36">
+      <c r="W43" s="35">
         <v>4960</v>
       </c>
-      <c r="AC43" s="36">
+      <c r="AC43" s="35">
         <f t="shared" si="103"/>
         <v>4463</v>
       </c>
-      <c r="AD43" s="36">
+      <c r="AD43" s="35">
         <f>V43</f>
         <v>4667</v>
       </c>
     </row>
-    <row r="44" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="18">
         <v>5227</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H44" s="18">
         <v>5388</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I44" s="18">
         <v>5415</v>
       </c>
-      <c r="J44" s="19">
+      <c r="J44" s="18">
         <v>5622</v>
       </c>
-      <c r="K44" s="19">
+      <c r="K44" s="18">
         <v>5835</v>
       </c>
-      <c r="L44" s="19">
+      <c r="L44" s="18">
         <v>6199</v>
       </c>
-      <c r="M44" s="19">
+      <c r="M44" s="18">
         <v>5807</v>
       </c>
-      <c r="N44" s="19">
+      <c r="N44" s="18">
         <v>7367</v>
       </c>
-      <c r="O44" s="19">
+      <c r="O44" s="18">
         <v>6705</v>
       </c>
-      <c r="P44" s="35">
+      <c r="P44" s="34">
         <v>6090</v>
       </c>
-      <c r="Q44" s="35">
+      <c r="Q44" s="34">
         <v>6693</v>
       </c>
-      <c r="R44" s="35">
+      <c r="R44" s="34">
         <v>6854</v>
       </c>
-      <c r="S44" s="35">
+      <c r="S44" s="34">
         <v>6699</v>
       </c>
-      <c r="T44" s="35">
+      <c r="T44" s="34">
         <v>6506</v>
       </c>
-      <c r="U44" s="35">
+      <c r="U44" s="34">
         <v>7700</v>
       </c>
-      <c r="V44" s="35">
+      <c r="V44" s="34">
         <v>8420</v>
       </c>
-      <c r="W44" s="35">
+      <c r="W44" s="34">
         <v>9662</v>
       </c>
-      <c r="AC44" s="35">
+      <c r="AC44" s="34">
         <f t="shared" si="103"/>
         <v>6854</v>
       </c>
-      <c r="AD44" s="35">
+      <c r="AD44" s="34">
         <f>V44</f>
         <v>8420</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G45" s="20">
+      <c r="G45" s="19">
         <v>1675</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="19">
         <v>1791</v>
       </c>
-      <c r="I45" s="20">
+      <c r="I45" s="19">
         <v>1786</v>
       </c>
-      <c r="J45" s="20">
+      <c r="J45" s="19">
         <v>1968</v>
       </c>
-      <c r="K45" s="20">
+      <c r="K45" s="19">
         <v>2093</v>
       </c>
-      <c r="L45" s="20">
+      <c r="L45" s="19">
         <v>1876</v>
       </c>
-      <c r="M45" s="20">
+      <c r="M45" s="19">
         <v>2282</v>
       </c>
-      <c r="N45" s="20">
+      <c r="N45" s="19">
         <v>1653</v>
       </c>
-      <c r="O45" s="20">
+      <c r="O45" s="19">
         <v>1939</v>
       </c>
-      <c r="P45" s="36">
+      <c r="P45" s="35">
         <v>1992</v>
       </c>
-      <c r="Q45" s="36">
+      <c r="Q45" s="35">
         <v>1810</v>
       </c>
-      <c r="R45" s="36">
+      <c r="R45" s="35">
         <v>1498</v>
       </c>
-      <c r="S45" s="36">
+      <c r="S45" s="35">
         <v>1655</v>
       </c>
-      <c r="T45" s="36">
+      <c r="T45" s="35">
         <v>1822</v>
       </c>
-      <c r="U45" s="36">
+      <c r="U45" s="35">
         <v>1968</v>
       </c>
-      <c r="V45" s="36">
+      <c r="V45" s="35">
         <v>2129</v>
       </c>
-      <c r="W45" s="36">
+      <c r="W45" s="35">
         <v>2379</v>
       </c>
-      <c r="AC45" s="36">
+      <c r="AC45" s="35">
         <f t="shared" si="103"/>
         <v>1498</v>
       </c>
-      <c r="AD45" s="36">
+      <c r="AD45" s="35">
         <f t="shared" ref="AD45:AD51" si="104">V45</f>
         <v>2129</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G46" s="20">
+      <c r="G46" s="19">
         <f t="shared" ref="G46:L46" si="105">SUM(G41:G45)</f>
         <v>15501</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="19">
         <f t="shared" si="105"/>
         <v>15566</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="19">
         <f t="shared" si="105"/>
         <v>15796</v>
       </c>
-      <c r="J46" s="20">
+      <c r="J46" s="19">
         <f t="shared" si="105"/>
         <v>16525</v>
       </c>
-      <c r="K46" s="20">
+      <c r="K46" s="19">
         <f t="shared" si="105"/>
         <v>16228</v>
       </c>
-      <c r="L46" s="20">
+      <c r="L46" s="19">
         <f t="shared" si="105"/>
         <v>16369</v>
       </c>
-      <c r="M46" s="20">
+      <c r="M46" s="19">
         <f t="shared" ref="M46:W46" si="106">SUM(M41:M45)</f>
         <v>15744</v>
       </c>
-      <c r="N46" s="20">
+      <c r="N46" s="19">
         <f t="shared" si="106"/>
         <v>20646</v>
       </c>
-      <c r="O46" s="20">
+      <c r="O46" s="19">
         <f t="shared" si="106"/>
         <v>21937</v>
       </c>
-      <c r="P46" s="36">
+      <c r="P46" s="35">
         <f t="shared" si="106"/>
         <v>23607</v>
       </c>
-      <c r="Q46" s="36">
+      <c r="Q46" s="35">
         <f t="shared" si="106"/>
         <v>24700</v>
       </c>
-      <c r="R46" s="36">
+      <c r="R46" s="35">
         <f t="shared" si="106"/>
         <v>26291</v>
       </c>
-      <c r="S46" s="36">
+      <c r="S46" s="35">
         <f t="shared" si="106"/>
         <v>26390</v>
       </c>
-      <c r="T46" s="36">
+      <c r="T46" s="35">
         <f t="shared" si="106"/>
         <v>27177</v>
       </c>
-      <c r="U46" s="36">
+      <c r="U46" s="35">
         <f t="shared" si="106"/>
         <v>26962</v>
       </c>
-      <c r="V46" s="36">
+      <c r="V46" s="35">
         <f t="shared" si="106"/>
         <v>28213</v>
       </c>
-      <c r="W46" s="36">
+      <c r="W46" s="35">
         <f t="shared" si="106"/>
         <v>28877</v>
       </c>
-      <c r="AC46" s="36">
+      <c r="AC46" s="35">
         <f t="shared" si="103"/>
         <v>26291</v>
       </c>
-      <c r="AD46" s="36">
+      <c r="AD46" s="35">
         <f t="shared" si="104"/>
         <v>28213</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G47" s="20">
+      <c r="G47" s="19">
         <v>4487</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="19">
         <v>4588</v>
       </c>
-      <c r="I47" s="20">
+      <c r="I47" s="19">
         <v>4688</v>
       </c>
-      <c r="J47" s="20">
+      <c r="J47" s="19">
         <v>4744</v>
       </c>
-      <c r="K47" s="20">
+      <c r="K47" s="19">
         <v>4615</v>
       </c>
-      <c r="L47" s="20">
+      <c r="L47" s="19">
         <v>4668</v>
       </c>
-      <c r="M47" s="20">
+      <c r="M47" s="19">
         <v>4783</v>
       </c>
-      <c r="N47" s="20">
+      <c r="N47" s="19">
         <v>4886</v>
       </c>
-      <c r="O47" s="20">
+      <c r="O47" s="19">
         <v>4969</v>
       </c>
-      <c r="P47" s="36">
+      <c r="P47" s="35">
         <v>4959</v>
       </c>
-      <c r="Q47" s="36">
+      <c r="Q47" s="35">
         <v>4958</v>
       </c>
-      <c r="R47" s="36">
+      <c r="R47" s="35">
         <v>4904</v>
       </c>
-      <c r="S47" s="36">
+      <c r="S47" s="35">
         <v>4869</v>
       </c>
-      <c r="T47" s="36">
+      <c r="T47" s="35">
         <v>4812</v>
       </c>
-      <c r="U47" s="36">
+      <c r="U47" s="35">
         <v>4806</v>
       </c>
-      <c r="V47" s="36">
+      <c r="V47" s="35">
         <v>4791</v>
       </c>
-      <c r="W47" s="36">
+      <c r="W47" s="35">
         <v>4778</v>
       </c>
-      <c r="AC47" s="36">
+      <c r="AC47" s="35">
         <f t="shared" ref="AC47:AC50" si="107">R47</f>
         <v>4904</v>
       </c>
-      <c r="AD47" s="36">
+      <c r="AD47" s="35">
         <f t="shared" si="104"/>
         <v>4791</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G48" s="20">
+      <c r="G48" s="19">
         <v>0</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="19">
         <v>0</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="19">
         <v>0</v>
       </c>
-      <c r="J48" s="20">
+      <c r="J48" s="19">
         <v>0</v>
       </c>
-      <c r="K48" s="20">
+      <c r="K48" s="19">
         <v>2832</v>
       </c>
-      <c r="L48" s="20">
+      <c r="L48" s="19">
         <v>2882</v>
       </c>
-      <c r="M48" s="20">
+      <c r="M48" s="19">
         <v>2907</v>
       </c>
-      <c r="N48" s="20">
+      <c r="N48" s="19">
         <v>3097</v>
       </c>
-      <c r="O48" s="20">
+      <c r="O48" s="19">
         <v>3158</v>
       </c>
-      <c r="P48" s="36">
+      <c r="P48" s="35">
         <v>3086</v>
       </c>
-      <c r="Q48" s="36">
+      <c r="Q48" s="35">
         <v>3149</v>
       </c>
-      <c r="R48" s="36">
+      <c r="R48" s="35">
         <v>3113</v>
       </c>
-      <c r="S48" s="36">
+      <c r="S48" s="35">
         <v>3078</v>
       </c>
-      <c r="T48" s="36">
+      <c r="T48" s="35">
         <v>3017</v>
       </c>
-      <c r="U48" s="36">
+      <c r="U48" s="35">
         <v>2959</v>
       </c>
-      <c r="V48" s="36">
+      <c r="V48" s="35">
         <v>2926</v>
       </c>
-      <c r="W48" s="36">
+      <c r="W48" s="35">
         <v>2880</v>
       </c>
-      <c r="AC48" s="36">
+      <c r="AC48" s="35">
         <f t="shared" si="107"/>
         <v>3113</v>
       </c>
-      <c r="AD48" s="36">
+      <c r="AD48" s="35">
         <f t="shared" si="104"/>
         <v>2926</v>
       </c>
     </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G49" s="20">
+      <c r="G49" s="19">
         <f>284+154</f>
         <v>438</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="19">
         <f>284+154</f>
         <v>438</v>
       </c>
-      <c r="I49" s="20">
+      <c r="I49" s="19">
         <f>283+154</f>
         <v>437</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J49" s="19">
         <f>283+154</f>
         <v>437</v>
       </c>
-      <c r="K49" s="20">
+      <c r="K49" s="19">
         <f>279+224</f>
         <v>503</v>
       </c>
-      <c r="L49" s="20">
+      <c r="L49" s="19">
         <f>277+224</f>
         <v>501</v>
       </c>
-      <c r="M49" s="20">
+      <c r="M49" s="19">
         <f>275+223</f>
         <v>498</v>
       </c>
-      <c r="N49" s="20">
+      <c r="N49" s="19">
         <f>274+223</f>
         <v>497</v>
       </c>
-      <c r="O49" s="20">
+      <c r="O49" s="19">
         <f>272+223</f>
         <v>495</v>
       </c>
-      <c r="P49" s="36">
+      <c r="P49" s="35">
         <f>270+223</f>
         <v>493</v>
       </c>
-      <c r="Q49" s="36">
+      <c r="Q49" s="35">
         <f>271+242</f>
         <v>513</v>
       </c>
-      <c r="R49" s="36">
+      <c r="R49" s="35">
         <f>269+242</f>
         <v>511</v>
       </c>
-      <c r="S49" s="36">
+      <c r="S49" s="35">
         <f>267+242</f>
         <v>509</v>
       </c>
-      <c r="T49" s="36">
+      <c r="T49" s="35">
         <f>265+242</f>
         <v>507</v>
       </c>
-      <c r="U49" s="36">
+      <c r="U49" s="35">
         <f>291+284</f>
         <v>575</v>
       </c>
-      <c r="V49" s="36">
+      <c r="V49" s="35">
         <f>286+284</f>
         <v>570</v>
       </c>
-      <c r="W49" s="36">
+      <c r="W49" s="35">
         <f>283+282</f>
         <v>565</v>
       </c>
-      <c r="AC49" s="36">
+      <c r="AC49" s="35">
         <f t="shared" si="107"/>
         <v>511</v>
       </c>
-      <c r="AD49" s="36">
+      <c r="AD49" s="35">
         <f t="shared" si="104"/>
         <v>570</v>
       </c>
     </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G50" s="20">
+      <c r="G50" s="19">
         <v>2057</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="19">
         <v>2085</v>
       </c>
-      <c r="I50" s="20">
+      <c r="I50" s="19">
         <v>2000</v>
       </c>
-      <c r="J50" s="20">
+      <c r="J50" s="19">
         <v>2011</v>
       </c>
-      <c r="K50" s="20">
+      <c r="K50" s="19">
         <v>2071</v>
       </c>
-      <c r="L50" s="20">
+      <c r="L50" s="19">
         <v>2182</v>
       </c>
-      <c r="M50" s="20">
+      <c r="M50" s="19">
         <v>2288</v>
       </c>
-      <c r="N50" s="20">
+      <c r="N50" s="19">
         <v>2326</v>
       </c>
-      <c r="O50" s="20">
+      <c r="O50" s="19">
         <v>2699</v>
       </c>
-      <c r="P50" s="36">
+      <c r="P50" s="35">
         <v>2691</v>
       </c>
-      <c r="Q50" s="36">
+      <c r="Q50" s="35">
         <v>2865</v>
       </c>
-      <c r="R50" s="36">
+      <c r="R50" s="35">
         <v>2921</v>
       </c>
-      <c r="S50" s="36">
+      <c r="S50" s="35">
         <v>3071</v>
       </c>
-      <c r="T50" s="36">
+      <c r="T50" s="35">
         <v>3404</v>
       </c>
-      <c r="U50" s="36">
+      <c r="U50" s="35">
         <v>3275</v>
       </c>
-      <c r="V50" s="36">
+      <c r="V50" s="35">
         <v>3821</v>
       </c>
-      <c r="W50" s="36">
+      <c r="W50" s="35">
         <v>3988</v>
       </c>
-      <c r="AC50" s="36">
+      <c r="AC50" s="35">
         <f t="shared" si="107"/>
         <v>2921</v>
       </c>
-      <c r="AD50" s="36">
+      <c r="AD50" s="35">
         <f t="shared" si="104"/>
         <v>3821</v>
       </c>
     </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G51" s="20">
+      <c r="G51" s="19">
         <f t="shared" ref="G51:L51" si="108">G46+SUM(G47:G50)</f>
         <v>22483</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H51" s="19">
         <f t="shared" si="108"/>
         <v>22677</v>
       </c>
-      <c r="I51" s="20">
+      <c r="I51" s="19">
         <f t="shared" si="108"/>
         <v>22921</v>
       </c>
-      <c r="J51" s="20">
+      <c r="J51" s="19">
         <f t="shared" si="108"/>
         <v>23717</v>
       </c>
-      <c r="K51" s="20">
+      <c r="K51" s="19">
         <f t="shared" si="108"/>
         <v>26249</v>
       </c>
-      <c r="L51" s="20">
+      <c r="L51" s="19">
         <f t="shared" si="108"/>
         <v>26602</v>
       </c>
-      <c r="M51" s="20">
+      <c r="M51" s="19">
         <f t="shared" ref="M51:W51" si="109">M46+SUM(M47:M50)</f>
         <v>26220</v>
       </c>
-      <c r="N51" s="20">
+      <c r="N51" s="19">
         <f t="shared" si="109"/>
         <v>31452</v>
       </c>
-      <c r="O51" s="20">
+      <c r="O51" s="19">
         <f t="shared" si="109"/>
         <v>33258</v>
       </c>
-      <c r="P51" s="36">
+      <c r="P51" s="35">
         <f t="shared" si="109"/>
         <v>34836</v>
       </c>
-      <c r="Q51" s="36">
+      <c r="Q51" s="35">
         <f t="shared" si="109"/>
         <v>36185</v>
       </c>
-      <c r="R51" s="36">
+      <c r="R51" s="35">
         <f t="shared" si="109"/>
         <v>37740</v>
       </c>
-      <c r="S51" s="36">
+      <c r="S51" s="35">
         <f t="shared" si="109"/>
         <v>37917</v>
       </c>
-      <c r="T51" s="36">
+      <c r="T51" s="35">
         <f t="shared" si="109"/>
         <v>38917</v>
       </c>
-      <c r="U51" s="36">
+      <c r="U51" s="35">
         <f t="shared" si="109"/>
         <v>38577</v>
       </c>
-      <c r="V51" s="36">
+      <c r="V51" s="35">
         <f t="shared" si="109"/>
         <v>40321</v>
       </c>
-      <c r="W51" s="36">
+      <c r="W51" s="35">
         <f t="shared" si="109"/>
         <v>41088</v>
       </c>
-      <c r="AC51" s="36">
+      <c r="AC51" s="35">
         <f>R51</f>
         <v>37740</v>
       </c>
-      <c r="AD51" s="36">
+      <c r="AD51" s="35">
         <f t="shared" si="104"/>
         <v>40321</v>
       </c>
     </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="36"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="36"/>
-      <c r="V52" s="36"/>
-      <c r="W52" s="36"/>
-    </row>
-    <row r="53" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+    </row>
+    <row r="53" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="18">
         <v>6</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H53" s="18">
         <v>6</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I53" s="18">
         <v>6</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J53" s="18">
         <v>6</v>
       </c>
-      <c r="K53" s="19">
+      <c r="K53" s="18">
         <v>6</v>
       </c>
-      <c r="L53" s="19">
+      <c r="L53" s="18">
         <v>6</v>
       </c>
-      <c r="M53" s="19">
+      <c r="M53" s="18">
         <v>4</v>
       </c>
-      <c r="N53" s="19">
+      <c r="N53" s="18">
         <v>3</v>
       </c>
-      <c r="O53" s="19">
+      <c r="O53" s="18">
         <v>1</v>
       </c>
-      <c r="P53" s="35">
+      <c r="P53" s="34">
         <v>0</v>
       </c>
-      <c r="Q53" s="35">
+      <c r="Q53" s="34">
         <v>0</v>
       </c>
-      <c r="R53" s="35">
+      <c r="R53" s="34">
         <v>0</v>
       </c>
-      <c r="S53" s="35">
+      <c r="S53" s="34">
         <v>0</v>
       </c>
-      <c r="T53" s="35">
+      <c r="T53" s="34">
         <v>0</v>
       </c>
-      <c r="U53" s="35">
+      <c r="U53" s="34">
         <v>0</v>
       </c>
-      <c r="V53" s="35">
+      <c r="V53" s="34">
         <v>500</v>
       </c>
-      <c r="W53" s="35">
+      <c r="W53" s="34">
         <v>500</v>
       </c>
-      <c r="AC53" s="35">
+      <c r="AC53" s="34">
         <f>R53</f>
         <v>0</v>
       </c>
-      <c r="AD53" s="35">
+      <c r="AD53" s="34">
         <f t="shared" ref="AD53:AD54" si="110">V53</f>
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G54" s="18">
         <v>13</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H54" s="18">
         <v>9</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I54" s="18">
         <v>16</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J54" s="18">
         <v>9</v>
       </c>
-      <c r="K54" s="50">
+      <c r="K54" s="48">
         <v>250</v>
       </c>
-      <c r="L54" s="19">
+      <c r="L54" s="18">
         <v>300</v>
       </c>
-      <c r="M54" s="19">
+      <c r="M54" s="18">
         <v>9</v>
       </c>
-      <c r="N54" s="19">
+      <c r="N54" s="18">
         <v>248</v>
       </c>
-      <c r="O54" s="19">
+      <c r="O54" s="18">
         <v>137</v>
       </c>
-      <c r="P54" s="35">
+      <c r="P54" s="34">
         <v>41</v>
       </c>
-      <c r="Q54" s="35">
+      <c r="Q54" s="34">
         <v>4</v>
       </c>
-      <c r="R54" s="35">
+      <c r="R54" s="34">
         <v>2</v>
       </c>
-      <c r="S54" s="35">
+      <c r="S54" s="34">
         <v>15</v>
       </c>
-      <c r="T54" s="35">
+      <c r="T54" s="34">
         <v>9</v>
       </c>
-      <c r="U54" s="35">
+      <c r="U54" s="34">
         <v>0</v>
       </c>
-      <c r="V54" s="35">
+      <c r="V54" s="34">
         <v>10</v>
       </c>
-      <c r="W54" s="35">
+      <c r="W54" s="34">
         <v>9</v>
       </c>
-      <c r="AC54" s="35">
+      <c r="AC54" s="34">
         <f>R54</f>
         <v>2</v>
       </c>
-      <c r="AD54" s="35">
+      <c r="AD54" s="34">
         <f t="shared" si="110"/>
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G55" s="20">
+      <c r="G55" s="19">
         <v>2333</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="19">
         <v>2574</v>
       </c>
-      <c r="I55" s="20">
+      <c r="I55" s="19">
         <v>2307</v>
       </c>
-      <c r="J55" s="20">
+      <c r="J55" s="19">
         <v>2612</v>
       </c>
-      <c r="K55" s="20">
+      <c r="K55" s="19">
         <v>2716</v>
       </c>
-      <c r="L55" s="20">
+      <c r="L55" s="19">
         <v>2627</v>
       </c>
-      <c r="M55" s="20">
+      <c r="M55" s="19">
         <v>2221</v>
       </c>
-      <c r="N55" s="20">
+      <c r="N55" s="19">
         <v>2248</v>
       </c>
-      <c r="O55" s="20">
+      <c r="O55" s="19">
         <v>1983</v>
       </c>
-      <c r="P55" s="36">
+      <c r="P55" s="35">
         <v>2154</v>
       </c>
-      <c r="Q55" s="36">
+      <c r="Q55" s="35">
         <v>2257</v>
       </c>
-      <c r="R55" s="36">
+      <c r="R55" s="35">
         <v>2836</v>
       </c>
-      <c r="S55" s="36">
+      <c r="S55" s="35">
         <v>2135</v>
       </c>
-      <c r="T55" s="36">
+      <c r="T55" s="35">
         <v>2795</v>
       </c>
-      <c r="U55" s="36">
+      <c r="U55" s="35">
         <v>2770</v>
       </c>
-      <c r="V55" s="36">
+      <c r="V55" s="35">
         <v>3358</v>
       </c>
-      <c r="W55" s="36">
+      <c r="W55" s="35">
         <v>3371</v>
       </c>
-      <c r="AC55" s="36">
+      <c r="AC55" s="35">
         <f t="shared" ref="AC55:AC58" si="111">R55</f>
         <v>2836</v>
       </c>
-      <c r="AD55" s="36">
+      <c r="AD55" s="35">
         <f t="shared" ref="AD55:AD59" si="112">V55</f>
         <v>3358</v>
       </c>
     </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G56" s="19">
         <v>0</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="19">
         <v>0</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I56" s="19">
         <v>0</v>
       </c>
-      <c r="J56" s="20">
+      <c r="J56" s="19">
         <v>0</v>
       </c>
-      <c r="K56" s="20">
+      <c r="K56" s="19">
         <v>427</v>
       </c>
-      <c r="L56" s="20">
+      <c r="L56" s="19">
         <v>431</v>
       </c>
-      <c r="M56" s="20">
+      <c r="M56" s="19">
         <v>422</v>
       </c>
-      <c r="N56" s="20">
+      <c r="N56" s="19">
         <v>445</v>
       </c>
-      <c r="O56" s="20">
+      <c r="O56" s="19">
         <v>459</v>
       </c>
-      <c r="P56" s="36">
+      <c r="P56" s="35">
         <v>458</v>
       </c>
-      <c r="Q56" s="36">
+      <c r="Q56" s="35">
         <v>470</v>
       </c>
-      <c r="R56" s="36">
+      <c r="R56" s="35">
         <v>467</v>
       </c>
-      <c r="S56" s="36">
+      <c r="S56" s="35">
         <v>462</v>
       </c>
-      <c r="T56" s="36">
+      <c r="T56" s="35">
         <v>462</v>
       </c>
-      <c r="U56" s="36">
+      <c r="U56" s="35">
         <v>455</v>
       </c>
-      <c r="V56" s="36">
+      <c r="V56" s="35">
         <v>420</v>
       </c>
-      <c r="W56" s="36">
+      <c r="W56" s="35">
         <v>424</v>
       </c>
-      <c r="AC56" s="36">
+      <c r="AC56" s="35">
         <f t="shared" si="111"/>
         <v>467</v>
       </c>
-      <c r="AD56" s="36">
+      <c r="AD56" s="35">
         <f t="shared" si="112"/>
         <v>420</v>
       </c>
     </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G57" s="20">
+      <c r="G57" s="19">
         <v>4174</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H57" s="19">
         <v>4478</v>
       </c>
-      <c r="I57" s="20">
+      <c r="I57" s="19">
         <v>4738</v>
       </c>
-      <c r="J57" s="20">
+      <c r="J57" s="19">
         <v>5010</v>
       </c>
-      <c r="K57" s="20">
+      <c r="K57" s="19">
         <v>4455</v>
       </c>
-      <c r="L57" s="20">
+      <c r="L57" s="19">
         <v>4672</v>
       </c>
-      <c r="M57" s="20">
+      <c r="M57" s="19">
         <v>5356</v>
       </c>
-      <c r="N57" s="20">
+      <c r="N57" s="19">
         <v>5184</v>
       </c>
-      <c r="O57" s="20">
+      <c r="O57" s="19">
         <v>5742</v>
       </c>
-      <c r="P57" s="36">
+      <c r="P57" s="35">
         <v>6030</v>
       </c>
-      <c r="Q57" s="36">
+      <c r="Q57" s="35">
         <v>5907</v>
       </c>
-      <c r="R57" s="36">
+      <c r="R57" s="35">
         <v>6063</v>
       </c>
-      <c r="S57" s="36">
+      <c r="S57" s="35">
         <v>5296</v>
       </c>
-      <c r="T57" s="36">
+      <c r="T57" s="35">
         <v>5431</v>
       </c>
-      <c r="U57" s="36">
+      <c r="U57" s="35">
         <v>5391</v>
       </c>
-      <c r="V57" s="36">
+      <c r="V57" s="35">
         <v>6220</v>
       </c>
-      <c r="W57" s="36">
+      <c r="W57" s="35">
         <v>6277</v>
       </c>
-      <c r="AC57" s="36">
+      <c r="AC57" s="35">
         <f t="shared" si="111"/>
         <v>6063</v>
       </c>
-      <c r="AD57" s="36">
+      <c r="AD57" s="35">
         <f t="shared" si="112"/>
         <v>6220</v>
       </c>
     </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G58" s="20">
+      <c r="G58" s="19">
         <v>182</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="19">
         <v>211</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I58" s="19">
         <v>214</v>
       </c>
-      <c r="J58" s="20">
+      <c r="J58" s="19">
         <v>229</v>
       </c>
-      <c r="K58" s="20">
+      <c r="K58" s="19">
         <v>216</v>
       </c>
-      <c r="L58" s="20">
+      <c r="L58" s="19">
         <v>228</v>
       </c>
-      <c r="M58" s="20">
+      <c r="M58" s="19">
         <v>268</v>
       </c>
-      <c r="N58" s="20">
+      <c r="N58" s="19">
         <v>156</v>
       </c>
-      <c r="O58" s="20">
+      <c r="O58" s="19">
         <v>297</v>
       </c>
-      <c r="P58" s="36">
+      <c r="P58" s="35">
         <v>188</v>
       </c>
-      <c r="Q58" s="36">
+      <c r="Q58" s="35">
         <v>256</v>
       </c>
-      <c r="R58" s="36">
+      <c r="R58" s="35">
         <v>306</v>
       </c>
-      <c r="S58" s="36">
+      <c r="S58" s="35">
         <v>361</v>
       </c>
-      <c r="T58" s="36">
+      <c r="T58" s="35">
         <v>160</v>
       </c>
-      <c r="U58" s="36">
+      <c r="U58" s="35">
         <v>202</v>
       </c>
-      <c r="V58" s="36">
+      <c r="V58" s="35">
         <v>222</v>
       </c>
-      <c r="W58" s="36">
+      <c r="W58" s="35">
         <v>338</v>
       </c>
-      <c r="AC58" s="36">
+      <c r="AC58" s="35">
         <f t="shared" si="111"/>
         <v>306</v>
       </c>
-      <c r="AD58" s="36">
+      <c r="AD58" s="35">
         <f t="shared" si="112"/>
         <v>222</v>
       </c>
     </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G59" s="19">
         <f t="shared" ref="G59:L59" si="113">SUM(G53:G58)</f>
         <v>6708</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="19">
         <f t="shared" si="113"/>
         <v>7278</v>
       </c>
-      <c r="I59" s="20">
+      <c r="I59" s="19">
         <f t="shared" si="113"/>
         <v>7281</v>
       </c>
-      <c r="J59" s="20">
+      <c r="J59" s="19">
         <f t="shared" si="113"/>
         <v>7866</v>
       </c>
-      <c r="K59" s="20">
+      <c r="K59" s="19">
         <f t="shared" si="113"/>
         <v>8070</v>
       </c>
-      <c r="L59" s="20">
+      <c r="L59" s="19">
         <f t="shared" si="113"/>
         <v>8264</v>
       </c>
-      <c r="M59" s="20">
+      <c r="M59" s="19">
         <f t="shared" ref="M59:W59" si="114">SUM(M53:M58)</f>
         <v>8280</v>
       </c>
-      <c r="N59" s="20">
+      <c r="N59" s="19">
         <f t="shared" si="114"/>
         <v>8284</v>
       </c>
-      <c r="O59" s="20">
+      <c r="O59" s="19">
         <f t="shared" si="114"/>
         <v>8619</v>
       </c>
-      <c r="P59" s="36">
+      <c r="P59" s="35">
         <f t="shared" si="114"/>
         <v>8871</v>
       </c>
-      <c r="Q59" s="36">
+      <c r="Q59" s="35">
         <f t="shared" si="114"/>
         <v>8894</v>
       </c>
-      <c r="R59" s="36">
+      <c r="R59" s="35">
         <f t="shared" si="114"/>
         <v>9674</v>
       </c>
-      <c r="S59" s="36">
+      <c r="S59" s="35">
         <f t="shared" si="114"/>
         <v>8269</v>
       </c>
-      <c r="T59" s="36">
+      <c r="T59" s="35">
         <f t="shared" si="114"/>
         <v>8857</v>
       </c>
-      <c r="U59" s="36">
+      <c r="U59" s="35">
         <f t="shared" si="114"/>
         <v>8818</v>
       </c>
-      <c r="V59" s="36">
+      <c r="V59" s="35">
         <f t="shared" si="114"/>
         <v>10730</v>
       </c>
-      <c r="W59" s="36">
+      <c r="W59" s="35">
         <f t="shared" si="114"/>
         <v>10919</v>
       </c>
-      <c r="AC59" s="36">
+      <c r="AC59" s="35">
         <f>R59</f>
         <v>9674</v>
       </c>
-      <c r="AD59" s="36">
+      <c r="AD59" s="35">
         <f t="shared" si="112"/>
         <v>10730</v>
       </c>
     </row>
-    <row r="60" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G60" s="19">
+      <c r="G60" s="18">
         <v>3467</v>
       </c>
-      <c r="H60" s="19">
+      <c r="H60" s="18">
         <v>3466</v>
       </c>
-      <c r="I60" s="19">
+      <c r="I60" s="18">
         <v>3465</v>
       </c>
-      <c r="J60" s="19">
+      <c r="J60" s="18">
         <v>3464</v>
       </c>
-      <c r="K60" s="19">
+      <c r="K60" s="18">
         <v>3463</v>
       </c>
-      <c r="L60" s="19">
+      <c r="L60" s="18">
         <v>3462</v>
       </c>
-      <c r="M60" s="19">
+      <c r="M60" s="18">
         <v>3463</v>
       </c>
-      <c r="N60" s="19">
+      <c r="N60" s="18">
         <v>9406</v>
       </c>
-      <c r="O60" s="19">
+      <c r="O60" s="18">
         <v>9408</v>
       </c>
-      <c r="P60" s="35">
+      <c r="P60" s="34">
         <v>9410</v>
       </c>
-      <c r="Q60" s="35">
+      <c r="Q60" s="34">
         <v>9412</v>
       </c>
-      <c r="R60" s="35">
+      <c r="R60" s="34">
         <v>9413</v>
       </c>
-      <c r="S60" s="35">
+      <c r="S60" s="34">
         <v>9415</v>
       </c>
-      <c r="T60" s="35">
+      <c r="T60" s="34">
         <v>9417</v>
       </c>
-      <c r="U60" s="35">
+      <c r="U60" s="34">
         <v>9418</v>
       </c>
-      <c r="V60" s="35">
+      <c r="V60" s="34">
         <v>8920</v>
       </c>
-      <c r="W60" s="35">
+      <c r="W60" s="34">
         <v>8922</v>
       </c>
-      <c r="AC60" s="35">
+      <c r="AC60" s="34">
         <f>R60</f>
         <v>9413</v>
       </c>
-      <c r="AD60" s="35">
+      <c r="AD60" s="34">
         <f>V60</f>
         <v>8920</v>
       </c>
     </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G61" s="20">
+      <c r="G61" s="19">
         <v>0</v>
       </c>
-      <c r="H61" s="20">
+      <c r="H61" s="19">
         <v>0</v>
       </c>
-      <c r="I61" s="20">
+      <c r="I61" s="19">
         <v>0</v>
       </c>
-      <c r="J61" s="20">
+      <c r="J61" s="19">
         <v>0</v>
       </c>
-      <c r="K61" s="20">
+      <c r="K61" s="19">
         <v>2675</v>
       </c>
-      <c r="L61" s="20">
+      <c r="L61" s="19">
         <v>2723</v>
       </c>
-      <c r="M61" s="20">
+      <c r="M61" s="19">
         <v>2758</v>
       </c>
-      <c r="N61" s="20">
+      <c r="N61" s="19">
         <v>2913</v>
       </c>
-      <c r="O61" s="20">
+      <c r="O61" s="19">
         <v>2961</v>
       </c>
-      <c r="P61" s="36">
+      <c r="P61" s="35">
         <v>2896</v>
       </c>
-      <c r="Q61" s="36">
+      <c r="Q61" s="35">
         <v>2964</v>
       </c>
-      <c r="R61" s="36">
+      <c r="R61" s="35">
         <v>2931</v>
       </c>
-      <c r="S61" s="36">
+      <c r="S61" s="35">
         <v>2898</v>
       </c>
-      <c r="T61" s="36">
+      <c r="T61" s="35">
         <v>2835</v>
       </c>
-      <c r="U61" s="36">
+      <c r="U61" s="35">
         <v>2784</v>
       </c>
-      <c r="V61" s="36">
+      <c r="V61" s="35">
         <v>2777</v>
       </c>
-      <c r="W61" s="36">
+      <c r="W61" s="35">
         <v>2736</v>
       </c>
-      <c r="AC61" s="36">
+      <c r="AC61" s="35">
         <f t="shared" ref="AC61:AC63" si="115">R61</f>
         <v>2931</v>
       </c>
-      <c r="AD61" s="36">
+      <c r="AD61" s="35">
         <f t="shared" ref="AD61:AD64" si="116">V61</f>
         <v>2777</v>
       </c>
     </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G62" s="20">
+      <c r="G62" s="19">
         <v>3316</v>
       </c>
-      <c r="H62" s="20">
+      <c r="H62" s="19">
         <v>3204</v>
       </c>
-      <c r="I62" s="20">
+      <c r="I62" s="19">
         <v>3214</v>
       </c>
-      <c r="J62" s="20">
+      <c r="J62" s="19">
         <v>3347</v>
       </c>
-      <c r="K62" s="20">
+      <c r="K62" s="19">
         <v>2841</v>
       </c>
-      <c r="L62" s="20">
+      <c r="L62" s="19">
         <v>2802</v>
       </c>
-      <c r="M62" s="20">
+      <c r="M62" s="19">
         <v>2674</v>
       </c>
-      <c r="N62" s="20">
+      <c r="N62" s="19">
         <v>2684</v>
       </c>
-      <c r="O62" s="20">
+      <c r="O62" s="19">
         <v>3046</v>
       </c>
-      <c r="P62" s="36">
+      <c r="P62" s="35">
         <v>3019</v>
       </c>
-      <c r="Q62" s="36">
+      <c r="Q62" s="35">
         <v>2984</v>
       </c>
-      <c r="R62" s="36">
+      <c r="R62" s="35">
         <v>2955</v>
       </c>
-      <c r="S62" s="36">
+      <c r="S62" s="35">
         <v>2992</v>
       </c>
-      <c r="T62" s="36">
+      <c r="T62" s="35">
         <v>2884</v>
       </c>
-      <c r="U62" s="36">
+      <c r="U62" s="35">
         <v>2748</v>
       </c>
-      <c r="V62" s="36">
+      <c r="V62" s="35">
         <v>2613</v>
       </c>
-      <c r="W62" s="36">
+      <c r="W62" s="35">
         <v>2689</v>
       </c>
-      <c r="AC62" s="36">
+      <c r="AC62" s="35">
         <f t="shared" si="115"/>
         <v>2955</v>
       </c>
-      <c r="AD62" s="36">
+      <c r="AD62" s="35">
         <f t="shared" si="116"/>
         <v>2613</v>
       </c>
     </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G63" s="20">
+      <c r="G63" s="19">
         <v>0</v>
       </c>
-      <c r="H63" s="20">
+      <c r="H63" s="19">
         <v>0</v>
       </c>
-      <c r="I63" s="20">
+      <c r="I63" s="19">
         <v>0</v>
       </c>
-      <c r="J63" s="20">
+      <c r="J63" s="19">
         <v>0</v>
       </c>
-      <c r="K63" s="20">
+      <c r="K63" s="19">
         <v>0</v>
       </c>
-      <c r="L63" s="20">
+      <c r="L63" s="19">
         <v>0</v>
       </c>
-      <c r="M63" s="20">
+      <c r="M63" s="19">
         <v>0</v>
       </c>
-      <c r="N63" s="20">
+      <c r="N63" s="19">
         <v>0</v>
       </c>
-      <c r="O63" s="20">
+      <c r="O63" s="19">
         <v>0</v>
       </c>
-      <c r="P63" s="36">
+      <c r="P63" s="35">
         <v>0</v>
       </c>
-      <c r="Q63" s="36">
+      <c r="Q63" s="35">
         <v>0</v>
       </c>
-      <c r="R63" s="36">
+      <c r="R63" s="35">
         <v>0</v>
       </c>
-      <c r="S63" s="36">
+      <c r="S63" s="35">
         <v>0</v>
       </c>
-      <c r="T63" s="36">
+      <c r="T63" s="35">
         <v>0</v>
       </c>
-      <c r="U63" s="36">
+      <c r="U63" s="35">
         <v>0</v>
       </c>
-      <c r="V63" s="36">
+      <c r="V63" s="35">
         <v>0</v>
       </c>
-      <c r="W63" s="36">
+      <c r="W63" s="35">
         <v>0</v>
       </c>
-      <c r="AC63" s="36">
+      <c r="AC63" s="35">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AD63" s="36">
+      <c r="AD63" s="35">
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G64" s="20">
+      <c r="G64" s="19">
         <f t="shared" ref="G64:L64" si="117">G59+SUM(G60:G63)</f>
         <v>13491</v>
       </c>
-      <c r="H64" s="20">
+      <c r="H64" s="19">
         <f t="shared" si="117"/>
         <v>13948</v>
       </c>
-      <c r="I64" s="20">
+      <c r="I64" s="19">
         <f t="shared" si="117"/>
         <v>13960</v>
       </c>
-      <c r="J64" s="20">
+      <c r="J64" s="19">
         <f t="shared" si="117"/>
         <v>14677</v>
       </c>
-      <c r="K64" s="20">
+      <c r="K64" s="19">
         <f t="shared" si="117"/>
         <v>17049</v>
       </c>
-      <c r="L64" s="20">
+      <c r="L64" s="19">
         <f t="shared" si="117"/>
         <v>17251</v>
       </c>
-      <c r="M64" s="20">
+      <c r="M64" s="19">
         <f t="shared" ref="M64:W64" si="118">M59+SUM(M60:M63)</f>
         <v>17175</v>
       </c>
-      <c r="N64" s="20">
+      <c r="N64" s="19">
         <f t="shared" si="118"/>
         <v>23287</v>
       </c>
-      <c r="O64" s="20">
+      <c r="O64" s="19">
         <f t="shared" si="118"/>
         <v>24034</v>
       </c>
-      <c r="P64" s="36">
+      <c r="P64" s="35">
         <f t="shared" si="118"/>
         <v>24196</v>
       </c>
-      <c r="Q64" s="36">
+      <c r="Q64" s="35">
         <f t="shared" si="118"/>
         <v>24254</v>
       </c>
-      <c r="R64" s="36">
+      <c r="R64" s="35">
         <f t="shared" si="118"/>
         <v>24973</v>
       </c>
-      <c r="S64" s="36">
+      <c r="S64" s="35">
         <f t="shared" si="118"/>
         <v>23574</v>
       </c>
-      <c r="T64" s="36">
+      <c r="T64" s="35">
         <f t="shared" si="118"/>
         <v>23993</v>
       </c>
-      <c r="U64" s="36">
+      <c r="U64" s="35">
         <f t="shared" si="118"/>
         <v>23768</v>
       </c>
-      <c r="V64" s="36">
+      <c r="V64" s="35">
         <f t="shared" si="118"/>
         <v>25040</v>
       </c>
-      <c r="W64" s="36">
+      <c r="W64" s="35">
         <f t="shared" si="118"/>
         <v>25266</v>
       </c>
-      <c r="AC64" s="36">
+      <c r="AC64" s="35">
         <f>R64</f>
         <v>24973</v>
       </c>
-      <c r="AD64" s="36">
+      <c r="AD64" s="35">
         <f t="shared" si="116"/>
         <v>25040</v>
       </c>
     </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="36"/>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="36"/>
-      <c r="S65" s="36"/>
-      <c r="T65" s="36"/>
-      <c r="U65" s="36"/>
-      <c r="V65" s="36"/>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35"/>
+      <c r="V65" s="35"/>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G66" s="20">
+      <c r="G66" s="19">
         <v>8992</v>
       </c>
-      <c r="H66" s="20">
+      <c r="H66" s="19">
         <v>8729</v>
       </c>
-      <c r="I66" s="20">
+      <c r="I66" s="19">
         <v>8961</v>
       </c>
-      <c r="J66" s="20">
+      <c r="J66" s="19">
         <v>9040</v>
       </c>
-      <c r="K66" s="20">
+      <c r="K66" s="19">
         <v>9200</v>
       </c>
-      <c r="L66" s="20">
+      <c r="L66" s="19">
         <v>9351</v>
       </c>
-      <c r="M66" s="20">
+      <c r="M66" s="19">
         <v>9045</v>
       </c>
-      <c r="N66" s="20">
+      <c r="N66" s="19">
         <v>8055</v>
       </c>
-      <c r="O66" s="20">
+      <c r="O66" s="19">
         <v>9224</v>
       </c>
-      <c r="P66" s="36">
+      <c r="P66" s="35">
         <v>10640</v>
       </c>
-      <c r="Q66" s="36">
+      <c r="Q66" s="35">
         <v>11931</v>
       </c>
-      <c r="R66" s="36">
+      <c r="R66" s="35">
         <v>12767</v>
       </c>
-      <c r="S66" s="36">
+      <c r="S66" s="35">
         <v>14343</v>
       </c>
-      <c r="T66" s="36">
+      <c r="T66" s="35">
         <v>14924</v>
       </c>
-      <c r="U66" s="36">
+      <c r="U66" s="35">
         <v>14809</v>
       </c>
-      <c r="V66" s="36">
+      <c r="V66" s="35">
         <v>15281</v>
       </c>
-      <c r="W66" s="36">
+      <c r="W66" s="35">
         <v>15822</v>
       </c>
-      <c r="AC66" s="36">
+      <c r="AC66" s="35">
         <f>R66</f>
         <v>12767</v>
       </c>
-      <c r="AD66" s="36">
+      <c r="AD66" s="35">
         <v>15281</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G67" s="20">
+      <c r="G67" s="19">
         <f t="shared" ref="G67:W67" si="119">G66+G64</f>
         <v>22483</v>
       </c>
-      <c r="H67" s="20">
+      <c r="H67" s="19">
         <f t="shared" si="119"/>
         <v>22677</v>
       </c>
-      <c r="I67" s="20">
+      <c r="I67" s="19">
         <f t="shared" si="119"/>
         <v>22921</v>
       </c>
-      <c r="J67" s="20">
+      <c r="J67" s="19">
         <f t="shared" si="119"/>
         <v>23717</v>
       </c>
-      <c r="K67" s="20">
+      <c r="K67" s="19">
         <f t="shared" si="119"/>
         <v>26249</v>
       </c>
-      <c r="L67" s="20">
+      <c r="L67" s="19">
         <f t="shared" si="119"/>
         <v>26602</v>
       </c>
-      <c r="M67" s="20">
+      <c r="M67" s="19">
         <f t="shared" si="119"/>
         <v>26220</v>
       </c>
-      <c r="N67" s="20">
+      <c r="N67" s="19">
         <f t="shared" si="119"/>
         <v>31342</v>
       </c>
-      <c r="O67" s="20">
+      <c r="O67" s="19">
         <f t="shared" si="119"/>
         <v>33258</v>
       </c>
-      <c r="P67" s="36">
+      <c r="P67" s="35">
         <f t="shared" si="119"/>
         <v>34836</v>
       </c>
-      <c r="Q67" s="36">
+      <c r="Q67" s="35">
         <f t="shared" si="119"/>
         <v>36185</v>
       </c>
-      <c r="R67" s="36">
+      <c r="R67" s="35">
         <f t="shared" si="119"/>
         <v>37740</v>
       </c>
-      <c r="S67" s="36">
+      <c r="S67" s="35">
         <f t="shared" si="119"/>
         <v>37917</v>
       </c>
-      <c r="T67" s="36">
+      <c r="T67" s="35">
         <f t="shared" si="119"/>
         <v>38917</v>
       </c>
-      <c r="U67" s="36">
+      <c r="U67" s="35">
         <f t="shared" si="119"/>
         <v>38577</v>
       </c>
-      <c r="V67" s="36">
+      <c r="V67" s="35">
         <f t="shared" si="119"/>
         <v>40321</v>
       </c>
-      <c r="W67" s="36">
+      <c r="W67" s="35">
         <f t="shared" si="119"/>
         <v>41088</v>
       </c>
-      <c r="AC67" s="36">
+      <c r="AC67" s="35">
         <f>AC66+AC64</f>
         <v>37740</v>
       </c>
-      <c r="AD67" s="36">
+      <c r="AD67" s="35">
         <f>AD66+AD64</f>
         <v>40321</v>
       </c>
     </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
-      <c r="O68" s="20"/>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="36"/>
-      <c r="U68" s="36"/>
-      <c r="V68" s="36"/>
-      <c r="AD68" s="36"/>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="35"/>
+      <c r="V68" s="35"/>
+      <c r="AD68" s="35"/>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G69" s="20">
+      <c r="G69" s="19">
         <f t="shared" ref="G69:V69" si="120">G51-G64</f>
         <v>8992</v>
       </c>
-      <c r="H69" s="20">
+      <c r="H69" s="19">
         <f t="shared" si="120"/>
         <v>8729</v>
       </c>
-      <c r="I69" s="20">
+      <c r="I69" s="19">
         <f t="shared" si="120"/>
         <v>8961</v>
       </c>
-      <c r="J69" s="20">
+      <c r="J69" s="19">
         <f t="shared" si="120"/>
         <v>9040</v>
       </c>
-      <c r="K69" s="20">
+      <c r="K69" s="19">
         <f t="shared" si="120"/>
         <v>9200</v>
       </c>
-      <c r="L69" s="20">
+      <c r="L69" s="19">
         <f t="shared" si="120"/>
         <v>9351</v>
       </c>
-      <c r="M69" s="20">
+      <c r="M69" s="19">
         <f t="shared" si="120"/>
         <v>9045</v>
       </c>
-      <c r="N69" s="20">
+      <c r="N69" s="19">
         <f t="shared" si="120"/>
         <v>8165</v>
       </c>
-      <c r="O69" s="20">
+      <c r="O69" s="19">
         <f t="shared" si="120"/>
         <v>9224</v>
       </c>
-      <c r="P69" s="36">
+      <c r="P69" s="35">
         <f t="shared" si="120"/>
         <v>10640</v>
       </c>
-      <c r="Q69" s="36">
+      <c r="Q69" s="35">
         <f t="shared" si="120"/>
         <v>11931</v>
       </c>
-      <c r="R69" s="36">
+      <c r="R69" s="35">
         <f t="shared" si="120"/>
         <v>12767</v>
       </c>
-      <c r="S69" s="36">
+      <c r="S69" s="35">
         <f t="shared" si="120"/>
         <v>14343</v>
       </c>
-      <c r="T69" s="36">
+      <c r="T69" s="35">
         <f t="shared" si="120"/>
         <v>14924</v>
       </c>
-      <c r="U69" s="36">
+      <c r="U69" s="35">
         <f t="shared" si="120"/>
         <v>14809</v>
       </c>
-      <c r="V69" s="36">
+      <c r="V69" s="35">
         <f t="shared" si="120"/>
         <v>15281</v>
       </c>
-      <c r="W69" s="36">
+      <c r="W69" s="35">
         <f t="shared" ref="W69" si="121">W51-W64</f>
         <v>15822</v>
       </c>
-      <c r="AC69" s="36">
+      <c r="AC69" s="35">
         <f>AC51-AC64</f>
         <v>12767</v>
       </c>
-      <c r="AD69" s="36">
+      <c r="AD69" s="35">
         <f>AD51-AD64</f>
         <v>15281</v>
       </c>
     </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G70" s="20">
+      <c r="G70" s="19">
         <f t="shared" ref="G70:V70" si="122">G69/G23</f>
         <v>5.6411543287327479</v>
       </c>
-      <c r="H70" s="20">
+      <c r="H70" s="19">
         <f t="shared" si="122"/>
         <v>5.519792588845327</v>
       </c>
-      <c r="I70" s="20">
+      <c r="I70" s="19">
         <f t="shared" si="122"/>
         <v>5.6974821973550354</v>
       </c>
-      <c r="J70" s="20">
+      <c r="J70" s="19">
         <f t="shared" si="122"/>
         <v>5.7572283785505025</v>
       </c>
-      <c r="K70" s="20">
+      <c r="K70" s="19">
         <f t="shared" si="122"/>
         <v>5.888376856118791</v>
       </c>
-      <c r="L70" s="20">
+      <c r="L70" s="19">
         <f t="shared" si="122"/>
         <v>5.9919261822376013</v>
       </c>
-      <c r="M70" s="20">
+      <c r="M70" s="19">
         <f t="shared" si="122"/>
         <v>5.8118614662982715</v>
       </c>
-      <c r="N70" s="20">
+      <c r="N70" s="19">
         <f t="shared" si="122"/>
         <v>5.2484412161727834</v>
       </c>
-      <c r="O70" s="20">
+      <c r="O70" s="19">
         <f t="shared" si="122"/>
         <v>5.9060058906390065</v>
       </c>
-      <c r="P70" s="20">
+      <c r="P70" s="19">
         <f t="shared" si="122"/>
         <v>6.7641449459631282</v>
       </c>
-      <c r="Q70" s="20">
+      <c r="Q70" s="19">
         <f t="shared" si="122"/>
         <v>7.5608365019011403</v>
       </c>
-      <c r="R70" s="20">
+      <c r="R70" s="19">
         <f t="shared" si="122"/>
         <v>8.0854971500949961</v>
       </c>
-      <c r="S70" s="41">
+      <c r="S70" s="39">
         <f t="shared" si="122"/>
         <v>9.0669448131993171</v>
       </c>
-      <c r="T70" s="41">
+      <c r="T70" s="39">
         <f t="shared" si="122"/>
         <v>9.4515516149461689</v>
       </c>
-      <c r="U70" s="41">
+      <c r="U70" s="39">
         <f t="shared" si="122"/>
         <v>9.3787207093096896</v>
       </c>
-      <c r="V70" s="41">
+      <c r="V70" s="39">
         <f t="shared" si="122"/>
         <v>9.7207379134860048</v>
       </c>
-      <c r="W70" s="41">
+      <c r="W70" s="39">
         <f t="shared" ref="W70" si="123">W69/W23</f>
         <v>10.096356326973391</v>
       </c>
-      <c r="AC70" s="41">
+      <c r="AC70" s="39">
         <f>AC69/AC23</f>
         <v>8.1165962045837432</v>
       </c>
-      <c r="AD70" s="41">
+      <c r="AD70" s="39">
         <f>AD69/AD23</f>
         <v>9.6839303537762014</v>
       </c>
     </row>
-    <row r="72" spans="2:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="33" t="s">
+    <row r="72" spans="2:30" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="G72" s="24" t="s">
+      <c r="G72" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="H72" s="24" t="s">
+      <c r="H72" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="I72" s="24" t="s">
+      <c r="I72" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="J72" s="24" t="s">
+      <c r="J72" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="K72" s="34">
+      <c r="K72" s="33">
         <f>K44/G44-1</f>
         <v>0.11631911230151148</v>
       </c>
-      <c r="L72" s="34">
+      <c r="L72" s="33">
         <f>L44/H44-1</f>
         <v>0.15051967334818106</v>
       </c>
-      <c r="M72" s="34">
+      <c r="M72" s="33">
         <f>M44/I44-1</f>
         <v>7.2391505078485796E-2</v>
       </c>
-      <c r="N72" s="34">
+      <c r="N72" s="33">
         <f>N44/J44-1</f>
         <v>0.31038776236214871</v>
       </c>
-      <c r="O72" s="34">
+      <c r="O72" s="33">
         <f t="shared" ref="O72:P72" si="124">O44/K44-1</f>
         <v>0.14910025706940866</v>
       </c>
-      <c r="P72" s="34">
+      <c r="P72" s="33">
         <f t="shared" si="124"/>
         <v>-1.7583481206646212E-2</v>
       </c>
-      <c r="Q72" s="34">
+      <c r="Q72" s="33">
         <f t="shared" ref="Q72:V72" si="125">Q44/M44-1</f>
         <v>0.15257447907697608</v>
       </c>
-      <c r="R72" s="34">
+      <c r="R72" s="33">
         <f t="shared" si="125"/>
         <v>-6.963485815121484E-2</v>
       </c>
-      <c r="S72" s="34">
+      <c r="S72" s="33">
         <f t="shared" si="125"/>
         <v>-8.9485458612970081E-4</v>
       </c>
-      <c r="T72" s="34">
+      <c r="T72" s="33">
         <f t="shared" si="125"/>
         <v>6.8308702791461506E-2</v>
       </c>
-      <c r="U72" s="34">
+      <c r="U72" s="33">
         <f t="shared" si="125"/>
         <v>0.15045569998505903</v>
       </c>
-      <c r="V72" s="34">
+      <c r="V72" s="33">
         <f t="shared" si="125"/>
         <v>0.22847971987160776</v>
       </c>
-      <c r="W72" s="34">
+      <c r="W72" s="33">
         <f t="shared" ref="W72" si="126">W44/S44-1</f>
         <v>0.44230482161516638</v>
       </c>
-      <c r="AD72" s="34">
+      <c r="AD72" s="33">
         <f>AD44/AC44-1</f>
         <v>0.22847971987160776</v>
       </c>
     </row>
-    <row r="73" spans="2:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="33" t="s">
+    <row r="73" spans="2:30" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="G73" s="24" t="s">
+      <c r="G73" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="H73" s="34">
+      <c r="H73" s="33">
         <f t="shared" ref="H73:V73" si="127">H44/G44-1</f>
         <v>3.0801607040367385E-2</v>
       </c>
-      <c r="I73" s="34">
+      <c r="I73" s="33">
         <f t="shared" si="127"/>
         <v>5.0111358574609355E-3</v>
       </c>
-      <c r="J73" s="34">
+      <c r="J73" s="33">
         <f t="shared" si="127"/>
         <v>3.8227146814404422E-2</v>
       </c>
-      <c r="K73" s="34">
+      <c r="K73" s="33">
         <f t="shared" si="127"/>
         <v>3.7886872998932786E-2</v>
       </c>
-      <c r="L73" s="34">
+      <c r="L73" s="33">
         <f t="shared" si="127"/>
         <v>6.2382176520993982E-2</v>
       </c>
-      <c r="M73" s="34">
+      <c r="M73" s="33">
         <f t="shared" si="127"/>
         <v>-6.3236005807388307E-2</v>
       </c>
-      <c r="N73" s="34">
+      <c r="N73" s="33">
         <f t="shared" si="127"/>
         <v>0.26864129498880662</v>
       </c>
-      <c r="O73" s="34">
+      <c r="O73" s="33">
         <f t="shared" si="127"/>
         <v>-8.9860187321840646E-2</v>
       </c>
-      <c r="P73" s="34">
+      <c r="P73" s="33">
         <f t="shared" si="127"/>
         <v>-9.1722595078299829E-2</v>
       </c>
-      <c r="Q73" s="34">
+      <c r="Q73" s="33">
         <f t="shared" si="127"/>
         <v>9.9014778325123176E-2</v>
       </c>
-      <c r="R73" s="34">
+      <c r="R73" s="33">
         <f t="shared" si="127"/>
         <v>2.405498281786933E-2</v>
       </c>
-      <c r="S73" s="34">
+      <c r="S73" s="33">
         <f t="shared" si="127"/>
         <v>-2.2614531660344328E-2</v>
       </c>
-      <c r="T73" s="34">
+      <c r="T73" s="33">
         <f t="shared" si="127"/>
         <v>-2.8810270189580489E-2</v>
       </c>
-      <c r="U73" s="34">
+      <c r="U73" s="33">
         <f t="shared" si="127"/>
         <v>0.18352290193667375</v>
       </c>
-      <c r="V73" s="34">
+      <c r="V73" s="33">
         <f t="shared" si="127"/>
         <v>9.3506493506493538E-2</v>
       </c>
-      <c r="W73" s="34">
+      <c r="W73" s="33">
         <f t="shared" ref="W73" si="128">W44/V44-1</f>
         <v>0.14750593824228031</v>
       </c>
-      <c r="AD73" s="24" t="s">
+      <c r="AD73" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="2:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="33" t="s">
+    <row r="75" spans="2:30" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G75" s="47">
+      <c r="G75" s="45">
         <f t="shared" ref="G75" si="129">G41+G42</f>
         <v>4269</v>
       </c>
-      <c r="H75" s="47">
+      <c r="H75" s="45">
         <f t="shared" ref="H75" si="130">H41+H42</f>
         <v>4041</v>
       </c>
-      <c r="I75" s="47">
+      <c r="I75" s="45">
         <f>I41+I42</f>
         <v>4046</v>
       </c>
-      <c r="J75" s="47">
+      <c r="J75" s="45">
         <f>J41+J42</f>
         <v>4663</v>
       </c>
-      <c r="K75" s="47">
+      <c r="K75" s="45">
         <f t="shared" ref="K75" si="131">K41+K42</f>
         <v>3644</v>
       </c>
-      <c r="L75" s="47">
+      <c r="L75" s="45">
         <f t="shared" ref="L75" si="132">L41+L42</f>
         <v>3502</v>
       </c>
-      <c r="M75" s="47">
+      <c r="M75" s="45">
         <f>M41+M42</f>
         <v>3182</v>
       </c>
-      <c r="N75" s="47">
+      <c r="N75" s="45">
         <f>N41+N42</f>
         <v>8877</v>
       </c>
-      <c r="O75" s="47">
+      <c r="O75" s="45">
         <f>O41+O42</f>
         <v>9480</v>
       </c>
-      <c r="P75" s="47">
+      <c r="P75" s="45">
         <f t="shared" ref="P75:V75" si="133">P41+P42</f>
         <v>11812</v>
       </c>
-      <c r="Q75" s="47">
+      <c r="Q75" s="45">
         <f t="shared" si="133"/>
         <v>12528</v>
       </c>
-      <c r="R75" s="47">
+      <c r="R75" s="45">
         <f t="shared" si="133"/>
         <v>13476</v>
       </c>
-      <c r="S75" s="47">
+      <c r="S75" s="45">
         <f t="shared" si="133"/>
         <v>13695</v>
       </c>
-      <c r="T75" s="47">
+      <c r="T75" s="45">
         <f t="shared" si="133"/>
         <v>15103</v>
       </c>
-      <c r="U75" s="47">
+      <c r="U75" s="45">
         <f t="shared" si="133"/>
         <v>13467</v>
       </c>
-      <c r="V75" s="47">
+      <c r="V75" s="45">
         <f t="shared" si="133"/>
         <v>12997</v>
       </c>
-      <c r="W75" s="47">
+      <c r="W75" s="45">
         <f t="shared" ref="W75" si="134">W41+W42</f>
         <v>11876</v>
       </c>
-      <c r="AC75" s="51">
+      <c r="AC75" s="49">
         <f t="shared" ref="AC75:AD75" si="135">U75</f>
         <v>13467</v>
       </c>
-      <c r="AD75" s="51">
+      <c r="AD75" s="49">
         <f t="shared" si="135"/>
         <v>12997</v>
       </c>
     </row>
-    <row r="76" spans="2:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="33" t="s">
+    <row r="76" spans="2:30" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="47">
+      <c r="G76" s="45">
         <f t="shared" ref="G76" si="136">G53+G54+G60</f>
         <v>3486</v>
       </c>
-      <c r="H76" s="47">
+      <c r="H76" s="45">
         <f t="shared" ref="H76" si="137">H53+H54+H60</f>
         <v>3481</v>
       </c>
-      <c r="I76" s="47">
+      <c r="I76" s="45">
         <f>I53+I54+I60</f>
         <v>3487</v>
       </c>
-      <c r="J76" s="47">
+      <c r="J76" s="45">
         <f>J53+J54+J60</f>
         <v>3479</v>
       </c>
-      <c r="K76" s="47">
+      <c r="K76" s="45">
         <f t="shared" ref="K76" si="138">K53+K54+K60</f>
         <v>3719</v>
       </c>
-      <c r="L76" s="47">
+      <c r="L76" s="45">
         <f t="shared" ref="L76" si="139">L53+L54+L60</f>
         <v>3768</v>
       </c>
-      <c r="M76" s="47">
+      <c r="M76" s="45">
         <f>M53+M54+M60</f>
         <v>3476</v>
       </c>
-      <c r="N76" s="47">
+      <c r="N76" s="45">
         <f>N53+N54+N60</f>
         <v>9657</v>
       </c>
-      <c r="O76" s="47">
+      <c r="O76" s="45">
         <f>O53+O54+O60</f>
         <v>9546</v>
       </c>
-      <c r="P76" s="47">
+      <c r="P76" s="45">
         <f t="shared" ref="P76:V76" si="140">P53+P54+P60</f>
         <v>9451</v>
       </c>
-      <c r="Q76" s="47">
+      <c r="Q76" s="45">
         <f t="shared" si="140"/>
         <v>9416</v>
       </c>
-      <c r="R76" s="47">
+      <c r="R76" s="45">
         <f t="shared" si="140"/>
         <v>9415</v>
       </c>
-      <c r="S76" s="47">
+      <c r="S76" s="45">
         <f t="shared" si="140"/>
         <v>9430</v>
       </c>
-      <c r="T76" s="47">
+      <c r="T76" s="45">
         <f t="shared" si="140"/>
         <v>9426</v>
       </c>
-      <c r="U76" s="47">
+      <c r="U76" s="45">
         <f t="shared" si="140"/>
         <v>9418</v>
       </c>
-      <c r="V76" s="47">
+      <c r="V76" s="45">
         <f t="shared" si="140"/>
         <v>9430</v>
       </c>
-      <c r="W76" s="47">
+      <c r="W76" s="45">
         <f t="shared" ref="W76" si="141">W53+W54+W60</f>
         <v>9431</v>
       </c>
-      <c r="AC76" s="51">
+      <c r="AC76" s="49">
         <f t="shared" ref="AC76:AD77" si="142">U76</f>
         <v>9418</v>
       </c>
-      <c r="AD76" s="51">
+      <c r="AD76" s="49">
         <f t="shared" si="142"/>
         <v>9430</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="20">
+      <c r="G77" s="19">
         <f t="shared" ref="G77:H77" si="143">G75-G76</f>
         <v>783</v>
       </c>
-      <c r="H77" s="20">
+      <c r="H77" s="19">
         <f t="shared" si="143"/>
         <v>560</v>
       </c>
-      <c r="I77" s="20">
+      <c r="I77" s="19">
         <f>I75-I76</f>
         <v>559</v>
       </c>
-      <c r="J77" s="20">
+      <c r="J77" s="19">
         <f>J75-J76</f>
         <v>1184</v>
       </c>
-      <c r="K77" s="20">
+      <c r="K77" s="19">
         <f t="shared" ref="K77" si="144">K75-K76</f>
         <v>-75</v>
       </c>
-      <c r="L77" s="20">
+      <c r="L77" s="19">
         <f t="shared" ref="L77" si="145">L75-L76</f>
         <v>-266</v>
       </c>
-      <c r="M77" s="20">
+      <c r="M77" s="19">
         <f>M75-M76</f>
         <v>-294</v>
       </c>
-      <c r="N77" s="20">
+      <c r="N77" s="19">
         <f>N75-N76</f>
         <v>-780</v>
       </c>
-      <c r="O77" s="20">
+      <c r="O77" s="19">
         <f>O75-O76</f>
         <v>-66</v>
       </c>
-      <c r="P77" s="20">
+      <c r="P77" s="19">
         <f t="shared" ref="P77:V77" si="146">P75-P76</f>
         <v>2361</v>
       </c>
-      <c r="Q77" s="20">
+      <c r="Q77" s="19">
         <f t="shared" si="146"/>
         <v>3112</v>
       </c>
-      <c r="R77" s="20">
+      <c r="R77" s="19">
         <f t="shared" si="146"/>
         <v>4061</v>
       </c>
-      <c r="S77" s="20">
+      <c r="S77" s="19">
         <f t="shared" si="146"/>
         <v>4265</v>
       </c>
-      <c r="T77" s="20">
+      <c r="T77" s="19">
         <f t="shared" si="146"/>
         <v>5677</v>
       </c>
-      <c r="U77" s="20">
+      <c r="U77" s="19">
         <f t="shared" si="146"/>
         <v>4049</v>
       </c>
-      <c r="V77" s="20">
+      <c r="V77" s="19">
         <f t="shared" si="146"/>
         <v>3567</v>
       </c>
-      <c r="W77" s="20">
+      <c r="W77" s="19">
         <f t="shared" ref="W77" si="147">W75-W76</f>
         <v>2445</v>
       </c>
-      <c r="AC77" s="51">
+      <c r="AC77" s="49">
         <f t="shared" si="142"/>
         <v>4049</v>
       </c>
-      <c r="AD77" s="51">
+      <c r="AD77" s="49">
         <f t="shared" si="142"/>
         <v>3567</v>
       </c>
     </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="AC78" s="51"/>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AC78" s="49"/>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B79" s="1" t="s">
         <v>137</v>
       </c>
@@ -7437,271 +7457,428 @@
       <c r="W79" s="1">
         <v>106.45</v>
       </c>
-      <c r="AC79" s="51">
+      <c r="AC79" s="49">
         <f t="shared" ref="AC79" si="148">U79</f>
         <v>136.55000000000001</v>
       </c>
-      <c r="AD79" s="51">
+      <c r="AD79" s="49">
         <f t="shared" ref="AD79" si="149">V79</f>
         <v>118.85</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G80" s="20">
+      <c r="G80" s="19">
         <f>G79*G23</f>
         <v>131026.8</v>
       </c>
-      <c r="H80" s="20">
+      <c r="H80" s="19">
         <f t="shared" ref="H80:V80" si="150">H79*H23</f>
         <v>115015.22200000001</v>
       </c>
-      <c r="I80" s="20">
+      <c r="I80" s="19">
         <f t="shared" si="150"/>
         <v>134836.144</v>
       </c>
-      <c r="J80" s="20">
+      <c r="J80" s="19">
         <f t="shared" si="150"/>
         <v>122412.79199999999</v>
       </c>
-      <c r="K80" s="20">
+      <c r="K80" s="19">
         <f t="shared" si="150"/>
         <v>132022.80000000002</v>
       </c>
-      <c r="L80" s="20">
+      <c r="L80" s="19">
         <f t="shared" si="150"/>
         <v>145900.49399999998</v>
       </c>
-      <c r="M80" s="20">
+      <c r="M80" s="19">
         <f t="shared" si="150"/>
         <v>139102.09399999998</v>
       </c>
-      <c r="N80" s="20">
+      <c r="N80" s="19">
         <f t="shared" si="150"/>
         <v>153360.90599999999</v>
       </c>
-      <c r="O80" s="20">
+      <c r="O80" s="19">
         <f t="shared" si="150"/>
         <v>174749.802</v>
       </c>
-      <c r="P80" s="20">
+      <c r="P80" s="19">
         <f t="shared" si="150"/>
         <v>211883.09999999998</v>
       </c>
-      <c r="Q80" s="20">
+      <c r="Q80" s="19">
         <f t="shared" si="150"/>
         <v>220273.02000000002</v>
       </c>
-      <c r="R80" s="20">
+      <c r="R80" s="19">
         <f t="shared" si="150"/>
         <v>212391.28999999998</v>
       </c>
-      <c r="S80" s="20">
+      <c r="S80" s="19">
         <f t="shared" si="150"/>
         <v>258893.75400000002</v>
       </c>
-      <c r="T80" s="20">
+      <c r="T80" s="19">
         <f t="shared" si="150"/>
         <v>260124.46000000002</v>
       </c>
-      <c r="U80" s="20">
+      <c r="U80" s="19">
         <f t="shared" si="150"/>
         <v>215612.45</v>
       </c>
-      <c r="V80" s="20">
+      <c r="V80" s="19">
         <f t="shared" si="150"/>
         <v>186832.19999999998</v>
       </c>
-      <c r="W80" s="20">
+      <c r="W80" s="19">
         <f t="shared" ref="W80" si="151">W79*W23</f>
         <v>166817.79499999998</v>
       </c>
-      <c r="AC80" s="20">
+      <c r="AC80" s="19">
         <f t="shared" ref="AC80" si="152">AC79*AC23</f>
         <v>214786.32250000004</v>
       </c>
-      <c r="AD80" s="20">
+      <c r="AD80" s="19">
         <f t="shared" ref="AD80" si="153">AD79*AD23</f>
         <v>187542.32874999999</v>
       </c>
     </row>
-    <row r="81" spans="2:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="33" t="s">
+    <row r="81" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G81" s="47">
+      <c r="G81" s="45">
         <f>G80-G77</f>
         <v>130243.8</v>
       </c>
-      <c r="H81" s="47">
+      <c r="H81" s="45">
         <f t="shared" ref="H81:V81" si="154">H80-H77</f>
         <v>114455.22200000001</v>
       </c>
-      <c r="I81" s="47">
+      <c r="I81" s="45">
         <f t="shared" si="154"/>
         <v>134277.144</v>
       </c>
-      <c r="J81" s="47">
+      <c r="J81" s="45">
         <f t="shared" si="154"/>
         <v>121228.79199999999</v>
       </c>
-      <c r="K81" s="47">
+      <c r="K81" s="45">
         <f t="shared" si="154"/>
         <v>132097.80000000002</v>
       </c>
-      <c r="L81" s="47">
+      <c r="L81" s="45">
         <f t="shared" si="154"/>
         <v>146166.49399999998</v>
       </c>
-      <c r="M81" s="47">
+      <c r="M81" s="45">
         <f t="shared" si="154"/>
         <v>139396.09399999998</v>
       </c>
-      <c r="N81" s="47">
+      <c r="N81" s="45">
         <f t="shared" si="154"/>
         <v>154140.90599999999</v>
       </c>
-      <c r="O81" s="47">
+      <c r="O81" s="45">
         <f t="shared" si="154"/>
         <v>174815.802</v>
       </c>
-      <c r="P81" s="47">
+      <c r="P81" s="45">
         <f t="shared" si="154"/>
         <v>209522.09999999998</v>
       </c>
-      <c r="Q81" s="47">
+      <c r="Q81" s="45">
         <f t="shared" si="154"/>
         <v>217161.02000000002</v>
       </c>
-      <c r="R81" s="47">
+      <c r="R81" s="45">
         <f t="shared" si="154"/>
         <v>208330.28999999998</v>
       </c>
-      <c r="S81" s="47">
+      <c r="S81" s="45">
         <f t="shared" si="154"/>
         <v>254628.75400000002</v>
       </c>
-      <c r="T81" s="47">
+      <c r="T81" s="45">
         <f t="shared" si="154"/>
         <v>254447.46000000002</v>
       </c>
-      <c r="U81" s="47">
+      <c r="U81" s="45">
         <f t="shared" si="154"/>
         <v>211563.45</v>
       </c>
-      <c r="V81" s="47">
+      <c r="V81" s="45">
         <f t="shared" si="154"/>
         <v>183265.19999999998</v>
       </c>
-      <c r="W81" s="47">
+      <c r="W81" s="45">
         <f t="shared" ref="W81" si="155">W80-W77</f>
         <v>164372.79499999998</v>
       </c>
-      <c r="AC81" s="47">
+      <c r="AC81" s="45">
         <f t="shared" ref="AC81" si="156">AC80-AC77</f>
         <v>210737.32250000004</v>
       </c>
-      <c r="AD81" s="47">
+      <c r="AD81" s="45">
         <f t="shared" ref="AD81" si="157">AD80-AD77</f>
         <v>183975.32874999999</v>
       </c>
     </row>
-    <row r="83" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A83" s="69">
+        <f>AVERAGE(G83:W83)</f>
+        <v>48.937122429921523</v>
+      </c>
       <c r="B83" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AA83" s="52"/>
-      <c r="AB83" s="52"/>
-      <c r="AC83" s="52">
-        <f t="shared" ref="AC83" si="158">AC79/(AC22*1000)</f>
+      <c r="G83" s="50">
+        <f t="shared" ref="G83:V83" si="158">G79/(SUM(D22:G22)*1000)</f>
+        <v>119.98791208791225</v>
+      </c>
+      <c r="H83" s="50">
+        <f t="shared" si="158"/>
+        <v>59.582014530484628</v>
+      </c>
+      <c r="I83" s="50">
+        <f t="shared" si="158"/>
+        <v>44.634866014209614</v>
+      </c>
+      <c r="J83" s="50">
+        <f t="shared" si="158"/>
+        <v>30.56593387664801</v>
+      </c>
+      <c r="K83" s="50">
+        <f t="shared" si="158"/>
+        <v>30.834702361691683</v>
+      </c>
+      <c r="L83" s="50">
+        <f t="shared" si="158"/>
+        <v>32.024950848116646</v>
+      </c>
+      <c r="M83" s="50">
+        <f t="shared" si="158"/>
+        <v>32.343038540294323</v>
+      </c>
+      <c r="N83" s="50">
+        <f t="shared" si="158"/>
+        <v>60.633483602321661</v>
+      </c>
+      <c r="O83" s="50">
+        <f t="shared" si="158"/>
+        <v>64.9445710774839</v>
+      </c>
+      <c r="P83" s="50">
+        <f t="shared" si="158"/>
+        <v>74.680627922741024</v>
+      </c>
+      <c r="Q83" s="50">
+        <f t="shared" si="158"/>
+        <v>64.099973409562097</v>
+      </c>
+      <c r="R83" s="50">
+        <f t="shared" si="158"/>
+        <v>36.941421208777982</v>
+      </c>
+      <c r="S83" s="50">
+        <f t="shared" si="158"/>
+        <v>42.466447128142569</v>
+      </c>
+      <c r="T83" s="50">
+        <f t="shared" si="158"/>
+        <v>42.183602880357142</v>
+      </c>
+      <c r="U83" s="50">
+        <f t="shared" si="158"/>
+        <v>35.273648173511305</v>
+      </c>
+      <c r="V83" s="50">
+        <f t="shared" si="158"/>
+        <v>31.02413791405122</v>
+      </c>
+      <c r="W83" s="50">
+        <f>W79/(SUM(T22:W22)*1000)</f>
+        <v>29.709749732359541</v>
+      </c>
+      <c r="AA83" s="50"/>
+      <c r="AB83" s="50"/>
+      <c r="AC83" s="50">
+        <f t="shared" ref="AC83" si="159">AC79/(AC22*1000)</f>
         <v>37.504159682207103</v>
       </c>
-      <c r="AD83" s="52">
+      <c r="AD83" s="50">
         <f>AD79/(AD22*1000)</f>
         <v>31.019240613628885</v>
       </c>
     </row>
-    <row r="85" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B85" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G85" s="25">
-        <f t="shared" ref="G85:W85" si="159">G44/(G10*1000)</f>
+      <c r="G85" s="24">
+        <f t="shared" ref="G85:W85" si="160">G44/(G10*1000)</f>
         <v>0.52543224768797758</v>
       </c>
-      <c r="H85" s="25">
-        <f t="shared" si="159"/>
+      <c r="H85" s="24">
+        <f t="shared" si="160"/>
         <v>0.57478131000640054</v>
       </c>
-      <c r="I85" s="25">
-        <f t="shared" si="159"/>
+      <c r="I85" s="24">
+        <f t="shared" si="160"/>
         <v>0.56341691811466044</v>
       </c>
-      <c r="J85" s="25">
-        <f t="shared" si="159"/>
+      <c r="J85" s="24">
+        <f t="shared" si="160"/>
         <v>0.55204241948153965</v>
       </c>
-      <c r="K85" s="25">
-        <f t="shared" si="159"/>
+      <c r="K85" s="24">
+        <f t="shared" si="160"/>
         <v>0.54737335834896805</v>
       </c>
-      <c r="L85" s="25">
-        <f t="shared" si="159"/>
+      <c r="L85" s="24">
+        <f t="shared" si="160"/>
         <v>0.60032926593066049</v>
       </c>
-      <c r="M85" s="25">
-        <f t="shared" si="159"/>
+      <c r="M85" s="24">
+        <f t="shared" si="160"/>
         <v>0.57472288202692001</v>
       </c>
-      <c r="N85" s="25">
-        <f t="shared" si="159"/>
+      <c r="N85" s="24">
+        <f t="shared" si="160"/>
         <v>1.1669570727071124</v>
       </c>
-      <c r="O85" s="25">
-        <f t="shared" si="159"/>
+      <c r="O85" s="24">
+        <f t="shared" si="160"/>
         <v>0.63290541816122325</v>
       </c>
-      <c r="P85" s="25">
-        <f t="shared" si="159"/>
+      <c r="P85" s="24">
+        <f t="shared" si="160"/>
         <v>0.541670372676332</v>
       </c>
-      <c r="Q85" s="25">
-        <f t="shared" si="159"/>
+      <c r="Q85" s="24">
+        <f t="shared" si="160"/>
         <v>0.64622960316694023</v>
       </c>
-      <c r="R85" s="25">
-        <f t="shared" si="159"/>
+      <c r="R85" s="24">
+        <f t="shared" si="160"/>
         <v>0.55524951393389499</v>
       </c>
-      <c r="S85" s="25">
-        <f t="shared" si="159"/>
+      <c r="S85" s="24">
+        <f t="shared" si="160"/>
         <v>0.5469464402351405</v>
       </c>
-      <c r="T85" s="25">
-        <f t="shared" si="159"/>
+      <c r="T85" s="24">
+        <f t="shared" si="160"/>
         <v>0.57286255173021039</v>
       </c>
-      <c r="U85" s="25">
-        <f t="shared" si="159"/>
+      <c r="U85" s="24">
+        <f t="shared" si="160"/>
         <v>0.70830650354153257</v>
       </c>
-      <c r="V85" s="25">
-        <f t="shared" si="159"/>
+      <c r="V85" s="24">
+        <f t="shared" si="160"/>
         <v>0.68824587215955524</v>
       </c>
-      <c r="W85" s="25">
-        <f t="shared" si="159"/>
+      <c r="W85" s="24">
+        <f t="shared" si="160"/>
         <v>0.7615669583037753</v>
       </c>
-      <c r="AC85" s="25">
+      <c r="AC85" s="24">
         <f>AC44/(AC10*1000)</f>
         <v>0.15389105932013114</v>
       </c>
-      <c r="AD85" s="25">
+      <c r="AD85" s="24">
         <f>AD44/(AD10*1000)</f>
         <v>0.18026118604153288</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A87" s="69">
+        <f>AVERAGE(G87:W87)</f>
+        <v>15.718658490232047</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G87" s="50">
+        <f t="shared" ref="G87:W87" si="161">G79/G70</f>
+        <v>14.571485765124555</v>
+      </c>
+      <c r="H87" s="50">
+        <f t="shared" si="161"/>
+        <v>13.176219727345631</v>
+      </c>
+      <c r="I87" s="50">
+        <f t="shared" si="161"/>
+        <v>15.046997433322176</v>
+      </c>
+      <c r="J87" s="50">
+        <f t="shared" si="161"/>
+        <v>13.541238053097345</v>
+      </c>
+      <c r="K87" s="50">
+        <f t="shared" si="161"/>
+        <v>14.350304347826089</v>
+      </c>
+      <c r="L87" s="50">
+        <f t="shared" si="161"/>
+        <v>15.60266217516843</v>
+      </c>
+      <c r="M87" s="50">
+        <f t="shared" si="161"/>
+        <v>15.378893753454946</v>
+      </c>
+      <c r="N87" s="50">
+        <f t="shared" si="161"/>
+        <v>18.782719657072874</v>
+      </c>
+      <c r="O87" s="50">
+        <f t="shared" si="161"/>
+        <v>18.945121639202082</v>
+      </c>
+      <c r="P87" s="50">
+        <f t="shared" si="161"/>
+        <v>19.913825187969923</v>
+      </c>
+      <c r="Q87" s="50">
+        <f t="shared" si="161"/>
+        <v>18.462242896655773</v>
+      </c>
+      <c r="R87" s="50">
+        <f t="shared" si="161"/>
+        <v>16.635959113339077</v>
+      </c>
+      <c r="S87" s="50">
+        <f t="shared" si="161"/>
+        <v>18.050181551976575</v>
+      </c>
+      <c r="T87" s="50">
+        <f t="shared" si="161"/>
+        <v>17.429942374698474</v>
+      </c>
+      <c r="U87" s="50">
+        <f t="shared" si="161"/>
+        <v>14.559555000337634</v>
+      </c>
+      <c r="V87" s="50">
+        <f t="shared" si="161"/>
+        <v>12.226438060336365</v>
+      </c>
+      <c r="W87" s="50">
+        <f>W79/W70</f>
+        <v>10.543407597016811</v>
+      </c>
+      <c r="AC87" s="50">
+        <f t="shared" ref="AC87:AD87" si="162">AC79/AC70</f>
+        <v>16.823554672201773</v>
+      </c>
+      <c r="AD87" s="50">
+        <f t="shared" si="162"/>
+        <v>12.272909413650938</v>
       </c>
     </row>
   </sheetData>

--- a/$NKE.xlsx
+++ b/$NKE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7449D1B0-59BC-6446-AF83-9245482D9C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B474BC-BB0E-1143-8C1C-1C10CE695EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="500" windowWidth="31100" windowHeight="18900" activeTab="1" xr2:uid="{7612E5BF-E27D-45C9-936D-073FAE02F148}"/>
+    <workbookView xWindow="2500" yWindow="500" windowWidth="31100" windowHeight="18900" xr2:uid="{7612E5BF-E27D-45C9-936D-073FAE02F148}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -806,10 +806,25 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -824,27 +839,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -933,16 +933,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -957,7 +957,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16789400" y="12700"/>
+          <a:off x="17640300" y="0"/>
           <a:ext cx="0" cy="14706600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -983,13 +983,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1333,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EA867B-521D-45A9-9B00-27085D6F4DA0}">
   <dimension ref="A2:V40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:Q43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1356,38 +1356,38 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-      <c r="F5" s="61" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
+      <c r="F5" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="63"/>
-      <c r="T5" s="61" t="s">
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="58"/>
+      <c r="T5" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="U5" s="62"/>
-      <c r="V5" s="63"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="58"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>105.42</v>
+        <v>115.6</v>
       </c>
       <c r="D6" s="37"/>
       <c r="F6" s="53"/>
@@ -1414,10 +1414,11 @@
         <v>4</v>
       </c>
       <c r="C7" s="35">
-        <v>1567.1</v>
+        <f>'Financial Model'!X23</f>
+        <v>1559</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="6"/>
@@ -1444,7 +1445,7 @@
       </c>
       <c r="C8" s="35">
         <f>C6*C7</f>
-        <v>165203.682</v>
+        <v>180220.4</v>
       </c>
       <c r="D8" s="37"/>
       <c r="F8" s="53"/>
@@ -1471,11 +1472,11 @@
         <v>6</v>
       </c>
       <c r="C9" s="35">
-        <f>'Financial Model'!W75</f>
-        <v>11876</v>
+        <f>'Financial Model'!X75</f>
+        <v>10621</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="6"/>
@@ -1501,11 +1502,11 @@
         <v>7</v>
       </c>
       <c r="C10" s="35">
-        <f>'Financial Model'!W76</f>
+        <f>'Financial Model'!X76</f>
         <v>9431</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="F10" s="53"/>
       <c r="G10" s="6"/>
@@ -1531,11 +1532,11 @@
         <v>8</v>
       </c>
       <c r="C11" s="35">
-        <f>'Financial Model'!W77</f>
-        <v>2445</v>
+        <f>'Financial Model'!X77</f>
+        <v>1190</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="6"/>
@@ -1562,7 +1563,7 @@
       </c>
       <c r="C12" s="36">
         <f>C8-C11</f>
-        <v>162758.682</v>
+        <v>179030.39999999999</v>
       </c>
       <c r="D12" s="38"/>
       <c r="F12" s="53"/>
@@ -1615,11 +1616,11 @@
       <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
       <c r="F15" s="53"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -1641,10 +1642,10 @@
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="60"/>
       <c r="F16" s="53"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1666,10 +1667,10 @@
       <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="56"/>
+      <c r="D17" s="60"/>
       <c r="F17" s="53"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1691,10 +1692,10 @@
       <c r="B18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="56"/>
+      <c r="D18" s="60"/>
       <c r="F18" s="53"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1713,10 +1714,10 @@
       <c r="B19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="60"/>
+      <c r="D19" s="67"/>
       <c r="F19" s="53"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1762,11 +1763,11 @@
       <c r="R21" s="7"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
       <c r="F22" s="53"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1785,10 +1786,10 @@
       <c r="B23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="56"/>
+      <c r="D23" s="60"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1807,10 +1808,10 @@
       <c r="B24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="59">
         <v>1964</v>
       </c>
-      <c r="D24" s="56"/>
+      <c r="D24" s="60"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1829,8 +1830,8 @@
       <c r="B25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
       <c r="F25" s="53"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1849,11 +1850,11 @@
       <c r="B26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="68">
+      <c r="C26" s="63">
         <f>'Financial Model'!W44</f>
         <v>9662</v>
       </c>
-      <c r="D26" s="56"/>
+      <c r="D26" s="60"/>
       <c r="F26" s="53"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1870,8 +1871,8 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B27" s="10"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
       <c r="F27" s="53"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1891,10 +1892,10 @@
         <v>18</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="D28" s="52">
-        <v>44833</v>
+        <v>44915</v>
       </c>
       <c r="F28" s="53"/>
       <c r="G28" s="6"/>
@@ -1914,10 +1915,10 @@
       <c r="B29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="65"/>
+      <c r="D29" s="69"/>
       <c r="F29" s="53"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -1963,11 +1964,11 @@
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
       <c r="F32" s="53"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -1986,11 +1987,11 @@
       <c r="B33" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="57">
-        <f>C12/('Financial Model'!AD21*1000)</f>
-        <v>26.920059874297088</v>
-      </c>
-      <c r="D33" s="58"/>
+      <c r="C33" s="64">
+        <f>C12/('Financial Model'!AF21*1000)</f>
+        <v>29.611379424412871</v>
+      </c>
+      <c r="D33" s="65"/>
       <c r="F33" s="53"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -2009,11 +2010,11 @@
       <c r="B34" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="57">
-        <f>C6/('Financial Model'!AD22*1000)</f>
-        <v>27.514079474032453</v>
-      </c>
-      <c r="D34" s="58"/>
+      <c r="C34" s="64">
+        <f>C6/(SUM('Financial Model'!U22:X22)*1000)</f>
+        <v>32.200441909854334</v>
+      </c>
+      <c r="D34" s="65"/>
       <c r="F34" s="53"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -2032,8 +2033,8 @@
       <c r="B35" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="56"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
       <c r="F35" s="53"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -2052,11 +2053,11 @@
       <c r="B36" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="57">
-        <f>C6/'Financial Model'!W70</f>
-        <v>10.44139059537353</v>
-      </c>
-      <c r="D36" s="58"/>
+      <c r="C36" s="64">
+        <f>C6/'Financial Model'!X70</f>
+        <v>11.800707176532216</v>
+      </c>
+      <c r="D36" s="65"/>
       <c r="F36" s="53"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -2073,8 +2074,8 @@
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B37" s="10"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="56"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="60"/>
       <c r="F37" s="53"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -2093,11 +2094,11 @@
       <c r="B38" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="57">
-        <f>'Financial Model'!AC79/('Financial Model'!AC22*1000)</f>
+      <c r="C38" s="64">
+        <f>'Financial Model'!AE79/('Financial Model'!AE22*1000)</f>
         <v>37.504159682207103</v>
       </c>
-      <c r="D38" s="58"/>
+      <c r="D38" s="65"/>
       <c r="F38" s="53"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -2116,8 +2117,8 @@
       <c r="B39" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="56"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="60"/>
       <c r="F39" s="53"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -2136,8 +2137,8 @@
       <c r="B40" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="59"/>
-      <c r="D40" s="60"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="67"/>
       <c r="F40" s="54"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -2154,14 +2155,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F5:R5"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
@@ -2178,6 +2171,14 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F5:R5"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{6430964A-0169-5B4A-BCFC-F02355D9307D}"/>
@@ -2190,13 +2191,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F137E7D-55F8-4ACC-BDF9-DCDC53EC521C}">
-  <dimension ref="A1:AO87"/>
+  <dimension ref="A1:AQ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="X83" sqref="X83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2210,7 +2211,7 @@
     <col min="23" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:43" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="44" t="s">
         <v>136</v>
       </c>
@@ -2277,59 +2278,61 @@
       <c r="W1" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AB1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AF1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AG1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AH1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AI1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AK1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AL1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AM1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AN1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AO1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AP1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AQ1" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:43" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="23"/>
       <c r="G2" s="22">
         <v>43343</v>
@@ -2382,20 +2385,25 @@
       <c r="W2" s="22">
         <v>44804</v>
       </c>
-      <c r="AA2" s="22">
+      <c r="X2" s="22">
+        <v>44895</v>
+      </c>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AC2" s="22">
         <v>43616</v>
       </c>
-      <c r="AB2" s="22">
+      <c r="AD2" s="22">
         <v>43982</v>
       </c>
-      <c r="AC2" s="22">
+      <c r="AE2" s="22">
         <v>44347</v>
       </c>
-      <c r="AD2" s="22">
+      <c r="AF2" s="22">
         <v>44712</v>
       </c>
     </row>
-    <row r="3" spans="1:41" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:43" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="30" t="s">
         <v>88</v>
       </c>
@@ -2450,24 +2458,27 @@
       <c r="W3" s="28">
         <v>8.1140000000000008</v>
       </c>
-      <c r="AA3" s="28">
+      <c r="X3" s="28">
+        <v>8.5039999999999996</v>
+      </c>
+      <c r="AC3" s="28">
         <f>SUM(G3:J3)</f>
         <v>24.221999999999998</v>
       </c>
-      <c r="AB3" s="28">
+      <c r="AD3" s="28">
         <f>SUM(K3:N3)</f>
         <v>23.305</v>
       </c>
-      <c r="AC3" s="28">
+      <c r="AE3" s="28">
         <f>SUM(O3:R3)</f>
         <v>28.020999999999997</v>
       </c>
-      <c r="AD3" s="28">
+      <c r="AF3" s="28">
         <f>SUM(S3:V3)</f>
         <v>29.143000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:41" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:43" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="30" t="s">
         <v>89</v>
       </c>
@@ -2522,24 +2533,27 @@
       <c r="W4" s="28">
         <v>3.4340000000000002</v>
       </c>
-      <c r="AA4" s="28">
-        <f t="shared" ref="AA4:AA9" si="0">SUM(G4:J4)</f>
+      <c r="X4" s="28">
+        <v>3.794</v>
+      </c>
+      <c r="AC4" s="28">
+        <f t="shared" ref="AC4:AC9" si="0">SUM(G4:J4)</f>
         <v>11.549999999999999</v>
       </c>
-      <c r="AB4" s="28">
-        <f t="shared" ref="AB4:AB5" si="1">SUM(K4:N4)</f>
+      <c r="AD4" s="28">
+        <f t="shared" ref="AD4:AD5" si="1">SUM(K4:N4)</f>
         <v>10.952999999999999</v>
       </c>
-      <c r="AC4" s="28">
+      <c r="AE4" s="28">
         <f>SUM(O4:R4)</f>
         <v>12.865</v>
       </c>
-      <c r="AD4" s="28">
+      <c r="AF4" s="28">
         <f>SUM(S4:V4)</f>
         <v>13.567000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:41" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:43" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="30" t="s">
         <v>90</v>
       </c>
@@ -2594,24 +2608,27 @@
       <c r="W5" s="28">
         <v>0.48599999999999999</v>
       </c>
-      <c r="AA5" s="28">
+      <c r="X5" s="28">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="AC5" s="28">
         <f t="shared" si="0"/>
         <v>1.4039999999999999</v>
       </c>
-      <c r="AB5" s="28">
+      <c r="AD5" s="28">
         <f t="shared" si="1"/>
         <v>1.28</v>
       </c>
-      <c r="AC5" s="28">
+      <c r="AE5" s="28">
         <f>SUM(O5:R5)</f>
         <v>1.3820000000000001</v>
       </c>
-      <c r="AD5" s="28">
+      <c r="AF5" s="28">
         <f>SUM(S5:V5)</f>
         <v>1.6240000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:41" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:43" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="30" t="s">
         <v>91</v>
       </c>
@@ -2666,29 +2683,32 @@
       <c r="W6" s="28">
         <v>1.4E-2</v>
       </c>
-      <c r="AA6" s="28">
+      <c r="X6" s="28">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AC6" s="28">
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AB6" s="28">
+      <c r="AD6" s="28">
         <f>SUM(K6:N6)</f>
         <v>0.03</v>
       </c>
-      <c r="AC6" s="28">
+      <c r="AE6" s="28">
         <f>SUM(O6:R6)</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AD6" s="28">
+      <c r="AF6" s="28">
         <f>SUM(S6:V6)</f>
         <v>0.10200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:41" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:43" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="31" t="s">
         <v>92</v>
       </c>
       <c r="G7" s="26">
-        <f t="shared" ref="G7:W7" si="2">SUM(G3:G6)</f>
+        <f t="shared" ref="G7:X7" si="2">SUM(G3:G6)</f>
         <v>9.4169999999999998</v>
       </c>
       <c r="H7" s="26">
@@ -2755,24 +2775,28 @@
         <f t="shared" si="2"/>
         <v>12.048000000000002</v>
       </c>
-      <c r="AA7" s="26">
-        <f>SUM(AA3:AA6)</f>
-        <v>37.218000000000004</v>
-      </c>
-      <c r="AB7" s="26">
-        <f>SUM(AB3:AB6)</f>
-        <v>35.567999999999998</v>
+      <c r="X7" s="26">
+        <f t="shared" si="2"/>
+        <v>12.724</v>
       </c>
       <c r="AC7" s="26">
         <f>SUM(AC3:AC6)</f>
-        <v>42.292999999999992</v>
+        <v>37.218000000000004</v>
       </c>
       <c r="AD7" s="26">
         <f>SUM(AD3:AD6)</f>
+        <v>35.567999999999998</v>
+      </c>
+      <c r="AE7" s="26">
+        <f>SUM(AE3:AE6)</f>
+        <v>42.292999999999992</v>
+      </c>
+      <c r="AF7" s="26">
+        <f>SUM(AF3:AF6)</f>
         <v>44.436</v>
       </c>
     </row>
-    <row r="8" spans="1:41" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:43" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="31" t="s">
         <v>95</v>
       </c>
@@ -2827,24 +2851,27 @@
       <c r="W8" s="26">
         <v>0.64300000000000002</v>
       </c>
-      <c r="AA8" s="28">
+      <c r="X8" s="26">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="AC8" s="28">
         <f t="shared" si="0"/>
         <v>1.9060000000000001</v>
       </c>
-      <c r="AB8" s="28">
-        <f t="shared" ref="AB8:AB9" si="3">SUM(K8:N8)</f>
+      <c r="AD8" s="28">
+        <f t="shared" ref="AD8:AD9" si="3">SUM(K8:N8)</f>
         <v>1.8460000000000001</v>
       </c>
-      <c r="AC8" s="28">
+      <c r="AE8" s="28">
         <f>SUM(O8:R8)</f>
         <v>2.2050000000000001</v>
       </c>
-      <c r="AD8" s="28">
-        <f t="shared" ref="AD8:AD14" si="4">SUM(S8:V8)</f>
+      <c r="AF8" s="28">
+        <f t="shared" ref="AF8:AF14" si="4">SUM(S8:V8)</f>
         <v>2.3460000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:41" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:43" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="31" t="s">
         <v>96</v>
       </c>
@@ -2899,29 +2926,32 @@
       <c r="W9" s="26">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="AA9" s="28">
+      <c r="X9" s="26">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AC9" s="28">
         <f t="shared" si="0"/>
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="AB9" s="28">
+      <c r="AD9" s="28">
         <f t="shared" si="3"/>
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="AC9" s="28">
+      <c r="AE9" s="28">
         <f>SUM(O9:R9)</f>
         <v>0.04</v>
       </c>
-      <c r="AD9" s="28">
+      <c r="AF9" s="28">
         <f t="shared" si="4"/>
         <v>-7.2000000000000008E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>69</v>
       </c>
       <c r="G10" s="18">
-        <f t="shared" ref="G10:W10" si="5">G7+G8+G9</f>
+        <f t="shared" ref="G10:X10" si="5">G7+G8+G9</f>
         <v>9.9479999999999986</v>
       </c>
       <c r="H10" s="18">
@@ -2988,24 +3018,30 @@
         <f t="shared" si="5"/>
         <v>12.687000000000003</v>
       </c>
-      <c r="AA10" s="18">
-        <f>AA7+AA8+AA9</f>
-        <v>39.117000000000004</v>
-      </c>
-      <c r="AB10" s="18">
-        <f>AB7+AB8+AB9</f>
-        <v>37.402999999999999</v>
-      </c>
+      <c r="X10" s="18">
+        <f t="shared" si="5"/>
+        <v>13.315000000000001</v>
+      </c>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
       <c r="AC10" s="18">
         <f>AC7+AC8+AC9</f>
-        <v>44.53799999999999</v>
+        <v>39.117000000000004</v>
       </c>
       <c r="AD10" s="18">
         <f>AD7+AD8+AD9</f>
+        <v>37.402999999999999</v>
+      </c>
+      <c r="AE10" s="18">
+        <f>AE7+AE8+AE9</f>
+        <v>44.53799999999999</v>
+      </c>
+      <c r="AF10" s="18">
+        <f>AF7+AF8+AF9</f>
         <v>46.709999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>70</v>
       </c>
@@ -3060,29 +3096,34 @@
       <c r="W11" s="19">
         <v>7.0720000000000001</v>
       </c>
-      <c r="AA11" s="19">
+      <c r="X11" s="19">
+        <v>7.6040000000000001</v>
+      </c>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AC11" s="19">
         <f>SUM(G11:J11)</f>
         <v>21.643000000000001</v>
       </c>
-      <c r="AB11" s="19">
+      <c r="AD11" s="19">
         <f>SUM(K11:N11)</f>
         <v>21.161999999999999</v>
       </c>
-      <c r="AC11" s="19">
+      <c r="AE11" s="19">
         <f>SUM(O11:R11)</f>
         <v>24.576000000000001</v>
       </c>
-      <c r="AD11" s="28">
+      <c r="AF11" s="28">
         <f t="shared" si="4"/>
         <v>25.231000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G12" s="18">
-        <f t="shared" ref="G12:W12" si="6">G10-G11</f>
+        <f t="shared" ref="G12:X12" si="6">G10-G11</f>
         <v>4.3969999999999985</v>
       </c>
       <c r="H12" s="18">
@@ -3149,24 +3190,30 @@
         <f t="shared" si="6"/>
         <v>5.6150000000000029</v>
       </c>
-      <c r="AA12" s="18">
-        <f>AA10-AA11</f>
-        <v>17.474000000000004</v>
-      </c>
-      <c r="AB12" s="18">
-        <f>AB10-AB11</f>
-        <v>16.241</v>
-      </c>
+      <c r="X12" s="18">
+        <f t="shared" si="6"/>
+        <v>5.7110000000000012</v>
+      </c>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
       <c r="AC12" s="18">
         <f>AC10-AC11</f>
-        <v>19.961999999999989</v>
+        <v>17.474000000000004</v>
       </c>
       <c r="AD12" s="18">
         <f>AD10-AD11</f>
+        <v>16.241</v>
+      </c>
+      <c r="AE12" s="18">
+        <f>AE10-AE11</f>
+        <v>19.961999999999989</v>
+      </c>
+      <c r="AF12" s="18">
+        <f>AF10-AF11</f>
         <v>21.478999999999992</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>72</v>
       </c>
@@ -3221,24 +3268,27 @@
       <c r="W13" s="19">
         <v>0.94299999999999995</v>
       </c>
-      <c r="AA13" s="19">
-        <f t="shared" ref="AA13:AA15" si="7">SUM(G13:J13)</f>
+      <c r="X13" s="1">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="AC13" s="19">
+        <f t="shared" ref="AC13:AC15" si="7">SUM(G13:J13)</f>
         <v>3.7530000000000001</v>
       </c>
-      <c r="AB13" s="19">
-        <f t="shared" ref="AB13:AB14" si="8">SUM(K13:N13)</f>
+      <c r="AD13" s="19">
+        <f t="shared" ref="AD13:AD14" si="8">SUM(K13:N13)</f>
         <v>3.5920000000000001</v>
       </c>
-      <c r="AC13" s="19">
+      <c r="AE13" s="19">
         <f>SUM(O13:R13)</f>
         <v>3.1139999999999999</v>
       </c>
-      <c r="AD13" s="28">
+      <c r="AF13" s="28">
         <f t="shared" si="4"/>
         <v>3.85</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>73</v>
       </c>
@@ -3293,24 +3343,27 @@
       <c r="W14" s="19">
         <v>2.9769999999999999</v>
       </c>
-      <c r="AA14" s="19">
+      <c r="X14" s="1">
+        <v>3.0219999999999998</v>
+      </c>
+      <c r="AC14" s="19">
         <f t="shared" si="7"/>
         <v>8.9489999999999998</v>
       </c>
-      <c r="AB14" s="19">
+      <c r="AD14" s="19">
         <f t="shared" si="8"/>
         <v>9.5340000000000007</v>
       </c>
-      <c r="AC14" s="19">
+      <c r="AE14" s="19">
         <f>SUM(O14:R14)</f>
         <v>9.9110000000000014</v>
       </c>
-      <c r="AD14" s="28">
+      <c r="AF14" s="28">
         <f t="shared" si="4"/>
         <v>10.954000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>74</v>
       </c>
@@ -3382,113 +3435,125 @@
         <f t="shared" si="10"/>
         <v>3.92</v>
       </c>
-      <c r="AA15" s="19">
+      <c r="X15" s="19">
+        <f t="shared" ref="X15" si="11">X13+X14</f>
+        <v>4.1239999999999997</v>
+      </c>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AC15" s="19">
         <f t="shared" si="7"/>
         <v>12.701999999999998</v>
       </c>
-      <c r="AB15" s="19">
-        <f>AB13+AB14</f>
-        <v>13.126000000000001</v>
-      </c>
-      <c r="AC15" s="19">
-        <f>AC13+AC14</f>
-        <v>13.025000000000002</v>
-      </c>
       <c r="AD15" s="19">
         <f>AD13+AD14</f>
+        <v>13.126000000000001</v>
+      </c>
+      <c r="AE15" s="19">
+        <f>AE13+AE14</f>
+        <v>13.025000000000002</v>
+      </c>
+      <c r="AF15" s="19">
+        <f>AF13+AF14</f>
         <v>14.804</v>
       </c>
     </row>
-    <row r="16" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
         <v>75</v>
       </c>
       <c r="G16" s="18">
-        <f t="shared" ref="G16:H16" si="11">G12-G15</f>
+        <f t="shared" ref="G16:H16" si="12">G12-G15</f>
         <v>1.3339999999999983</v>
       </c>
       <c r="H16" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.96300000000000185</v>
       </c>
       <c r="I16" s="18">
-        <f t="shared" ref="I16:W16" si="12">I12-I15</f>
+        <f t="shared" ref="I16:W16" si="13">I12-I15</f>
         <v>1.2479999999999984</v>
       </c>
       <c r="J16" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2269999999999994</v>
       </c>
       <c r="K16" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5430000000000001</v>
       </c>
       <c r="L16" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2200000000000006</v>
       </c>
       <c r="M16" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1899999999999991</v>
       </c>
       <c r="N16" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.83800000000000008</v>
       </c>
       <c r="O16" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.7660000000000013</v>
       </c>
       <c r="P16" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5799999999999987</v>
       </c>
       <c r="Q16" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6779999999999995</v>
       </c>
       <c r="R16" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.9129999999999994</v>
       </c>
       <c r="S16" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.1239999999999979</v>
       </c>
       <c r="T16" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4540000000000011</v>
       </c>
       <c r="U16" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.629</v>
       </c>
       <c r="V16" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4680000000000017</v>
       </c>
       <c r="W16" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6950000000000029</v>
       </c>
-      <c r="AA16" s="18">
-        <f>AA13+AA14+AA15</f>
+      <c r="X16" s="18">
+        <f t="shared" ref="X16" si="14">X12-X15</f>
+        <v>1.5870000000000015</v>
+      </c>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AC16" s="18">
+        <f>AC13+AC14+AC15</f>
         <v>25.403999999999996</v>
-      </c>
-      <c r="AB16" s="18">
-        <f>AB12-AB15</f>
-        <v>3.1149999999999984</v>
-      </c>
-      <c r="AC16" s="18">
-        <f>AC12-AC15</f>
-        <v>6.936999999999987</v>
       </c>
       <c r="AD16" s="18">
         <f>AD12-AD15</f>
+        <v>3.1149999999999984</v>
+      </c>
+      <c r="AE16" s="18">
+        <f>AE12-AE15</f>
+        <v>6.936999999999987</v>
+      </c>
+      <c r="AF16" s="18">
+        <f>AF12-AF15</f>
         <v>6.6749999999999918</v>
       </c>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>76</v>
       </c>
@@ -3543,24 +3608,29 @@
       <c r="W17" s="19">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AA17" s="19">
-        <f t="shared" ref="AA17:AA18" si="13">SUM(G17:J17)</f>
+      <c r="X17" s="19">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AC17" s="19">
+        <f t="shared" ref="AC17:AC18" si="15">SUM(G17:J17)</f>
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="AB17" s="19">
-        <f t="shared" ref="AB17:AB18" si="14">SUM(K17:N17)</f>
+      <c r="AD17" s="19">
+        <f t="shared" ref="AD17:AD18" si="16">SUM(K17:N17)</f>
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="AC17" s="19">
+      <c r="AE17" s="19">
         <f>SUM(O17:R17)</f>
         <v>0.26200000000000001</v>
       </c>
-      <c r="AD17" s="28">
-        <f t="shared" ref="AD17:AD18" si="15">SUM(S17:V17)</f>
+      <c r="AF17" s="28">
+        <f t="shared" ref="AF17:AF18" si="17">SUM(S17:V17)</f>
         <v>0.20500000000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
@@ -3615,113 +3685,124 @@
       <c r="W18" s="19">
         <v>-0.14599999999999999</v>
       </c>
-      <c r="AA18" s="19">
-        <f t="shared" si="13"/>
+      <c r="X18" s="19">
+        <v>-7.9000000000000001E-2</v>
+      </c>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AC18" s="19">
+        <f t="shared" si="15"/>
         <v>-7.8E-2</v>
       </c>
-      <c r="AB18" s="19">
-        <f t="shared" si="14"/>
+      <c r="AD18" s="19">
+        <f t="shared" si="16"/>
         <v>0.13899999999999996</v>
       </c>
-      <c r="AC18" s="19">
+      <c r="AE18" s="19">
         <f>SUM(O18:R18)</f>
         <v>1.4000000000000002E-2</v>
       </c>
-      <c r="AD18" s="28">
-        <f t="shared" si="15"/>
+      <c r="AF18" s="28">
+        <f t="shared" si="17"/>
         <v>-0.18099999999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G19" s="19">
-        <f t="shared" ref="G19:W19" si="16">G16-G17-G18</f>
+        <f t="shared" ref="G19:X19" si="18">G16-G17-G18</f>
         <v>1.2699999999999985</v>
       </c>
       <c r="H19" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.99700000000000188</v>
       </c>
       <c r="I19" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.2909999999999984</v>
       </c>
       <c r="J19" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.2429999999999994</v>
       </c>
       <c r="K19" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.5610000000000002</v>
       </c>
       <c r="L19" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.2490000000000006</v>
       </c>
       <c r="M19" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.88099999999999912</v>
       </c>
       <c r="N19" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-0.80400000000000016</v>
       </c>
       <c r="O19" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.7150000000000014</v>
       </c>
       <c r="P19" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.4559999999999986</v>
       </c>
       <c r="Q19" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.6359999999999995</v>
       </c>
       <c r="R19" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.8539999999999994</v>
       </c>
       <c r="S19" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.1059999999999981</v>
       </c>
       <c r="T19" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.5010000000000012</v>
       </c>
       <c r="U19" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.6700000000000002</v>
       </c>
       <c r="V19" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.3740000000000017</v>
       </c>
       <c r="W19" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.828000000000003</v>
       </c>
-      <c r="AA19" s="19">
+      <c r="X19" s="19">
+        <f t="shared" si="18"/>
+        <v>1.6500000000000015</v>
+      </c>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AC19" s="19">
         <f>SUM(G19:J19)</f>
         <v>4.8009999999999984</v>
       </c>
-      <c r="AB19" s="19">
+      <c r="AD19" s="19">
         <f>SUM(N19:Q19)</f>
         <v>4.0029999999999992</v>
       </c>
-      <c r="AC19" s="19">
+      <c r="AE19" s="19">
         <f>SUM(O19:R19)</f>
         <v>6.6609999999999987</v>
       </c>
-      <c r="AD19" s="19">
-        <f>AD16-AD17-AD18</f>
+      <c r="AF19" s="19">
+        <f>AF16-AF17-AF18</f>
         <v>6.6509999999999918</v>
       </c>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>79</v>
       </c>
@@ -3776,202 +3857,219 @@
       <c r="W20" s="19">
         <v>0.36</v>
       </c>
-      <c r="AA20" s="19">
-        <f t="shared" ref="AA20" si="17">SUM(G20:J20)</f>
+      <c r="X20" s="19">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AC20" s="19">
+        <f t="shared" ref="AC20" si="19">SUM(G20:J20)</f>
         <v>0.77200000000000002</v>
       </c>
-      <c r="AB20" s="19">
+      <c r="AD20" s="19">
         <f>SUM(K20:N20)</f>
         <v>0.34799999999999998</v>
       </c>
-      <c r="AC20" s="19">
+      <c r="AE20" s="19">
         <f>SUM(O20:R20)</f>
         <v>0.93399999999999994</v>
       </c>
-      <c r="AD20" s="28">
-        <f t="shared" ref="AD20" si="18">SUM(S20:V20)</f>
+      <c r="AF20" s="28">
+        <f t="shared" ref="AF20" si="20">SUM(S20:V20)</f>
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>80</v>
       </c>
       <c r="G21" s="18">
-        <f t="shared" ref="G21:W21" si="19">G19-G20</f>
+        <f t="shared" ref="G21:X21" si="21">G19-G20</f>
         <v>1.0919999999999985</v>
       </c>
       <c r="H21" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.84700000000000186</v>
       </c>
       <c r="I21" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1009999999999984</v>
       </c>
       <c r="J21" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.98899999999999944</v>
       </c>
       <c r="K21" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.3670000000000002</v>
       </c>
       <c r="L21" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1150000000000007</v>
       </c>
       <c r="M21" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.84699999999999909</v>
       </c>
       <c r="N21" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.79000000000000015</v>
       </c>
       <c r="O21" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.5180000000000013</v>
       </c>
       <c r="P21" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.2509999999999986</v>
       </c>
       <c r="Q21" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.4489999999999994</v>
       </c>
       <c r="R21" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.5089999999999995</v>
       </c>
       <c r="S21" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.8739999999999981</v>
       </c>
       <c r="T21" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.3370000000000013</v>
       </c>
       <c r="U21" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.3960000000000001</v>
       </c>
       <c r="V21" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.4390000000000016</v>
       </c>
       <c r="W21" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.4680000000000031</v>
       </c>
-      <c r="AA21" s="18">
-        <f>AA18+AA19+AA20</f>
+      <c r="X21" s="18">
+        <f t="shared" si="21"/>
+        <v>1.3310000000000015</v>
+      </c>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AC21" s="18">
+        <f>AC18+AC19+AC20</f>
         <v>5.4949999999999983</v>
       </c>
-      <c r="AB21" s="18">
+      <c r="AD21" s="18">
         <f>SUM(K21:N21)</f>
         <v>2.5390000000000001</v>
       </c>
-      <c r="AC21" s="18">
-        <f>AC19-AC20</f>
+      <c r="AE21" s="18">
+        <f>AE19-AE20</f>
         <v>5.7269999999999985</v>
       </c>
-      <c r="AD21" s="18">
-        <f>AD19-AD20</f>
+      <c r="AF21" s="18">
+        <f>AF19-AF20</f>
         <v>6.0459999999999923</v>
       </c>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G22" s="43">
-        <f t="shared" ref="G22:W22" si="20">G21/G23</f>
+        <f t="shared" ref="G22:X22" si="22">G21/G23</f>
         <v>6.8506900878293506E-4</v>
       </c>
       <c r="H22" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.3560136587833677E-4</v>
       </c>
       <c r="I22" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7.0002543234994811E-4</v>
       </c>
       <c r="J22" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>6.2985606929053591E-4</v>
       </c>
       <c r="K22" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.7493599590373792E-4</v>
       </c>
       <c r="L22" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7.1446879405356965E-4</v>
       </c>
       <c r="M22" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.4423954250465791E-4</v>
       </c>
       <c r="N22" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-5.0780998907244332E-4</v>
       </c>
       <c r="O22" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.719554360353447E-4</v>
       </c>
       <c r="P22" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7.9529561347743076E-4</v>
       </c>
       <c r="Q22" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.1825095057034185E-4</v>
       </c>
       <c r="R22" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.5566814439518647E-4</v>
       </c>
       <c r="S22" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.1846513686073696E-3</v>
       </c>
       <c r="T22" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.4673844205193248E-4</v>
       </c>
       <c r="U22" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.8410386320455993E-4</v>
       </c>
       <c r="V22" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.1539440203562445E-4</v>
       </c>
       <c r="W22" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.3676217216514786E-4</v>
       </c>
-      <c r="AA22" s="43">
-        <f>AA21/AA23</f>
-        <v>3.4787287920992646E-3</v>
-      </c>
-      <c r="AB22" s="43">
-        <f>AB21/AB23</f>
-        <v>1.6288692862870891E-3</v>
-      </c>
+      <c r="X22" s="43">
+        <f t="shared" si="22"/>
+        <v>8.5375240538807027E-4</v>
+      </c>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
       <c r="AC22" s="43">
         <f>AC21/AC23</f>
-        <v>3.6409294637464625E-3</v>
+        <v>3.4787287920992646E-3</v>
       </c>
       <c r="AD22" s="43">
         <f>AD21/AD23</f>
+        <v>1.6288692862870891E-3</v>
+      </c>
+      <c r="AE22" s="43">
+        <f>AE21/AE23</f>
+        <v>3.6409294637464625E-3</v>
+      </c>
+      <c r="AF22" s="43">
+        <f>AF21/AF23</f>
         <v>3.831492894374114E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
@@ -4026,24 +4124,29 @@
       <c r="W23" s="19">
         <v>1567.1</v>
       </c>
-      <c r="AA23" s="19">
+      <c r="X23" s="19">
+        <v>1559</v>
+      </c>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AC23" s="19">
         <f>AVERAGE(G23:J23)</f>
         <v>1579.6</v>
       </c>
-      <c r="AB23" s="19">
+      <c r="AD23" s="19">
         <f>AVERAGE(K23:N23)</f>
         <v>1558.75</v>
       </c>
-      <c r="AC23" s="19">
+      <c r="AE23" s="19">
         <f>AVERAGE(O23:R23)</f>
         <v>1572.95</v>
       </c>
-      <c r="AD23" s="19">
+      <c r="AF23" s="19">
         <f>AVERAGE(S23:V23)</f>
         <v>1577.9749999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>82</v>
       </c>
@@ -4060,39 +4163,39 @@
         <v>135</v>
       </c>
       <c r="K25" s="20">
-        <f t="shared" ref="K25" si="21">K10/G10-1</f>
+        <f t="shared" ref="K25" si="23">K10/G10-1</f>
         <v>7.1572175311620523E-2</v>
       </c>
       <c r="L25" s="20">
-        <f t="shared" ref="L25:N25" si="22">L10/H10-1</f>
+        <f t="shared" ref="L25:N25" si="24">L10/H10-1</f>
         <v>0.10155749946660952</v>
       </c>
       <c r="M25" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.1295390698158361E-2</v>
       </c>
       <c r="N25" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-0.38010604870384912</v>
       </c>
       <c r="O25" s="20">
-        <f t="shared" ref="O25" si="23">O10/K10-1</f>
+        <f t="shared" ref="O25" si="25">O10/K10-1</f>
         <v>-6.1913696060036383E-3</v>
       </c>
       <c r="P25" s="20">
-        <f t="shared" ref="P25:Q25" si="24">P10/L10-1</f>
+        <f t="shared" ref="P25:Q25" si="26">P10/L10-1</f>
         <v>8.8804958357543873E-2</v>
       </c>
       <c r="Q25" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.5039588281868586E-2</v>
       </c>
       <c r="R25" s="20">
-        <f t="shared" ref="R25:S25" si="25">R10/N10-1</f>
+        <f t="shared" ref="R25:S25" si="27">R10/N10-1</f>
         <v>0.95533027086963407</v>
       </c>
       <c r="S25" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.15612610911836855</v>
       </c>
       <c r="T25" s="20">
@@ -4108,29 +4211,35 @@
         <v>-8.9112119248215826E-3</v>
       </c>
       <c r="W25" s="20">
-        <f t="shared" ref="W25" si="26">W10/S10-1</f>
+        <f t="shared" ref="W25" si="28">W10/S10-1</f>
         <v>3.5842586544742483E-2</v>
       </c>
-      <c r="Z25" s="16" t="s">
+      <c r="X25" s="20">
+        <f t="shared" ref="X25" si="29">X10/T10-1</f>
+        <v>0.17240468433565193</v>
+      </c>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AB25" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AA25" s="16" t="s">
+      <c r="AC25" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AB25" s="20">
-        <f t="shared" ref="AB25" si="27">AB10/AA10-1</f>
+      <c r="AD25" s="20">
+        <f t="shared" ref="AD25" si="30">AD10/AC10-1</f>
         <v>-4.3817266150267264E-2</v>
       </c>
-      <c r="AC25" s="20">
-        <f t="shared" ref="AC25" si="28">AC10/AB10-1</f>
+      <c r="AE25" s="20">
+        <f t="shared" ref="AE25" si="31">AE10/AD10-1</f>
         <v>0.19076009945726247</v>
       </c>
-      <c r="AD25" s="20">
-        <f>AD10/AC10-1</f>
+      <c r="AF25" s="20">
+        <f>AF10/AE10-1</f>
         <v>4.8767344739323759E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:30" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="27" t="s">
         <v>88</v>
       </c>
@@ -4147,39 +4256,39 @@
         <v>135</v>
       </c>
       <c r="K26" s="33">
-        <f t="shared" ref="K26:K28" si="29">K3/G3-1</f>
+        <f t="shared" ref="K26:K28" si="32">K3/G3-1</f>
         <v>8.0351225977468577E-2</v>
       </c>
       <c r="L26" s="33">
-        <f t="shared" ref="L26:N28" si="30">L3/H3-1</f>
+        <f t="shared" ref="L26:N28" si="33">L3/H3-1</f>
         <v>0.11518418688230003</v>
       </c>
       <c r="M26" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>4.1653054557334146E-2</v>
       </c>
       <c r="N26" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-0.35359286044006777</v>
       </c>
       <c r="O26" s="33">
-        <f t="shared" ref="O26:O28" si="31">O3/K3-1</f>
+        <f t="shared" ref="O26:O28" si="34">O3/K3-1</f>
         <v>3.7877626130961461E-2</v>
       </c>
       <c r="P26" s="33">
-        <f t="shared" ref="P26:Q28" si="32">P3/L3-1</f>
+        <f t="shared" ref="P26:Q28" si="35">P3/L3-1</f>
         <v>9.5874959716403474E-2</v>
       </c>
       <c r="Q26" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2.0072134232397731E-2</v>
       </c>
       <c r="R26" s="33">
-        <f t="shared" ref="R26:S28" si="33">R3/N3-1</f>
+        <f t="shared" ref="R26:S28" si="36">R3/N3-1</f>
         <v>0.89169245417757703</v>
       </c>
       <c r="S26" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.14036643026004736</v>
       </c>
       <c r="T26" s="33">
@@ -4195,29 +4304,35 @@
         <v>4.7816786208632056E-3</v>
       </c>
       <c r="W26" s="33">
-        <f t="shared" ref="W26:W28" si="34">W3/S3-1</f>
+        <f t="shared" ref="W26:W28" si="37">W3/S3-1</f>
         <v>5.1308629178543841E-2</v>
       </c>
-      <c r="Z26" s="16" t="s">
+      <c r="X26" s="33">
+        <f t="shared" ref="X26:X28" si="38">X3/T3-1</f>
+        <v>0.254277286135693</v>
+      </c>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AB26" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AA26" s="16" t="s">
+      <c r="AC26" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AB26" s="33">
-        <f t="shared" ref="AB26" si="35">AB3/AA3-1</f>
+      <c r="AD26" s="33">
+        <f t="shared" ref="AD26" si="39">AD3/AC3-1</f>
         <v>-3.7858145487573158E-2</v>
       </c>
-      <c r="AC26" s="33">
-        <f t="shared" ref="AC26" si="36">AC3/AB3-1</f>
+      <c r="AE26" s="33">
+        <f t="shared" ref="AE26" si="40">AE3/AD3-1</f>
         <v>0.20236000858184933</v>
       </c>
-      <c r="AD26" s="33">
-        <f>AD3/AC3-1</f>
+      <c r="AF26" s="33">
+        <f>AF3/AE3-1</f>
         <v>4.0041397523286282E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:30" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="27" t="s">
         <v>89</v>
       </c>
@@ -4234,77 +4349,83 @@
         <v>135</v>
       </c>
       <c r="K27" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>5.8324855883350235E-2</v>
       </c>
       <c r="L27" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>7.8058379796654531E-2</v>
       </c>
       <c r="M27" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>7.3143701514591708E-2</v>
       </c>
       <c r="N27" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-0.42355008787346227</v>
       </c>
       <c r="O27" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-7.882089074014742E-2</v>
       </c>
       <c r="P27" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>9.066017645269242E-2</v>
       </c>
       <c r="Q27" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2.0998278829604367E-2</v>
       </c>
       <c r="R27" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1.0969512195121953</v>
       </c>
       <c r="S27" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="T27" s="33">
-        <f t="shared" ref="T27:V28" si="37">T4/P4-1</f>
+        <f t="shared" ref="T27:V28" si="41">T4/P4-1</f>
         <v>1.7573221757322122E-2</v>
       </c>
       <c r="U27" s="33">
+        <f t="shared" si="41"/>
+        <v>8.968307484828042E-2</v>
+      </c>
+      <c r="V27" s="33">
+        <f t="shared" si="41"/>
+        <v>-5.8738005234079682E-2</v>
+      </c>
+      <c r="W27" s="33">
         <f t="shared" si="37"/>
-        <v>8.968307484828042E-2</v>
-      </c>
-      <c r="V27" s="33">
-        <f t="shared" si="37"/>
-        <v>-5.8738005234079682E-2</v>
-      </c>
-      <c r="W27" s="33">
-        <f t="shared" si="34"/>
         <v>-4.6376811594203149E-3</v>
       </c>
-      <c r="Z27" s="16" t="s">
+      <c r="X27" s="33">
+        <f t="shared" si="38"/>
+        <v>4.0021929824561431E-2</v>
+      </c>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+      <c r="AB27" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AA27" s="16" t="s">
+      <c r="AC27" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AB27" s="33">
-        <f t="shared" ref="AB27" si="38">AB4/AA4-1</f>
+      <c r="AD27" s="33">
+        <f t="shared" ref="AD27" si="42">AD4/AC4-1</f>
         <v>-5.1688311688311672E-2</v>
       </c>
-      <c r="AC27" s="33">
-        <f t="shared" ref="AC27" si="39">AC4/AB4-1</f>
+      <c r="AE27" s="33">
+        <f t="shared" ref="AE27" si="43">AE4/AD4-1</f>
         <v>0.17456404637998735</v>
       </c>
-      <c r="AD27" s="33">
-        <f>AD4/AC4-1</f>
+      <c r="AF27" s="33">
+        <f>AF4/AE4-1</f>
         <v>5.4566653711620727E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:30" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="27" t="s">
         <v>90</v>
       </c>
@@ -4321,77 +4442,83 @@
         <v>135</v>
       </c>
       <c r="K28" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>7.6923076923077094E-2</v>
       </c>
       <c r="L28" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>5.5727554179566541E-2</v>
       </c>
       <c r="M28" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>4.8231511254019255E-2</v>
       </c>
       <c r="N28" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-0.53389830508474567</v>
       </c>
       <c r="O28" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-0.171875</v>
       </c>
       <c r="P28" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1.7595307917888325E-2</v>
       </c>
       <c r="Q28" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-9.2024539877300637E-2</v>
       </c>
       <c r="R28" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1.23030303030303</v>
       </c>
       <c r="S28" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.25336927223719674</v>
       </c>
       <c r="T28" s="33">
+        <f t="shared" si="41"/>
+        <v>0.10086455331412103</v>
+      </c>
+      <c r="U28" s="33">
+        <f t="shared" si="41"/>
+        <v>0.31756756756756777</v>
+      </c>
+      <c r="V28" s="33">
+        <f t="shared" si="41"/>
+        <v>5.1630434782608647E-2</v>
+      </c>
+      <c r="W28" s="33">
         <f t="shared" si="37"/>
-        <v>0.10086455331412103</v>
-      </c>
-      <c r="U28" s="33">
-        <f t="shared" si="37"/>
-        <v>0.31756756756756777</v>
-      </c>
-      <c r="V28" s="33">
-        <f t="shared" si="37"/>
-        <v>5.1630434782608647E-2</v>
-      </c>
-      <c r="W28" s="33">
-        <f t="shared" si="34"/>
         <v>4.5161290322580649E-2</v>
       </c>
-      <c r="Z28" s="16" t="s">
+      <c r="X28" s="33">
+        <f t="shared" si="38"/>
+        <v>6.8062827225130906E-2</v>
+      </c>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="33"/>
+      <c r="AB28" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AA28" s="16" t="s">
+      <c r="AC28" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AB28" s="33">
-        <f t="shared" ref="AB28" si="40">AB5/AA5-1</f>
+      <c r="AD28" s="33">
+        <f t="shared" ref="AD28" si="44">AD5/AC5-1</f>
         <v>-8.831908831908819E-2</v>
       </c>
-      <c r="AC28" s="33">
-        <f t="shared" ref="AC28" si="41">AC5/AB5-1</f>
+      <c r="AE28" s="33">
+        <f t="shared" ref="AE28" si="45">AE5/AD5-1</f>
         <v>7.9687500000000133E-2</v>
       </c>
-      <c r="AD28" s="33">
-        <f>AD5/AC5-1</f>
+      <c r="AF28" s="33">
+        <f>AF5/AE5-1</f>
         <v>0.17510853835021711</v>
       </c>
     </row>
-    <row r="29" spans="2:30" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="29" t="s">
         <v>97</v>
       </c>
@@ -4408,77 +4535,83 @@
         <v>135</v>
       </c>
       <c r="K29" s="33">
-        <f t="shared" ref="K29:K31" si="42">K7/G7-1</f>
+        <f t="shared" ref="K29:K31" si="46">K7/G7-1</f>
         <v>7.2103642348943398E-2</v>
       </c>
       <c r="L29" s="33">
-        <f t="shared" ref="L29:N31" si="43">L7/H7-1</f>
+        <f t="shared" ref="L29:N31" si="47">L7/H7-1</f>
         <v>0.10038005812653683</v>
       </c>
       <c r="M29" s="33">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>5.1158723218189817E-2</v>
       </c>
       <c r="N29" s="33">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-0.38065313691150715</v>
       </c>
       <c r="O29" s="33">
-        <f t="shared" ref="O29:O31" si="44">O7/K7-1</f>
+        <f t="shared" ref="O29:O31" si="48">O7/K7-1</f>
         <v>-7.7258320126781799E-3</v>
       </c>
       <c r="P29" s="33">
-        <f t="shared" ref="P29:Q31" si="45">P7/L7-1</f>
+        <f t="shared" ref="P29:Q31" si="49">P7/L7-1</f>
         <v>9.1121495327102675E-2</v>
       </c>
       <c r="Q29" s="33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1.6326955074875249E-2</v>
       </c>
       <c r="R29" s="33">
-        <f t="shared" ref="R29:S31" si="46">R7/N7-1</f>
+        <f t="shared" ref="R29:S31" si="50">R7/N7-1</f>
         <v>0.95625415834996685</v>
       </c>
       <c r="S29" s="33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>0.16190856458374903</v>
       </c>
       <c r="T29" s="33">
-        <f t="shared" ref="T29:V31" si="47">T7/P7-1</f>
+        <f t="shared" ref="T29:V31" si="51">T7/P7-1</f>
         <v>6.9825900754121317E-3</v>
       </c>
       <c r="U29" s="33">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>5.6277499232579631E-2</v>
       </c>
       <c r="V29" s="33">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-8.8427854774251191E-3</v>
       </c>
       <c r="W29" s="33">
-        <f t="shared" ref="W29:W31" si="48">W7/S7-1</f>
+        <f t="shared" ref="W29:W31" si="52">W7/S7-1</f>
         <v>3.5051546391752897E-2</v>
       </c>
-      <c r="Z29" s="16" t="s">
+      <c r="X29" s="33">
+        <f t="shared" ref="X29:X31" si="53">X7/T7-1</f>
+        <v>0.17640532544378695</v>
+      </c>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
+      <c r="AB29" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AA29" s="16" t="s">
+      <c r="AC29" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AB29" s="33">
-        <f t="shared" ref="AB29" si="49">AB7/AA7-1</f>
+      <c r="AD29" s="33">
+        <f t="shared" ref="AD29" si="54">AD7/AC7-1</f>
         <v>-4.433338707077239E-2</v>
       </c>
-      <c r="AC29" s="33">
-        <f t="shared" ref="AC29" si="50">AC7/AB7-1</f>
+      <c r="AE29" s="33">
+        <f t="shared" ref="AE29" si="55">AE7/AD7-1</f>
         <v>0.18907444894286995</v>
       </c>
-      <c r="AD29" s="33">
-        <f>AD7/AC7-1</f>
+      <c r="AF29" s="33">
+        <f>AF7/AE7-1</f>
         <v>5.0670323694228525E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:30" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="29" t="s">
         <v>93</v>
       </c>
@@ -4495,77 +4628,83 @@
         <v>135</v>
       </c>
       <c r="K30" s="33">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>5.3130929791271431E-2</v>
       </c>
       <c r="L30" s="33">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.12941176470588234</v>
       </c>
       <c r="M30" s="33">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>9.2872570194384441E-2</v>
       </c>
       <c r="N30" s="33">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-0.37881873727087578</v>
       </c>
       <c r="O30" s="33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1.4414414414414267E-2</v>
       </c>
       <c r="P30" s="33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>-8.3333333333333037E-3</v>
       </c>
       <c r="Q30" s="33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.12648221343873511</v>
       </c>
       <c r="R30" s="33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>0.95409836065573761</v>
       </c>
       <c r="S30" s="33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>0.1172291296625223</v>
       </c>
       <c r="T30" s="33">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>0.17016806722689082</v>
       </c>
       <c r="U30" s="33">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-5.2631578947368585E-3</v>
       </c>
       <c r="V30" s="33">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-5.0335570469798308E-3</v>
       </c>
       <c r="W30" s="33">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>2.2257551669316422E-2</v>
       </c>
-      <c r="Z30" s="16" t="s">
+      <c r="X30" s="33">
+        <f t="shared" si="53"/>
+        <v>5.20646319569118E-2</v>
+      </c>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AB30" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AA30" s="16" t="s">
+      <c r="AC30" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AB30" s="33">
-        <f t="shared" ref="AB30" si="51">AB8/AA8-1</f>
+      <c r="AD30" s="33">
+        <f t="shared" ref="AD30" si="56">AD8/AC8-1</f>
         <v>-3.147953830010497E-2</v>
       </c>
-      <c r="AC30" s="33">
-        <f t="shared" ref="AC30:AD31" si="52">AC8/AB8-1</f>
+      <c r="AE30" s="33">
+        <f t="shared" ref="AE30:AF31" si="57">AE8/AD8-1</f>
         <v>0.19447453954496208</v>
       </c>
-      <c r="AD30" s="33">
-        <f t="shared" si="52"/>
+      <c r="AF30" s="33">
+        <f t="shared" si="57"/>
         <v>6.3945578231292544E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:30" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="29" t="s">
         <v>94</v>
       </c>
@@ -4582,76 +4721,82 @@
         <v>135</v>
       </c>
       <c r="K31" s="33">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1.25</v>
       </c>
       <c r="L31" s="33">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-0.33333333333333337</v>
       </c>
       <c r="M31" s="47" t="s">
         <v>135</v>
       </c>
       <c r="N31" s="33">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-0.7142857142857143</v>
       </c>
       <c r="O31" s="33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="P31" s="33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>12</v>
       </c>
       <c r="Q31" s="33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>-1.7777777777777779</v>
       </c>
       <c r="R31" s="33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>2.25</v>
       </c>
       <c r="S31" s="33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>-2.6153846153846159</v>
       </c>
       <c r="T31" s="33">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-1.6153846153846154</v>
       </c>
       <c r="U31" s="33">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-2.3571428571428568</v>
       </c>
       <c r="V31" s="33">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>0.23076923076923084</v>
       </c>
       <c r="W31" s="33">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>-0.80952380952380953</v>
       </c>
-      <c r="Z31" s="16" t="s">
+      <c r="X31" s="33">
+        <f t="shared" si="53"/>
+        <v>-1.3125</v>
+      </c>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AB31" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AA31" s="16" t="s">
+      <c r="AC31" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AB31" s="33">
-        <f t="shared" ref="AB31" si="53">AB9/AA9-1</f>
+      <c r="AD31" s="33">
+        <f t="shared" ref="AD31" si="58">AD9/AC9-1</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="AC31" s="33">
-        <f t="shared" si="52"/>
+      <c r="AE31" s="33">
+        <f t="shared" si="57"/>
         <v>-4.6363636363636367</v>
       </c>
-      <c r="AD31" s="33">
-        <f t="shared" si="52"/>
+      <c r="AF31" s="33">
+        <f t="shared" si="57"/>
         <v>-2.8000000000000003</v>
       </c>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>83</v>
       </c>
@@ -4659,59 +4804,59 @@
         <v>135</v>
       </c>
       <c r="H32" s="24">
-        <f t="shared" ref="H32:L32" si="54">H10/G10-1</f>
+        <f t="shared" ref="H32:L32" si="59">H10/G10-1</f>
         <v>-5.7700040209086922E-2</v>
       </c>
       <c r="I32" s="24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>2.5282696820993822E-2</v>
       </c>
       <c r="J32" s="24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>5.9619186348975228E-2</v>
       </c>
       <c r="K32" s="24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>4.6739984289080994E-2</v>
       </c>
       <c r="L32" s="24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>-3.1332082551594698E-2</v>
       </c>
       <c r="M32" s="24">
-        <f t="shared" ref="M32:N32" si="55">M10/L10-1</f>
+        <f t="shared" ref="M32:N32" si="60">M10/L10-1</f>
         <v>-2.1499128413713042E-2</v>
       </c>
       <c r="N32" s="24">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>-0.37519794140934282</v>
       </c>
       <c r="O32" s="24">
-        <f t="shared" ref="O32:T32" si="56">O10/N10-1</f>
+        <f t="shared" ref="O32:T32" si="61">O10/N10-1</f>
         <v>0.678124504989704</v>
       </c>
       <c r="P32" s="24">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>6.126109118368861E-2</v>
       </c>
       <c r="Q32" s="24">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-7.8804589522369461E-2</v>
       </c>
       <c r="R32" s="24">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.19185092208168397</v>
       </c>
       <c r="S32" s="24">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-7.7770576798446012E-3</v>
       </c>
       <c r="T32" s="24">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-7.2746570868712945E-2</v>
       </c>
       <c r="U32" s="24">
-        <f t="shared" ref="U32" si="57">U10/T10-1</f>
+        <f t="shared" ref="U32" si="62">U10/T10-1</f>
         <v>-4.2792991106806455E-2</v>
       </c>
       <c r="V32" s="24">
@@ -4719,57 +4864,63 @@
         <v>0.12537944991261174</v>
       </c>
       <c r="W32" s="24">
-        <f t="shared" ref="W32" si="58">W10/V10-1</f>
+        <f t="shared" ref="W32" si="63">W10/V10-1</f>
         <v>3.7027954879843117E-2</v>
       </c>
-      <c r="Z32" s="16" t="s">
+      <c r="X32" s="24">
+        <f t="shared" ref="X32" si="64">X10/W10-1</f>
+        <v>4.9499487664538266E-2</v>
+      </c>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AB32" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AA32" s="16" t="s">
+      <c r="AC32" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AD32" s="16" t="s">
+      <c r="AF32" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G34" s="24">
-        <f t="shared" ref="G34" si="59">G12/G10</f>
+        <f t="shared" ref="G34" si="65">G12/G10</f>
         <v>0.44199839163650978</v>
       </c>
       <c r="H34" s="24">
-        <f t="shared" ref="H34" si="60">H12/H10</f>
+        <f t="shared" ref="H34" si="66">H12/H10</f>
         <v>0.43791337742692565</v>
       </c>
       <c r="I34" s="24">
-        <f t="shared" ref="I34:K34" si="61">I12/I10</f>
+        <f t="shared" ref="I34:K34" si="67">I12/I10</f>
         <v>0.4514618666111746</v>
       </c>
       <c r="J34" s="24">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>0.45492930086410049</v>
       </c>
       <c r="K34" s="24">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>0.45694183864915577</v>
       </c>
       <c r="L34" s="24">
-        <f t="shared" ref="L34" si="62">L12/L10</f>
+        <f t="shared" ref="L34" si="68">L12/L10</f>
         <v>0.4400542320356382</v>
       </c>
       <c r="M34" s="24">
-        <f t="shared" ref="M34" si="63">M12/M10</f>
+        <f t="shared" ref="M34" si="69">M12/M10</f>
         <v>0.44269596199524935</v>
       </c>
       <c r="N34" s="24">
-        <f t="shared" ref="N34:O34" si="64">N12/N10</f>
+        <f t="shared" ref="N34:O34" si="70">N12/N10</f>
         <v>0.37272295263741484</v>
       </c>
       <c r="O34" s="24">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>0.4475174627147443</v>
       </c>
       <c r="P34" s="24">
@@ -4785,15 +4936,15 @@
         <v>0.45811730395333761</v>
       </c>
       <c r="S34" s="24">
-        <f t="shared" ref="S34:T34" si="65">S12/S10</f>
+        <f t="shared" ref="S34:T34" si="71">S12/S10</f>
         <v>0.4650555192684519</v>
       </c>
       <c r="T34" s="24">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.45901206304481823</v>
       </c>
       <c r="U34" s="24">
-        <f t="shared" ref="U34" si="66">U12/U10</f>
+        <f t="shared" ref="U34" si="72">U12/U10</f>
         <v>0.4661024744733695</v>
       </c>
       <c r="V34" s="24">
@@ -4801,64 +4952,70 @@
         <v>0.44981199934608479</v>
       </c>
       <c r="W34" s="24">
-        <f t="shared" ref="W34" si="67">W12/W10</f>
+        <f t="shared" ref="W34:X34" si="73">W12/W10</f>
         <v>0.44257901789233084</v>
       </c>
-      <c r="AA34" s="24">
-        <f t="shared" ref="AA34" si="68">AA12/AA10</f>
+      <c r="X34" s="24">
+        <f t="shared" si="73"/>
+        <v>0.42891475779196397</v>
+      </c>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
+      <c r="AC34" s="24">
+        <f t="shared" ref="AC34" si="74">AC12/AC10</f>
         <v>0.44671114860546568</v>
       </c>
-      <c r="AB34" s="24">
-        <f t="shared" ref="AB34" si="69">AB12/AB10</f>
+      <c r="AD34" s="24">
+        <f t="shared" ref="AD34" si="75">AD12/AD10</f>
         <v>0.43421650669732376</v>
       </c>
-      <c r="AC34" s="24">
-        <f>AC12/AC10</f>
+      <c r="AE34" s="24">
+        <f>AE12/AE10</f>
         <v>0.44820153576720989</v>
       </c>
-      <c r="AD34" s="24">
-        <f>AD12/AD10</f>
+      <c r="AF34" s="24">
+        <f>AF12/AF10</f>
         <v>0.4598372939413401</v>
       </c>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G35" s="24">
-        <f t="shared" ref="G35" si="70">G16/G10</f>
+        <f t="shared" ref="G35" si="76">G16/G10</f>
         <v>0.13409730599115385</v>
       </c>
       <c r="H35" s="24">
-        <f t="shared" ref="H35" si="71">H16/H10</f>
+        <f t="shared" ref="H35" si="77">H16/H10</f>
         <v>0.10273095796885018</v>
       </c>
       <c r="I35" s="24">
-        <f t="shared" ref="I35:K35" si="72">I16/I10</f>
+        <f t="shared" ref="I35:K35" si="78">I16/I10</f>
         <v>0.12985121215274151</v>
       </c>
       <c r="J35" s="24">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.12048311076197953</v>
       </c>
       <c r="K35" s="24">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.14474671669793623</v>
       </c>
       <c r="L35" s="24">
-        <f t="shared" ref="L35" si="73">L16/L10</f>
+        <f t="shared" ref="L35" si="79">L16/L10</f>
         <v>0.11814836335463884</v>
       </c>
       <c r="M35" s="24">
-        <f t="shared" ref="M35" si="74">M16/M10</f>
+        <f t="shared" ref="M35" si="80">M16/M10</f>
         <v>0.11777513855898646</v>
       </c>
       <c r="N35" s="24">
-        <f t="shared" ref="N35:O35" si="75">N16/N10</f>
+        <f t="shared" ref="N35:O35" si="81">N16/N10</f>
         <v>-0.13274196103278951</v>
       </c>
       <c r="O35" s="24">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>0.16669813101755721</v>
       </c>
       <c r="P35" s="24">
@@ -4874,15 +5031,15 @@
         <v>0.15497407647440048</v>
       </c>
       <c r="S35" s="24">
-        <f t="shared" ref="S35:T35" si="76">S16/S10</f>
+        <f t="shared" ref="S35:T35" si="82">S16/S10</f>
         <v>0.17341606792945774</v>
       </c>
       <c r="T35" s="24">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>0.12802676763229734</v>
       </c>
       <c r="U35" s="24">
-        <f t="shared" ref="U35" si="77">U16/U10</f>
+        <f t="shared" ref="U35" si="83">U16/U10</f>
         <v>0.14984822003495538</v>
       </c>
       <c r="V35" s="24">
@@ -4890,64 +5047,70 @@
         <v>0.11999346084682046</v>
       </c>
       <c r="W35" s="24">
-        <f t="shared" ref="W35" si="78">W16/W10</f>
+        <f t="shared" ref="W35:X35" si="84">W16/W10</f>
         <v>0.13360132419011606</v>
       </c>
-      <c r="AA35" s="24">
-        <f t="shared" ref="AA35" si="79">AA16/AA10</f>
+      <c r="X35" s="24">
+        <f t="shared" si="84"/>
+        <v>0.11918888471648527</v>
+      </c>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
+      <c r="AC35" s="24">
+        <f t="shared" ref="AC35" si="85">AC16/AC10</f>
         <v>0.64943630646521955</v>
       </c>
-      <c r="AB35" s="24">
-        <f t="shared" ref="AB35" si="80">AB16/AB10</f>
+      <c r="AD35" s="24">
+        <f t="shared" ref="AD35" si="86">AD16/AD10</f>
         <v>8.3282089671951415E-2</v>
       </c>
-      <c r="AC35" s="24">
-        <f>AC16/AC10</f>
+      <c r="AE35" s="24">
+        <f>AE16/AE10</f>
         <v>0.15575463649018789</v>
       </c>
-      <c r="AD35" s="24">
-        <f>AD16/AD10</f>
+      <c r="AF35" s="24">
+        <f>AF16/AF10</f>
         <v>0.14290301862556182</v>
       </c>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G36" s="24">
-        <f t="shared" ref="G36" si="81">G21/G10</f>
+        <f t="shared" ref="G36" si="87">G21/G10</f>
         <v>0.10977080820265367</v>
       </c>
       <c r="H36" s="24">
-        <f t="shared" ref="H36" si="82">H21/H10</f>
+        <f t="shared" ref="H36" si="88">H21/H10</f>
         <v>9.0356304672498569E-2</v>
       </c>
       <c r="I36" s="24">
-        <f t="shared" ref="I36:K36" si="83">I21/I10</f>
+        <f t="shared" ref="I36:K36" si="89">I21/I10</f>
         <v>0.11455623764436568</v>
       </c>
       <c r="J36" s="24">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>9.711311861743907E-2</v>
       </c>
       <c r="K36" s="24">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>0.12823639774859288</v>
       </c>
       <c r="L36" s="24">
-        <f t="shared" ref="L36" si="84">L21/L10</f>
+        <f t="shared" ref="L36" si="90">L21/L10</f>
         <v>0.1079798566724773</v>
       </c>
       <c r="M36" s="24">
-        <f t="shared" ref="M36" si="85">M21/M10</f>
+        <f t="shared" ref="M36" si="91">M21/M10</f>
         <v>8.3828186856690343E-2</v>
       </c>
       <c r="N36" s="24">
-        <f t="shared" ref="N36:O36" si="86">N21/N10</f>
+        <f t="shared" ref="N36:O36" si="92">N21/N10</f>
         <v>-0.12513860288293999</v>
       </c>
       <c r="O36" s="24">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.14328865395506901</v>
       </c>
       <c r="P36" s="24">
@@ -4963,15 +5126,15 @@
         <v>0.12224562540505506</v>
       </c>
       <c r="S36" s="24">
-        <f t="shared" ref="S36:T36" si="87">S21/S10</f>
+        <f t="shared" ref="S36:T36" si="93">S21/S10</f>
         <v>0.15300457217504887</v>
       </c>
       <c r="T36" s="24">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0.11772475125473286</v>
       </c>
       <c r="U36" s="24">
-        <f t="shared" ref="U36" si="88">U21/U10</f>
+        <f t="shared" ref="U36" si="94">U21/U10</f>
         <v>0.12841504921350383</v>
       </c>
       <c r="V36" s="24">
@@ -4979,64 +5142,70 @@
         <v>0.11762301781919253</v>
       </c>
       <c r="W36" s="24">
-        <f t="shared" ref="W36" si="89">W21/W10</f>
+        <f t="shared" ref="W36:X36" si="95">W21/W10</f>
         <v>0.11570899345787047</v>
       </c>
-      <c r="AA36" s="24">
-        <f t="shared" ref="AA36" si="90">AA21/AA10</f>
+      <c r="X36" s="24">
+        <f t="shared" si="95"/>
+        <v>9.9962448366504045E-2</v>
+      </c>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="24"/>
+      <c r="AC36" s="24">
+        <f t="shared" ref="AC36" si="96">AC21/AC10</f>
         <v>0.1404760078738144</v>
       </c>
-      <c r="AB36" s="24">
-        <f t="shared" ref="AB36" si="91">AB21/AB10</f>
+      <c r="AD36" s="24">
+        <f t="shared" ref="AD36" si="97">AD21/AD10</f>
         <v>6.7882255434056099E-2</v>
       </c>
-      <c r="AC36" s="24">
-        <f>AC21/AC10</f>
+      <c r="AE36" s="24">
+        <f>AE21/AE10</f>
         <v>0.12858682473393507</v>
       </c>
-      <c r="AD36" s="24">
-        <f>AD21/AD10</f>
+      <c r="AF36" s="24">
+        <f>AF21/AF10</f>
         <v>0.12943695140226918</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G37" s="24">
-        <f t="shared" ref="G37" si="92">G20/G19</f>
+        <f t="shared" ref="G37" si="98">G20/G19</f>
         <v>0.14015748031496078</v>
       </c>
       <c r="H37" s="24">
-        <f t="shared" ref="H37" si="93">H20/H19</f>
+        <f t="shared" ref="H37" si="99">H20/H19</f>
         <v>0.15045135406218627</v>
       </c>
       <c r="I37" s="24">
-        <f t="shared" ref="I37:K37" si="94">I20/I19</f>
+        <f t="shared" ref="I37:K37" si="100">I20/I19</f>
         <v>0.14717273431448508</v>
       </c>
       <c r="J37" s="24">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>0.20434432823813364</v>
       </c>
       <c r="K37" s="24">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>0.12427930813581037</v>
       </c>
       <c r="L37" s="24">
-        <f t="shared" ref="L37" si="95">L20/L19</f>
+        <f t="shared" ref="L37" si="101">L20/L19</f>
         <v>0.10728582866293031</v>
       </c>
       <c r="M37" s="24">
-        <f t="shared" ref="M37" si="96">M20/M19</f>
+        <f t="shared" ref="M37" si="102">M20/M19</f>
         <v>3.8592508513053389E-2</v>
       </c>
       <c r="N37" s="24">
-        <f t="shared" ref="N37:O37" si="97">N20/N19</f>
+        <f t="shared" ref="N37:O37" si="103">N20/N19</f>
         <v>1.7412935323383082E-2</v>
       </c>
       <c r="O37" s="24">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>0.11486880466472295</v>
       </c>
       <c r="P37" s="24">
@@ -5052,15 +5221,15 @@
         <v>0.18608414239482204</v>
       </c>
       <c r="S37" s="24">
-        <f t="shared" ref="S37:T37" si="98">S20/S19</f>
+        <f t="shared" ref="S37:T37" si="104">S20/S19</f>
         <v>0.11016144349477694</v>
       </c>
       <c r="T37" s="24">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>0.10926049300466348</v>
       </c>
       <c r="U37" s="24">
-        <f t="shared" ref="U37" si="99">U20/U19</f>
+        <f t="shared" ref="U37" si="105">U20/U19</f>
         <v>0.16407185628742516</v>
       </c>
       <c r="V37" s="24">
@@ -5068,32 +5237,38 @@
         <v>-4.7307132459970834E-2</v>
       </c>
       <c r="W37" s="24">
-        <f t="shared" ref="W37" si="100">W20/W19</f>
+        <f t="shared" ref="W37:X37" si="106">W20/W19</f>
         <v>0.19693654266958391</v>
       </c>
-      <c r="AA37" s="24">
-        <f t="shared" ref="AA37" si="101">AA20/AA19</f>
+      <c r="X37" s="24">
+        <f t="shared" si="106"/>
+        <v>0.19333333333333316</v>
+      </c>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+      <c r="AC37" s="24">
+        <f t="shared" ref="AC37" si="107">AC20/AC19</f>
         <v>0.16079983336804837</v>
       </c>
-      <c r="AB37" s="24">
-        <f t="shared" ref="AB37" si="102">AB20/AB19</f>
+      <c r="AD37" s="24">
+        <f t="shared" ref="AD37" si="108">AD20/AD19</f>
         <v>8.6934798900824395E-2</v>
       </c>
-      <c r="AC37" s="24">
-        <f>AC20/AC19</f>
+      <c r="AE37" s="24">
+        <f>AE20/AE19</f>
         <v>0.14021918630836214</v>
       </c>
-      <c r="AD37" s="24">
-        <f>AD20/AD19</f>
+      <c r="AF37" s="24">
+        <f>AF20/AF19</f>
         <v>9.0963764847391479E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B40" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>6</v>
       </c>
@@ -5148,16 +5323,21 @@
       <c r="W41" s="34">
         <v>7226</v>
       </c>
-      <c r="AC41" s="34">
-        <f t="shared" ref="AC41:AC46" si="103">R41</f>
+      <c r="X41" s="34">
+        <v>6490</v>
+      </c>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="34"/>
+      <c r="AE41" s="34">
+        <f t="shared" ref="AE41:AE46" si="109">R41</f>
         <v>9889</v>
       </c>
-      <c r="AD41" s="34">
+      <c r="AF41" s="34">
         <f>V41</f>
         <v>8574</v>
       </c>
     </row>
-    <row r="42" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>98</v>
       </c>
@@ -5212,16 +5392,21 @@
       <c r="W42" s="34">
         <v>4650</v>
       </c>
-      <c r="AC42" s="34">
-        <f t="shared" si="103"/>
+      <c r="X42" s="34">
+        <v>4131</v>
+      </c>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AE42" s="34">
+        <f t="shared" si="109"/>
         <v>3587</v>
       </c>
-      <c r="AD42" s="34">
+      <c r="AF42" s="34">
         <f>V42</f>
         <v>4423</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>99</v>
       </c>
@@ -5276,16 +5461,21 @@
       <c r="W43" s="35">
         <v>4960</v>
       </c>
-      <c r="AC43" s="35">
-        <f t="shared" si="103"/>
+      <c r="X43" s="35">
+        <v>5437</v>
+      </c>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AE43" s="35">
+        <f t="shared" si="109"/>
         <v>4463</v>
       </c>
-      <c r="AD43" s="35">
+      <c r="AF43" s="35">
         <f>V43</f>
         <v>4667</v>
       </c>
     </row>
-    <row r="44" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>100</v>
       </c>
@@ -5340,16 +5530,21 @@
       <c r="W44" s="34">
         <v>9662</v>
       </c>
-      <c r="AC44" s="34">
-        <f t="shared" si="103"/>
+      <c r="X44" s="34">
+        <v>9326</v>
+      </c>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
+      <c r="AE44" s="34">
+        <f t="shared" si="109"/>
         <v>6854</v>
       </c>
-      <c r="AD44" s="34">
+      <c r="AF44" s="34">
         <f>V44</f>
         <v>8420</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>101</v>
       </c>
@@ -5404,97 +5599,108 @@
       <c r="W45" s="35">
         <v>2379</v>
       </c>
-      <c r="AC45" s="35">
-        <f t="shared" si="103"/>
+      <c r="X45" s="35">
+        <v>2063</v>
+      </c>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="35"/>
+      <c r="AE45" s="35">
+        <f t="shared" si="109"/>
         <v>1498</v>
       </c>
-      <c r="AD45" s="35">
-        <f t="shared" ref="AD45:AD51" si="104">V45</f>
+      <c r="AF45" s="35">
+        <f t="shared" ref="AF45:AF51" si="110">V45</f>
         <v>2129</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>102</v>
       </c>
       <c r="G46" s="19">
-        <f t="shared" ref="G46:L46" si="105">SUM(G41:G45)</f>
+        <f t="shared" ref="G46:L46" si="111">SUM(G41:G45)</f>
         <v>15501</v>
       </c>
       <c r="H46" s="19">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>15566</v>
       </c>
       <c r="I46" s="19">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>15796</v>
       </c>
       <c r="J46" s="19">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>16525</v>
       </c>
       <c r="K46" s="19">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>16228</v>
       </c>
       <c r="L46" s="19">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>16369</v>
       </c>
       <c r="M46" s="19">
-        <f t="shared" ref="M46:W46" si="106">SUM(M41:M45)</f>
+        <f t="shared" ref="M46:X46" si="112">SUM(M41:M45)</f>
         <v>15744</v>
       </c>
       <c r="N46" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>20646</v>
       </c>
       <c r="O46" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>21937</v>
       </c>
       <c r="P46" s="35">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>23607</v>
       </c>
       <c r="Q46" s="35">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>24700</v>
       </c>
       <c r="R46" s="35">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>26291</v>
       </c>
       <c r="S46" s="35">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>26390</v>
       </c>
       <c r="T46" s="35">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>27177</v>
       </c>
       <c r="U46" s="35">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>26962</v>
       </c>
       <c r="V46" s="35">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>28213</v>
       </c>
       <c r="W46" s="35">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>28877</v>
       </c>
-      <c r="AC46" s="35">
-        <f t="shared" si="103"/>
+      <c r="X46" s="35">
+        <f t="shared" si="112"/>
+        <v>27447</v>
+      </c>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AE46" s="35">
+        <f t="shared" si="109"/>
         <v>26291</v>
       </c>
-      <c r="AD46" s="35">
-        <f t="shared" si="104"/>
+      <c r="AF46" s="35">
+        <f t="shared" si="110"/>
         <v>28213</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>103</v>
       </c>
@@ -5549,16 +5755,21 @@
       <c r="W47" s="35">
         <v>4778</v>
       </c>
-      <c r="AC47" s="35">
-        <f t="shared" ref="AC47:AC50" si="107">R47</f>
+      <c r="X47" s="35">
+        <v>4854</v>
+      </c>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AE47" s="35">
+        <f t="shared" ref="AE47:AE50" si="113">R47</f>
         <v>4904</v>
       </c>
-      <c r="AD47" s="35">
-        <f t="shared" si="104"/>
+      <c r="AF47" s="35">
+        <f t="shared" si="110"/>
         <v>4791</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>104</v>
       </c>
@@ -5613,52 +5824,57 @@
       <c r="W48" s="35">
         <v>2880</v>
       </c>
-      <c r="AC48" s="35">
-        <f t="shared" si="107"/>
+      <c r="X48" s="35">
+        <v>2809</v>
+      </c>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AE48" s="35">
+        <f t="shared" si="113"/>
         <v>3113</v>
       </c>
-      <c r="AD48" s="35">
-        <f t="shared" si="104"/>
+      <c r="AF48" s="35">
+        <f t="shared" si="110"/>
         <v>2926</v>
       </c>
     </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B49" s="1" t="s">
+    <row r="49" spans="2:32" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="35">
         <f>284+154</f>
         <v>438</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H49" s="35">
         <f>284+154</f>
         <v>438</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I49" s="35">
         <f>283+154</f>
         <v>437</v>
       </c>
-      <c r="J49" s="19">
+      <c r="J49" s="35">
         <f>283+154</f>
         <v>437</v>
       </c>
-      <c r="K49" s="19">
+      <c r="K49" s="35">
         <f>279+224</f>
         <v>503</v>
       </c>
-      <c r="L49" s="19">
+      <c r="L49" s="35">
         <f>277+224</f>
         <v>501</v>
       </c>
-      <c r="M49" s="19">
+      <c r="M49" s="35">
         <f>275+223</f>
         <v>498</v>
       </c>
-      <c r="N49" s="19">
+      <c r="N49" s="35">
         <f>274+223</f>
         <v>497</v>
       </c>
-      <c r="O49" s="19">
+      <c r="O49" s="35">
         <f>272+223</f>
         <v>495</v>
       </c>
@@ -5694,16 +5910,20 @@
         <f>283+282</f>
         <v>565</v>
       </c>
-      <c r="AC49" s="35">
-        <f t="shared" si="107"/>
+      <c r="X49" s="35">
+        <f>280+281</f>
+        <v>561</v>
+      </c>
+      <c r="AE49" s="35">
+        <f t="shared" si="113"/>
         <v>511</v>
       </c>
-      <c r="AD49" s="35">
-        <f t="shared" si="104"/>
+      <c r="AF49" s="35">
+        <f t="shared" si="110"/>
         <v>570</v>
       </c>
     </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>106</v>
       </c>
@@ -5758,97 +5978,108 @@
       <c r="W50" s="35">
         <v>3988</v>
       </c>
-      <c r="AC50" s="35">
-        <f t="shared" si="107"/>
+      <c r="X50" s="35">
+        <v>3976</v>
+      </c>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="35"/>
+      <c r="AE50" s="35">
+        <f t="shared" si="113"/>
         <v>2921</v>
       </c>
-      <c r="AD50" s="35">
-        <f t="shared" si="104"/>
+      <c r="AF50" s="35">
+        <f t="shared" si="110"/>
         <v>3821</v>
       </c>
     </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>107</v>
       </c>
       <c r="G51" s="19">
-        <f t="shared" ref="G51:L51" si="108">G46+SUM(G47:G50)</f>
+        <f t="shared" ref="G51:L51" si="114">G46+SUM(G47:G50)</f>
         <v>22483</v>
       </c>
       <c r="H51" s="19">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>22677</v>
       </c>
       <c r="I51" s="19">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>22921</v>
       </c>
       <c r="J51" s="19">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>23717</v>
       </c>
       <c r="K51" s="19">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>26249</v>
       </c>
       <c r="L51" s="19">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>26602</v>
       </c>
       <c r="M51" s="19">
-        <f t="shared" ref="M51:W51" si="109">M46+SUM(M47:M50)</f>
+        <f t="shared" ref="M51:X51" si="115">M46+SUM(M47:M50)</f>
         <v>26220</v>
       </c>
       <c r="N51" s="19">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>31452</v>
       </c>
       <c r="O51" s="19">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>33258</v>
       </c>
       <c r="P51" s="35">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>34836</v>
       </c>
       <c r="Q51" s="35">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>36185</v>
       </c>
       <c r="R51" s="35">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>37740</v>
       </c>
       <c r="S51" s="35">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>37917</v>
       </c>
       <c r="T51" s="35">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>38917</v>
       </c>
       <c r="U51" s="35">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>38577</v>
       </c>
       <c r="V51" s="35">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>40321</v>
       </c>
       <c r="W51" s="35">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>41088</v>
       </c>
-      <c r="AC51" s="35">
+      <c r="X51" s="35">
+        <f t="shared" si="115"/>
+        <v>39647</v>
+      </c>
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="35"/>
+      <c r="AE51" s="35">
         <f>R51</f>
         <v>37740</v>
       </c>
-      <c r="AD51" s="35">
-        <f t="shared" si="104"/>
+      <c r="AF51" s="35">
+        <f t="shared" si="110"/>
         <v>40321</v>
       </c>
     </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:32" x14ac:dyDescent="0.15">
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -5867,7 +6098,7 @@
       <c r="V52" s="35"/>
       <c r="W52" s="35"/>
     </row>
-    <row r="53" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>108</v>
       </c>
@@ -5922,16 +6153,21 @@
       <c r="W53" s="34">
         <v>500</v>
       </c>
-      <c r="AC53" s="34">
+      <c r="X53" s="34">
+        <v>500</v>
+      </c>
+      <c r="Y53" s="34"/>
+      <c r="Z53" s="34"/>
+      <c r="AE53" s="34">
         <f>R53</f>
         <v>0</v>
       </c>
-      <c r="AD53" s="34">
-        <f t="shared" ref="AD53:AD54" si="110">V53</f>
+      <c r="AF53" s="34">
+        <f t="shared" ref="AF53:AF54" si="116">V53</f>
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>109</v>
       </c>
@@ -5986,16 +6222,21 @@
       <c r="W54" s="34">
         <v>9</v>
       </c>
-      <c r="AC54" s="34">
+      <c r="X54" s="34">
+        <v>7</v>
+      </c>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="34"/>
+      <c r="AE54" s="34">
         <f>R54</f>
         <v>2</v>
       </c>
-      <c r="AD54" s="34">
-        <f t="shared" si="110"/>
+      <c r="AF54" s="34">
+        <f t="shared" si="116"/>
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>110</v>
       </c>
@@ -6050,16 +6291,21 @@
       <c r="W55" s="35">
         <v>3371</v>
       </c>
-      <c r="AC55" s="35">
-        <f t="shared" ref="AC55:AC58" si="111">R55</f>
+      <c r="X55" s="35">
+        <v>2810</v>
+      </c>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AE55" s="35">
+        <f t="shared" ref="AE55:AE58" si="117">R55</f>
         <v>2836</v>
       </c>
-      <c r="AD55" s="35">
-        <f t="shared" ref="AD55:AD59" si="112">V55</f>
+      <c r="AF55" s="35">
+        <f t="shared" ref="AF55:AF59" si="118">V55</f>
         <v>3358</v>
       </c>
     </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>111</v>
       </c>
@@ -6114,16 +6360,21 @@
       <c r="W56" s="35">
         <v>424</v>
       </c>
-      <c r="AC56" s="35">
-        <f t="shared" si="111"/>
+      <c r="X56" s="35">
+        <v>426</v>
+      </c>
+      <c r="Y56" s="35"/>
+      <c r="Z56" s="35"/>
+      <c r="AE56" s="35">
+        <f t="shared" si="117"/>
         <v>467</v>
       </c>
-      <c r="AD56" s="35">
-        <f t="shared" si="112"/>
+      <c r="AF56" s="35">
+        <f t="shared" si="118"/>
         <v>420</v>
       </c>
     </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>112</v>
       </c>
@@ -6178,16 +6429,21 @@
       <c r="W57" s="35">
         <v>6277</v>
       </c>
-      <c r="AC57" s="35">
-        <f t="shared" si="111"/>
+      <c r="X57" s="35">
+        <v>6020</v>
+      </c>
+      <c r="Y57" s="35"/>
+      <c r="Z57" s="35"/>
+      <c r="AE57" s="35">
+        <f t="shared" si="117"/>
         <v>6063</v>
       </c>
-      <c r="AD57" s="35">
-        <f t="shared" si="112"/>
+      <c r="AF57" s="35">
+        <f t="shared" si="118"/>
         <v>6220</v>
       </c>
     </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>113</v>
       </c>
@@ -6242,97 +6498,108 @@
       <c r="W58" s="35">
         <v>338</v>
       </c>
-      <c r="AC58" s="35">
-        <f t="shared" si="111"/>
+      <c r="X58" s="35">
+        <v>436</v>
+      </c>
+      <c r="Y58" s="35"/>
+      <c r="Z58" s="35"/>
+      <c r="AE58" s="35">
+        <f t="shared" si="117"/>
         <v>306</v>
       </c>
-      <c r="AD58" s="35">
-        <f t="shared" si="112"/>
+      <c r="AF58" s="35">
+        <f t="shared" si="118"/>
         <v>222</v>
       </c>
     </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>114</v>
       </c>
       <c r="G59" s="19">
-        <f t="shared" ref="G59:L59" si="113">SUM(G53:G58)</f>
+        <f t="shared" ref="G59:L59" si="119">SUM(G53:G58)</f>
         <v>6708</v>
       </c>
       <c r="H59" s="19">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>7278</v>
       </c>
       <c r="I59" s="19">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>7281</v>
       </c>
       <c r="J59" s="19">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>7866</v>
       </c>
       <c r="K59" s="19">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>8070</v>
       </c>
       <c r="L59" s="19">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>8264</v>
       </c>
       <c r="M59" s="19">
-        <f t="shared" ref="M59:W59" si="114">SUM(M53:M58)</f>
+        <f t="shared" ref="M59:X59" si="120">SUM(M53:M58)</f>
         <v>8280</v>
       </c>
       <c r="N59" s="19">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>8284</v>
       </c>
       <c r="O59" s="19">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>8619</v>
       </c>
       <c r="P59" s="35">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>8871</v>
       </c>
       <c r="Q59" s="35">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>8894</v>
       </c>
       <c r="R59" s="35">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>9674</v>
       </c>
       <c r="S59" s="35">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>8269</v>
       </c>
       <c r="T59" s="35">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>8857</v>
       </c>
       <c r="U59" s="35">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>8818</v>
       </c>
       <c r="V59" s="35">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>10730</v>
       </c>
       <c r="W59" s="35">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>10919</v>
       </c>
-      <c r="AC59" s="35">
+      <c r="X59" s="35">
+        <f t="shared" si="120"/>
+        <v>10199</v>
+      </c>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="35"/>
+      <c r="AE59" s="35">
         <f>R59</f>
         <v>9674</v>
       </c>
-      <c r="AD59" s="35">
-        <f t="shared" si="112"/>
+      <c r="AF59" s="35">
+        <f t="shared" si="118"/>
         <v>10730</v>
       </c>
     </row>
-    <row r="60" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>115</v>
       </c>
@@ -6387,16 +6654,21 @@
       <c r="W60" s="34">
         <v>8922</v>
       </c>
-      <c r="AC60" s="34">
+      <c r="X60" s="34">
+        <v>8924</v>
+      </c>
+      <c r="Y60" s="34"/>
+      <c r="Z60" s="34"/>
+      <c r="AE60" s="34">
         <f>R60</f>
         <v>9413</v>
       </c>
-      <c r="AD60" s="34">
+      <c r="AF60" s="34">
         <f>V60</f>
         <v>8920</v>
       </c>
     </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>116</v>
       </c>
@@ -6451,16 +6723,21 @@
       <c r="W61" s="35">
         <v>2736</v>
       </c>
-      <c r="AC61" s="35">
-        <f t="shared" ref="AC61:AC63" si="115">R61</f>
+      <c r="X61" s="35">
+        <v>2668</v>
+      </c>
+      <c r="Y61" s="35"/>
+      <c r="Z61" s="35"/>
+      <c r="AE61" s="35">
+        <f t="shared" ref="AE61:AE63" si="121">R61</f>
         <v>2931</v>
       </c>
-      <c r="AD61" s="35">
-        <f t="shared" ref="AD61:AD64" si="116">V61</f>
+      <c r="AF61" s="35">
+        <f t="shared" ref="AF61:AF64" si="122">V61</f>
         <v>2777</v>
       </c>
     </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>117</v>
       </c>
@@ -6515,16 +6792,21 @@
       <c r="W62" s="35">
         <v>2689</v>
       </c>
-      <c r="AC62" s="35">
-        <f t="shared" si="115"/>
+      <c r="X62" s="35">
+        <v>2584</v>
+      </c>
+      <c r="Y62" s="35"/>
+      <c r="Z62" s="35"/>
+      <c r="AE62" s="35">
+        <f t="shared" si="121"/>
         <v>2955</v>
       </c>
-      <c r="AD62" s="35">
-        <f t="shared" si="116"/>
+      <c r="AF62" s="35">
+        <f t="shared" si="122"/>
         <v>2613</v>
       </c>
     </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>118</v>
       </c>
@@ -6579,97 +6861,108 @@
       <c r="W63" s="35">
         <v>0</v>
       </c>
-      <c r="AC63" s="35">
-        <f t="shared" si="115"/>
+      <c r="X63" s="35">
         <v>0</v>
       </c>
-      <c r="AD63" s="35">
-        <f t="shared" si="116"/>
+      <c r="Y63" s="35"/>
+      <c r="Z63" s="35"/>
+      <c r="AE63" s="35">
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AF63" s="35">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>119</v>
       </c>
       <c r="G64" s="19">
-        <f t="shared" ref="G64:L64" si="117">G59+SUM(G60:G63)</f>
+        <f t="shared" ref="G64:L64" si="123">G59+SUM(G60:G63)</f>
         <v>13491</v>
       </c>
       <c r="H64" s="19">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>13948</v>
       </c>
       <c r="I64" s="19">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>13960</v>
       </c>
       <c r="J64" s="19">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>14677</v>
       </c>
       <c r="K64" s="19">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>17049</v>
       </c>
       <c r="L64" s="19">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>17251</v>
       </c>
       <c r="M64" s="19">
-        <f t="shared" ref="M64:W64" si="118">M59+SUM(M60:M63)</f>
+        <f t="shared" ref="M64:X64" si="124">M59+SUM(M60:M63)</f>
         <v>17175</v>
       </c>
       <c r="N64" s="19">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>23287</v>
       </c>
       <c r="O64" s="19">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>24034</v>
       </c>
       <c r="P64" s="35">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>24196</v>
       </c>
       <c r="Q64" s="35">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>24254</v>
       </c>
       <c r="R64" s="35">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>24973</v>
       </c>
       <c r="S64" s="35">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>23574</v>
       </c>
       <c r="T64" s="35">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>23993</v>
       </c>
       <c r="U64" s="35">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>23768</v>
       </c>
       <c r="V64" s="35">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>25040</v>
       </c>
       <c r="W64" s="35">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>25266</v>
       </c>
-      <c r="AC64" s="35">
+      <c r="X64" s="35">
+        <f t="shared" si="124"/>
+        <v>24375</v>
+      </c>
+      <c r="Y64" s="35"/>
+      <c r="Z64" s="35"/>
+      <c r="AE64" s="35">
         <f>R64</f>
         <v>24973</v>
       </c>
-      <c r="AD64" s="35">
-        <f t="shared" si="116"/>
+      <c r="AF64" s="35">
+        <f t="shared" si="122"/>
         <v>25040</v>
       </c>
     </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:32" x14ac:dyDescent="0.15">
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="19"/>
@@ -6686,7 +6979,7 @@
       <c r="U65" s="35"/>
       <c r="V65" s="35"/>
     </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>120</v>
       </c>
@@ -6741,96 +7034,107 @@
       <c r="W66" s="35">
         <v>15822</v>
       </c>
-      <c r="AC66" s="35">
+      <c r="X66" s="35">
+        <v>15272</v>
+      </c>
+      <c r="Y66" s="35"/>
+      <c r="Z66" s="35"/>
+      <c r="AE66" s="35">
         <f>R66</f>
         <v>12767</v>
       </c>
-      <c r="AD66" s="35">
+      <c r="AF66" s="35">
         <v>15281</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>121</v>
       </c>
       <c r="G67" s="19">
-        <f t="shared" ref="G67:W67" si="119">G66+G64</f>
+        <f t="shared" ref="G67:X67" si="125">G66+G64</f>
         <v>22483</v>
       </c>
       <c r="H67" s="19">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>22677</v>
       </c>
       <c r="I67" s="19">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>22921</v>
       </c>
       <c r="J67" s="19">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>23717</v>
       </c>
       <c r="K67" s="19">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>26249</v>
       </c>
       <c r="L67" s="19">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>26602</v>
       </c>
       <c r="M67" s="19">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>26220</v>
       </c>
       <c r="N67" s="19">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>31342</v>
       </c>
       <c r="O67" s="19">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>33258</v>
       </c>
       <c r="P67" s="35">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>34836</v>
       </c>
       <c r="Q67" s="35">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>36185</v>
       </c>
       <c r="R67" s="35">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>37740</v>
       </c>
       <c r="S67" s="35">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>37917</v>
       </c>
       <c r="T67" s="35">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>38917</v>
       </c>
       <c r="U67" s="35">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>38577</v>
       </c>
       <c r="V67" s="35">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>40321</v>
       </c>
       <c r="W67" s="35">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>41088</v>
       </c>
-      <c r="AC67" s="35">
-        <f>AC66+AC64</f>
+      <c r="X67" s="35">
+        <f t="shared" si="125"/>
+        <v>39647</v>
+      </c>
+      <c r="Y67" s="35"/>
+      <c r="Z67" s="35"/>
+      <c r="AE67" s="35">
+        <f>AE66+AE64</f>
         <v>37740</v>
       </c>
-      <c r="AD67" s="35">
-        <f>AD66+AD64</f>
+      <c r="AF67" s="35">
+        <f>AF66+AF64</f>
         <v>40321</v>
       </c>
     </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:32" x14ac:dyDescent="0.15">
       <c r="I68" s="19"/>
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
@@ -6844,171 +7148,183 @@
       <c r="T68" s="35"/>
       <c r="U68" s="35"/>
       <c r="V68" s="35"/>
-      <c r="AD68" s="35"/>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AF68" s="35"/>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
         <v>122</v>
       </c>
       <c r="G69" s="19">
-        <f t="shared" ref="G69:V69" si="120">G51-G64</f>
+        <f t="shared" ref="G69:V69" si="126">G51-G64</f>
         <v>8992</v>
       </c>
       <c r="H69" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>8729</v>
       </c>
       <c r="I69" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>8961</v>
       </c>
       <c r="J69" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>9040</v>
       </c>
       <c r="K69" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>9200</v>
       </c>
       <c r="L69" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>9351</v>
       </c>
       <c r="M69" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>9045</v>
       </c>
       <c r="N69" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>8165</v>
       </c>
       <c r="O69" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>9224</v>
       </c>
       <c r="P69" s="35">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>10640</v>
       </c>
       <c r="Q69" s="35">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>11931</v>
       </c>
       <c r="R69" s="35">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>12767</v>
       </c>
       <c r="S69" s="35">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>14343</v>
       </c>
       <c r="T69" s="35">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>14924</v>
       </c>
       <c r="U69" s="35">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>14809</v>
       </c>
       <c r="V69" s="35">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>15281</v>
       </c>
       <c r="W69" s="35">
-        <f t="shared" ref="W69" si="121">W51-W64</f>
+        <f t="shared" ref="W69:X69" si="127">W51-W64</f>
         <v>15822</v>
       </c>
-      <c r="AC69" s="35">
-        <f>AC51-AC64</f>
+      <c r="X69" s="35">
+        <f t="shared" si="127"/>
+        <v>15272</v>
+      </c>
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="35"/>
+      <c r="AE69" s="35">
+        <f>AE51-AE64</f>
         <v>12767</v>
       </c>
-      <c r="AD69" s="35">
-        <f>AD51-AD64</f>
+      <c r="AF69" s="35">
+        <f>AF51-AF64</f>
         <v>15281</v>
       </c>
     </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>123</v>
       </c>
       <c r="G70" s="19">
-        <f t="shared" ref="G70:V70" si="122">G69/G23</f>
+        <f t="shared" ref="G70:V70" si="128">G69/G23</f>
         <v>5.6411543287327479</v>
       </c>
       <c r="H70" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>5.519792588845327</v>
       </c>
       <c r="I70" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>5.6974821973550354</v>
       </c>
       <c r="J70" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>5.7572283785505025</v>
       </c>
       <c r="K70" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>5.888376856118791</v>
       </c>
       <c r="L70" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>5.9919261822376013</v>
       </c>
       <c r="M70" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>5.8118614662982715</v>
       </c>
       <c r="N70" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>5.2484412161727834</v>
       </c>
       <c r="O70" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>5.9060058906390065</v>
       </c>
       <c r="P70" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>6.7641449459631282</v>
       </c>
       <c r="Q70" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>7.5608365019011403</v>
       </c>
       <c r="R70" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>8.0854971500949961</v>
       </c>
       <c r="S70" s="39">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>9.0669448131993171</v>
       </c>
       <c r="T70" s="39">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>9.4515516149461689</v>
       </c>
       <c r="U70" s="39">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>9.3787207093096896</v>
       </c>
       <c r="V70" s="39">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>9.7207379134860048</v>
       </c>
       <c r="W70" s="39">
-        <f t="shared" ref="W70" si="123">W69/W23</f>
+        <f t="shared" ref="W70:X70" si="129">W69/W23</f>
         <v>10.096356326973391</v>
       </c>
-      <c r="AC70" s="39">
-        <f>AC69/AC23</f>
+      <c r="X70" s="39">
+        <f t="shared" si="129"/>
+        <v>9.7960230917254645</v>
+      </c>
+      <c r="Y70" s="39"/>
+      <c r="Z70" s="39"/>
+      <c r="AE70" s="39">
+        <f>AE69/AE23</f>
         <v>8.1165962045837432</v>
       </c>
-      <c r="AD70" s="39">
-        <f>AD69/AD23</f>
+      <c r="AF70" s="39">
+        <f>AF69/AF23</f>
         <v>9.6839303537762014</v>
       </c>
     </row>
-    <row r="72" spans="2:30" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B72" s="32" t="s">
         <v>124</v>
       </c>
@@ -7041,47 +7357,53 @@
         <v>0.31038776236214871</v>
       </c>
       <c r="O72" s="33">
-        <f t="shared" ref="O72:P72" si="124">O44/K44-1</f>
+        <f t="shared" ref="O72:P72" si="130">O44/K44-1</f>
         <v>0.14910025706940866</v>
       </c>
       <c r="P72" s="33">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>-1.7583481206646212E-2</v>
       </c>
       <c r="Q72" s="33">
-        <f t="shared" ref="Q72:V72" si="125">Q44/M44-1</f>
+        <f t="shared" ref="Q72:V72" si="131">Q44/M44-1</f>
         <v>0.15257447907697608</v>
       </c>
       <c r="R72" s="33">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>-6.963485815121484E-2</v>
       </c>
       <c r="S72" s="33">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>-8.9485458612970081E-4</v>
       </c>
       <c r="T72" s="33">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>6.8308702791461506E-2</v>
       </c>
       <c r="U72" s="33">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0.15045569998505903</v>
       </c>
       <c r="V72" s="33">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0.22847971987160776</v>
       </c>
       <c r="W72" s="33">
-        <f t="shared" ref="W72" si="126">W44/S44-1</f>
+        <f t="shared" ref="W72" si="132">W44/S44-1</f>
         <v>0.44230482161516638</v>
       </c>
-      <c r="AD72" s="33">
-        <f>AD44/AC44-1</f>
+      <c r="X72" s="33">
+        <f t="shared" ref="X72" si="133">X44/T44-1</f>
+        <v>0.43344604980018442</v>
+      </c>
+      <c r="Y72" s="33"/>
+      <c r="Z72" s="33"/>
+      <c r="AF72" s="33">
+        <f>AF44/AE44-1</f>
         <v>0.22847971987160776</v>
       </c>
     </row>
-    <row r="73" spans="2:30" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B73" s="32" t="s">
         <v>125</v>
       </c>
@@ -7089,83 +7411,89 @@
         <v>135</v>
       </c>
       <c r="H73" s="33">
-        <f t="shared" ref="H73:V73" si="127">H44/G44-1</f>
+        <f t="shared" ref="H73:V73" si="134">H44/G44-1</f>
         <v>3.0801607040367385E-2</v>
       </c>
       <c r="I73" s="33">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>5.0111358574609355E-3</v>
       </c>
       <c r="J73" s="33">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>3.8227146814404422E-2</v>
       </c>
       <c r="K73" s="33">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>3.7886872998932786E-2</v>
       </c>
       <c r="L73" s="33">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>6.2382176520993982E-2</v>
       </c>
       <c r="M73" s="33">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>-6.3236005807388307E-2</v>
       </c>
       <c r="N73" s="33">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>0.26864129498880662</v>
       </c>
       <c r="O73" s="33">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>-8.9860187321840646E-2</v>
       </c>
       <c r="P73" s="33">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>-9.1722595078299829E-2</v>
       </c>
       <c r="Q73" s="33">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>9.9014778325123176E-2</v>
       </c>
       <c r="R73" s="33">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>2.405498281786933E-2</v>
       </c>
       <c r="S73" s="33">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>-2.2614531660344328E-2</v>
       </c>
       <c r="T73" s="33">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>-2.8810270189580489E-2</v>
       </c>
       <c r="U73" s="33">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>0.18352290193667375</v>
       </c>
       <c r="V73" s="33">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>9.3506493506493538E-2</v>
       </c>
       <c r="W73" s="33">
-        <f t="shared" ref="W73" si="128">W44/V44-1</f>
+        <f t="shared" ref="W73" si="135">W44/V44-1</f>
         <v>0.14750593824228031</v>
       </c>
-      <c r="AD73" s="23" t="s">
+      <c r="X73" s="33">
+        <f t="shared" ref="X73" si="136">X44/W44-1</f>
+        <v>-3.477540881805008E-2</v>
+      </c>
+      <c r="Y73" s="33"/>
+      <c r="Z73" s="33"/>
+      <c r="AF73" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="2:30" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B75" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G75" s="45">
-        <f t="shared" ref="G75" si="129">G41+G42</f>
+        <f t="shared" ref="G75" si="137">G41+G42</f>
         <v>4269</v>
       </c>
       <c r="H75" s="45">
-        <f t="shared" ref="H75" si="130">H41+H42</f>
+        <f t="shared" ref="H75" si="138">H41+H42</f>
         <v>4041</v>
       </c>
       <c r="I75" s="45">
@@ -7177,11 +7505,11 @@
         <v>4663</v>
       </c>
       <c r="K75" s="45">
-        <f t="shared" ref="K75" si="131">K41+K42</f>
+        <f t="shared" ref="K75" si="139">K41+K42</f>
         <v>3644</v>
       </c>
       <c r="L75" s="45">
-        <f t="shared" ref="L75" si="132">L41+L42</f>
+        <f t="shared" ref="L75" si="140">L41+L42</f>
         <v>3502</v>
       </c>
       <c r="M75" s="45">
@@ -7197,56 +7525,62 @@
         <v>9480</v>
       </c>
       <c r="P75" s="45">
-        <f t="shared" ref="P75:V75" si="133">P41+P42</f>
+        <f t="shared" ref="P75:V75" si="141">P41+P42</f>
         <v>11812</v>
       </c>
       <c r="Q75" s="45">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>12528</v>
       </c>
       <c r="R75" s="45">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>13476</v>
       </c>
       <c r="S75" s="45">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>13695</v>
       </c>
       <c r="T75" s="45">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>15103</v>
       </c>
       <c r="U75" s="45">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>13467</v>
       </c>
       <c r="V75" s="45">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>12997</v>
       </c>
       <c r="W75" s="45">
-        <f t="shared" ref="W75" si="134">W41+W42</f>
+        <f t="shared" ref="W75:X75" si="142">W41+W42</f>
         <v>11876</v>
       </c>
-      <c r="AC75" s="49">
-        <f t="shared" ref="AC75:AD75" si="135">U75</f>
+      <c r="X75" s="45">
+        <f t="shared" si="142"/>
+        <v>10621</v>
+      </c>
+      <c r="Y75" s="45"/>
+      <c r="Z75" s="45"/>
+      <c r="AE75" s="49">
+        <f>U75</f>
         <v>13467</v>
       </c>
-      <c r="AD75" s="49">
-        <f t="shared" si="135"/>
+      <c r="AF75" s="49">
+        <f>V75</f>
         <v>12997</v>
       </c>
     </row>
-    <row r="76" spans="2:30" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B76" s="32" t="s">
         <v>7</v>
       </c>
       <c r="G76" s="45">
-        <f t="shared" ref="G76" si="136">G53+G54+G60</f>
+        <f t="shared" ref="G76" si="143">G53+G54+G60</f>
         <v>3486</v>
       </c>
       <c r="H76" s="45">
-        <f t="shared" ref="H76" si="137">H53+H54+H60</f>
+        <f t="shared" ref="H76" si="144">H53+H54+H60</f>
         <v>3481</v>
       </c>
       <c r="I76" s="45">
@@ -7258,11 +7592,11 @@
         <v>3479</v>
       </c>
       <c r="K76" s="45">
-        <f t="shared" ref="K76" si="138">K53+K54+K60</f>
+        <f t="shared" ref="K76" si="145">K53+K54+K60</f>
         <v>3719</v>
       </c>
       <c r="L76" s="45">
-        <f t="shared" ref="L76" si="139">L53+L54+L60</f>
+        <f t="shared" ref="L76" si="146">L53+L54+L60</f>
         <v>3768</v>
       </c>
       <c r="M76" s="45">
@@ -7278,56 +7612,62 @@
         <v>9546</v>
       </c>
       <c r="P76" s="45">
-        <f t="shared" ref="P76:V76" si="140">P53+P54+P60</f>
+        <f t="shared" ref="P76:V76" si="147">P53+P54+P60</f>
         <v>9451</v>
       </c>
       <c r="Q76" s="45">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>9416</v>
       </c>
       <c r="R76" s="45">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>9415</v>
       </c>
       <c r="S76" s="45">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>9430</v>
       </c>
       <c r="T76" s="45">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>9426</v>
       </c>
       <c r="U76" s="45">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>9418</v>
       </c>
       <c r="V76" s="45">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>9430</v>
       </c>
       <c r="W76" s="45">
-        <f t="shared" ref="W76" si="141">W53+W54+W60</f>
+        <f t="shared" ref="W76:X76" si="148">W53+W54+W60</f>
         <v>9431</v>
       </c>
-      <c r="AC76" s="49">
-        <f t="shared" ref="AC76:AD77" si="142">U76</f>
+      <c r="X76" s="45">
+        <f t="shared" si="148"/>
+        <v>9431</v>
+      </c>
+      <c r="Y76" s="45"/>
+      <c r="Z76" s="45"/>
+      <c r="AE76" s="49">
+        <f>U76</f>
         <v>9418</v>
       </c>
-      <c r="AD76" s="49">
-        <f t="shared" si="142"/>
+      <c r="AF76" s="49">
+        <f>V76</f>
         <v>9430</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G77" s="19">
-        <f t="shared" ref="G77:H77" si="143">G75-G76</f>
+        <f t="shared" ref="G77:H77" si="149">G75-G76</f>
         <v>783</v>
       </c>
       <c r="H77" s="19">
-        <f t="shared" si="143"/>
+        <f t="shared" si="149"/>
         <v>560</v>
       </c>
       <c r="I77" s="19">
@@ -7339,11 +7679,11 @@
         <v>1184</v>
       </c>
       <c r="K77" s="19">
-        <f t="shared" ref="K77" si="144">K75-K76</f>
+        <f t="shared" ref="K77" si="150">K75-K76</f>
         <v>-75</v>
       </c>
       <c r="L77" s="19">
-        <f t="shared" ref="L77" si="145">L75-L76</f>
+        <f t="shared" ref="L77" si="151">L75-L76</f>
         <v>-266</v>
       </c>
       <c r="M77" s="19">
@@ -7359,50 +7699,56 @@
         <v>-66</v>
       </c>
       <c r="P77" s="19">
-        <f t="shared" ref="P77:V77" si="146">P75-P76</f>
+        <f t="shared" ref="P77:V77" si="152">P75-P76</f>
         <v>2361</v>
       </c>
       <c r="Q77" s="19">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>3112</v>
       </c>
       <c r="R77" s="19">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>4061</v>
       </c>
       <c r="S77" s="19">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>4265</v>
       </c>
       <c r="T77" s="19">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>5677</v>
       </c>
       <c r="U77" s="19">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>4049</v>
       </c>
       <c r="V77" s="19">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>3567</v>
       </c>
       <c r="W77" s="19">
-        <f t="shared" ref="W77" si="147">W75-W76</f>
+        <f t="shared" ref="W77:X77" si="153">W75-W76</f>
         <v>2445</v>
       </c>
-      <c r="AC77" s="49">
-        <f t="shared" si="142"/>
+      <c r="X77" s="19">
+        <f t="shared" si="153"/>
+        <v>1190</v>
+      </c>
+      <c r="Y77" s="19"/>
+      <c r="Z77" s="19"/>
+      <c r="AE77" s="49">
+        <f>U77</f>
         <v>4049</v>
       </c>
-      <c r="AD77" s="49">
-        <f t="shared" si="142"/>
+      <c r="AF77" s="49">
+        <f>V77</f>
         <v>3567</v>
       </c>
     </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="AC78" s="49"/>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE78" s="49"/>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B79" s="1" t="s">
         <v>137</v>
       </c>
@@ -7457,16 +7803,19 @@
       <c r="W79" s="1">
         <v>106.45</v>
       </c>
-      <c r="AC79" s="49">
-        <f t="shared" ref="AC79" si="148">U79</f>
+      <c r="X79" s="1">
+        <v>109.35</v>
+      </c>
+      <c r="AE79" s="49">
+        <f t="shared" ref="AE79" si="154">U79</f>
         <v>136.55000000000001</v>
       </c>
-      <c r="AD79" s="49">
-        <f t="shared" ref="AD79" si="149">V79</f>
+      <c r="AF79" s="49">
+        <f t="shared" ref="AF79" si="155">V79</f>
         <v>118.85</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
         <v>138</v>
       </c>
@@ -7475,79 +7824,85 @@
         <v>131026.8</v>
       </c>
       <c r="H80" s="19">
-        <f t="shared" ref="H80:V80" si="150">H79*H23</f>
+        <f t="shared" ref="H80:V80" si="156">H79*H23</f>
         <v>115015.22200000001</v>
       </c>
       <c r="I80" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>134836.144</v>
       </c>
       <c r="J80" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>122412.79199999999</v>
       </c>
       <c r="K80" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>132022.80000000002</v>
       </c>
       <c r="L80" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>145900.49399999998</v>
       </c>
       <c r="M80" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>139102.09399999998</v>
       </c>
       <c r="N80" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>153360.90599999999</v>
       </c>
       <c r="O80" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>174749.802</v>
       </c>
       <c r="P80" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>211883.09999999998</v>
       </c>
       <c r="Q80" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>220273.02000000002</v>
       </c>
       <c r="R80" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>212391.28999999998</v>
       </c>
       <c r="S80" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>258893.75400000002</v>
       </c>
       <c r="T80" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>260124.46000000002</v>
       </c>
       <c r="U80" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>215612.45</v>
       </c>
       <c r="V80" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>186832.19999999998</v>
       </c>
       <c r="W80" s="19">
-        <f t="shared" ref="W80" si="151">W79*W23</f>
+        <f t="shared" ref="W80:X80" si="157">W79*W23</f>
         <v>166817.79499999998</v>
       </c>
-      <c r="AC80" s="19">
-        <f t="shared" ref="AC80" si="152">AC79*AC23</f>
+      <c r="X80" s="19">
+        <f t="shared" si="157"/>
+        <v>170476.65</v>
+      </c>
+      <c r="Y80" s="19"/>
+      <c r="Z80" s="19"/>
+      <c r="AE80" s="19">
+        <f t="shared" ref="AE80" si="158">AE79*AE23</f>
         <v>214786.32250000004</v>
       </c>
-      <c r="AD80" s="19">
-        <f t="shared" ref="AD80" si="153">AD79*AD23</f>
+      <c r="AF80" s="19">
+        <f t="shared" ref="AF80" si="159">AF79*AF23</f>
         <v>187542.32874999999</v>
       </c>
     </row>
-    <row r="81" spans="1:30" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B81" s="32" t="s">
         <v>9</v>
       </c>
@@ -7556,328 +7911,352 @@
         <v>130243.8</v>
       </c>
       <c r="H81" s="45">
-        <f t="shared" ref="H81:V81" si="154">H80-H77</f>
+        <f t="shared" ref="H81:V81" si="160">H80-H77</f>
         <v>114455.22200000001</v>
       </c>
       <c r="I81" s="45">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>134277.144</v>
       </c>
       <c r="J81" s="45">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>121228.79199999999</v>
       </c>
       <c r="K81" s="45">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>132097.80000000002</v>
       </c>
       <c r="L81" s="45">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>146166.49399999998</v>
       </c>
       <c r="M81" s="45">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>139396.09399999998</v>
       </c>
       <c r="N81" s="45">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>154140.90599999999</v>
       </c>
       <c r="O81" s="45">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>174815.802</v>
       </c>
       <c r="P81" s="45">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>209522.09999999998</v>
       </c>
       <c r="Q81" s="45">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>217161.02000000002</v>
       </c>
       <c r="R81" s="45">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>208330.28999999998</v>
       </c>
       <c r="S81" s="45">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>254628.75400000002</v>
       </c>
       <c r="T81" s="45">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>254447.46000000002</v>
       </c>
       <c r="U81" s="45">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>211563.45</v>
       </c>
       <c r="V81" s="45">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>183265.19999999998</v>
       </c>
       <c r="W81" s="45">
-        <f t="shared" ref="W81" si="155">W80-W77</f>
+        <f t="shared" ref="W81:X81" si="161">W80-W77</f>
         <v>164372.79499999998</v>
       </c>
-      <c r="AC81" s="45">
-        <f t="shared" ref="AC81" si="156">AC80-AC77</f>
+      <c r="X81" s="45">
+        <f t="shared" si="161"/>
+        <v>169286.65</v>
+      </c>
+      <c r="Y81" s="45"/>
+      <c r="Z81" s="45"/>
+      <c r="AE81" s="45">
+        <f t="shared" ref="AE81" si="162">AE80-AE77</f>
         <v>210737.32250000004</v>
       </c>
-      <c r="AD81" s="45">
-        <f t="shared" ref="AD81" si="157">AD80-AD77</f>
+      <c r="AF81" s="45">
+        <f t="shared" ref="AF81" si="163">AF80-AF77</f>
         <v>183975.32874999999</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A83" s="69">
-        <f>AVERAGE(G83:W83)</f>
-        <v>48.937122429921523</v>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A83" s="55">
+        <f>AVERAGE(G83:X83)</f>
+        <v>47.910587909517659</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>127</v>
       </c>
       <c r="G83" s="50">
-        <f t="shared" ref="G83:V83" si="158">G79/(SUM(D22:G22)*1000)</f>
+        <f t="shared" ref="G83:V83" si="164">G79/(SUM(D22:G22)*1000)</f>
         <v>119.98791208791225</v>
       </c>
       <c r="H83" s="50">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>59.582014530484628</v>
       </c>
       <c r="I83" s="50">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>44.634866014209614</v>
       </c>
       <c r="J83" s="50">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>30.56593387664801</v>
       </c>
       <c r="K83" s="50">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>30.834702361691683</v>
       </c>
       <c r="L83" s="50">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>32.024950848116646</v>
       </c>
       <c r="M83" s="50">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>32.343038540294323</v>
       </c>
       <c r="N83" s="50">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>60.633483602321661</v>
       </c>
       <c r="O83" s="50">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>64.9445710774839</v>
       </c>
       <c r="P83" s="50">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>74.680627922741024</v>
       </c>
       <c r="Q83" s="50">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>64.099973409562097</v>
       </c>
       <c r="R83" s="50">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>36.941421208777982</v>
       </c>
       <c r="S83" s="50">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>42.466447128142569</v>
       </c>
       <c r="T83" s="50">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>42.183602880357142</v>
       </c>
       <c r="U83" s="50">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>35.273648173511305</v>
       </c>
       <c r="V83" s="50">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>31.02413791405122</v>
       </c>
       <c r="W83" s="50">
         <f>W79/(SUM(T22:W22)*1000)</f>
         <v>29.709749732359541</v>
       </c>
-      <c r="AA83" s="50"/>
-      <c r="AB83" s="50"/>
-      <c r="AC83" s="50">
-        <f t="shared" ref="AC83" si="159">AC79/(AC22*1000)</f>
+      <c r="X83" s="50">
+        <f>X79/(SUM(U22:X22)*1000)</f>
+        <v>30.459501062652002</v>
+      </c>
+      <c r="Y83" s="50"/>
+      <c r="Z83" s="50"/>
+      <c r="AC83" s="50"/>
+      <c r="AD83" s="50"/>
+      <c r="AE83" s="50">
+        <f t="shared" ref="AE83" si="165">AE79/(AE22*1000)</f>
         <v>37.504159682207103</v>
       </c>
-      <c r="AD83" s="50">
-        <f>AD79/(AD22*1000)</f>
+      <c r="AF83" s="50">
+        <f>AF79/(AF22*1000)</f>
         <v>31.019240613628885</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B85" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G85" s="24">
-        <f t="shared" ref="G85:W85" si="160">G44/(G10*1000)</f>
+        <f t="shared" ref="G85:X85" si="166">G44/(G10*1000)</f>
         <v>0.52543224768797758</v>
       </c>
       <c r="H85" s="24">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>0.57478131000640054</v>
       </c>
       <c r="I85" s="24">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>0.56341691811466044</v>
       </c>
       <c r="J85" s="24">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>0.55204241948153965</v>
       </c>
       <c r="K85" s="24">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>0.54737335834896805</v>
       </c>
       <c r="L85" s="24">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>0.60032926593066049</v>
       </c>
       <c r="M85" s="24">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>0.57472288202692001</v>
       </c>
       <c r="N85" s="24">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>1.1669570727071124</v>
       </c>
       <c r="O85" s="24">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>0.63290541816122325</v>
       </c>
       <c r="P85" s="24">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>0.541670372676332</v>
       </c>
       <c r="Q85" s="24">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>0.64622960316694023</v>
       </c>
       <c r="R85" s="24">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>0.55524951393389499</v>
       </c>
       <c r="S85" s="24">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>0.5469464402351405</v>
       </c>
       <c r="T85" s="24">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>0.57286255173021039</v>
       </c>
       <c r="U85" s="24">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>0.70830650354153257</v>
       </c>
       <c r="V85" s="24">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>0.68824587215955524</v>
       </c>
       <c r="W85" s="24">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>0.7615669583037753</v>
       </c>
-      <c r="AC85" s="24">
-        <f>AC44/(AC10*1000)</f>
+      <c r="X85" s="24">
+        <f t="shared" si="166"/>
+        <v>0.70041306796845648</v>
+      </c>
+      <c r="Y85" s="24"/>
+      <c r="Z85" s="24"/>
+      <c r="AE85" s="24">
+        <f>AE44/(AE10*1000)</f>
         <v>0.15389105932013114</v>
       </c>
-      <c r="AD85" s="24">
-        <f>AD44/(AD10*1000)</f>
+      <c r="AF85" s="24">
+        <f>AF44/(AF10*1000)</f>
         <v>0.18026118604153288</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A87" s="69">
-        <f>AVERAGE(G87:W87)</f>
-        <v>15.718658490232047</v>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A87" s="55">
+        <f>AVERAGE(G87:X87)</f>
+        <v>15.465549305439165</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>129</v>
       </c>
       <c r="G87" s="50">
-        <f t="shared" ref="G87:W87" si="161">G79/G70</f>
+        <f t="shared" ref="G87:V87" si="167">G79/G70</f>
         <v>14.571485765124555</v>
       </c>
       <c r="H87" s="50">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>13.176219727345631</v>
       </c>
       <c r="I87" s="50">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>15.046997433322176</v>
       </c>
       <c r="J87" s="50">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>13.541238053097345</v>
       </c>
       <c r="K87" s="50">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>14.350304347826089</v>
       </c>
       <c r="L87" s="50">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>15.60266217516843</v>
       </c>
       <c r="M87" s="50">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>15.378893753454946</v>
       </c>
       <c r="N87" s="50">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>18.782719657072874</v>
       </c>
       <c r="O87" s="50">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>18.945121639202082</v>
       </c>
       <c r="P87" s="50">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>19.913825187969923</v>
       </c>
       <c r="Q87" s="50">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>18.462242896655773</v>
       </c>
       <c r="R87" s="50">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>16.635959113339077</v>
       </c>
       <c r="S87" s="50">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>18.050181551976575</v>
       </c>
       <c r="T87" s="50">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>17.429942374698474</v>
       </c>
       <c r="U87" s="50">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>14.559555000337634</v>
       </c>
       <c r="V87" s="50">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>12.226438060336365</v>
       </c>
       <c r="W87" s="50">
         <f>W79/W70</f>
         <v>10.543407597016811</v>
       </c>
-      <c r="AC87" s="50">
-        <f t="shared" ref="AC87:AD87" si="162">AC79/AC70</f>
+      <c r="X87" s="50">
+        <f>X79/X70</f>
+        <v>11.162693163960189</v>
+      </c>
+      <c r="Y87" s="50"/>
+      <c r="Z87" s="50"/>
+      <c r="AE87" s="50">
+        <f t="shared" ref="AE87:AF87" si="168">AE79/AE70</f>
         <v>16.823554672201773</v>
       </c>
-      <c r="AD87" s="50">
-        <f t="shared" si="162"/>
+      <c r="AF87" s="50">
+        <f t="shared" si="168"/>
         <v>12.272909413650938</v>
       </c>
     </row>
@@ -7893,14 +8272,15 @@
     <hyperlink ref="L1" r:id="rId7" xr:uid="{6606A0D8-8EAA-BD4D-B21F-0853BD3F5E1F}"/>
     <hyperlink ref="K1" r:id="rId8" xr:uid="{74FF5F3B-8619-864D-ABDE-E47617F39080}"/>
     <hyperlink ref="W1" r:id="rId9" xr:uid="{76D5B407-C85A-4503-B44E-499286D0CC5A}"/>
+    <hyperlink ref="X1" r:id="rId10" xr:uid="{EC9EE56E-4D74-AC4B-9794-A49F7045CE53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId10"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId11"/>
   <ignoredErrors>
-    <ignoredError sqref="S7:W7 O7:R7 AD3:AD6 AD8:AD9 AD11 AD13:AD14 AD17:AD18 AD20 AD23 AC3 AC5 AC4 AC6 AC8:AC9 AC11 AC13:AC23 J6 G7:K7 N6:O6 N7 M7 L7 AB3:AB6 AB8:AB9 AB23 AA8:AA9 AA3:AA6 AA1:AA2 AA17:AA23" formulaRange="1"/>
-    <ignoredError sqref="AD7 AD10 AD12 AD19 AC43 AC45 AB10 AA12" formula="1"/>
-    <ignoredError sqref="AA7:AC7 AC10 AC12 AB11:AB20 AA10:AA11 AA13:AA16" formula="1" formulaRange="1"/>
+    <ignoredError sqref="S7:X7 O7:R7 AF3:AF6 AF8:AF9 AF11 AF13:AF14 AF17:AF18 AF20 AF23 AE3 AE5 AE4 AE6 AE8:AE9 AE11 AE13:AE23 J6 G7:K7 N6:O6 N7 M7 L7 AD3:AD6 AD8:AD9 AD23 AC8:AC9 AC3:AC6 AC1:AC2 AC17:AC23" formulaRange="1"/>
+    <ignoredError sqref="AF7 AF10 AF12 AF19 AE43 AE45 AD10 AC12" formula="1"/>
+    <ignoredError sqref="AC7:AE7 AE10 AE12 AD11:AD20 AC10:AC11 AC13:AC16" formula="1" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/$NKE.xlsx
+++ b/$NKE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B474BC-BB0E-1143-8C1C-1C10CE695EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E6B5CA-DD61-D448-9870-CAA1EDBB29DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="500" windowWidth="31100" windowHeight="18900" xr2:uid="{7612E5BF-E27D-45C9-936D-073FAE02F148}"/>
+    <workbookView xWindow="2500" yWindow="500" windowWidth="31100" windowHeight="18900" activeTab="1" xr2:uid="{7612E5BF-E27D-45C9-936D-073FAE02F148}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="146">
   <si>
     <t>$NKE</t>
   </si>
@@ -465,6 +465,15 @@
   </si>
   <si>
     <t>FQ223</t>
+  </si>
+  <si>
+    <t>FQ323</t>
+  </si>
+  <si>
+    <t>FQ423</t>
+  </si>
+  <si>
+    <t>(Projected)</t>
   </si>
 </sst>
 </file>
@@ -583,7 +592,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,6 +614,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -807,24 +822,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -839,12 +840,54 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1333,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EA867B-521D-45A9-9B00-27085D6F4DA0}">
   <dimension ref="A2:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:D34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1356,31 +1399,31 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-      <c r="F5" s="56" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="F5" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="58"/>
-      <c r="T5" s="56" t="s">
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="64"/>
+      <c r="T5" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="U5" s="57"/>
-      <c r="V5" s="58"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="64"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -1616,11 +1659,11 @@
       <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64"/>
       <c r="F15" s="53"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -1642,10 +1685,10 @@
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="60"/>
+      <c r="D16" s="57"/>
       <c r="F16" s="53"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1667,10 +1710,10 @@
       <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="60"/>
+      <c r="D17" s="57"/>
       <c r="F17" s="53"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1692,10 +1735,10 @@
       <c r="B18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="60"/>
+      <c r="D18" s="57"/>
       <c r="F18" s="53"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1714,10 +1757,10 @@
       <c r="B19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="67"/>
+      <c r="D19" s="61"/>
       <c r="F19" s="53"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1763,11 +1806,11 @@
       <c r="R21" s="7"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
       <c r="F22" s="53"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1786,10 +1829,10 @@
       <c r="B23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="60"/>
+      <c r="D23" s="57"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1808,10 +1851,10 @@
       <c r="B24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="59">
+      <c r="C24" s="56">
         <v>1964</v>
       </c>
-      <c r="D24" s="60"/>
+      <c r="D24" s="57"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1830,8 +1873,8 @@
       <c r="B25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
       <c r="F25" s="53"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1850,11 +1893,11 @@
       <c r="B26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="63">
+      <c r="C26" s="69">
         <f>'Financial Model'!W44</f>
         <v>9662</v>
       </c>
-      <c r="D26" s="60"/>
+      <c r="D26" s="57"/>
       <c r="F26" s="53"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1871,8 +1914,8 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B27" s="10"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
       <c r="F27" s="53"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1915,10 +1958,10 @@
       <c r="B29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="69"/>
+      <c r="D29" s="66"/>
       <c r="F29" s="53"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -1964,11 +2007,11 @@
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="58"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
       <c r="F32" s="53"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -1987,11 +2030,11 @@
       <c r="B33" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="64">
+      <c r="C33" s="58">
         <f>C12/('Financial Model'!AF21*1000)</f>
         <v>29.611379424412871</v>
       </c>
-      <c r="D33" s="65"/>
+      <c r="D33" s="59"/>
       <c r="F33" s="53"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -2010,11 +2053,11 @@
       <c r="B34" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="64">
+      <c r="C34" s="58">
         <f>C6/(SUM('Financial Model'!U22:X22)*1000)</f>
         <v>32.200441909854334</v>
       </c>
-      <c r="D34" s="65"/>
+      <c r="D34" s="59"/>
       <c r="F34" s="53"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -2033,8 +2076,8 @@
       <c r="B35" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="60"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="57"/>
       <c r="F35" s="53"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -2053,11 +2096,11 @@
       <c r="B36" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="64">
+      <c r="C36" s="58">
         <f>C6/'Financial Model'!X70</f>
         <v>11.800707176532216</v>
       </c>
-      <c r="D36" s="65"/>
+      <c r="D36" s="59"/>
       <c r="F36" s="53"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -2074,8 +2117,8 @@
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B37" s="10"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="60"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="57"/>
       <c r="F37" s="53"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -2094,11 +2137,11 @@
       <c r="B38" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="64">
+      <c r="C38" s="58">
         <f>'Financial Model'!AE79/('Financial Model'!AE22*1000)</f>
         <v>37.504159682207103</v>
       </c>
-      <c r="D38" s="65"/>
+      <c r="D38" s="59"/>
       <c r="F38" s="53"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -2117,8 +2160,8 @@
       <c r="B39" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="60"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="57"/>
       <c r="F39" s="53"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -2137,8 +2180,8 @@
       <c r="B40" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="66"/>
-      <c r="D40" s="67"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="61"/>
       <c r="F40" s="54"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -2155,6 +2198,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F5:R5"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
@@ -2171,14 +2222,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F5:R5"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{6430964A-0169-5B4A-BCFC-F02355D9307D}"/>
@@ -2193,11 +2236,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F137E7D-55F8-4ACC-BDF9-DCDC53EC521C}">
   <dimension ref="A1:AQ87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K63" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X83" sqref="X83"/>
+      <selection pane="bottomRight" activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2208,7 +2251,11 @@
     <col min="18" max="18" width="9.1640625" style="1" customWidth="1"/>
     <col min="19" max="20" width="9.1640625" style="1"/>
     <col min="21" max="22" width="9.1640625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.1640625" style="1"/>
+    <col min="23" max="24" width="9.1640625" style="1"/>
+    <col min="25" max="26" width="9.1640625" style="77"/>
+    <col min="27" max="32" width="9.1640625" style="1"/>
+    <col min="33" max="33" width="9.1640625" style="77"/>
+    <col min="34" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -2281,8 +2328,12 @@
       <c r="X1" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
+      <c r="Y1" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z1" s="84" t="s">
+        <v>144</v>
+      </c>
       <c r="AB1" s="15" t="s">
         <v>32</v>
       </c>
@@ -2298,7 +2349,7 @@
       <c r="AF1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AG1" s="86" t="s">
         <v>37</v>
       </c>
       <c r="AH1" s="15" t="s">
@@ -2388,8 +2439,12 @@
       <c r="X2" s="22">
         <v>44895</v>
       </c>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
+      <c r="Y2" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z2" s="70" t="s">
+        <v>145</v>
+      </c>
       <c r="AC2" s="22">
         <v>43616</v>
       </c>
@@ -2401,6 +2456,9 @@
       </c>
       <c r="AF2" s="22">
         <v>44712</v>
+      </c>
+      <c r="AG2" s="85" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:43" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -2461,6 +2519,8 @@
       <c r="X3" s="28">
         <v>8.5039999999999996</v>
       </c>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
       <c r="AC3" s="28">
         <f>SUM(G3:J3)</f>
         <v>24.221999999999998</v>
@@ -2477,6 +2537,7 @@
         <f>SUM(S3:V3)</f>
         <v>29.143000000000001</v>
       </c>
+      <c r="AG3" s="71"/>
     </row>
     <row r="4" spans="1:43" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="30" t="s">
@@ -2536,6 +2597,8 @@
       <c r="X4" s="28">
         <v>3.794</v>
       </c>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
       <c r="AC4" s="28">
         <f t="shared" ref="AC4:AC9" si="0">SUM(G4:J4)</f>
         <v>11.549999999999999</v>
@@ -2552,6 +2615,7 @@
         <f>SUM(S4:V4)</f>
         <v>13.567000000000002</v>
       </c>
+      <c r="AG4" s="71"/>
     </row>
     <row r="5" spans="1:43" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="30" t="s">
@@ -2611,6 +2675,8 @@
       <c r="X5" s="28">
         <v>0.40799999999999997</v>
       </c>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="71"/>
       <c r="AC5" s="28">
         <f t="shared" si="0"/>
         <v>1.4039999999999999</v>
@@ -2627,6 +2693,7 @@
         <f>SUM(S5:V5)</f>
         <v>1.6240000000000001</v>
       </c>
+      <c r="AG5" s="71"/>
     </row>
     <row r="6" spans="1:43" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="30" t="s">
@@ -2686,6 +2753,8 @@
       <c r="X6" s="28">
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
       <c r="AC6" s="28">
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
@@ -2702,6 +2771,7 @@
         <f>SUM(S6:V6)</f>
         <v>0.10200000000000001</v>
       </c>
+      <c r="AG6" s="71"/>
     </row>
     <row r="7" spans="1:43" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="31" t="s">
@@ -2779,6 +2849,8 @@
         <f t="shared" si="2"/>
         <v>12.724</v>
       </c>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
       <c r="AC7" s="26">
         <f>SUM(AC3:AC6)</f>
         <v>37.218000000000004</v>
@@ -2795,6 +2867,7 @@
         <f>SUM(AF3:AF6)</f>
         <v>44.436</v>
       </c>
+      <c r="AG7" s="71"/>
     </row>
     <row r="8" spans="1:43" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="31" t="s">
@@ -2854,6 +2927,8 @@
       <c r="X8" s="26">
         <v>0.58599999999999997</v>
       </c>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
       <c r="AC8" s="28">
         <f t="shared" si="0"/>
         <v>1.9060000000000001</v>
@@ -2870,6 +2945,7 @@
         <f t="shared" ref="AF8:AF14" si="4">SUM(S8:V8)</f>
         <v>2.3460000000000001</v>
       </c>
+      <c r="AG8" s="71"/>
     </row>
     <row r="9" spans="1:43" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="31" t="s">
@@ -2929,6 +3005,8 @@
       <c r="X9" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
       <c r="AC9" s="28">
         <f t="shared" si="0"/>
         <v>-7.0000000000000001E-3</v>
@@ -2945,6 +3023,7 @@
         <f t="shared" si="4"/>
         <v>-7.2000000000000008E-2</v>
       </c>
+      <c r="AG9" s="71"/>
     </row>
     <row r="10" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
@@ -3022,8 +3101,14 @@
         <f t="shared" si="5"/>
         <v>13.315000000000001</v>
       </c>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
+      <c r="Y10" s="76">
+        <f>X10*1.06</f>
+        <v>14.113900000000003</v>
+      </c>
+      <c r="Z10" s="76">
+        <f>Y10*1.04</f>
+        <v>14.678456000000004</v>
+      </c>
       <c r="AC10" s="18">
         <f>AC7+AC8+AC9</f>
         <v>39.117000000000004</v>
@@ -3040,6 +3125,10 @@
         <f>AF7+AF8+AF9</f>
         <v>46.709999999999994</v>
       </c>
+      <c r="AG10" s="76">
+        <f>SUM(W10:Z10)</f>
+        <v>54.794356000000008</v>
+      </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
@@ -3099,8 +3188,14 @@
       <c r="X11" s="19">
         <v>7.6040000000000001</v>
       </c>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
+      <c r="Y11" s="75">
+        <f>Y10*(1-Y34)</f>
+        <v>8.0449230000000025</v>
+      </c>
+      <c r="Z11" s="75">
+        <f>Z10*(1-Z34)</f>
+        <v>8.2199353600000027</v>
+      </c>
       <c r="AC11" s="19">
         <f>SUM(G11:J11)</f>
         <v>21.643000000000001</v>
@@ -3117,6 +3212,10 @@
         <f t="shared" si="4"/>
         <v>25.231000000000002</v>
       </c>
+      <c r="AG11" s="75">
+        <f>SUM(W11:Z11)</f>
+        <v>30.940858360000007</v>
+      </c>
     </row>
     <row r="12" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
@@ -3194,8 +3293,14 @@
         <f t="shared" si="6"/>
         <v>5.7110000000000012</v>
       </c>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
+      <c r="Y12" s="76">
+        <f>Y10-Y11</f>
+        <v>6.0689770000000003</v>
+      </c>
+      <c r="Z12" s="76">
+        <f>Z10-Z11</f>
+        <v>6.4585206400000015</v>
+      </c>
       <c r="AC12" s="18">
         <f>AC10-AC11</f>
         <v>17.474000000000004</v>
@@ -3212,6 +3317,10 @@
         <f>AF10-AF11</f>
         <v>21.478999999999992</v>
       </c>
+      <c r="AG12" s="76">
+        <f>AG10-AG11</f>
+        <v>23.853497640000001</v>
+      </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
@@ -3268,8 +3377,16 @@
       <c r="W13" s="19">
         <v>0.94299999999999995</v>
       </c>
-      <c r="X13" s="1">
+      <c r="X13" s="39">
         <v>1.1020000000000001</v>
+      </c>
+      <c r="Y13" s="75">
+        <f>AVERAGE(U13:X13)</f>
+        <v>0.99</v>
+      </c>
+      <c r="Z13" s="75">
+        <f>AVERAGE(V13:Y13)</f>
+        <v>1.024</v>
       </c>
       <c r="AC13" s="19">
         <f t="shared" ref="AC13:AC15" si="7">SUM(G13:J13)</f>
@@ -3287,6 +3404,10 @@
         <f t="shared" si="4"/>
         <v>3.85</v>
       </c>
+      <c r="AG13" s="75">
+        <f t="shared" ref="AG13:AG14" si="9">SUM(W13:Z13)</f>
+        <v>4.0590000000000002</v>
+      </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
@@ -3343,8 +3464,16 @@
       <c r="W14" s="19">
         <v>2.9769999999999999</v>
       </c>
-      <c r="X14" s="1">
+      <c r="X14" s="39">
         <v>3.0219999999999998</v>
+      </c>
+      <c r="Y14" s="75">
+        <f>AVERAGE(U14:X14)</f>
+        <v>2.8892500000000001</v>
+      </c>
+      <c r="Z14" s="75">
+        <f>AVERAGE(V14:Y14)</f>
+        <v>2.9655625000000003</v>
       </c>
       <c r="AC14" s="19">
         <f t="shared" si="7"/>
@@ -3362,85 +3491,95 @@
         <f t="shared" si="4"/>
         <v>10.954000000000001</v>
       </c>
+      <c r="AG14" s="75">
+        <f t="shared" si="9"/>
+        <v>11.8538125</v>
+      </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G15" s="19">
-        <f t="shared" ref="G15:H15" si="9">G13+G14</f>
+        <f t="shared" ref="G15:H15" si="10">G13+G14</f>
         <v>3.0630000000000002</v>
       </c>
       <c r="H15" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.1420000000000003</v>
       </c>
       <c r="I15" s="19">
-        <f t="shared" ref="I15:W15" si="10">I13+I14</f>
+        <f t="shared" ref="I15:W15" si="11">I13+I14</f>
         <v>3.0910000000000002</v>
       </c>
       <c r="J15" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.4059999999999997</v>
       </c>
       <c r="K15" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.3280000000000003</v>
       </c>
       <c r="L15" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.3239999999999998</v>
       </c>
       <c r="M15" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.2829999999999999</v>
       </c>
       <c r="N15" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.1909999999999998</v>
       </c>
       <c r="O15" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.9750000000000001</v>
       </c>
       <c r="P15" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.2669999999999999</v>
       </c>
       <c r="Q15" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.0409999999999999</v>
       </c>
       <c r="R15" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.742</v>
       </c>
       <c r="S15" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.5720000000000001</v>
       </c>
       <c r="T15" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.7589999999999999</v>
       </c>
       <c r="U15" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.4380000000000002</v>
       </c>
       <c r="V15" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0350000000000001</v>
       </c>
       <c r="W15" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.92</v>
       </c>
       <c r="X15" s="19">
-        <f t="shared" ref="X15" si="11">X13+X14</f>
+        <f t="shared" ref="X15" si="12">X13+X14</f>
         <v>4.1239999999999997</v>
       </c>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
+      <c r="Y15" s="75">
+        <f>Y13+Y14</f>
+        <v>3.8792499999999999</v>
+      </c>
+      <c r="Z15" s="75">
+        <f>Z13+Z14</f>
+        <v>3.9895625000000003</v>
+      </c>
       <c r="AC15" s="19">
         <f t="shared" si="7"/>
         <v>12.701999999999998</v>
@@ -3457,85 +3596,95 @@
         <f>AF13+AF14</f>
         <v>14.804</v>
       </c>
+      <c r="AG15" s="75">
+        <f t="shared" ref="AG15" si="13">AG13+AG14</f>
+        <v>15.912812500000001</v>
+      </c>
     </row>
     <row r="16" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
         <v>75</v>
       </c>
       <c r="G16" s="18">
-        <f t="shared" ref="G16:H16" si="12">G12-G15</f>
+        <f t="shared" ref="G16:H16" si="14">G12-G15</f>
         <v>1.3339999999999983</v>
       </c>
       <c r="H16" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.96300000000000185</v>
       </c>
       <c r="I16" s="18">
-        <f t="shared" ref="I16:W16" si="13">I12-I15</f>
+        <f t="shared" ref="I16:W16" si="15">I12-I15</f>
         <v>1.2479999999999984</v>
       </c>
       <c r="J16" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.2269999999999994</v>
       </c>
       <c r="K16" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.5430000000000001</v>
       </c>
       <c r="L16" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.2200000000000006</v>
       </c>
       <c r="M16" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.1899999999999991</v>
       </c>
       <c r="N16" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.83800000000000008</v>
       </c>
       <c r="O16" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.7660000000000013</v>
       </c>
       <c r="P16" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.5799999999999987</v>
       </c>
       <c r="Q16" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.6779999999999995</v>
       </c>
       <c r="R16" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9129999999999994</v>
       </c>
       <c r="S16" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.1239999999999979</v>
       </c>
       <c r="T16" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.4540000000000011</v>
       </c>
       <c r="U16" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.629</v>
       </c>
       <c r="V16" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.4680000000000017</v>
       </c>
       <c r="W16" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.6950000000000029</v>
       </c>
       <c r="X16" s="18">
-        <f t="shared" ref="X16" si="14">X12-X15</f>
+        <f t="shared" ref="X16" si="16">X12-X15</f>
         <v>1.5870000000000015</v>
       </c>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
+      <c r="Y16" s="76">
+        <f>Y12-Y15</f>
+        <v>2.1897270000000004</v>
+      </c>
+      <c r="Z16" s="76">
+        <f>Z12-Z15</f>
+        <v>2.4689581400000011</v>
+      </c>
       <c r="AC16" s="18">
         <f>AC13+AC14+AC15</f>
         <v>25.403999999999996</v>
@@ -3552,8 +3701,12 @@
         <f>AF12-AF15</f>
         <v>6.6749999999999918</v>
       </c>
-    </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AG16" s="76">
+        <f t="shared" ref="AG16" si="17">AG12-AG15</f>
+        <v>7.9406851399999994</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>76</v>
       </c>
@@ -3611,14 +3764,20 @@
       <c r="X17" s="19">
         <v>1.6E-2</v>
       </c>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
+      <c r="Y17" s="75">
+        <f>AVERAGE(U17:X17)</f>
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="Z17" s="75">
+        <f>AVERAGE(V17:Y17)</f>
+        <v>2.4875000000000001E-2</v>
+      </c>
       <c r="AC17" s="19">
-        <f t="shared" ref="AC17:AC18" si="15">SUM(G17:J17)</f>
+        <f t="shared" ref="AC17:AC18" si="18">SUM(G17:J17)</f>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="AD17" s="19">
-        <f t="shared" ref="AD17:AD18" si="16">SUM(K17:N17)</f>
+        <f t="shared" ref="AD17:AD18" si="19">SUM(K17:N17)</f>
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="AE17" s="19">
@@ -3626,11 +3785,15 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="AF17" s="28">
-        <f t="shared" ref="AF17:AF18" si="17">SUM(S17:V17)</f>
+        <f t="shared" ref="AF17:AF18" si="20">SUM(S17:V17)</f>
         <v>0.20500000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AG17" s="75">
+        <f t="shared" ref="AG17:AG20" si="21">SUM(W17:Z17)</f>
+        <v>8.4375000000000006E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
@@ -3688,14 +3851,20 @@
       <c r="X18" s="19">
         <v>-7.9000000000000001E-2</v>
       </c>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
+      <c r="Y18" s="75">
+        <f>AVERAGE(U18:X18)</f>
+        <v>-6.6250000000000003E-2</v>
+      </c>
+      <c r="Z18" s="75">
+        <f>AVERAGE(V18:Y18)</f>
+        <v>-5.9312499999999997E-2</v>
+      </c>
       <c r="AC18" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-7.8E-2</v>
       </c>
       <c r="AD18" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.13899999999999996</v>
       </c>
       <c r="AE18" s="19">
@@ -3703,88 +3872,98 @@
         <v>1.4000000000000002E-2</v>
       </c>
       <c r="AF18" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-0.18099999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AG18" s="75">
+        <f t="shared" si="21"/>
+        <v>-0.3505625</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G19" s="19">
-        <f t="shared" ref="G19:X19" si="18">G16-G17-G18</f>
+        <f t="shared" ref="G19:Z19" si="22">G16-G17-G18</f>
         <v>1.2699999999999985</v>
       </c>
       <c r="H19" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.99700000000000188</v>
       </c>
       <c r="I19" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.2909999999999984</v>
       </c>
       <c r="J19" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.2429999999999994</v>
       </c>
       <c r="K19" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.5610000000000002</v>
       </c>
       <c r="L19" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.2490000000000006</v>
       </c>
       <c r="M19" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.88099999999999912</v>
       </c>
       <c r="N19" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-0.80400000000000016</v>
       </c>
       <c r="O19" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.7150000000000014</v>
       </c>
       <c r="P19" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.4559999999999986</v>
       </c>
       <c r="Q19" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.6359999999999995</v>
       </c>
       <c r="R19" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.8539999999999994</v>
       </c>
       <c r="S19" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.1059999999999981</v>
       </c>
       <c r="T19" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.5010000000000012</v>
       </c>
       <c r="U19" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.6700000000000002</v>
       </c>
       <c r="V19" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.3740000000000017</v>
       </c>
       <c r="W19" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.828000000000003</v>
       </c>
       <c r="X19" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.6500000000000015</v>
       </c>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
+      <c r="Y19" s="75">
+        <f t="shared" si="22"/>
+        <v>2.2254770000000006</v>
+      </c>
+      <c r="Z19" s="75">
+        <f t="shared" si="22"/>
+        <v>2.5033956400000008</v>
+      </c>
       <c r="AC19" s="19">
         <f>SUM(G19:J19)</f>
         <v>4.8009999999999984</v>
@@ -3801,8 +3980,12 @@
         <f>AF16-AF17-AF18</f>
         <v>6.6509999999999918</v>
       </c>
-    </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AG19" s="75">
+        <f>AG16-AG17-AG18</f>
+        <v>8.2068726400000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>79</v>
       </c>
@@ -3860,10 +4043,16 @@
       <c r="X20" s="19">
         <v>0.31900000000000001</v>
       </c>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
+      <c r="Y20" s="75">
+        <f>Y19*Y37</f>
+        <v>0.44509540000000014</v>
+      </c>
+      <c r="Z20" s="75">
+        <f>Z19*Z37</f>
+        <v>0.50067912800000014</v>
+      </c>
       <c r="AC20" s="19">
-        <f t="shared" ref="AC20" si="19">SUM(G20:J20)</f>
+        <f t="shared" ref="AC20" si="23">SUM(G20:J20)</f>
         <v>0.77200000000000002</v>
       </c>
       <c r="AD20" s="19">
@@ -3875,88 +4064,98 @@
         <v>0.93399999999999994</v>
       </c>
       <c r="AF20" s="28">
-        <f t="shared" ref="AF20" si="20">SUM(S20:V20)</f>
+        <f t="shared" ref="AF20" si="24">SUM(S20:V20)</f>
         <v>0.60499999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG20" s="75">
+        <f t="shared" si="21"/>
+        <v>1.6247745280000006</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>80</v>
       </c>
       <c r="G21" s="18">
-        <f t="shared" ref="G21:X21" si="21">G19-G20</f>
+        <f t="shared" ref="G21:Z21" si="25">G19-G20</f>
         <v>1.0919999999999985</v>
       </c>
       <c r="H21" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.84700000000000186</v>
       </c>
       <c r="I21" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.1009999999999984</v>
       </c>
       <c r="J21" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.98899999999999944</v>
       </c>
       <c r="K21" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.3670000000000002</v>
       </c>
       <c r="L21" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.1150000000000007</v>
       </c>
       <c r="M21" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.84699999999999909</v>
       </c>
       <c r="N21" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-0.79000000000000015</v>
       </c>
       <c r="O21" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.5180000000000013</v>
       </c>
       <c r="P21" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.2509999999999986</v>
       </c>
       <c r="Q21" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.4489999999999994</v>
       </c>
       <c r="R21" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.5089999999999995</v>
       </c>
       <c r="S21" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.8739999999999981</v>
       </c>
       <c r="T21" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.3370000000000013</v>
       </c>
       <c r="U21" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.3960000000000001</v>
       </c>
       <c r="V21" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.4390000000000016</v>
       </c>
       <c r="W21" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.4680000000000031</v>
       </c>
       <c r="X21" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.3310000000000015</v>
       </c>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
+      <c r="Y21" s="76">
+        <f t="shared" si="25"/>
+        <v>1.7803816000000006</v>
+      </c>
+      <c r="Z21" s="76">
+        <f t="shared" si="25"/>
+        <v>2.0027165120000006</v>
+      </c>
       <c r="AC21" s="18">
         <f>AC18+AC19+AC20</f>
         <v>5.4949999999999983</v>
@@ -3973,85 +4172,95 @@
         <f>AF19-AF20</f>
         <v>6.0459999999999923</v>
       </c>
-    </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AG21" s="76">
+        <f>AG19-AG20</f>
+        <v>6.5820981119999997</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G22" s="43">
-        <f t="shared" ref="G22:X22" si="22">G21/G23</f>
+        <f t="shared" ref="G22:Z22" si="26">G21/G23</f>
         <v>6.8506900878293506E-4</v>
       </c>
       <c r="H22" s="43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5.3560136587833677E-4</v>
       </c>
       <c r="I22" s="43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>7.0002543234994811E-4</v>
       </c>
       <c r="J22" s="43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>6.2985606929053591E-4</v>
       </c>
       <c r="K22" s="43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.7493599590373792E-4</v>
       </c>
       <c r="L22" s="43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>7.1446879405356965E-4</v>
       </c>
       <c r="M22" s="43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5.4423954250465791E-4</v>
       </c>
       <c r="N22" s="43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-5.0780998907244332E-4</v>
       </c>
       <c r="O22" s="43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>9.719554360353447E-4</v>
       </c>
       <c r="P22" s="43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>7.9529561347743076E-4</v>
       </c>
       <c r="Q22" s="43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>9.1825095057034185E-4</v>
       </c>
       <c r="R22" s="43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>9.5566814439518647E-4</v>
       </c>
       <c r="S22" s="43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.1846513686073696E-3</v>
       </c>
       <c r="T22" s="43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.4673844205193248E-4</v>
       </c>
       <c r="U22" s="43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.8410386320455993E-4</v>
       </c>
       <c r="V22" s="43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>9.1539440203562445E-4</v>
       </c>
       <c r="W22" s="43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>9.3676217216514786E-4</v>
       </c>
       <c r="X22" s="43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.5375240538807027E-4</v>
       </c>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
+      <c r="Y22" s="78">
+        <f t="shared" si="26"/>
+        <v>1.142002309172547E-3</v>
+      </c>
+      <c r="Z22" s="78">
+        <f t="shared" si="26"/>
+        <v>1.2846161077613859E-3</v>
+      </c>
       <c r="AC22" s="43">
         <f>AC21/AC23</f>
         <v>3.4787287920992646E-3</v>
@@ -4068,8 +4277,12 @@
         <f>AF21/AF23</f>
         <v>3.831492894374114E-3</v>
       </c>
-    </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AG22" s="78">
+        <f>AG21/AG23</f>
+        <v>4.2220000718409239E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
@@ -4127,8 +4340,14 @@
       <c r="X23" s="19">
         <v>1559</v>
       </c>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
+      <c r="Y23" s="75">
+        <f>X23</f>
+        <v>1559</v>
+      </c>
+      <c r="Z23" s="75">
+        <f>Y23</f>
+        <v>1559</v>
+      </c>
       <c r="AC23" s="19">
         <f>AVERAGE(G23:J23)</f>
         <v>1579.6</v>
@@ -4145,8 +4364,12 @@
         <f>AVERAGE(S23:V23)</f>
         <v>1577.9749999999999</v>
       </c>
-    </row>
-    <row r="25" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG23" s="75">
+        <f>Z23</f>
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>82</v>
       </c>
@@ -4163,39 +4386,39 @@
         <v>135</v>
       </c>
       <c r="K25" s="20">
-        <f t="shared" ref="K25" si="23">K10/G10-1</f>
+        <f t="shared" ref="K25" si="27">K10/G10-1</f>
         <v>7.1572175311620523E-2</v>
       </c>
       <c r="L25" s="20">
-        <f t="shared" ref="L25:N25" si="24">L10/H10-1</f>
+        <f t="shared" ref="L25:N25" si="28">L10/H10-1</f>
         <v>0.10155749946660952</v>
       </c>
       <c r="M25" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5.1295390698158361E-2</v>
       </c>
       <c r="N25" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-0.38010604870384912</v>
       </c>
       <c r="O25" s="20">
-        <f t="shared" ref="O25" si="25">O10/K10-1</f>
+        <f t="shared" ref="O25" si="29">O10/K10-1</f>
         <v>-6.1913696060036383E-3</v>
       </c>
       <c r="P25" s="20">
-        <f t="shared" ref="P25:Q25" si="26">P10/L10-1</f>
+        <f t="shared" ref="P25:Q25" si="30">P10/L10-1</f>
         <v>8.8804958357543873E-2</v>
       </c>
       <c r="Q25" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2.5039588281868586E-2</v>
       </c>
       <c r="R25" s="20">
-        <f t="shared" ref="R25:S25" si="27">R10/N10-1</f>
+        <f t="shared" ref="R25:S25" si="31">R10/N10-1</f>
         <v>0.95533027086963407</v>
       </c>
       <c r="S25" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.15612610911836855</v>
       </c>
       <c r="T25" s="20">
@@ -4211,15 +4434,15 @@
         <v>-8.9112119248215826E-3</v>
       </c>
       <c r="W25" s="20">
-        <f t="shared" ref="W25" si="28">W10/S10-1</f>
+        <f t="shared" ref="W25" si="32">W10/S10-1</f>
         <v>3.5842586544742483E-2</v>
       </c>
       <c r="X25" s="20">
-        <f t="shared" ref="X25" si="29">X10/T10-1</f>
+        <f t="shared" ref="X25" si="33">X10/T10-1</f>
         <v>0.17240468433565193</v>
       </c>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
+      <c r="Y25" s="79"/>
+      <c r="Z25" s="79"/>
       <c r="AB25" s="16" t="s">
         <v>135</v>
       </c>
@@ -4227,19 +4450,23 @@
         <v>135</v>
       </c>
       <c r="AD25" s="20">
-        <f t="shared" ref="AD25" si="30">AD10/AC10-1</f>
+        <f t="shared" ref="AD25" si="34">AD10/AC10-1</f>
         <v>-4.3817266150267264E-2</v>
       </c>
       <c r="AE25" s="20">
-        <f t="shared" ref="AE25" si="31">AE10/AD10-1</f>
+        <f t="shared" ref="AE25" si="35">AE10/AD10-1</f>
         <v>0.19076009945726247</v>
       </c>
       <c r="AF25" s="20">
         <f>AF10/AE10-1</f>
         <v>4.8767344739323759E-2</v>
       </c>
-    </row>
-    <row r="26" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG25" s="72">
+        <f>AG10/AF10-1</f>
+        <v>0.17307548704774178</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="27" t="s">
         <v>88</v>
       </c>
@@ -4256,39 +4483,39 @@
         <v>135</v>
       </c>
       <c r="K26" s="33">
-        <f t="shared" ref="K26:K28" si="32">K3/G3-1</f>
+        <f t="shared" ref="K26:K28" si="36">K3/G3-1</f>
         <v>8.0351225977468577E-2</v>
       </c>
       <c r="L26" s="33">
-        <f t="shared" ref="L26:N28" si="33">L3/H3-1</f>
+        <f t="shared" ref="L26:N28" si="37">L3/H3-1</f>
         <v>0.11518418688230003</v>
       </c>
       <c r="M26" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>4.1653054557334146E-2</v>
       </c>
       <c r="N26" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>-0.35359286044006777</v>
       </c>
       <c r="O26" s="33">
-        <f t="shared" ref="O26:O28" si="34">O3/K3-1</f>
+        <f t="shared" ref="O26:O28" si="38">O3/K3-1</f>
         <v>3.7877626130961461E-2</v>
       </c>
       <c r="P26" s="33">
-        <f t="shared" ref="P26:Q28" si="35">P3/L3-1</f>
+        <f t="shared" ref="P26:Q28" si="39">P3/L3-1</f>
         <v>9.5874959716403474E-2</v>
       </c>
       <c r="Q26" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2.0072134232397731E-2</v>
       </c>
       <c r="R26" s="33">
-        <f t="shared" ref="R26:S28" si="36">R3/N3-1</f>
+        <f t="shared" ref="R26:S28" si="40">R3/N3-1</f>
         <v>0.89169245417757703</v>
       </c>
       <c r="S26" s="33">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.14036643026004736</v>
       </c>
       <c r="T26" s="33">
@@ -4304,15 +4531,15 @@
         <v>4.7816786208632056E-3</v>
       </c>
       <c r="W26" s="33">
-        <f t="shared" ref="W26:W28" si="37">W3/S3-1</f>
+        <f t="shared" ref="W26:W28" si="41">W3/S3-1</f>
         <v>5.1308629178543841E-2</v>
       </c>
       <c r="X26" s="33">
-        <f t="shared" ref="X26:X28" si="38">X3/T3-1</f>
+        <f t="shared" ref="X26:X28" si="42">X3/T3-1</f>
         <v>0.254277286135693</v>
       </c>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="73"/>
       <c r="AB26" s="16" t="s">
         <v>135</v>
       </c>
@@ -4320,19 +4547,20 @@
         <v>135</v>
       </c>
       <c r="AD26" s="33">
-        <f t="shared" ref="AD26" si="39">AD3/AC3-1</f>
+        <f t="shared" ref="AD26" si="43">AD3/AC3-1</f>
         <v>-3.7858145487573158E-2</v>
       </c>
       <c r="AE26" s="33">
-        <f t="shared" ref="AE26" si="40">AE3/AD3-1</f>
+        <f t="shared" ref="AE26" si="44">AE3/AD3-1</f>
         <v>0.20236000858184933</v>
       </c>
       <c r="AF26" s="33">
         <f>AF3/AE3-1</f>
         <v>4.0041397523286282E-2</v>
       </c>
-    </row>
-    <row r="27" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG26" s="77"/>
+    </row>
+    <row r="27" spans="2:33" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="27" t="s">
         <v>89</v>
       </c>
@@ -4349,63 +4577,63 @@
         <v>135</v>
       </c>
       <c r="K27" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5.8324855883350235E-2</v>
       </c>
       <c r="L27" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>7.8058379796654531E-2</v>
       </c>
       <c r="M27" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>7.3143701514591708E-2</v>
       </c>
       <c r="N27" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>-0.42355008787346227</v>
       </c>
       <c r="O27" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-7.882089074014742E-2</v>
       </c>
       <c r="P27" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>9.066017645269242E-2</v>
       </c>
       <c r="Q27" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2.0998278829604367E-2</v>
       </c>
       <c r="R27" s="33">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1.0969512195121953</v>
       </c>
       <c r="S27" s="33">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="T27" s="33">
-        <f t="shared" ref="T27:V28" si="41">T4/P4-1</f>
+        <f t="shared" ref="T27:V28" si="45">T4/P4-1</f>
         <v>1.7573221757322122E-2</v>
       </c>
       <c r="U27" s="33">
+        <f t="shared" si="45"/>
+        <v>8.968307484828042E-2</v>
+      </c>
+      <c r="V27" s="33">
+        <f t="shared" si="45"/>
+        <v>-5.8738005234079682E-2</v>
+      </c>
+      <c r="W27" s="33">
         <f t="shared" si="41"/>
-        <v>8.968307484828042E-2</v>
-      </c>
-      <c r="V27" s="33">
-        <f t="shared" si="41"/>
-        <v>-5.8738005234079682E-2</v>
-      </c>
-      <c r="W27" s="33">
-        <f t="shared" si="37"/>
         <v>-4.6376811594203149E-3</v>
       </c>
       <c r="X27" s="33">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>4.0021929824561431E-2</v>
       </c>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="73"/>
       <c r="AB27" s="16" t="s">
         <v>135</v>
       </c>
@@ -4413,19 +4641,20 @@
         <v>135</v>
       </c>
       <c r="AD27" s="33">
-        <f t="shared" ref="AD27" si="42">AD4/AC4-1</f>
+        <f t="shared" ref="AD27" si="46">AD4/AC4-1</f>
         <v>-5.1688311688311672E-2</v>
       </c>
       <c r="AE27" s="33">
-        <f t="shared" ref="AE27" si="43">AE4/AD4-1</f>
+        <f t="shared" ref="AE27" si="47">AE4/AD4-1</f>
         <v>0.17456404637998735</v>
       </c>
       <c r="AF27" s="33">
         <f>AF4/AE4-1</f>
         <v>5.4566653711620727E-2</v>
       </c>
-    </row>
-    <row r="28" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG27" s="77"/>
+    </row>
+    <row r="28" spans="2:33" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="27" t="s">
         <v>90</v>
       </c>
@@ -4442,63 +4671,63 @@
         <v>135</v>
       </c>
       <c r="K28" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.6923076923077094E-2</v>
       </c>
       <c r="L28" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5.5727554179566541E-2</v>
       </c>
       <c r="M28" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>4.8231511254019255E-2</v>
       </c>
       <c r="N28" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>-0.53389830508474567</v>
       </c>
       <c r="O28" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-0.171875</v>
       </c>
       <c r="P28" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1.7595307917888325E-2</v>
       </c>
       <c r="Q28" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-9.2024539877300637E-2</v>
       </c>
       <c r="R28" s="33">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1.23030303030303</v>
       </c>
       <c r="S28" s="33">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.25336927223719674</v>
       </c>
       <c r="T28" s="33">
+        <f t="shared" si="45"/>
+        <v>0.10086455331412103</v>
+      </c>
+      <c r="U28" s="33">
+        <f t="shared" si="45"/>
+        <v>0.31756756756756777</v>
+      </c>
+      <c r="V28" s="33">
+        <f t="shared" si="45"/>
+        <v>5.1630434782608647E-2</v>
+      </c>
+      <c r="W28" s="33">
         <f t="shared" si="41"/>
-        <v>0.10086455331412103</v>
-      </c>
-      <c r="U28" s="33">
-        <f t="shared" si="41"/>
-        <v>0.31756756756756777</v>
-      </c>
-      <c r="V28" s="33">
-        <f t="shared" si="41"/>
-        <v>5.1630434782608647E-2</v>
-      </c>
-      <c r="W28" s="33">
-        <f t="shared" si="37"/>
         <v>4.5161290322580649E-2</v>
       </c>
       <c r="X28" s="33">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>6.8062827225130906E-2</v>
       </c>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="73"/>
       <c r="AB28" s="16" t="s">
         <v>135</v>
       </c>
@@ -4506,19 +4735,20 @@
         <v>135</v>
       </c>
       <c r="AD28" s="33">
-        <f t="shared" ref="AD28" si="44">AD5/AC5-1</f>
+        <f t="shared" ref="AD28" si="48">AD5/AC5-1</f>
         <v>-8.831908831908819E-2</v>
       </c>
       <c r="AE28" s="33">
-        <f t="shared" ref="AE28" si="45">AE5/AD5-1</f>
+        <f t="shared" ref="AE28" si="49">AE5/AD5-1</f>
         <v>7.9687500000000133E-2</v>
       </c>
       <c r="AF28" s="33">
         <f>AF5/AE5-1</f>
         <v>0.17510853835021711</v>
       </c>
-    </row>
-    <row r="29" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG28" s="77"/>
+    </row>
+    <row r="29" spans="2:33" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="29" t="s">
         <v>97</v>
       </c>
@@ -4535,63 +4765,63 @@
         <v>135</v>
       </c>
       <c r="K29" s="33">
-        <f t="shared" ref="K29:K31" si="46">K7/G7-1</f>
+        <f t="shared" ref="K29:K31" si="50">K7/G7-1</f>
         <v>7.2103642348943398E-2</v>
       </c>
       <c r="L29" s="33">
-        <f t="shared" ref="L29:N31" si="47">L7/H7-1</f>
+        <f t="shared" ref="L29:N31" si="51">L7/H7-1</f>
         <v>0.10038005812653683</v>
       </c>
       <c r="M29" s="33">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>5.1158723218189817E-2</v>
       </c>
       <c r="N29" s="33">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-0.38065313691150715</v>
       </c>
       <c r="O29" s="33">
-        <f t="shared" ref="O29:O31" si="48">O7/K7-1</f>
+        <f t="shared" ref="O29:O31" si="52">O7/K7-1</f>
         <v>-7.7258320126781799E-3</v>
       </c>
       <c r="P29" s="33">
-        <f t="shared" ref="P29:Q31" si="49">P7/L7-1</f>
+        <f t="shared" ref="P29:Q31" si="53">P7/L7-1</f>
         <v>9.1121495327102675E-2</v>
       </c>
       <c r="Q29" s="33">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1.6326955074875249E-2</v>
       </c>
       <c r="R29" s="33">
-        <f t="shared" ref="R29:S31" si="50">R7/N7-1</f>
+        <f t="shared" ref="R29:S31" si="54">R7/N7-1</f>
         <v>0.95625415834996685</v>
       </c>
       <c r="S29" s="33">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.16190856458374903</v>
       </c>
       <c r="T29" s="33">
-        <f t="shared" ref="T29:V31" si="51">T7/P7-1</f>
+        <f t="shared" ref="T29:V31" si="55">T7/P7-1</f>
         <v>6.9825900754121317E-3</v>
       </c>
       <c r="U29" s="33">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>5.6277499232579631E-2</v>
       </c>
       <c r="V29" s="33">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>-8.8427854774251191E-3</v>
       </c>
       <c r="W29" s="33">
-        <f t="shared" ref="W29:W31" si="52">W7/S7-1</f>
+        <f t="shared" ref="W29:W31" si="56">W7/S7-1</f>
         <v>3.5051546391752897E-2</v>
       </c>
       <c r="X29" s="33">
-        <f t="shared" ref="X29:X31" si="53">X7/T7-1</f>
+        <f t="shared" ref="X29:X31" si="57">X7/T7-1</f>
         <v>0.17640532544378695</v>
       </c>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
+      <c r="Y29" s="73"/>
+      <c r="Z29" s="73"/>
       <c r="AB29" s="16" t="s">
         <v>135</v>
       </c>
@@ -4599,19 +4829,20 @@
         <v>135</v>
       </c>
       <c r="AD29" s="33">
-        <f t="shared" ref="AD29" si="54">AD7/AC7-1</f>
+        <f t="shared" ref="AD29" si="58">AD7/AC7-1</f>
         <v>-4.433338707077239E-2</v>
       </c>
       <c r="AE29" s="33">
-        <f t="shared" ref="AE29" si="55">AE7/AD7-1</f>
+        <f t="shared" ref="AE29" si="59">AE7/AD7-1</f>
         <v>0.18907444894286995</v>
       </c>
       <c r="AF29" s="33">
         <f>AF7/AE7-1</f>
         <v>5.0670323694228525E-2</v>
       </c>
-    </row>
-    <row r="30" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG29" s="77"/>
+    </row>
+    <row r="30" spans="2:33" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="29" t="s">
         <v>93</v>
       </c>
@@ -4628,63 +4859,63 @@
         <v>135</v>
       </c>
       <c r="K30" s="33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>5.3130929791271431E-2</v>
       </c>
       <c r="L30" s="33">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>0.12941176470588234</v>
       </c>
       <c r="M30" s="33">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>9.2872570194384441E-2</v>
       </c>
       <c r="N30" s="33">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-0.37881873727087578</v>
       </c>
       <c r="O30" s="33">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1.4414414414414267E-2</v>
       </c>
       <c r="P30" s="33">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>-8.3333333333333037E-3</v>
       </c>
       <c r="Q30" s="33">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.12648221343873511</v>
       </c>
       <c r="R30" s="33">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.95409836065573761</v>
       </c>
       <c r="S30" s="33">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.1172291296625223</v>
       </c>
       <c r="T30" s="33">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.17016806722689082</v>
       </c>
       <c r="U30" s="33">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>-5.2631578947368585E-3</v>
       </c>
       <c r="V30" s="33">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>-5.0335570469798308E-3</v>
       </c>
       <c r="W30" s="33">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>2.2257551669316422E-2</v>
       </c>
       <c r="X30" s="33">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>5.20646319569118E-2</v>
       </c>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
+      <c r="Y30" s="73"/>
+      <c r="Z30" s="73"/>
       <c r="AB30" s="16" t="s">
         <v>135</v>
       </c>
@@ -4692,19 +4923,20 @@
         <v>135</v>
       </c>
       <c r="AD30" s="33">
-        <f t="shared" ref="AD30" si="56">AD8/AC8-1</f>
+        <f t="shared" ref="AD30" si="60">AD8/AC8-1</f>
         <v>-3.147953830010497E-2</v>
       </c>
       <c r="AE30" s="33">
-        <f t="shared" ref="AE30:AF31" si="57">AE8/AD8-1</f>
+        <f t="shared" ref="AE30:AF31" si="61">AE8/AD8-1</f>
         <v>0.19447453954496208</v>
       </c>
       <c r="AF30" s="33">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>6.3945578231292544E-2</v>
       </c>
-    </row>
-    <row r="31" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG30" s="77"/>
+    </row>
+    <row r="31" spans="2:33" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="29" t="s">
         <v>94</v>
       </c>
@@ -4721,62 +4953,62 @@
         <v>135</v>
       </c>
       <c r="K31" s="33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1.25</v>
       </c>
       <c r="L31" s="33">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-0.33333333333333337</v>
       </c>
       <c r="M31" s="47" t="s">
         <v>135</v>
       </c>
       <c r="N31" s="33">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-0.7142857142857143</v>
       </c>
       <c r="O31" s="33">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="P31" s="33">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>12</v>
       </c>
       <c r="Q31" s="33">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>-1.7777777777777779</v>
       </c>
       <c r="R31" s="33">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>2.25</v>
       </c>
       <c r="S31" s="33">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>-2.6153846153846159</v>
       </c>
       <c r="T31" s="33">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>-1.6153846153846154</v>
       </c>
       <c r="U31" s="33">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>-2.3571428571428568</v>
       </c>
       <c r="V31" s="33">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.23076923076923084</v>
       </c>
       <c r="W31" s="33">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>-0.80952380952380953</v>
       </c>
       <c r="X31" s="33">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>-1.3125</v>
       </c>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
+      <c r="Y31" s="73"/>
+      <c r="Z31" s="73"/>
       <c r="AB31" s="16" t="s">
         <v>135</v>
       </c>
@@ -4784,19 +5016,20 @@
         <v>135</v>
       </c>
       <c r="AD31" s="33">
-        <f t="shared" ref="AD31" si="58">AD9/AC9-1</f>
+        <f t="shared" ref="AD31" si="62">AD9/AC9-1</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="AE31" s="33">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>-4.6363636363636367</v>
       </c>
       <c r="AF31" s="33">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>-2.8000000000000003</v>
       </c>
-    </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AG31" s="77"/>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>83</v>
       </c>
@@ -4804,59 +5037,59 @@
         <v>135</v>
       </c>
       <c r="H32" s="24">
-        <f t="shared" ref="H32:L32" si="59">H10/G10-1</f>
+        <f t="shared" ref="H32:L32" si="63">H10/G10-1</f>
         <v>-5.7700040209086922E-2</v>
       </c>
       <c r="I32" s="24">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>2.5282696820993822E-2</v>
       </c>
       <c r="J32" s="24">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>5.9619186348975228E-2</v>
       </c>
       <c r="K32" s="24">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>4.6739984289080994E-2</v>
       </c>
       <c r="L32" s="24">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>-3.1332082551594698E-2</v>
       </c>
       <c r="M32" s="24">
-        <f t="shared" ref="M32:N32" si="60">M10/L10-1</f>
+        <f t="shared" ref="M32:N32" si="64">M10/L10-1</f>
         <v>-2.1499128413713042E-2</v>
       </c>
       <c r="N32" s="24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>-0.37519794140934282</v>
       </c>
       <c r="O32" s="24">
-        <f t="shared" ref="O32:T32" si="61">O10/N10-1</f>
+        <f t="shared" ref="O32:T32" si="65">O10/N10-1</f>
         <v>0.678124504989704</v>
       </c>
       <c r="P32" s="24">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>6.126109118368861E-2</v>
       </c>
       <c r="Q32" s="24">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>-7.8804589522369461E-2</v>
       </c>
       <c r="R32" s="24">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0.19185092208168397</v>
       </c>
       <c r="S32" s="24">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>-7.7770576798446012E-3</v>
       </c>
       <c r="T32" s="24">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>-7.2746570868712945E-2</v>
       </c>
       <c r="U32" s="24">
-        <f t="shared" ref="U32" si="62">U10/T10-1</f>
+        <f t="shared" ref="U32" si="66">U10/T10-1</f>
         <v>-4.2792991106806455E-2</v>
       </c>
       <c r="V32" s="24">
@@ -4864,15 +5097,15 @@
         <v>0.12537944991261174</v>
       </c>
       <c r="W32" s="24">
-        <f t="shared" ref="W32" si="63">W10/V10-1</f>
+        <f t="shared" ref="W32" si="67">W10/V10-1</f>
         <v>3.7027954879843117E-2</v>
       </c>
       <c r="X32" s="24">
-        <f t="shared" ref="X32" si="64">X10/W10-1</f>
+        <f t="shared" ref="X32" si="68">X10/W10-1</f>
         <v>4.9499487664538266E-2</v>
       </c>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="73"/>
       <c r="AB32" s="16" t="s">
         <v>135</v>
       </c>
@@ -4883,44 +5116,44 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G34" s="24">
-        <f t="shared" ref="G34" si="65">G12/G10</f>
+        <f t="shared" ref="G34" si="69">G12/G10</f>
         <v>0.44199839163650978</v>
       </c>
       <c r="H34" s="24">
-        <f t="shared" ref="H34" si="66">H12/H10</f>
+        <f t="shared" ref="H34" si="70">H12/H10</f>
         <v>0.43791337742692565</v>
       </c>
       <c r="I34" s="24">
-        <f t="shared" ref="I34:K34" si="67">I12/I10</f>
+        <f t="shared" ref="I34:K34" si="71">I12/I10</f>
         <v>0.4514618666111746</v>
       </c>
       <c r="J34" s="24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0.45492930086410049</v>
       </c>
       <c r="K34" s="24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0.45694183864915577</v>
       </c>
       <c r="L34" s="24">
-        <f t="shared" ref="L34" si="68">L12/L10</f>
+        <f t="shared" ref="L34" si="72">L12/L10</f>
         <v>0.4400542320356382</v>
       </c>
       <c r="M34" s="24">
-        <f t="shared" ref="M34" si="69">M12/M10</f>
+        <f t="shared" ref="M34" si="73">M12/M10</f>
         <v>0.44269596199524935</v>
       </c>
       <c r="N34" s="24">
-        <f t="shared" ref="N34:O34" si="70">N12/N10</f>
+        <f t="shared" ref="N34:O34" si="74">N12/N10</f>
         <v>0.37272295263741484</v>
       </c>
       <c r="O34" s="24">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0.4475174627147443</v>
       </c>
       <c r="P34" s="24">
@@ -4936,15 +5169,15 @@
         <v>0.45811730395333761</v>
       </c>
       <c r="S34" s="24">
-        <f t="shared" ref="S34:T34" si="71">S12/S10</f>
+        <f t="shared" ref="S34:T34" si="75">S12/S10</f>
         <v>0.4650555192684519</v>
       </c>
       <c r="T34" s="24">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>0.45901206304481823</v>
       </c>
       <c r="U34" s="24">
-        <f t="shared" ref="U34" si="72">U12/U10</f>
+        <f t="shared" ref="U34" si="76">U12/U10</f>
         <v>0.4661024744733695</v>
       </c>
       <c r="V34" s="24">
@@ -4952,21 +5185,25 @@
         <v>0.44981199934608479</v>
       </c>
       <c r="W34" s="24">
-        <f t="shared" ref="W34:X34" si="73">W12/W10</f>
+        <f t="shared" ref="W34:X34" si="77">W12/W10</f>
         <v>0.44257901789233084</v>
       </c>
       <c r="X34" s="24">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>0.42891475779196397</v>
       </c>
-      <c r="Y34" s="24"/>
-      <c r="Z34" s="24"/>
+      <c r="Y34" s="74">
+        <v>0.43</v>
+      </c>
+      <c r="Z34" s="74">
+        <v>0.44</v>
+      </c>
       <c r="AC34" s="24">
-        <f t="shared" ref="AC34" si="74">AC12/AC10</f>
+        <f t="shared" ref="AC34" si="78">AC12/AC10</f>
         <v>0.44671114860546568</v>
       </c>
       <c r="AD34" s="24">
-        <f t="shared" ref="AD34" si="75">AD12/AD10</f>
+        <f t="shared" ref="AD34" si="79">AD12/AD10</f>
         <v>0.43421650669732376</v>
       </c>
       <c r="AE34" s="24">
@@ -4977,45 +5214,49 @@
         <f>AF12/AF10</f>
         <v>0.4598372939413401</v>
       </c>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AG34" s="73">
+        <f>AG12/AG10</f>
+        <v>0.4353276392189005</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G35" s="24">
-        <f t="shared" ref="G35" si="76">G16/G10</f>
+        <f t="shared" ref="G35" si="80">G16/G10</f>
         <v>0.13409730599115385</v>
       </c>
       <c r="H35" s="24">
-        <f t="shared" ref="H35" si="77">H16/H10</f>
+        <f t="shared" ref="H35" si="81">H16/H10</f>
         <v>0.10273095796885018</v>
       </c>
       <c r="I35" s="24">
-        <f t="shared" ref="I35:K35" si="78">I16/I10</f>
+        <f t="shared" ref="I35:K35" si="82">I16/I10</f>
         <v>0.12985121215274151</v>
       </c>
       <c r="J35" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>0.12048311076197953</v>
       </c>
       <c r="K35" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>0.14474671669793623</v>
       </c>
       <c r="L35" s="24">
-        <f t="shared" ref="L35" si="79">L16/L10</f>
+        <f t="shared" ref="L35" si="83">L16/L10</f>
         <v>0.11814836335463884</v>
       </c>
       <c r="M35" s="24">
-        <f t="shared" ref="M35" si="80">M16/M10</f>
+        <f t="shared" ref="M35" si="84">M16/M10</f>
         <v>0.11777513855898646</v>
       </c>
       <c r="N35" s="24">
-        <f t="shared" ref="N35:O35" si="81">N16/N10</f>
+        <f t="shared" ref="N35:O35" si="85">N16/N10</f>
         <v>-0.13274196103278951</v>
       </c>
       <c r="O35" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0.16669813101755721</v>
       </c>
       <c r="P35" s="24">
@@ -5031,15 +5272,15 @@
         <v>0.15497407647440048</v>
       </c>
       <c r="S35" s="24">
-        <f t="shared" ref="S35:T35" si="82">S16/S10</f>
+        <f t="shared" ref="S35:T35" si="86">S16/S10</f>
         <v>0.17341606792945774</v>
       </c>
       <c r="T35" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.12802676763229734</v>
       </c>
       <c r="U35" s="24">
-        <f t="shared" ref="U35" si="83">U16/U10</f>
+        <f t="shared" ref="U35" si="87">U16/U10</f>
         <v>0.14984822003495538</v>
       </c>
       <c r="V35" s="24">
@@ -5047,21 +5288,27 @@
         <v>0.11999346084682046</v>
       </c>
       <c r="W35" s="24">
-        <f t="shared" ref="W35:X35" si="84">W16/W10</f>
+        <f t="shared" ref="W35:X35" si="88">W16/W10</f>
         <v>0.13360132419011606</v>
       </c>
       <c r="X35" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.11918888471648527</v>
       </c>
-      <c r="Y35" s="24"/>
-      <c r="Z35" s="24"/>
+      <c r="Y35" s="74">
+        <f t="shared" ref="Y35:Z35" si="89">Y16/Y10</f>
+        <v>0.15514684105739732</v>
+      </c>
+      <c r="Z35" s="74">
+        <f t="shared" si="89"/>
+        <v>0.16820285049054209</v>
+      </c>
       <c r="AC35" s="24">
-        <f t="shared" ref="AC35" si="85">AC16/AC10</f>
+        <f t="shared" ref="AC35" si="90">AC16/AC10</f>
         <v>0.64943630646521955</v>
       </c>
       <c r="AD35" s="24">
-        <f t="shared" ref="AD35" si="86">AD16/AD10</f>
+        <f t="shared" ref="AD35" si="91">AD16/AD10</f>
         <v>8.3282089671951415E-2</v>
       </c>
       <c r="AE35" s="24">
@@ -5072,45 +5319,49 @@
         <f>AF16/AF10</f>
         <v>0.14290301862556182</v>
       </c>
-    </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AG35" s="73">
+        <f>AG16/AG10</f>
+        <v>0.14491793899357078</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G36" s="24">
-        <f t="shared" ref="G36" si="87">G21/G10</f>
+        <f t="shared" ref="G36" si="92">G21/G10</f>
         <v>0.10977080820265367</v>
       </c>
       <c r="H36" s="24">
-        <f t="shared" ref="H36" si="88">H21/H10</f>
+        <f t="shared" ref="H36" si="93">H21/H10</f>
         <v>9.0356304672498569E-2</v>
       </c>
       <c r="I36" s="24">
-        <f t="shared" ref="I36:K36" si="89">I21/I10</f>
+        <f t="shared" ref="I36:K36" si="94">I21/I10</f>
         <v>0.11455623764436568</v>
       </c>
       <c r="J36" s="24">
-        <f t="shared" si="89"/>
+        <f t="shared" si="94"/>
         <v>9.711311861743907E-2</v>
       </c>
       <c r="K36" s="24">
-        <f t="shared" si="89"/>
+        <f t="shared" si="94"/>
         <v>0.12823639774859288</v>
       </c>
       <c r="L36" s="24">
-        <f t="shared" ref="L36" si="90">L21/L10</f>
+        <f t="shared" ref="L36" si="95">L21/L10</f>
         <v>0.1079798566724773</v>
       </c>
       <c r="M36" s="24">
-        <f t="shared" ref="M36" si="91">M21/M10</f>
+        <f t="shared" ref="M36" si="96">M21/M10</f>
         <v>8.3828186856690343E-2</v>
       </c>
       <c r="N36" s="24">
-        <f t="shared" ref="N36:O36" si="92">N21/N10</f>
+        <f t="shared" ref="N36:O36" si="97">N21/N10</f>
         <v>-0.12513860288293999</v>
       </c>
       <c r="O36" s="24">
-        <f t="shared" si="92"/>
+        <f t="shared" si="97"/>
         <v>0.14328865395506901</v>
       </c>
       <c r="P36" s="24">
@@ -5126,15 +5377,15 @@
         <v>0.12224562540505506</v>
       </c>
       <c r="S36" s="24">
-        <f t="shared" ref="S36:T36" si="93">S21/S10</f>
+        <f t="shared" ref="S36:T36" si="98">S21/S10</f>
         <v>0.15300457217504887</v>
       </c>
       <c r="T36" s="24">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>0.11772475125473286</v>
       </c>
       <c r="U36" s="24">
-        <f t="shared" ref="U36" si="94">U21/U10</f>
+        <f t="shared" ref="U36" si="99">U21/U10</f>
         <v>0.12841504921350383</v>
       </c>
       <c r="V36" s="24">
@@ -5142,21 +5393,27 @@
         <v>0.11762301781919253</v>
       </c>
       <c r="W36" s="24">
-        <f t="shared" ref="W36:X36" si="95">W21/W10</f>
+        <f t="shared" ref="W36:X36" si="100">W21/W10</f>
         <v>0.11570899345787047</v>
       </c>
       <c r="X36" s="24">
-        <f t="shared" si="95"/>
+        <f t="shared" si="100"/>
         <v>9.9962448366504045E-2</v>
       </c>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="24"/>
+      <c r="Y36" s="74">
+        <f t="shared" ref="Y36:Z36" si="101">Y21/Y10</f>
+        <v>0.12614384401193152</v>
+      </c>
+      <c r="Z36" s="74">
+        <f t="shared" si="101"/>
+        <v>0.13643918079667236</v>
+      </c>
       <c r="AC36" s="24">
-        <f t="shared" ref="AC36" si="96">AC21/AC10</f>
+        <f t="shared" ref="AC36" si="102">AC21/AC10</f>
         <v>0.1404760078738144</v>
       </c>
       <c r="AD36" s="24">
-        <f t="shared" ref="AD36" si="97">AD21/AD10</f>
+        <f t="shared" ref="AD36" si="103">AD21/AD10</f>
         <v>6.7882255434056099E-2</v>
       </c>
       <c r="AE36" s="24">
@@ -5167,45 +5424,49 @@
         <f>AF21/AF10</f>
         <v>0.12943695140226918</v>
       </c>
-    </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AG36" s="73">
+        <f>AG21/AG10</f>
+        <v>0.12012365127532476</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G37" s="24">
-        <f t="shared" ref="G37" si="98">G20/G19</f>
+        <f t="shared" ref="G37" si="104">G20/G19</f>
         <v>0.14015748031496078</v>
       </c>
       <c r="H37" s="24">
-        <f t="shared" ref="H37" si="99">H20/H19</f>
+        <f t="shared" ref="H37" si="105">H20/H19</f>
         <v>0.15045135406218627</v>
       </c>
       <c r="I37" s="24">
-        <f t="shared" ref="I37:K37" si="100">I20/I19</f>
+        <f t="shared" ref="I37:K37" si="106">I20/I19</f>
         <v>0.14717273431448508</v>
       </c>
       <c r="J37" s="24">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0.20434432823813364</v>
       </c>
       <c r="K37" s="24">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0.12427930813581037</v>
       </c>
       <c r="L37" s="24">
-        <f t="shared" ref="L37" si="101">L20/L19</f>
+        <f t="shared" ref="L37" si="107">L20/L19</f>
         <v>0.10728582866293031</v>
       </c>
       <c r="M37" s="24">
-        <f t="shared" ref="M37" si="102">M20/M19</f>
+        <f t="shared" ref="M37" si="108">M20/M19</f>
         <v>3.8592508513053389E-2</v>
       </c>
       <c r="N37" s="24">
-        <f t="shared" ref="N37:O37" si="103">N20/N19</f>
+        <f t="shared" ref="N37:O37" si="109">N20/N19</f>
         <v>1.7412935323383082E-2</v>
       </c>
       <c r="O37" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.11486880466472295</v>
       </c>
       <c r="P37" s="24">
@@ -5221,15 +5482,15 @@
         <v>0.18608414239482204</v>
       </c>
       <c r="S37" s="24">
-        <f t="shared" ref="S37:T37" si="104">S20/S19</f>
+        <f t="shared" ref="S37:T37" si="110">S20/S19</f>
         <v>0.11016144349477694</v>
       </c>
       <c r="T37" s="24">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>0.10926049300466348</v>
       </c>
       <c r="U37" s="24">
-        <f t="shared" ref="U37" si="105">U20/U19</f>
+        <f t="shared" ref="U37" si="111">U20/U19</f>
         <v>0.16407185628742516</v>
       </c>
       <c r="V37" s="24">
@@ -5237,21 +5498,25 @@
         <v>-4.7307132459970834E-2</v>
       </c>
       <c r="W37" s="24">
-        <f t="shared" ref="W37:X37" si="106">W20/W19</f>
+        <f t="shared" ref="W37:X37" si="112">W20/W19</f>
         <v>0.19693654266958391</v>
       </c>
       <c r="X37" s="24">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0.19333333333333316</v>
       </c>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
+      <c r="Y37" s="74">
+        <v>0.2</v>
+      </c>
+      <c r="Z37" s="74">
+        <v>0.2</v>
+      </c>
       <c r="AC37" s="24">
-        <f t="shared" ref="AC37" si="107">AC20/AC19</f>
+        <f t="shared" ref="AC37" si="113">AC20/AC19</f>
         <v>0.16079983336804837</v>
       </c>
       <c r="AD37" s="24">
-        <f t="shared" ref="AD37" si="108">AD20/AD19</f>
+        <f t="shared" ref="AD37" si="114">AD20/AD19</f>
         <v>8.6934798900824395E-2</v>
       </c>
       <c r="AE37" s="24">
@@ -5262,13 +5527,17 @@
         <f>AF20/AF19</f>
         <v>9.0963764847391479E-2</v>
       </c>
-    </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AG37" s="73">
+        <f>AG20/AG19</f>
+        <v>0.19797730503101854</v>
+      </c>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B40" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>6</v>
       </c>
@@ -5326,18 +5595,19 @@
       <c r="X41" s="34">
         <v>6490</v>
       </c>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
+      <c r="Y41" s="80"/>
+      <c r="Z41" s="80"/>
       <c r="AE41" s="34">
-        <f t="shared" ref="AE41:AE46" si="109">R41</f>
+        <f t="shared" ref="AE41:AE46" si="115">R41</f>
         <v>9889</v>
       </c>
       <c r="AF41" s="34">
         <f>V41</f>
         <v>8574</v>
       </c>
-    </row>
-    <row r="42" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG41" s="87"/>
+    </row>
+    <row r="42" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>98</v>
       </c>
@@ -5395,18 +5665,19 @@
       <c r="X42" s="34">
         <v>4131</v>
       </c>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
+      <c r="Y42" s="80"/>
+      <c r="Z42" s="80"/>
       <c r="AE42" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>3587</v>
       </c>
       <c r="AF42" s="34">
         <f>V42</f>
         <v>4423</v>
       </c>
-    </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AG42" s="87"/>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>99</v>
       </c>
@@ -5464,10 +5735,10 @@
       <c r="X43" s="35">
         <v>5437</v>
       </c>
-      <c r="Y43" s="35"/>
-      <c r="Z43" s="35"/>
+      <c r="Y43" s="81"/>
+      <c r="Z43" s="81"/>
       <c r="AE43" s="35">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>4463</v>
       </c>
       <c r="AF43" s="35">
@@ -5475,7 +5746,7 @@
         <v>4667</v>
       </c>
     </row>
-    <row r="44" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>100</v>
       </c>
@@ -5533,18 +5804,19 @@
       <c r="X44" s="34">
         <v>9326</v>
       </c>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="34"/>
+      <c r="Y44" s="80"/>
+      <c r="Z44" s="80"/>
       <c r="AE44" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>6854</v>
       </c>
       <c r="AF44" s="34">
         <f>V44</f>
         <v>8420</v>
       </c>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AG44" s="87"/>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>101</v>
       </c>
@@ -5602,105 +5874,105 @@
       <c r="X45" s="35">
         <v>2063</v>
       </c>
-      <c r="Y45" s="35"/>
-      <c r="Z45" s="35"/>
+      <c r="Y45" s="81"/>
+      <c r="Z45" s="81"/>
       <c r="AE45" s="35">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>1498</v>
       </c>
       <c r="AF45" s="35">
-        <f t="shared" ref="AF45:AF51" si="110">V45</f>
+        <f t="shared" ref="AF45:AF51" si="116">V45</f>
         <v>2129</v>
       </c>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>102</v>
       </c>
       <c r="G46" s="19">
-        <f t="shared" ref="G46:L46" si="111">SUM(G41:G45)</f>
+        <f t="shared" ref="G46:L46" si="117">SUM(G41:G45)</f>
         <v>15501</v>
       </c>
       <c r="H46" s="19">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>15566</v>
       </c>
       <c r="I46" s="19">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>15796</v>
       </c>
       <c r="J46" s="19">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>16525</v>
       </c>
       <c r="K46" s="19">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>16228</v>
       </c>
       <c r="L46" s="19">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>16369</v>
       </c>
       <c r="M46" s="19">
-        <f t="shared" ref="M46:X46" si="112">SUM(M41:M45)</f>
+        <f t="shared" ref="M46:X46" si="118">SUM(M41:M45)</f>
         <v>15744</v>
       </c>
       <c r="N46" s="19">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>20646</v>
       </c>
       <c r="O46" s="19">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>21937</v>
       </c>
       <c r="P46" s="35">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>23607</v>
       </c>
       <c r="Q46" s="35">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>24700</v>
       </c>
       <c r="R46" s="35">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>26291</v>
       </c>
       <c r="S46" s="35">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>26390</v>
       </c>
       <c r="T46" s="35">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>27177</v>
       </c>
       <c r="U46" s="35">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>26962</v>
       </c>
       <c r="V46" s="35">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>28213</v>
       </c>
       <c r="W46" s="35">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>28877</v>
       </c>
       <c r="X46" s="35">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>27447</v>
       </c>
-      <c r="Y46" s="35"/>
-      <c r="Z46" s="35"/>
+      <c r="Y46" s="81"/>
+      <c r="Z46" s="81"/>
       <c r="AE46" s="35">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>26291</v>
       </c>
       <c r="AF46" s="35">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>28213</v>
       </c>
     </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>103</v>
       </c>
@@ -5758,18 +6030,18 @@
       <c r="X47" s="35">
         <v>4854</v>
       </c>
-      <c r="Y47" s="35"/>
-      <c r="Z47" s="35"/>
+      <c r="Y47" s="81"/>
+      <c r="Z47" s="81"/>
       <c r="AE47" s="35">
-        <f t="shared" ref="AE47:AE50" si="113">R47</f>
+        <f t="shared" ref="AE47:AE50" si="119">R47</f>
         <v>4904</v>
       </c>
       <c r="AF47" s="35">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>4791</v>
       </c>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>104</v>
       </c>
@@ -5827,18 +6099,18 @@
       <c r="X48" s="35">
         <v>2809</v>
       </c>
-      <c r="Y48" s="35"/>
-      <c r="Z48" s="35"/>
+      <c r="Y48" s="81"/>
+      <c r="Z48" s="81"/>
       <c r="AE48" s="35">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>3113</v>
       </c>
       <c r="AF48" s="35">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>2926</v>
       </c>
     </row>
-    <row r="49" spans="2:32" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:33" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="35" t="s">
         <v>105</v>
       </c>
@@ -5914,16 +6186,19 @@
         <f>280+281</f>
         <v>561</v>
       </c>
+      <c r="Y49" s="81"/>
+      <c r="Z49" s="81"/>
       <c r="AE49" s="35">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>511</v>
       </c>
       <c r="AF49" s="35">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>570</v>
       </c>
-    </row>
-    <row r="50" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AG49" s="81"/>
+    </row>
+    <row r="50" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>106</v>
       </c>
@@ -5981,105 +6256,105 @@
       <c r="X50" s="35">
         <v>3976</v>
       </c>
-      <c r="Y50" s="35"/>
-      <c r="Z50" s="35"/>
+      <c r="Y50" s="81"/>
+      <c r="Z50" s="81"/>
       <c r="AE50" s="35">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>2921</v>
       </c>
       <c r="AF50" s="35">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>3821</v>
       </c>
     </row>
-    <row r="51" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>107</v>
       </c>
       <c r="G51" s="19">
-        <f t="shared" ref="G51:L51" si="114">G46+SUM(G47:G50)</f>
+        <f t="shared" ref="G51:L51" si="120">G46+SUM(G47:G50)</f>
         <v>22483</v>
       </c>
       <c r="H51" s="19">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>22677</v>
       </c>
       <c r="I51" s="19">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>22921</v>
       </c>
       <c r="J51" s="19">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>23717</v>
       </c>
       <c r="K51" s="19">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>26249</v>
       </c>
       <c r="L51" s="19">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>26602</v>
       </c>
       <c r="M51" s="19">
-        <f t="shared" ref="M51:X51" si="115">M46+SUM(M47:M50)</f>
+        <f t="shared" ref="M51:X51" si="121">M46+SUM(M47:M50)</f>
         <v>26220</v>
       </c>
       <c r="N51" s="19">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>31452</v>
       </c>
       <c r="O51" s="19">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>33258</v>
       </c>
       <c r="P51" s="35">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>34836</v>
       </c>
       <c r="Q51" s="35">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>36185</v>
       </c>
       <c r="R51" s="35">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>37740</v>
       </c>
       <c r="S51" s="35">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>37917</v>
       </c>
       <c r="T51" s="35">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>38917</v>
       </c>
       <c r="U51" s="35">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>38577</v>
       </c>
       <c r="V51" s="35">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>40321</v>
       </c>
       <c r="W51" s="35">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>41088</v>
       </c>
       <c r="X51" s="35">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>39647</v>
       </c>
-      <c r="Y51" s="35"/>
-      <c r="Z51" s="35"/>
+      <c r="Y51" s="81"/>
+      <c r="Z51" s="81"/>
       <c r="AE51" s="35">
         <f>R51</f>
         <v>37740</v>
       </c>
       <c r="AF51" s="35">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>40321</v>
       </c>
     </row>
-    <row r="52" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:33" x14ac:dyDescent="0.15">
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -6098,7 +6373,7 @@
       <c r="V52" s="35"/>
       <c r="W52" s="35"/>
     </row>
-    <row r="53" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>108</v>
       </c>
@@ -6156,18 +6431,19 @@
       <c r="X53" s="34">
         <v>500</v>
       </c>
-      <c r="Y53" s="34"/>
-      <c r="Z53" s="34"/>
+      <c r="Y53" s="80"/>
+      <c r="Z53" s="80"/>
       <c r="AE53" s="34">
         <f>R53</f>
         <v>0</v>
       </c>
       <c r="AF53" s="34">
-        <f t="shared" ref="AF53:AF54" si="116">V53</f>
+        <f t="shared" ref="AF53:AF54" si="122">V53</f>
         <v>500</v>
       </c>
-    </row>
-    <row r="54" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG53" s="87"/>
+    </row>
+    <row r="54" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>109</v>
       </c>
@@ -6225,18 +6501,19 @@
       <c r="X54" s="34">
         <v>7</v>
       </c>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="34"/>
+      <c r="Y54" s="80"/>
+      <c r="Z54" s="80"/>
       <c r="AE54" s="34">
         <f>R54</f>
         <v>2</v>
       </c>
       <c r="AF54" s="34">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AG54" s="87"/>
+    </row>
+    <row r="55" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>110</v>
       </c>
@@ -6294,18 +6571,18 @@
       <c r="X55" s="35">
         <v>2810</v>
       </c>
-      <c r="Y55" s="35"/>
-      <c r="Z55" s="35"/>
+      <c r="Y55" s="81"/>
+      <c r="Z55" s="81"/>
       <c r="AE55" s="35">
-        <f t="shared" ref="AE55:AE58" si="117">R55</f>
+        <f t="shared" ref="AE55:AE58" si="123">R55</f>
         <v>2836</v>
       </c>
       <c r="AF55" s="35">
-        <f t="shared" ref="AF55:AF59" si="118">V55</f>
+        <f t="shared" ref="AF55:AF59" si="124">V55</f>
         <v>3358</v>
       </c>
     </row>
-    <row r="56" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>111</v>
       </c>
@@ -6363,18 +6640,18 @@
       <c r="X56" s="35">
         <v>426</v>
       </c>
-      <c r="Y56" s="35"/>
-      <c r="Z56" s="35"/>
+      <c r="Y56" s="81"/>
+      <c r="Z56" s="81"/>
       <c r="AE56" s="35">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>467</v>
       </c>
       <c r="AF56" s="35">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>420</v>
       </c>
     </row>
-    <row r="57" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>112</v>
       </c>
@@ -6432,18 +6709,18 @@
       <c r="X57" s="35">
         <v>6020</v>
       </c>
-      <c r="Y57" s="35"/>
-      <c r="Z57" s="35"/>
+      <c r="Y57" s="81"/>
+      <c r="Z57" s="81"/>
       <c r="AE57" s="35">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>6063</v>
       </c>
       <c r="AF57" s="35">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>6220</v>
       </c>
     </row>
-    <row r="58" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>113</v>
       </c>
@@ -6501,105 +6778,105 @@
       <c r="X58" s="35">
         <v>436</v>
       </c>
-      <c r="Y58" s="35"/>
-      <c r="Z58" s="35"/>
+      <c r="Y58" s="81"/>
+      <c r="Z58" s="81"/>
       <c r="AE58" s="35">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>306</v>
       </c>
       <c r="AF58" s="35">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>222</v>
       </c>
     </row>
-    <row r="59" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>114</v>
       </c>
       <c r="G59" s="19">
-        <f t="shared" ref="G59:L59" si="119">SUM(G53:G58)</f>
+        <f t="shared" ref="G59:L59" si="125">SUM(G53:G58)</f>
         <v>6708</v>
       </c>
       <c r="H59" s="19">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>7278</v>
       </c>
       <c r="I59" s="19">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>7281</v>
       </c>
       <c r="J59" s="19">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>7866</v>
       </c>
       <c r="K59" s="19">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>8070</v>
       </c>
       <c r="L59" s="19">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>8264</v>
       </c>
       <c r="M59" s="19">
-        <f t="shared" ref="M59:X59" si="120">SUM(M53:M58)</f>
+        <f t="shared" ref="M59:X59" si="126">SUM(M53:M58)</f>
         <v>8280</v>
       </c>
       <c r="N59" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>8284</v>
       </c>
       <c r="O59" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>8619</v>
       </c>
       <c r="P59" s="35">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>8871</v>
       </c>
       <c r="Q59" s="35">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>8894</v>
       </c>
       <c r="R59" s="35">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>9674</v>
       </c>
       <c r="S59" s="35">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>8269</v>
       </c>
       <c r="T59" s="35">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>8857</v>
       </c>
       <c r="U59" s="35">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>8818</v>
       </c>
       <c r="V59" s="35">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>10730</v>
       </c>
       <c r="W59" s="35">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>10919</v>
       </c>
       <c r="X59" s="35">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>10199</v>
       </c>
-      <c r="Y59" s="35"/>
-      <c r="Z59" s="35"/>
+      <c r="Y59" s="81"/>
+      <c r="Z59" s="81"/>
       <c r="AE59" s="35">
         <f>R59</f>
         <v>9674</v>
       </c>
       <c r="AF59" s="35">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>10730</v>
       </c>
     </row>
-    <row r="60" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>115</v>
       </c>
@@ -6657,8 +6934,8 @@
       <c r="X60" s="34">
         <v>8924</v>
       </c>
-      <c r="Y60" s="34"/>
-      <c r="Z60" s="34"/>
+      <c r="Y60" s="80"/>
+      <c r="Z60" s="80"/>
       <c r="AE60" s="34">
         <f>R60</f>
         <v>9413</v>
@@ -6667,8 +6944,9 @@
         <f>V60</f>
         <v>8920</v>
       </c>
-    </row>
-    <row r="61" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AG60" s="87"/>
+    </row>
+    <row r="61" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>116</v>
       </c>
@@ -6726,18 +7004,18 @@
       <c r="X61" s="35">
         <v>2668</v>
       </c>
-      <c r="Y61" s="35"/>
-      <c r="Z61" s="35"/>
+      <c r="Y61" s="81"/>
+      <c r="Z61" s="81"/>
       <c r="AE61" s="35">
-        <f t="shared" ref="AE61:AE63" si="121">R61</f>
+        <f t="shared" ref="AE61:AE63" si="127">R61</f>
         <v>2931</v>
       </c>
       <c r="AF61" s="35">
-        <f t="shared" ref="AF61:AF64" si="122">V61</f>
+        <f t="shared" ref="AF61:AF64" si="128">V61</f>
         <v>2777</v>
       </c>
     </row>
-    <row r="62" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>117</v>
       </c>
@@ -6795,18 +7073,18 @@
       <c r="X62" s="35">
         <v>2584</v>
       </c>
-      <c r="Y62" s="35"/>
-      <c r="Z62" s="35"/>
+      <c r="Y62" s="81"/>
+      <c r="Z62" s="81"/>
       <c r="AE62" s="35">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>2955</v>
       </c>
       <c r="AF62" s="35">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>2613</v>
       </c>
     </row>
-    <row r="63" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>118</v>
       </c>
@@ -6864,105 +7142,105 @@
       <c r="X63" s="35">
         <v>0</v>
       </c>
-      <c r="Y63" s="35"/>
-      <c r="Z63" s="35"/>
+      <c r="Y63" s="81"/>
+      <c r="Z63" s="81"/>
       <c r="AE63" s="35">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AF63" s="35">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>119</v>
       </c>
       <c r="G64" s="19">
-        <f t="shared" ref="G64:L64" si="123">G59+SUM(G60:G63)</f>
+        <f t="shared" ref="G64:L64" si="129">G59+SUM(G60:G63)</f>
         <v>13491</v>
       </c>
       <c r="H64" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>13948</v>
       </c>
       <c r="I64" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>13960</v>
       </c>
       <c r="J64" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>14677</v>
       </c>
       <c r="K64" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>17049</v>
       </c>
       <c r="L64" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>17251</v>
       </c>
       <c r="M64" s="19">
-        <f t="shared" ref="M64:X64" si="124">M59+SUM(M60:M63)</f>
+        <f t="shared" ref="M64:X64" si="130">M59+SUM(M60:M63)</f>
         <v>17175</v>
       </c>
       <c r="N64" s="19">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>23287</v>
       </c>
       <c r="O64" s="19">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>24034</v>
       </c>
       <c r="P64" s="35">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>24196</v>
       </c>
       <c r="Q64" s="35">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>24254</v>
       </c>
       <c r="R64" s="35">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>24973</v>
       </c>
       <c r="S64" s="35">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>23574</v>
       </c>
       <c r="T64" s="35">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>23993</v>
       </c>
       <c r="U64" s="35">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>23768</v>
       </c>
       <c r="V64" s="35">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>25040</v>
       </c>
       <c r="W64" s="35">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>25266</v>
       </c>
       <c r="X64" s="35">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>24375</v>
       </c>
-      <c r="Y64" s="35"/>
-      <c r="Z64" s="35"/>
+      <c r="Y64" s="81"/>
+      <c r="Z64" s="81"/>
       <c r="AE64" s="35">
         <f>R64</f>
         <v>24973</v>
       </c>
       <c r="AF64" s="35">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>25040</v>
       </c>
     </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:33" x14ac:dyDescent="0.15">
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="19"/>
@@ -6979,7 +7257,7 @@
       <c r="U65" s="35"/>
       <c r="V65" s="35"/>
     </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>120</v>
       </c>
@@ -7037,8 +7315,8 @@
       <c r="X66" s="35">
         <v>15272</v>
       </c>
-      <c r="Y66" s="35"/>
-      <c r="Z66" s="35"/>
+      <c r="Y66" s="81"/>
+      <c r="Z66" s="81"/>
       <c r="AE66" s="35">
         <f>R66</f>
         <v>12767</v>
@@ -7047,84 +7325,84 @@
         <v>15281</v>
       </c>
     </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>121</v>
       </c>
       <c r="G67" s="19">
-        <f t="shared" ref="G67:X67" si="125">G66+G64</f>
+        <f t="shared" ref="G67:X67" si="131">G66+G64</f>
         <v>22483</v>
       </c>
       <c r="H67" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>22677</v>
       </c>
       <c r="I67" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>22921</v>
       </c>
       <c r="J67" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>23717</v>
       </c>
       <c r="K67" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>26249</v>
       </c>
       <c r="L67" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>26602</v>
       </c>
       <c r="M67" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>26220</v>
       </c>
       <c r="N67" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>31342</v>
       </c>
       <c r="O67" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>33258</v>
       </c>
       <c r="P67" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>34836</v>
       </c>
       <c r="Q67" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>36185</v>
       </c>
       <c r="R67" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>37740</v>
       </c>
       <c r="S67" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>37917</v>
       </c>
       <c r="T67" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>38917</v>
       </c>
       <c r="U67" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>38577</v>
       </c>
       <c r="V67" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>40321</v>
       </c>
       <c r="W67" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>41088</v>
       </c>
       <c r="X67" s="35">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>39647</v>
       </c>
-      <c r="Y67" s="35"/>
-      <c r="Z67" s="35"/>
+      <c r="Y67" s="81"/>
+      <c r="Z67" s="81"/>
       <c r="AE67" s="35">
         <f>AE66+AE64</f>
         <v>37740</v>
@@ -7134,7 +7412,7 @@
         <v>40321</v>
       </c>
     </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:33" x14ac:dyDescent="0.15">
       <c r="I68" s="19"/>
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
@@ -7150,84 +7428,84 @@
       <c r="V68" s="35"/>
       <c r="AF68" s="35"/>
     </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
         <v>122</v>
       </c>
       <c r="G69" s="19">
-        <f t="shared" ref="G69:V69" si="126">G51-G64</f>
+        <f t="shared" ref="G69:V69" si="132">G51-G64</f>
         <v>8992</v>
       </c>
       <c r="H69" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>8729</v>
       </c>
       <c r="I69" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>8961</v>
       </c>
       <c r="J69" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>9040</v>
       </c>
       <c r="K69" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>9200</v>
       </c>
       <c r="L69" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>9351</v>
       </c>
       <c r="M69" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>9045</v>
       </c>
       <c r="N69" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>8165</v>
       </c>
       <c r="O69" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>9224</v>
       </c>
       <c r="P69" s="35">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>10640</v>
       </c>
       <c r="Q69" s="35">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>11931</v>
       </c>
       <c r="R69" s="35">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>12767</v>
       </c>
       <c r="S69" s="35">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>14343</v>
       </c>
       <c r="T69" s="35">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>14924</v>
       </c>
       <c r="U69" s="35">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>14809</v>
       </c>
       <c r="V69" s="35">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>15281</v>
       </c>
       <c r="W69" s="35">
-        <f t="shared" ref="W69:X69" si="127">W51-W64</f>
+        <f t="shared" ref="W69:X69" si="133">W51-W64</f>
         <v>15822</v>
       </c>
       <c r="X69" s="35">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>15272</v>
       </c>
-      <c r="Y69" s="35"/>
-      <c r="Z69" s="35"/>
+      <c r="Y69" s="81"/>
+      <c r="Z69" s="81"/>
       <c r="AE69" s="35">
         <f>AE51-AE64</f>
         <v>12767</v>
@@ -7237,84 +7515,84 @@
         <v>15281</v>
       </c>
     </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>123</v>
       </c>
       <c r="G70" s="19">
-        <f t="shared" ref="G70:V70" si="128">G69/G23</f>
+        <f t="shared" ref="G70:V70" si="134">G69/G23</f>
         <v>5.6411543287327479</v>
       </c>
       <c r="H70" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>5.519792588845327</v>
       </c>
       <c r="I70" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>5.6974821973550354</v>
       </c>
       <c r="J70" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>5.7572283785505025</v>
       </c>
       <c r="K70" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>5.888376856118791</v>
       </c>
       <c r="L70" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>5.9919261822376013</v>
       </c>
       <c r="M70" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>5.8118614662982715</v>
       </c>
       <c r="N70" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>5.2484412161727834</v>
       </c>
       <c r="O70" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>5.9060058906390065</v>
       </c>
       <c r="P70" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>6.7641449459631282</v>
       </c>
       <c r="Q70" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>7.5608365019011403</v>
       </c>
       <c r="R70" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>8.0854971500949961</v>
       </c>
       <c r="S70" s="39">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>9.0669448131993171</v>
       </c>
       <c r="T70" s="39">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>9.4515516149461689</v>
       </c>
       <c r="U70" s="39">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>9.3787207093096896</v>
       </c>
       <c r="V70" s="39">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>9.7207379134860048</v>
       </c>
       <c r="W70" s="39">
-        <f t="shared" ref="W70:X70" si="129">W69/W23</f>
+        <f t="shared" ref="W70:X70" si="135">W69/W23</f>
         <v>10.096356326973391</v>
       </c>
       <c r="X70" s="39">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>9.7960230917254645</v>
       </c>
-      <c r="Y70" s="39"/>
-      <c r="Z70" s="39"/>
+      <c r="Y70" s="82"/>
+      <c r="Z70" s="82"/>
       <c r="AE70" s="39">
         <f>AE69/AE23</f>
         <v>8.1165962045837432</v>
@@ -7324,7 +7602,7 @@
         <v>9.6839303537762014</v>
       </c>
     </row>
-    <row r="72" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:33" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B72" s="32" t="s">
         <v>124</v>
       </c>
@@ -7357,53 +7635,54 @@
         <v>0.31038776236214871</v>
       </c>
       <c r="O72" s="33">
-        <f t="shared" ref="O72:P72" si="130">O44/K44-1</f>
+        <f t="shared" ref="O72:P72" si="136">O44/K44-1</f>
         <v>0.14910025706940866</v>
       </c>
       <c r="P72" s="33">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>-1.7583481206646212E-2</v>
       </c>
       <c r="Q72" s="33">
-        <f t="shared" ref="Q72:V72" si="131">Q44/M44-1</f>
+        <f t="shared" ref="Q72:V72" si="137">Q44/M44-1</f>
         <v>0.15257447907697608</v>
       </c>
       <c r="R72" s="33">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>-6.963485815121484E-2</v>
       </c>
       <c r="S72" s="33">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>-8.9485458612970081E-4</v>
       </c>
       <c r="T72" s="33">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>6.8308702791461506E-2</v>
       </c>
       <c r="U72" s="33">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>0.15045569998505903</v>
       </c>
       <c r="V72" s="33">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>0.22847971987160776</v>
       </c>
       <c r="W72" s="33">
-        <f t="shared" ref="W72" si="132">W44/S44-1</f>
+        <f t="shared" ref="W72" si="138">W44/S44-1</f>
         <v>0.44230482161516638</v>
       </c>
       <c r="X72" s="33">
-        <f t="shared" ref="X72" si="133">X44/T44-1</f>
+        <f t="shared" ref="X72" si="139">X44/T44-1</f>
         <v>0.43344604980018442</v>
       </c>
-      <c r="Y72" s="33"/>
-      <c r="Z72" s="33"/>
+      <c r="Y72" s="73"/>
+      <c r="Z72" s="73"/>
       <c r="AF72" s="33">
         <f>AF44/AE44-1</f>
         <v>0.22847971987160776</v>
       </c>
-    </row>
-    <row r="73" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG72" s="77"/>
+    </row>
+    <row r="73" spans="2:33" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B73" s="32" t="s">
         <v>125</v>
       </c>
@@ -7411,89 +7690,90 @@
         <v>135</v>
       </c>
       <c r="H73" s="33">
-        <f t="shared" ref="H73:V73" si="134">H44/G44-1</f>
+        <f t="shared" ref="H73:V73" si="140">H44/G44-1</f>
         <v>3.0801607040367385E-2</v>
       </c>
       <c r="I73" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>5.0111358574609355E-3</v>
       </c>
       <c r="J73" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>3.8227146814404422E-2</v>
       </c>
       <c r="K73" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>3.7886872998932786E-2</v>
       </c>
       <c r="L73" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>6.2382176520993982E-2</v>
       </c>
       <c r="M73" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>-6.3236005807388307E-2</v>
       </c>
       <c r="N73" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>0.26864129498880662</v>
       </c>
       <c r="O73" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>-8.9860187321840646E-2</v>
       </c>
       <c r="P73" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>-9.1722595078299829E-2</v>
       </c>
       <c r="Q73" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>9.9014778325123176E-2</v>
       </c>
       <c r="R73" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>2.405498281786933E-2</v>
       </c>
       <c r="S73" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>-2.2614531660344328E-2</v>
       </c>
       <c r="T73" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>-2.8810270189580489E-2</v>
       </c>
       <c r="U73" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>0.18352290193667375</v>
       </c>
       <c r="V73" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>9.3506493506493538E-2</v>
       </c>
       <c r="W73" s="33">
-        <f t="shared" ref="W73" si="135">W44/V44-1</f>
+        <f t="shared" ref="W73" si="141">W44/V44-1</f>
         <v>0.14750593824228031</v>
       </c>
       <c r="X73" s="33">
-        <f t="shared" ref="X73" si="136">X44/W44-1</f>
+        <f t="shared" ref="X73" si="142">X44/W44-1</f>
         <v>-3.477540881805008E-2</v>
       </c>
-      <c r="Y73" s="33"/>
-      <c r="Z73" s="33"/>
+      <c r="Y73" s="73"/>
+      <c r="Z73" s="73"/>
       <c r="AF73" s="23" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="75" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG73" s="77"/>
+    </row>
+    <row r="75" spans="2:33" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B75" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G75" s="45">
-        <f t="shared" ref="G75" si="137">G41+G42</f>
+        <f t="shared" ref="G75" si="143">G41+G42</f>
         <v>4269</v>
       </c>
       <c r="H75" s="45">
-        <f t="shared" ref="H75" si="138">H41+H42</f>
+        <f t="shared" ref="H75" si="144">H41+H42</f>
         <v>4041</v>
       </c>
       <c r="I75" s="45">
@@ -7505,11 +7785,11 @@
         <v>4663</v>
       </c>
       <c r="K75" s="45">
-        <f t="shared" ref="K75" si="139">K41+K42</f>
+        <f t="shared" ref="K75" si="145">K41+K42</f>
         <v>3644</v>
       </c>
       <c r="L75" s="45">
-        <f t="shared" ref="L75" si="140">L41+L42</f>
+        <f t="shared" ref="L75" si="146">L41+L42</f>
         <v>3502</v>
       </c>
       <c r="M75" s="45">
@@ -7525,62 +7805,63 @@
         <v>9480</v>
       </c>
       <c r="P75" s="45">
-        <f t="shared" ref="P75:V75" si="141">P41+P42</f>
+        <f t="shared" ref="P75:V75" si="147">P41+P42</f>
         <v>11812</v>
       </c>
       <c r="Q75" s="45">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>12528</v>
       </c>
       <c r="R75" s="45">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>13476</v>
       </c>
       <c r="S75" s="45">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>13695</v>
       </c>
       <c r="T75" s="45">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>15103</v>
       </c>
       <c r="U75" s="45">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>13467</v>
       </c>
       <c r="V75" s="45">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>12997</v>
       </c>
       <c r="W75" s="45">
-        <f t="shared" ref="W75:X75" si="142">W41+W42</f>
+        <f t="shared" ref="W75:X75" si="148">W41+W42</f>
         <v>11876</v>
       </c>
       <c r="X75" s="45">
-        <f t="shared" si="142"/>
+        <f t="shared" si="148"/>
         <v>10621</v>
       </c>
-      <c r="Y75" s="45"/>
-      <c r="Z75" s="45"/>
+      <c r="Y75" s="75"/>
+      <c r="Z75" s="75"/>
       <c r="AE75" s="49">
-        <f>U75</f>
+        <f t="shared" ref="AE75:AF77" si="149">U75</f>
         <v>13467</v>
       </c>
       <c r="AF75" s="49">
-        <f>V75</f>
+        <f t="shared" si="149"/>
         <v>12997</v>
       </c>
-    </row>
-    <row r="76" spans="2:32" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AG75" s="77"/>
+    </row>
+    <row r="76" spans="2:33" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B76" s="32" t="s">
         <v>7</v>
       </c>
       <c r="G76" s="45">
-        <f t="shared" ref="G76" si="143">G53+G54+G60</f>
+        <f t="shared" ref="G76" si="150">G53+G54+G60</f>
         <v>3486</v>
       </c>
       <c r="H76" s="45">
-        <f t="shared" ref="H76" si="144">H53+H54+H60</f>
+        <f t="shared" ref="H76" si="151">H53+H54+H60</f>
         <v>3481</v>
       </c>
       <c r="I76" s="45">
@@ -7592,11 +7873,11 @@
         <v>3479</v>
       </c>
       <c r="K76" s="45">
-        <f t="shared" ref="K76" si="145">K53+K54+K60</f>
+        <f t="shared" ref="K76" si="152">K53+K54+K60</f>
         <v>3719</v>
       </c>
       <c r="L76" s="45">
-        <f t="shared" ref="L76" si="146">L53+L54+L60</f>
+        <f t="shared" ref="L76" si="153">L53+L54+L60</f>
         <v>3768</v>
       </c>
       <c r="M76" s="45">
@@ -7612,62 +7893,63 @@
         <v>9546</v>
       </c>
       <c r="P76" s="45">
-        <f t="shared" ref="P76:V76" si="147">P53+P54+P60</f>
+        <f t="shared" ref="P76:V76" si="154">P53+P54+P60</f>
         <v>9451</v>
       </c>
       <c r="Q76" s="45">
-        <f t="shared" si="147"/>
+        <f t="shared" si="154"/>
         <v>9416</v>
       </c>
       <c r="R76" s="45">
-        <f t="shared" si="147"/>
+        <f t="shared" si="154"/>
         <v>9415</v>
       </c>
       <c r="S76" s="45">
-        <f t="shared" si="147"/>
+        <f t="shared" si="154"/>
         <v>9430</v>
       </c>
       <c r="T76" s="45">
-        <f t="shared" si="147"/>
+        <f t="shared" si="154"/>
         <v>9426</v>
       </c>
       <c r="U76" s="45">
-        <f t="shared" si="147"/>
+        <f t="shared" si="154"/>
         <v>9418</v>
       </c>
       <c r="V76" s="45">
-        <f t="shared" si="147"/>
+        <f t="shared" si="154"/>
         <v>9430</v>
       </c>
       <c r="W76" s="45">
-        <f t="shared" ref="W76:X76" si="148">W53+W54+W60</f>
+        <f t="shared" ref="W76:X76" si="155">W53+W54+W60</f>
         <v>9431</v>
       </c>
       <c r="X76" s="45">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>9431</v>
       </c>
-      <c r="Y76" s="45"/>
-      <c r="Z76" s="45"/>
+      <c r="Y76" s="75"/>
+      <c r="Z76" s="75"/>
       <c r="AE76" s="49">
-        <f>U76</f>
+        <f t="shared" si="149"/>
         <v>9418</v>
       </c>
       <c r="AF76" s="49">
-        <f>V76</f>
+        <f t="shared" si="149"/>
         <v>9430</v>
       </c>
-    </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AG76" s="77"/>
+    </row>
+    <row r="77" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G77" s="19">
-        <f t="shared" ref="G77:H77" si="149">G75-G76</f>
+        <f t="shared" ref="G77:H77" si="156">G75-G76</f>
         <v>783</v>
       </c>
       <c r="H77" s="19">
-        <f t="shared" si="149"/>
+        <f t="shared" si="156"/>
         <v>560</v>
       </c>
       <c r="I77" s="19">
@@ -7679,11 +7961,11 @@
         <v>1184</v>
       </c>
       <c r="K77" s="19">
-        <f t="shared" ref="K77" si="150">K75-K76</f>
+        <f t="shared" ref="K77" si="157">K75-K76</f>
         <v>-75</v>
       </c>
       <c r="L77" s="19">
-        <f t="shared" ref="L77" si="151">L75-L76</f>
+        <f t="shared" ref="L77" si="158">L75-L76</f>
         <v>-266</v>
       </c>
       <c r="M77" s="19">
@@ -7699,56 +7981,56 @@
         <v>-66</v>
       </c>
       <c r="P77" s="19">
-        <f t="shared" ref="P77:V77" si="152">P75-P76</f>
+        <f t="shared" ref="P77:V77" si="159">P75-P76</f>
         <v>2361</v>
       </c>
       <c r="Q77" s="19">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>3112</v>
       </c>
       <c r="R77" s="19">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>4061</v>
       </c>
       <c r="S77" s="19">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>4265</v>
       </c>
       <c r="T77" s="19">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>5677</v>
       </c>
       <c r="U77" s="19">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>4049</v>
       </c>
       <c r="V77" s="19">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>3567</v>
       </c>
       <c r="W77" s="19">
-        <f t="shared" ref="W77:X77" si="153">W75-W76</f>
+        <f t="shared" ref="W77:X77" si="160">W75-W76</f>
         <v>2445</v>
       </c>
       <c r="X77" s="19">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>1190</v>
       </c>
-      <c r="Y77" s="19"/>
-      <c r="Z77" s="19"/>
+      <c r="Y77" s="75"/>
+      <c r="Z77" s="75"/>
       <c r="AE77" s="49">
-        <f>U77</f>
+        <f t="shared" si="149"/>
         <v>4049</v>
       </c>
       <c r="AF77" s="49">
-        <f>V77</f>
+        <f t="shared" si="149"/>
         <v>3567</v>
       </c>
     </row>
-    <row r="78" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:33" x14ac:dyDescent="0.15">
       <c r="AE78" s="49"/>
     </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B79" s="1" t="s">
         <v>137</v>
       </c>
@@ -7807,15 +8089,15 @@
         <v>109.35</v>
       </c>
       <c r="AE79" s="49">
-        <f t="shared" ref="AE79" si="154">U79</f>
+        <f t="shared" ref="AE79" si="161">U79</f>
         <v>136.55000000000001</v>
       </c>
       <c r="AF79" s="49">
-        <f t="shared" ref="AF79" si="155">V79</f>
+        <f t="shared" ref="AF79" si="162">V79</f>
         <v>118.85</v>
       </c>
     </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
         <v>138</v>
       </c>
@@ -7824,85 +8106,85 @@
         <v>131026.8</v>
       </c>
       <c r="H80" s="19">
-        <f t="shared" ref="H80:V80" si="156">H79*H23</f>
+        <f t="shared" ref="H80:V80" si="163">H79*H23</f>
         <v>115015.22200000001</v>
       </c>
       <c r="I80" s="19">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>134836.144</v>
       </c>
       <c r="J80" s="19">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>122412.79199999999</v>
       </c>
       <c r="K80" s="19">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>132022.80000000002</v>
       </c>
       <c r="L80" s="19">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>145900.49399999998</v>
       </c>
       <c r="M80" s="19">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>139102.09399999998</v>
       </c>
       <c r="N80" s="19">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>153360.90599999999</v>
       </c>
       <c r="O80" s="19">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>174749.802</v>
       </c>
       <c r="P80" s="19">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>211883.09999999998</v>
       </c>
       <c r="Q80" s="19">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>220273.02000000002</v>
       </c>
       <c r="R80" s="19">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>212391.28999999998</v>
       </c>
       <c r="S80" s="19">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>258893.75400000002</v>
       </c>
       <c r="T80" s="19">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>260124.46000000002</v>
       </c>
       <c r="U80" s="19">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>215612.45</v>
       </c>
       <c r="V80" s="19">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>186832.19999999998</v>
       </c>
       <c r="W80" s="19">
-        <f t="shared" ref="W80:X80" si="157">W79*W23</f>
+        <f t="shared" ref="W80:X80" si="164">W79*W23</f>
         <v>166817.79499999998</v>
       </c>
       <c r="X80" s="19">
-        <f t="shared" si="157"/>
+        <f t="shared" si="164"/>
         <v>170476.65</v>
       </c>
-      <c r="Y80" s="19"/>
-      <c r="Z80" s="19"/>
+      <c r="Y80" s="75"/>
+      <c r="Z80" s="75"/>
       <c r="AE80" s="19">
-        <f t="shared" ref="AE80" si="158">AE79*AE23</f>
+        <f t="shared" ref="AE80" si="165">AE79*AE23</f>
         <v>214786.32250000004</v>
       </c>
       <c r="AF80" s="19">
-        <f t="shared" ref="AF80" si="159">AF79*AF23</f>
+        <f t="shared" ref="AF80" si="166">AF79*AF23</f>
         <v>187542.32874999999</v>
       </c>
     </row>
-    <row r="81" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:33" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B81" s="32" t="s">
         <v>9</v>
       </c>
@@ -7911,85 +8193,86 @@
         <v>130243.8</v>
       </c>
       <c r="H81" s="45">
-        <f t="shared" ref="H81:V81" si="160">H80-H77</f>
+        <f t="shared" ref="H81:V81" si="167">H80-H77</f>
         <v>114455.22200000001</v>
       </c>
       <c r="I81" s="45">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>134277.144</v>
       </c>
       <c r="J81" s="45">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>121228.79199999999</v>
       </c>
       <c r="K81" s="45">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>132097.80000000002</v>
       </c>
       <c r="L81" s="45">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>146166.49399999998</v>
       </c>
       <c r="M81" s="45">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>139396.09399999998</v>
       </c>
       <c r="N81" s="45">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>154140.90599999999</v>
       </c>
       <c r="O81" s="45">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>174815.802</v>
       </c>
       <c r="P81" s="45">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>209522.09999999998</v>
       </c>
       <c r="Q81" s="45">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>217161.02000000002</v>
       </c>
       <c r="R81" s="45">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>208330.28999999998</v>
       </c>
       <c r="S81" s="45">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>254628.75400000002</v>
       </c>
       <c r="T81" s="45">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>254447.46000000002</v>
       </c>
       <c r="U81" s="45">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>211563.45</v>
       </c>
       <c r="V81" s="45">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>183265.19999999998</v>
       </c>
       <c r="W81" s="45">
-        <f t="shared" ref="W81:X81" si="161">W80-W77</f>
+        <f t="shared" ref="W81:X81" si="168">W80-W77</f>
         <v>164372.79499999998</v>
       </c>
       <c r="X81" s="45">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>169286.65</v>
       </c>
-      <c r="Y81" s="45"/>
-      <c r="Z81" s="45"/>
+      <c r="Y81" s="75"/>
+      <c r="Z81" s="75"/>
       <c r="AE81" s="45">
-        <f t="shared" ref="AE81" si="162">AE80-AE77</f>
+        <f t="shared" ref="AE81" si="169">AE80-AE77</f>
         <v>210737.32250000004</v>
       </c>
       <c r="AF81" s="45">
-        <f t="shared" ref="AF81" si="163">AF80-AF77</f>
+        <f t="shared" ref="AF81" si="170">AF80-AF77</f>
         <v>183975.32874999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AG81" s="77"/>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A83" s="55">
         <f>AVERAGE(G83:X83)</f>
         <v>47.910587909517659</v>
@@ -7998,67 +8281,67 @@
         <v>127</v>
       </c>
       <c r="G83" s="50">
-        <f t="shared" ref="G83:V83" si="164">G79/(SUM(D22:G22)*1000)</f>
+        <f t="shared" ref="G83:V83" si="171">G79/(SUM(D22:G22)*1000)</f>
         <v>119.98791208791225</v>
       </c>
       <c r="H83" s="50">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>59.582014530484628</v>
       </c>
       <c r="I83" s="50">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>44.634866014209614</v>
       </c>
       <c r="J83" s="50">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>30.56593387664801</v>
       </c>
       <c r="K83" s="50">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>30.834702361691683</v>
       </c>
       <c r="L83" s="50">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>32.024950848116646</v>
       </c>
       <c r="M83" s="50">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>32.343038540294323</v>
       </c>
       <c r="N83" s="50">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>60.633483602321661</v>
       </c>
       <c r="O83" s="50">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>64.9445710774839</v>
       </c>
       <c r="P83" s="50">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>74.680627922741024</v>
       </c>
       <c r="Q83" s="50">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>64.099973409562097</v>
       </c>
       <c r="R83" s="50">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>36.941421208777982</v>
       </c>
       <c r="S83" s="50">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>42.466447128142569</v>
       </c>
       <c r="T83" s="50">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>42.183602880357142</v>
       </c>
       <c r="U83" s="50">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>35.273648173511305</v>
       </c>
       <c r="V83" s="50">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>31.02413791405122</v>
       </c>
       <c r="W83" s="50">
@@ -8069,12 +8352,12 @@
         <f>X79/(SUM(U22:X22)*1000)</f>
         <v>30.459501062652002</v>
       </c>
-      <c r="Y83" s="50"/>
-      <c r="Z83" s="50"/>
+      <c r="Y83" s="83"/>
+      <c r="Z83" s="83"/>
       <c r="AC83" s="50"/>
       <c r="AD83" s="50"/>
       <c r="AE83" s="50">
-        <f t="shared" ref="AE83" si="165">AE79/(AE22*1000)</f>
+        <f t="shared" ref="AE83" si="172">AE79/(AE22*1000)</f>
         <v>37.504159682207103</v>
       </c>
       <c r="AF83" s="50">
@@ -8082,84 +8365,84 @@
         <v>31.019240613628885</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B85" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G85" s="24">
-        <f t="shared" ref="G85:X85" si="166">G44/(G10*1000)</f>
+        <f t="shared" ref="G85:X85" si="173">G44/(G10*1000)</f>
         <v>0.52543224768797758</v>
       </c>
       <c r="H85" s="24">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0.57478131000640054</v>
       </c>
       <c r="I85" s="24">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0.56341691811466044</v>
       </c>
       <c r="J85" s="24">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0.55204241948153965</v>
       </c>
       <c r="K85" s="24">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0.54737335834896805</v>
       </c>
       <c r="L85" s="24">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0.60032926593066049</v>
       </c>
       <c r="M85" s="24">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0.57472288202692001</v>
       </c>
       <c r="N85" s="24">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>1.1669570727071124</v>
       </c>
       <c r="O85" s="24">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0.63290541816122325</v>
       </c>
       <c r="P85" s="24">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0.541670372676332</v>
       </c>
       <c r="Q85" s="24">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0.64622960316694023</v>
       </c>
       <c r="R85" s="24">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0.55524951393389499</v>
       </c>
       <c r="S85" s="24">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0.5469464402351405</v>
       </c>
       <c r="T85" s="24">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0.57286255173021039</v>
       </c>
       <c r="U85" s="24">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0.70830650354153257</v>
       </c>
       <c r="V85" s="24">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0.68824587215955524</v>
       </c>
       <c r="W85" s="24">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0.7615669583037753</v>
       </c>
       <c r="X85" s="24">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0.70041306796845648</v>
       </c>
-      <c r="Y85" s="24"/>
-      <c r="Z85" s="24"/>
+      <c r="Y85" s="73"/>
+      <c r="Z85" s="73"/>
       <c r="AE85" s="24">
         <f>AE44/(AE10*1000)</f>
         <v>0.15389105932013114</v>
@@ -8169,7 +8452,7 @@
         <v>0.18026118604153288</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A87" s="55">
         <f>AVERAGE(G87:X87)</f>
         <v>15.465549305439165</v>
@@ -8178,67 +8461,67 @@
         <v>129</v>
       </c>
       <c r="G87" s="50">
-        <f t="shared" ref="G87:V87" si="167">G79/G70</f>
+        <f t="shared" ref="G87:V87" si="174">G79/G70</f>
         <v>14.571485765124555</v>
       </c>
       <c r="H87" s="50">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>13.176219727345631</v>
       </c>
       <c r="I87" s="50">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>15.046997433322176</v>
       </c>
       <c r="J87" s="50">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>13.541238053097345</v>
       </c>
       <c r="K87" s="50">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>14.350304347826089</v>
       </c>
       <c r="L87" s="50">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>15.60266217516843</v>
       </c>
       <c r="M87" s="50">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>15.378893753454946</v>
       </c>
       <c r="N87" s="50">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>18.782719657072874</v>
       </c>
       <c r="O87" s="50">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>18.945121639202082</v>
       </c>
       <c r="P87" s="50">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>19.913825187969923</v>
       </c>
       <c r="Q87" s="50">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>18.462242896655773</v>
       </c>
       <c r="R87" s="50">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>16.635959113339077</v>
       </c>
       <c r="S87" s="50">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>18.050181551976575</v>
       </c>
       <c r="T87" s="50">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>17.429942374698474</v>
       </c>
       <c r="U87" s="50">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>14.559555000337634</v>
       </c>
       <c r="V87" s="50">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>12.226438060336365</v>
       </c>
       <c r="W87" s="50">
@@ -8249,14 +8532,14 @@
         <f>X79/X70</f>
         <v>11.162693163960189</v>
       </c>
-      <c r="Y87" s="50"/>
-      <c r="Z87" s="50"/>
+      <c r="Y87" s="83"/>
+      <c r="Z87" s="83"/>
       <c r="AE87" s="50">
-        <f t="shared" ref="AE87:AF87" si="168">AE79/AE70</f>
+        <f t="shared" ref="AE87:AF87" si="175">AE79/AE70</f>
         <v>16.823554672201773</v>
       </c>
       <c r="AF87" s="50">
-        <f t="shared" si="168"/>
+        <f t="shared" si="175"/>
         <v>12.272909413650938</v>
       </c>
     </row>
@@ -8277,8 +8560,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId11"/>
   <ignoredErrors>
-    <ignoredError sqref="S7:X7 O7:R7 AF3:AF6 AF8:AF9 AF11 AF13:AF14 AF17:AF18 AF20 AF23 AE3 AE5 AE4 AE6 AE8:AE9 AE11 AE13:AE23 J6 G7:K7 N6:O6 N7 M7 L7 AD3:AD6 AD8:AD9 AD23 AC8:AC9 AC3:AC6 AC1:AC2 AC17:AC23" formulaRange="1"/>
-    <ignoredError sqref="AF7 AF10 AF12 AF19 AE43 AE45 AD10 AC12" formula="1"/>
+    <ignoredError sqref="S7:X7 O7:R7 AF3:AF6 AF8:AF9 AF11 AF13:AF14 AF17:AF18 AF20 AF23 AE3 AE5 AE4 AE6 AE8:AE9 AE11 AE13:AE23 J6 G7:K7 N6:O6 N7 M7 L7 AD3:AD6 AD8:AD9 AD23 AC8:AC9 AC3:AC6 AC1:AC2 AC17:AC23 Y13:Z13 Y14 Y17:Z17 Y18:Z18" formulaRange="1"/>
+    <ignoredError sqref="AF7 AF10 AF12 AF19 AE43 AE45 AD10 AC12 AG12:AG16 AG19 AG21" formula="1"/>
     <ignoredError sqref="AC7:AE7 AE10 AE12 AD11:AD20 AC10:AC11 AC13:AC16" formula="1" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId12"/>

--- a/$NKE.xlsx
+++ b/$NKE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E6B5CA-DD61-D448-9870-CAA1EDBB29DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2307538F-61BB-A646-B6DF-ACDBE6344B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="500" windowWidth="31100" windowHeight="18900" activeTab="1" xr2:uid="{7612E5BF-E27D-45C9-936D-073FAE02F148}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="146">
   <si>
     <t>$NKE</t>
   </si>
@@ -717,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -822,44 +822,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -888,6 +850,63 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -976,13 +995,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -1000,7 +1019,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17640300" y="0"/>
+          <a:off x="18338800" y="0"/>
           <a:ext cx="0" cy="14706600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1078,7 +1097,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1366,7 +1385,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1377,7 +1396,7 @@
   <dimension ref="A2:V40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1399,38 +1418,38 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="F5" s="62" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="F5" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="64"/>
-      <c r="T5" s="62" t="s">
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="76"/>
+      <c r="T5" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="U5" s="63"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="76"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>115.6</v>
+        <v>122.07</v>
       </c>
       <c r="D6" s="37"/>
       <c r="F6" s="53"/>
@@ -1457,8 +1476,8 @@
         <v>4</v>
       </c>
       <c r="C7" s="35">
-        <f>'Financial Model'!X23</f>
-        <v>1559</v>
+        <f>'Financial Model'!Y23</f>
+        <v>1543.8</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>142</v>
@@ -1488,7 +1507,7 @@
       </c>
       <c r="C8" s="35">
         <f>C6*C7</f>
-        <v>180220.4</v>
+        <v>188451.666</v>
       </c>
       <c r="D8" s="37"/>
       <c r="F8" s="53"/>
@@ -1515,8 +1534,8 @@
         <v>6</v>
       </c>
       <c r="C9" s="35">
-        <f>'Financial Model'!X75</f>
-        <v>10621</v>
+        <f>'Financial Model'!Y75</f>
+        <v>10802</v>
       </c>
       <c r="D9" s="37" t="s">
         <v>142</v>
@@ -1545,8 +1564,8 @@
         <v>7</v>
       </c>
       <c r="C10" s="35">
-        <f>'Financial Model'!X76</f>
-        <v>9431</v>
+        <f>'Financial Model'!Y76</f>
+        <v>9439</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>142</v>
@@ -1575,8 +1594,8 @@
         <v>8</v>
       </c>
       <c r="C11" s="35">
-        <f>'Financial Model'!X77</f>
-        <v>1190</v>
+        <f>'Financial Model'!Y77</f>
+        <v>1363</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>142</v>
@@ -1606,7 +1625,7 @@
       </c>
       <c r="C12" s="36">
         <f>C8-C11</f>
-        <v>179030.39999999999</v>
+        <v>187088.666</v>
       </c>
       <c r="D12" s="38"/>
       <c r="F12" s="53"/>
@@ -1659,11 +1678,11 @@
       <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="64"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
       <c r="F15" s="53"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -1685,10 +1704,10 @@
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="57"/>
+      <c r="D16" s="78"/>
       <c r="F16" s="53"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1710,10 +1729,10 @@
       <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="57"/>
+      <c r="D17" s="78"/>
       <c r="F17" s="53"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1735,10 +1754,10 @@
       <c r="B18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="57"/>
+      <c r="D18" s="78"/>
       <c r="F18" s="53"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1757,10 +1776,10 @@
       <c r="B19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="61"/>
+      <c r="D19" s="85"/>
       <c r="F19" s="53"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1806,11 +1825,11 @@
       <c r="R21" s="7"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
       <c r="F22" s="53"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1829,10 +1848,10 @@
       <c r="B23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="57"/>
+      <c r="D23" s="78"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1851,10 +1870,10 @@
       <c r="B24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="56">
+      <c r="C24" s="77">
         <v>1964</v>
       </c>
-      <c r="D24" s="57"/>
+      <c r="D24" s="78"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1873,8 +1892,8 @@
       <c r="B25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="80"/>
       <c r="F25" s="53"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1893,11 +1912,11 @@
       <c r="B26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="69">
-        <f>'Financial Model'!W44</f>
-        <v>9662</v>
-      </c>
-      <c r="D26" s="57"/>
+      <c r="C26" s="81">
+        <f>'Financial Model'!Y44</f>
+        <v>8905</v>
+      </c>
+      <c r="D26" s="78"/>
       <c r="F26" s="53"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1914,8 +1933,8 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B27" s="10"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
       <c r="F27" s="53"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1935,10 +1954,10 @@
         <v>18</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D28" s="52">
-        <v>44915</v>
+        <v>45006</v>
       </c>
       <c r="F28" s="53"/>
       <c r="G28" s="6"/>
@@ -1958,10 +1977,10 @@
       <c r="B29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="66"/>
+      <c r="D29" s="87"/>
       <c r="F29" s="53"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -2007,11 +2026,11 @@
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="76"/>
       <c r="F32" s="53"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -2030,11 +2049,11 @@
       <c r="B33" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="58">
+      <c r="C33" s="82">
         <f>C12/('Financial Model'!AF21*1000)</f>
-        <v>29.611379424412871</v>
-      </c>
-      <c r="D33" s="59"/>
+        <v>30.944205425074465</v>
+      </c>
+      <c r="D33" s="83"/>
       <c r="F33" s="53"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -2053,11 +2072,11 @@
       <c r="B34" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="58">
-        <f>C6/(SUM('Financial Model'!U22:X22)*1000)</f>
-        <v>32.200441909854334</v>
-      </c>
-      <c r="D34" s="59"/>
+      <c r="C34" s="82">
+        <f>C6/(SUM('Financial Model'!V22:Y22)*1000)</f>
+        <v>34.78648102833354</v>
+      </c>
+      <c r="D34" s="83"/>
       <c r="F34" s="53"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -2076,8 +2095,8 @@
       <c r="B35" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="57"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="78"/>
       <c r="F35" s="53"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -2096,11 +2115,11 @@
       <c r="B36" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="58">
-        <f>C6/'Financial Model'!X70</f>
-        <v>11.800707176532216</v>
-      </c>
-      <c r="D36" s="59"/>
+      <c r="C36" s="82">
+        <f>C6/'Financial Model'!Y70</f>
+        <v>12.968939921547035</v>
+      </c>
+      <c r="D36" s="83"/>
       <c r="F36" s="53"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -2117,8 +2136,8 @@
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B37" s="10"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="57"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="78"/>
       <c r="F37" s="53"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -2137,11 +2156,11 @@
       <c r="B38" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="58">
+      <c r="C38" s="82">
         <f>'Financial Model'!AE79/('Financial Model'!AE22*1000)</f>
         <v>37.504159682207103</v>
       </c>
-      <c r="D38" s="59"/>
+      <c r="D38" s="83"/>
       <c r="F38" s="53"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -2160,8 +2179,8 @@
       <c r="B39" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="57"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="78"/>
       <c r="F39" s="53"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -2180,8 +2199,8 @@
       <c r="B40" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="61"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85"/>
       <c r="F40" s="54"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -2198,14 +2217,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F5:R5"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
@@ -2222,6 +2233,14 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F5:R5"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{6430964A-0169-5B4A-BCFC-F02355D9307D}"/>
@@ -2237,10 +2256,10 @@
   <dimension ref="A1:AQ87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z28" sqref="Z28"/>
+      <selection pane="bottomRight" activeCell="Y85" sqref="G85:Y85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2252,9 +2271,10 @@
     <col min="19" max="20" width="9.1640625" style="1"/>
     <col min="21" max="22" width="9.1640625" style="1" customWidth="1"/>
     <col min="23" max="24" width="9.1640625" style="1"/>
-    <col min="25" max="26" width="9.1640625" style="77"/>
+    <col min="25" max="25" width="9.1640625" style="97"/>
+    <col min="26" max="26" width="9.1640625" style="63"/>
     <col min="27" max="32" width="9.1640625" style="1"/>
-    <col min="33" max="33" width="9.1640625" style="77"/>
+    <col min="33" max="33" width="9.1640625" style="63"/>
     <col min="34" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
@@ -2328,10 +2348,10 @@
       <c r="X1" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="Y1" s="84" t="s">
+      <c r="Y1" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="Z1" s="84" t="s">
+      <c r="Z1" s="70" t="s">
         <v>144</v>
       </c>
       <c r="AB1" s="15" t="s">
@@ -2349,7 +2369,7 @@
       <c r="AF1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="86" t="s">
+      <c r="AG1" s="72" t="s">
         <v>37</v>
       </c>
       <c r="AH1" s="15" t="s">
@@ -2439,10 +2459,10 @@
       <c r="X2" s="22">
         <v>44895</v>
       </c>
-      <c r="Y2" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z2" s="70" t="s">
+      <c r="Y2" s="88">
+        <v>44985</v>
+      </c>
+      <c r="Z2" s="56" t="s">
         <v>145</v>
       </c>
       <c r="AC2" s="22">
@@ -2457,7 +2477,7 @@
       <c r="AF2" s="22">
         <v>44712</v>
       </c>
-      <c r="AG2" s="85" t="s">
+      <c r="AG2" s="71" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2519,8 +2539,10 @@
       <c r="X3" s="28">
         <v>8.5039999999999996</v>
       </c>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
+      <c r="Y3" s="89">
+        <v>7.97</v>
+      </c>
+      <c r="Z3" s="57"/>
       <c r="AC3" s="28">
         <f>SUM(G3:J3)</f>
         <v>24.221999999999998</v>
@@ -2537,7 +2559,7 @@
         <f>SUM(S3:V3)</f>
         <v>29.143000000000001</v>
       </c>
-      <c r="AG3" s="71"/>
+      <c r="AG3" s="57"/>
     </row>
     <row r="4" spans="1:43" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="30" t="s">
@@ -2597,8 +2619,10 @@
       <c r="X4" s="28">
         <v>3.794</v>
       </c>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
+      <c r="Y4" s="89">
+        <v>3.3809999999999998</v>
+      </c>
+      <c r="Z4" s="57"/>
       <c r="AC4" s="28">
         <f t="shared" ref="AC4:AC9" si="0">SUM(G4:J4)</f>
         <v>11.549999999999999</v>
@@ -2615,7 +2639,7 @@
         <f>SUM(S4:V4)</f>
         <v>13.567000000000002</v>
       </c>
-      <c r="AG4" s="71"/>
+      <c r="AG4" s="57"/>
     </row>
     <row r="5" spans="1:43" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="30" t="s">
@@ -2675,8 +2699,10 @@
       <c r="X5" s="28">
         <v>0.40799999999999997</v>
       </c>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
+      <c r="Y5" s="89">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="Z5" s="57"/>
       <c r="AC5" s="28">
         <f t="shared" si="0"/>
         <v>1.4039999999999999</v>
@@ -2693,7 +2719,7 @@
         <f>SUM(S5:V5)</f>
         <v>1.6240000000000001</v>
       </c>
-      <c r="AG5" s="71"/>
+      <c r="AG5" s="57"/>
     </row>
     <row r="6" spans="1:43" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="30" t="s">
@@ -2753,8 +2779,10 @@
       <c r="X6" s="28">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
+      <c r="Y6" s="89">
+        <v>1.2E-2</v>
+      </c>
+      <c r="Z6" s="57"/>
       <c r="AC6" s="28">
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
@@ -2771,14 +2799,14 @@
         <f>SUM(S6:V6)</f>
         <v>0.10200000000000001</v>
       </c>
-      <c r="AG6" s="71"/>
+      <c r="AG6" s="57"/>
     </row>
     <row r="7" spans="1:43" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="31" t="s">
         <v>92</v>
       </c>
       <c r="G7" s="26">
-        <f t="shared" ref="G7:X7" si="2">SUM(G3:G6)</f>
+        <f t="shared" ref="G7:Y7" si="2">SUM(G3:G6)</f>
         <v>9.4169999999999998</v>
       </c>
       <c r="H7" s="26">
@@ -2849,8 +2877,11 @@
         <f t="shared" si="2"/>
         <v>12.724</v>
       </c>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="71"/>
+      <c r="Y7" s="26">
+        <f t="shared" si="2"/>
+        <v>11.766</v>
+      </c>
+      <c r="Z7" s="57"/>
       <c r="AC7" s="26">
         <f>SUM(AC3:AC6)</f>
         <v>37.218000000000004</v>
@@ -2867,7 +2898,7 @@
         <f>SUM(AF3:AF6)</f>
         <v>44.436</v>
       </c>
-      <c r="AG7" s="71"/>
+      <c r="AG7" s="57"/>
     </row>
     <row r="8" spans="1:43" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="31" t="s">
@@ -2927,8 +2958,10 @@
       <c r="X8" s="26">
         <v>0.58599999999999997</v>
       </c>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
+      <c r="Y8" s="89">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="Z8" s="57"/>
       <c r="AC8" s="28">
         <f t="shared" si="0"/>
         <v>1.9060000000000001</v>
@@ -2945,7 +2978,7 @@
         <f t="shared" ref="AF8:AF14" si="4">SUM(S8:V8)</f>
         <v>2.3460000000000001</v>
       </c>
-      <c r="AG8" s="71"/>
+      <c r="AG8" s="57"/>
     </row>
     <row r="9" spans="1:43" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="31" t="s">
@@ -3005,8 +3038,10 @@
       <c r="X9" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="71"/>
+      <c r="Y9" s="89">
+        <v>1.2E-2</v>
+      </c>
+      <c r="Z9" s="57"/>
       <c r="AC9" s="28">
         <f t="shared" si="0"/>
         <v>-7.0000000000000001E-3</v>
@@ -3023,14 +3058,14 @@
         <f t="shared" si="4"/>
         <v>-7.2000000000000008E-2</v>
       </c>
-      <c r="AG9" s="71"/>
+      <c r="AG9" s="57"/>
     </row>
     <row r="10" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>69</v>
       </c>
       <c r="G10" s="18">
-        <f t="shared" ref="G10:X10" si="5">G7+G8+G9</f>
+        <f t="shared" ref="G10:Y10" si="5">G7+G8+G9</f>
         <v>9.9479999999999986</v>
       </c>
       <c r="H10" s="18">
@@ -3101,13 +3136,13 @@
         <f t="shared" si="5"/>
         <v>13.315000000000001</v>
       </c>
-      <c r="Y10" s="76">
-        <f>X10*1.06</f>
-        <v>14.113900000000003</v>
-      </c>
-      <c r="Z10" s="76">
+      <c r="Y10" s="91">
+        <f t="shared" si="5"/>
+        <v>12.39</v>
+      </c>
+      <c r="Z10" s="62">
         <f>Y10*1.04</f>
-        <v>14.678456000000004</v>
+        <v>12.8856</v>
       </c>
       <c r="AC10" s="18">
         <f>AC7+AC8+AC9</f>
@@ -3125,9 +3160,9 @@
         <f>AF7+AF8+AF9</f>
         <v>46.709999999999994</v>
       </c>
-      <c r="AG10" s="76">
+      <c r="AG10" s="62">
         <f>SUM(W10:Z10)</f>
-        <v>54.794356000000008</v>
+        <v>51.277600000000007</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.15">
@@ -3188,13 +3223,12 @@
       <c r="X11" s="19">
         <v>7.6040000000000001</v>
       </c>
-      <c r="Y11" s="75">
-        <f>Y10*(1-Y34)</f>
-        <v>8.0449230000000025</v>
-      </c>
-      <c r="Z11" s="75">
+      <c r="Y11" s="90">
+        <v>7.0190000000000001</v>
+      </c>
+      <c r="Z11" s="61">
         <f>Z10*(1-Z34)</f>
-        <v>8.2199353600000027</v>
+        <v>7.215936000000001</v>
       </c>
       <c r="AC11" s="19">
         <f>SUM(G11:J11)</f>
@@ -3212,9 +3246,9 @@
         <f t="shared" si="4"/>
         <v>25.231000000000002</v>
       </c>
-      <c r="AG11" s="75">
+      <c r="AG11" s="61">
         <f>SUM(W11:Z11)</f>
-        <v>30.940858360000007</v>
+        <v>28.910936</v>
       </c>
     </row>
     <row r="12" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -3222,7 +3256,7 @@
         <v>71</v>
       </c>
       <c r="G12" s="18">
-        <f t="shared" ref="G12:X12" si="6">G10-G11</f>
+        <f t="shared" ref="G12:Y12" si="6">G10-G11</f>
         <v>4.3969999999999985</v>
       </c>
       <c r="H12" s="18">
@@ -3293,13 +3327,13 @@
         <f t="shared" si="6"/>
         <v>5.7110000000000012</v>
       </c>
-      <c r="Y12" s="76">
-        <f>Y10-Y11</f>
-        <v>6.0689770000000003</v>
-      </c>
-      <c r="Z12" s="76">
+      <c r="Y12" s="91">
+        <f t="shared" si="6"/>
+        <v>5.3710000000000004</v>
+      </c>
+      <c r="Z12" s="62">
         <f>Z10-Z11</f>
-        <v>6.4585206400000015</v>
+        <v>5.6696639999999991</v>
       </c>
       <c r="AC12" s="18">
         <f>AC10-AC11</f>
@@ -3317,9 +3351,9 @@
         <f>AF10-AF11</f>
         <v>21.478999999999992</v>
       </c>
-      <c r="AG12" s="76">
+      <c r="AG12" s="62">
         <f>AG10-AG11</f>
-        <v>23.853497640000001</v>
+        <v>22.366664000000007</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.15">
@@ -3380,13 +3414,12 @@
       <c r="X13" s="39">
         <v>1.1020000000000001</v>
       </c>
-      <c r="Y13" s="75">
-        <f>AVERAGE(U13:X13)</f>
-        <v>0.99</v>
-      </c>
-      <c r="Z13" s="75">
+      <c r="Y13" s="90">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="Z13" s="61">
         <f>AVERAGE(V13:Y13)</f>
-        <v>1.024</v>
+        <v>1.00725</v>
       </c>
       <c r="AC13" s="19">
         <f t="shared" ref="AC13:AC15" si="7">SUM(G13:J13)</f>
@@ -3404,9 +3437,9 @@
         <f t="shared" si="4"/>
         <v>3.85</v>
       </c>
-      <c r="AG13" s="75">
+      <c r="AG13" s="61">
         <f t="shared" ref="AG13:AG14" si="9">SUM(W13:Z13)</f>
-        <v>4.0590000000000002</v>
+        <v>3.97525</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.15">
@@ -3467,13 +3500,12 @@
       <c r="X14" s="39">
         <v>3.0219999999999998</v>
       </c>
-      <c r="Y14" s="75">
-        <f>AVERAGE(U14:X14)</f>
-        <v>2.8892500000000001</v>
-      </c>
-      <c r="Z14" s="75">
+      <c r="Y14" s="90">
+        <v>3.036</v>
+      </c>
+      <c r="Z14" s="61">
         <f>AVERAGE(V14:Y14)</f>
-        <v>2.9655625000000003</v>
+        <v>3.0022500000000001</v>
       </c>
       <c r="AC14" s="19">
         <f t="shared" si="7"/>
@@ -3491,9 +3523,9 @@
         <f t="shared" si="4"/>
         <v>10.954000000000001</v>
       </c>
-      <c r="AG14" s="75">
+      <c r="AG14" s="61">
         <f t="shared" si="9"/>
-        <v>11.8538125</v>
+        <v>12.03725</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.15">
@@ -3572,13 +3604,13 @@
         <f t="shared" ref="X15" si="12">X13+X14</f>
         <v>4.1239999999999997</v>
       </c>
-      <c r="Y15" s="75">
+      <c r="Y15" s="90">
         <f>Y13+Y14</f>
-        <v>3.8792499999999999</v>
-      </c>
-      <c r="Z15" s="75">
+        <v>3.9590000000000001</v>
+      </c>
+      <c r="Z15" s="61">
         <f>Z13+Z14</f>
-        <v>3.9895625000000003</v>
+        <v>4.0095000000000001</v>
       </c>
       <c r="AC15" s="19">
         <f t="shared" si="7"/>
@@ -3596,9 +3628,9 @@
         <f>AF13+AF14</f>
         <v>14.804</v>
       </c>
-      <c r="AG15" s="75">
+      <c r="AG15" s="61">
         <f t="shared" ref="AG15" si="13">AG13+AG14</f>
-        <v>15.912812500000001</v>
+        <v>16.012499999999999</v>
       </c>
     </row>
     <row r="16" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -3677,13 +3709,13 @@
         <f t="shared" ref="X16" si="16">X12-X15</f>
         <v>1.5870000000000015</v>
       </c>
-      <c r="Y16" s="76">
+      <c r="Y16" s="92">
         <f>Y12-Y15</f>
-        <v>2.1897270000000004</v>
-      </c>
-      <c r="Z16" s="76">
+        <v>1.4120000000000004</v>
+      </c>
+      <c r="Z16" s="62">
         <f>Z12-Z15</f>
-        <v>2.4689581400000011</v>
+        <v>1.6601639999999991</v>
       </c>
       <c r="AC16" s="18">
         <f>AC13+AC14+AC15</f>
@@ -3701,9 +3733,9 @@
         <f>AF12-AF15</f>
         <v>6.6749999999999918</v>
       </c>
-      <c r="AG16" s="76">
+      <c r="AG16" s="62">
         <f t="shared" ref="AG16" si="17">AG12-AG15</f>
-        <v>7.9406851399999994</v>
+        <v>6.3541640000000079</v>
       </c>
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.15">
@@ -3764,13 +3796,12 @@
       <c r="X17" s="19">
         <v>1.6E-2</v>
       </c>
-      <c r="Y17" s="75">
-        <f>AVERAGE(U17:X17)</f>
-        <v>3.0499999999999999E-2</v>
-      </c>
-      <c r="Z17" s="75">
+      <c r="Y17" s="90">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="Z17" s="61">
         <f>AVERAGE(V17:Y17)</f>
-        <v>2.4875000000000001E-2</v>
+        <v>1.5500000000000002E-2</v>
       </c>
       <c r="AC17" s="19">
         <f t="shared" ref="AC17:AC18" si="18">SUM(G17:J17)</f>
@@ -3788,9 +3819,9 @@
         <f t="shared" ref="AF17:AF18" si="20">SUM(S17:V17)</f>
         <v>0.20500000000000002</v>
       </c>
-      <c r="AG17" s="75">
+      <c r="AG17" s="61">
         <f t="shared" ref="AG17:AG20" si="21">SUM(W17:Z17)</f>
-        <v>8.4375000000000006E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.15">
@@ -3851,13 +3882,12 @@
       <c r="X18" s="19">
         <v>-7.9000000000000001E-2</v>
       </c>
-      <c r="Y18" s="75">
-        <f>AVERAGE(U18:X18)</f>
-        <v>-6.6250000000000003E-2</v>
-      </c>
-      <c r="Z18" s="75">
+      <c r="Y18" s="90">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="Z18" s="61">
         <f>AVERAGE(V18:Y18)</f>
-        <v>-5.9312499999999997E-2</v>
+        <v>-5.7249999999999995E-2</v>
       </c>
       <c r="AC18" s="19">
         <f t="shared" si="18"/>
@@ -3875,9 +3905,9 @@
         <f t="shared" si="20"/>
         <v>-0.18099999999999999</v>
       </c>
-      <c r="AG18" s="75">
+      <c r="AG18" s="61">
         <f t="shared" si="21"/>
-        <v>-0.3505625</v>
+        <v>-0.34024999999999994</v>
       </c>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.15">
@@ -3956,13 +3986,13 @@
         <f t="shared" si="22"/>
         <v>1.6500000000000015</v>
       </c>
-      <c r="Y19" s="75">
+      <c r="Y19" s="90">
         <f t="shared" si="22"/>
-        <v>2.2254770000000006</v>
-      </c>
-      <c r="Z19" s="75">
+        <v>1.4770000000000003</v>
+      </c>
+      <c r="Z19" s="61">
         <f t="shared" si="22"/>
-        <v>2.5033956400000008</v>
+        <v>1.701913999999999</v>
       </c>
       <c r="AC19" s="19">
         <f>SUM(G19:J19)</f>
@@ -3980,9 +4010,9 @@
         <f>AF16-AF17-AF18</f>
         <v>6.6509999999999918</v>
       </c>
-      <c r="AG19" s="75">
+      <c r="AG19" s="61">
         <f>AG16-AG17-AG18</f>
-        <v>8.2068726400000003</v>
+        <v>6.6569140000000084</v>
       </c>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.15">
@@ -4043,13 +4073,12 @@
       <c r="X20" s="19">
         <v>0.31900000000000001</v>
       </c>
-      <c r="Y20" s="75">
-        <f>Y19*Y37</f>
-        <v>0.44509540000000014</v>
-      </c>
-      <c r="Z20" s="75">
+      <c r="Y20" s="90">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="Z20" s="61">
         <f>Z19*Z37</f>
-        <v>0.50067912800000014</v>
+        <v>0.34038279999999982</v>
       </c>
       <c r="AC20" s="19">
         <f t="shared" ref="AC20" si="23">SUM(G20:J20)</f>
@@ -4067,9 +4096,9 @@
         <f t="shared" ref="AF20" si="24">SUM(S20:V20)</f>
         <v>0.60499999999999998</v>
       </c>
-      <c r="AG20" s="75">
+      <c r="AG20" s="61">
         <f t="shared" si="21"/>
-        <v>1.6247745280000006</v>
+        <v>1.2563827999999999</v>
       </c>
     </row>
     <row r="21" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -4148,13 +4177,13 @@
         <f t="shared" si="25"/>
         <v>1.3310000000000015</v>
       </c>
-      <c r="Y21" s="76">
+      <c r="Y21" s="92">
         <f t="shared" si="25"/>
-        <v>1.7803816000000006</v>
-      </c>
-      <c r="Z21" s="76">
+        <v>1.2400000000000002</v>
+      </c>
+      <c r="Z21" s="62">
         <f t="shared" si="25"/>
-        <v>2.0027165120000006</v>
+        <v>1.3615311999999993</v>
       </c>
       <c r="AC21" s="18">
         <f>AC18+AC19+AC20</f>
@@ -4172,9 +4201,9 @@
         <f>AF19-AF20</f>
         <v>6.0459999999999923</v>
       </c>
-      <c r="AG21" s="76">
+      <c r="AG21" s="62">
         <f>AG19-AG20</f>
-        <v>6.5820981119999997</v>
+        <v>5.4005312000000085</v>
       </c>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.15">
@@ -4253,13 +4282,13 @@
         <f t="shared" si="26"/>
         <v>8.5375240538807027E-4</v>
       </c>
-      <c r="Y22" s="78">
+      <c r="Y22" s="93">
         <f t="shared" si="26"/>
-        <v>1.142002309172547E-3</v>
-      </c>
-      <c r="Z22" s="78">
+        <v>8.0321285140562263E-4</v>
+      </c>
+      <c r="Z22" s="64">
         <f t="shared" si="26"/>
-        <v>1.2846161077613859E-3</v>
+        <v>8.8193496566912769E-4</v>
       </c>
       <c r="AC22" s="43">
         <f>AC21/AC23</f>
@@ -4277,9 +4306,9 @@
         <f>AF21/AF23</f>
         <v>3.831492894374114E-3</v>
       </c>
-      <c r="AG22" s="78">
+      <c r="AG22" s="64">
         <f>AG21/AG23</f>
-        <v>4.2220000718409239E-3</v>
+        <v>3.4982065034330928E-3</v>
       </c>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.15">
@@ -4340,13 +4369,12 @@
       <c r="X23" s="19">
         <v>1559</v>
       </c>
-      <c r="Y23" s="75">
-        <f>X23</f>
-        <v>1559</v>
-      </c>
-      <c r="Z23" s="75">
+      <c r="Y23" s="90">
+        <v>1543.8</v>
+      </c>
+      <c r="Z23" s="61">
         <f>Y23</f>
-        <v>1559</v>
+        <v>1543.8</v>
       </c>
       <c r="AC23" s="19">
         <f>AVERAGE(G23:J23)</f>
@@ -4364,9 +4392,9 @@
         <f>AVERAGE(S23:V23)</f>
         <v>1577.9749999999999</v>
       </c>
-      <c r="AG23" s="75">
+      <c r="AG23" s="61">
         <f>Z23</f>
-        <v>1559</v>
+        <v>1543.8</v>
       </c>
     </row>
     <row r="25" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -4441,8 +4469,11 @@
         <f t="shared" ref="X25" si="33">X10/T10-1</f>
         <v>0.17240468433565193</v>
       </c>
-      <c r="Y25" s="79"/>
-      <c r="Z25" s="79"/>
+      <c r="Y25" s="94">
+        <f t="shared" ref="Y25" si="34">Y10/U10-1</f>
+        <v>0.13972955569864776</v>
+      </c>
+      <c r="Z25" s="65"/>
       <c r="AB25" s="16" t="s">
         <v>135</v>
       </c>
@@ -4450,20 +4481,20 @@
         <v>135</v>
       </c>
       <c r="AD25" s="20">
-        <f t="shared" ref="AD25" si="34">AD10/AC10-1</f>
+        <f t="shared" ref="AD25" si="35">AD10/AC10-1</f>
         <v>-4.3817266150267264E-2</v>
       </c>
       <c r="AE25" s="20">
-        <f t="shared" ref="AE25" si="35">AE10/AD10-1</f>
+        <f t="shared" ref="AE25" si="36">AE10/AD10-1</f>
         <v>0.19076009945726247</v>
       </c>
       <c r="AF25" s="20">
         <f>AF10/AE10-1</f>
         <v>4.8767344739323759E-2</v>
       </c>
-      <c r="AG25" s="72">
+      <c r="AG25" s="58">
         <f>AG10/AF10-1</f>
-        <v>0.17307548704774178</v>
+        <v>9.7786341254549658E-2</v>
       </c>
     </row>
     <row r="26" spans="2:33" s="32" customFormat="1" x14ac:dyDescent="0.15">
@@ -4483,39 +4514,39 @@
         <v>135</v>
       </c>
       <c r="K26" s="33">
-        <f t="shared" ref="K26:K28" si="36">K3/G3-1</f>
+        <f t="shared" ref="K26:K28" si="37">K3/G3-1</f>
         <v>8.0351225977468577E-2</v>
       </c>
       <c r="L26" s="33">
-        <f t="shared" ref="L26:N28" si="37">L3/H3-1</f>
+        <f t="shared" ref="L26:N28" si="38">L3/H3-1</f>
         <v>0.11518418688230003</v>
       </c>
       <c r="M26" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4.1653054557334146E-2</v>
       </c>
       <c r="N26" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-0.35359286044006777</v>
       </c>
       <c r="O26" s="33">
-        <f t="shared" ref="O26:O28" si="38">O3/K3-1</f>
+        <f t="shared" ref="O26:O28" si="39">O3/K3-1</f>
         <v>3.7877626130961461E-2</v>
       </c>
       <c r="P26" s="33">
-        <f t="shared" ref="P26:Q28" si="39">P3/L3-1</f>
+        <f t="shared" ref="P26:Q28" si="40">P3/L3-1</f>
         <v>9.5874959716403474E-2</v>
       </c>
       <c r="Q26" s="33">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2.0072134232397731E-2</v>
       </c>
       <c r="R26" s="33">
-        <f t="shared" ref="R26:S28" si="40">R3/N3-1</f>
+        <f t="shared" ref="R26:S28" si="41">R3/N3-1</f>
         <v>0.89169245417757703</v>
       </c>
       <c r="S26" s="33">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.14036643026004736</v>
       </c>
       <c r="T26" s="33">
@@ -4531,15 +4562,18 @@
         <v>4.7816786208632056E-3</v>
       </c>
       <c r="W26" s="33">
-        <f t="shared" ref="W26:W28" si="41">W3/S3-1</f>
+        <f t="shared" ref="W26:W28" si="42">W3/S3-1</f>
         <v>5.1308629178543841E-2</v>
       </c>
       <c r="X26" s="33">
-        <f t="shared" ref="X26:X28" si="42">X3/T3-1</f>
+        <f t="shared" ref="X26:X28" si="43">X3/T3-1</f>
         <v>0.254277286135693</v>
       </c>
-      <c r="Y26" s="73"/>
-      <c r="Z26" s="73"/>
+      <c r="Y26" s="95">
+        <f t="shared" ref="Y26:Y28" si="44">Y3/U3-1</f>
+        <v>0.19669669669669654</v>
+      </c>
+      <c r="Z26" s="59"/>
       <c r="AB26" s="16" t="s">
         <v>135</v>
       </c>
@@ -4547,18 +4581,18 @@
         <v>135</v>
       </c>
       <c r="AD26" s="33">
-        <f t="shared" ref="AD26" si="43">AD3/AC3-1</f>
+        <f t="shared" ref="AD26" si="45">AD3/AC3-1</f>
         <v>-3.7858145487573158E-2</v>
       </c>
       <c r="AE26" s="33">
-        <f t="shared" ref="AE26" si="44">AE3/AD3-1</f>
+        <f t="shared" ref="AE26" si="46">AE3/AD3-1</f>
         <v>0.20236000858184933</v>
       </c>
       <c r="AF26" s="33">
         <f>AF3/AE3-1</f>
         <v>4.0041397523286282E-2</v>
       </c>
-      <c r="AG26" s="77"/>
+      <c r="AG26" s="63"/>
     </row>
     <row r="27" spans="2:33" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="27" t="s">
@@ -4577,63 +4611,66 @@
         <v>135</v>
       </c>
       <c r="K27" s="33">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>5.8324855883350235E-2</v>
       </c>
       <c r="L27" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>7.8058379796654531E-2</v>
       </c>
       <c r="M27" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>7.3143701514591708E-2</v>
       </c>
       <c r="N27" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-0.42355008787346227</v>
       </c>
       <c r="O27" s="33">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-7.882089074014742E-2</v>
       </c>
       <c r="P27" s="33">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>9.066017645269242E-2</v>
       </c>
       <c r="Q27" s="33">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2.0998278829604367E-2</v>
       </c>
       <c r="R27" s="33">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.0969512195121953</v>
       </c>
       <c r="S27" s="33">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="T27" s="33">
-        <f t="shared" ref="T27:V28" si="45">T4/P4-1</f>
+        <f t="shared" ref="T27:V28" si="47">T4/P4-1</f>
         <v>1.7573221757322122E-2</v>
       </c>
       <c r="U27" s="33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>8.968307484828042E-2</v>
       </c>
       <c r="V27" s="33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-5.8738005234079682E-2</v>
       </c>
       <c r="W27" s="33">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-4.6376811594203149E-3</v>
       </c>
       <c r="X27" s="33">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.0021929824561431E-2</v>
       </c>
-      <c r="Y27" s="73"/>
-      <c r="Z27" s="73"/>
+      <c r="Y27" s="95">
+        <f t="shared" si="44"/>
+        <v>4.6101485148514643E-2</v>
+      </c>
+      <c r="Z27" s="59"/>
       <c r="AB27" s="16" t="s">
         <v>135</v>
       </c>
@@ -4641,18 +4678,18 @@
         <v>135</v>
       </c>
       <c r="AD27" s="33">
-        <f t="shared" ref="AD27" si="46">AD4/AC4-1</f>
+        <f t="shared" ref="AD27" si="48">AD4/AC4-1</f>
         <v>-5.1688311688311672E-2</v>
       </c>
       <c r="AE27" s="33">
-        <f t="shared" ref="AE27" si="47">AE4/AD4-1</f>
+        <f t="shared" ref="AE27" si="49">AE4/AD4-1</f>
         <v>0.17456404637998735</v>
       </c>
       <c r="AF27" s="33">
         <f>AF4/AE4-1</f>
         <v>5.4566653711620727E-2</v>
       </c>
-      <c r="AG27" s="77"/>
+      <c r="AG27" s="63"/>
     </row>
     <row r="28" spans="2:33" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="27" t="s">
@@ -4671,63 +4708,66 @@
         <v>135</v>
       </c>
       <c r="K28" s="33">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>7.6923076923077094E-2</v>
       </c>
       <c r="L28" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>5.5727554179566541E-2</v>
       </c>
       <c r="M28" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4.8231511254019255E-2</v>
       </c>
       <c r="N28" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-0.53389830508474567</v>
       </c>
       <c r="O28" s="33">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-0.171875</v>
       </c>
       <c r="P28" s="33">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.7595307917888325E-2</v>
       </c>
       <c r="Q28" s="33">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-9.2024539877300637E-2</v>
       </c>
       <c r="R28" s="33">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.23030303030303</v>
       </c>
       <c r="S28" s="33">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.25336927223719674</v>
       </c>
       <c r="T28" s="33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.10086455331412103</v>
       </c>
       <c r="U28" s="33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.31756756756756777</v>
       </c>
       <c r="V28" s="33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>5.1630434782608647E-2</v>
       </c>
       <c r="W28" s="33">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4.5161290322580649E-2</v>
       </c>
       <c r="X28" s="33">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>6.8062827225130906E-2</v>
       </c>
-      <c r="Y28" s="73"/>
-      <c r="Z28" s="73"/>
+      <c r="Y28" s="95">
+        <f t="shared" si="44"/>
+        <v>3.3333333333333437E-2</v>
+      </c>
+      <c r="Z28" s="59"/>
       <c r="AB28" s="16" t="s">
         <v>135</v>
       </c>
@@ -4735,18 +4775,18 @@
         <v>135</v>
       </c>
       <c r="AD28" s="33">
-        <f t="shared" ref="AD28" si="48">AD5/AC5-1</f>
+        <f t="shared" ref="AD28" si="50">AD5/AC5-1</f>
         <v>-8.831908831908819E-2</v>
       </c>
       <c r="AE28" s="33">
-        <f t="shared" ref="AE28" si="49">AE5/AD5-1</f>
+        <f t="shared" ref="AE28" si="51">AE5/AD5-1</f>
         <v>7.9687500000000133E-2</v>
       </c>
       <c r="AF28" s="33">
         <f>AF5/AE5-1</f>
         <v>0.17510853835021711</v>
       </c>
-      <c r="AG28" s="77"/>
+      <c r="AG28" s="63"/>
     </row>
     <row r="29" spans="2:33" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="29" t="s">
@@ -4765,63 +4805,66 @@
         <v>135</v>
       </c>
       <c r="K29" s="33">
-        <f t="shared" ref="K29:K31" si="50">K7/G7-1</f>
+        <f t="shared" ref="K29:K31" si="52">K7/G7-1</f>
         <v>7.2103642348943398E-2</v>
       </c>
       <c r="L29" s="33">
-        <f t="shared" ref="L29:N31" si="51">L7/H7-1</f>
+        <f t="shared" ref="L29:N31" si="53">L7/H7-1</f>
         <v>0.10038005812653683</v>
       </c>
       <c r="M29" s="33">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>5.1158723218189817E-2</v>
       </c>
       <c r="N29" s="33">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>-0.38065313691150715</v>
       </c>
       <c r="O29" s="33">
-        <f t="shared" ref="O29:O31" si="52">O7/K7-1</f>
+        <f t="shared" ref="O29:O31" si="54">O7/K7-1</f>
         <v>-7.7258320126781799E-3</v>
       </c>
       <c r="P29" s="33">
-        <f t="shared" ref="P29:Q31" si="53">P7/L7-1</f>
+        <f t="shared" ref="P29:Q31" si="55">P7/L7-1</f>
         <v>9.1121495327102675E-2</v>
       </c>
       <c r="Q29" s="33">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.6326955074875249E-2</v>
       </c>
       <c r="R29" s="33">
-        <f t="shared" ref="R29:S31" si="54">R7/N7-1</f>
+        <f t="shared" ref="R29:S31" si="56">R7/N7-1</f>
         <v>0.95625415834996685</v>
       </c>
       <c r="S29" s="33">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.16190856458374903</v>
       </c>
       <c r="T29" s="33">
-        <f t="shared" ref="T29:V31" si="55">T7/P7-1</f>
+        <f t="shared" ref="T29:V31" si="57">T7/P7-1</f>
         <v>6.9825900754121317E-3</v>
       </c>
       <c r="U29" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>5.6277499232579631E-2</v>
       </c>
       <c r="V29" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>-8.8427854774251191E-3</v>
       </c>
       <c r="W29" s="33">
-        <f t="shared" ref="W29:W31" si="56">W7/S7-1</f>
+        <f t="shared" ref="W29:W31" si="58">W7/S7-1</f>
         <v>3.5051546391752897E-2</v>
       </c>
       <c r="X29" s="33">
-        <f t="shared" ref="X29:X31" si="57">X7/T7-1</f>
+        <f t="shared" ref="X29:X31" si="59">X7/T7-1</f>
         <v>0.17640532544378695</v>
       </c>
-      <c r="Y29" s="73"/>
-      <c r="Z29" s="73"/>
+      <c r="Y29" s="95">
+        <f t="shared" ref="Y29:Y31" si="60">Y7/U7-1</f>
+        <v>0.13978494623655902</v>
+      </c>
+      <c r="Z29" s="59"/>
       <c r="AB29" s="16" t="s">
         <v>135</v>
       </c>
@@ -4829,18 +4872,18 @@
         <v>135</v>
       </c>
       <c r="AD29" s="33">
-        <f t="shared" ref="AD29" si="58">AD7/AC7-1</f>
+        <f t="shared" ref="AD29" si="61">AD7/AC7-1</f>
         <v>-4.433338707077239E-2</v>
       </c>
       <c r="AE29" s="33">
-        <f t="shared" ref="AE29" si="59">AE7/AD7-1</f>
+        <f t="shared" ref="AE29" si="62">AE7/AD7-1</f>
         <v>0.18907444894286995</v>
       </c>
       <c r="AF29" s="33">
         <f>AF7/AE7-1</f>
         <v>5.0670323694228525E-2</v>
       </c>
-      <c r="AG29" s="77"/>
+      <c r="AG29" s="63"/>
     </row>
     <row r="30" spans="2:33" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="29" t="s">
@@ -4859,63 +4902,66 @@
         <v>135</v>
       </c>
       <c r="K30" s="33">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>5.3130929791271431E-2</v>
       </c>
       <c r="L30" s="33">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0.12941176470588234</v>
       </c>
       <c r="M30" s="33">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>9.2872570194384441E-2</v>
       </c>
       <c r="N30" s="33">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>-0.37881873727087578</v>
       </c>
       <c r="O30" s="33">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1.4414414414414267E-2</v>
       </c>
       <c r="P30" s="33">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>-8.3333333333333037E-3</v>
       </c>
       <c r="Q30" s="33">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0.12648221343873511</v>
       </c>
       <c r="R30" s="33">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.95409836065573761</v>
       </c>
       <c r="S30" s="33">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.1172291296625223</v>
       </c>
       <c r="T30" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0.17016806722689082</v>
       </c>
       <c r="U30" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>-5.2631578947368585E-3</v>
       </c>
       <c r="V30" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>-5.0335570469798308E-3</v>
       </c>
       <c r="W30" s="33">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>2.2257551669316422E-2</v>
       </c>
       <c r="X30" s="33">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>5.20646319569118E-2</v>
       </c>
-      <c r="Y30" s="73"/>
-      <c r="Z30" s="73"/>
+      <c r="Y30" s="95">
+        <f t="shared" si="60"/>
+        <v>7.9365079365079527E-2</v>
+      </c>
+      <c r="Z30" s="59"/>
       <c r="AB30" s="16" t="s">
         <v>135</v>
       </c>
@@ -4923,18 +4969,18 @@
         <v>135</v>
       </c>
       <c r="AD30" s="33">
-        <f t="shared" ref="AD30" si="60">AD8/AC8-1</f>
+        <f t="shared" ref="AD30" si="63">AD8/AC8-1</f>
         <v>-3.147953830010497E-2</v>
       </c>
       <c r="AE30" s="33">
-        <f t="shared" ref="AE30:AF31" si="61">AE8/AD8-1</f>
+        <f t="shared" ref="AE30:AF31" si="64">AE8/AD8-1</f>
         <v>0.19447453954496208</v>
       </c>
       <c r="AF30" s="33">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>6.3945578231292544E-2</v>
       </c>
-      <c r="AG30" s="77"/>
+      <c r="AG30" s="63"/>
     </row>
     <row r="31" spans="2:33" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="29" t="s">
@@ -4953,62 +4999,65 @@
         <v>135</v>
       </c>
       <c r="K31" s="33">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.25</v>
       </c>
       <c r="L31" s="33">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>-0.33333333333333337</v>
       </c>
       <c r="M31" s="47" t="s">
         <v>135</v>
       </c>
       <c r="N31" s="33">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>-0.7142857142857143</v>
       </c>
       <c r="O31" s="33">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="P31" s="33">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>12</v>
       </c>
       <c r="Q31" s="33">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>-1.7777777777777779</v>
       </c>
       <c r="R31" s="33">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>2.25</v>
       </c>
       <c r="S31" s="33">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>-2.6153846153846159</v>
       </c>
       <c r="T31" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>-1.6153846153846154</v>
       </c>
       <c r="U31" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>-2.3571428571428568</v>
       </c>
       <c r="V31" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0.23076923076923084</v>
       </c>
       <c r="W31" s="33">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>-0.80952380952380953</v>
       </c>
       <c r="X31" s="33">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>-1.3125</v>
       </c>
-      <c r="Y31" s="73"/>
-      <c r="Z31" s="73"/>
+      <c r="Y31" s="95">
+        <f t="shared" si="60"/>
+        <v>-1.6315789473684212</v>
+      </c>
+      <c r="Z31" s="59"/>
       <c r="AB31" s="16" t="s">
         <v>135</v>
       </c>
@@ -5016,18 +5065,18 @@
         <v>135</v>
       </c>
       <c r="AD31" s="33">
-        <f t="shared" ref="AD31" si="62">AD9/AC9-1</f>
+        <f t="shared" ref="AD31" si="65">AD9/AC9-1</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="AE31" s="33">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>-4.6363636363636367</v>
       </c>
       <c r="AF31" s="33">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>-2.8000000000000003</v>
       </c>
-      <c r="AG31" s="77"/>
+      <c r="AG31" s="63"/>
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
@@ -5037,59 +5086,59 @@
         <v>135</v>
       </c>
       <c r="H32" s="24">
-        <f t="shared" ref="H32:L32" si="63">H10/G10-1</f>
+        <f t="shared" ref="H32:L32" si="66">H10/G10-1</f>
         <v>-5.7700040209086922E-2</v>
       </c>
       <c r="I32" s="24">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>2.5282696820993822E-2</v>
       </c>
       <c r="J32" s="24">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>5.9619186348975228E-2</v>
       </c>
       <c r="K32" s="24">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>4.6739984289080994E-2</v>
       </c>
       <c r="L32" s="24">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>-3.1332082551594698E-2</v>
       </c>
       <c r="M32" s="24">
-        <f t="shared" ref="M32:N32" si="64">M10/L10-1</f>
+        <f t="shared" ref="M32:N32" si="67">M10/L10-1</f>
         <v>-2.1499128413713042E-2</v>
       </c>
       <c r="N32" s="24">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>-0.37519794140934282</v>
       </c>
       <c r="O32" s="24">
-        <f t="shared" ref="O32:T32" si="65">O10/N10-1</f>
+        <f t="shared" ref="O32:T32" si="68">O10/N10-1</f>
         <v>0.678124504989704</v>
       </c>
       <c r="P32" s="24">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>6.126109118368861E-2</v>
       </c>
       <c r="Q32" s="24">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>-7.8804589522369461E-2</v>
       </c>
       <c r="R32" s="24">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0.19185092208168397</v>
       </c>
       <c r="S32" s="24">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>-7.7770576798446012E-3</v>
       </c>
       <c r="T32" s="24">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>-7.2746570868712945E-2</v>
       </c>
       <c r="U32" s="24">
-        <f t="shared" ref="U32" si="66">U10/T10-1</f>
+        <f t="shared" ref="U32" si="69">U10/T10-1</f>
         <v>-4.2792991106806455E-2</v>
       </c>
       <c r="V32" s="24">
@@ -5097,15 +5146,18 @@
         <v>0.12537944991261174</v>
       </c>
       <c r="W32" s="24">
-        <f t="shared" ref="W32" si="67">W10/V10-1</f>
+        <f t="shared" ref="W32" si="70">W10/V10-1</f>
         <v>3.7027954879843117E-2</v>
       </c>
       <c r="X32" s="24">
-        <f t="shared" ref="X32" si="68">X10/W10-1</f>
+        <f t="shared" ref="X32" si="71">X10/W10-1</f>
         <v>4.9499487664538266E-2</v>
       </c>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="73"/>
+      <c r="Y32" s="96">
+        <f t="shared" ref="Y32" si="72">Y10/X10-1</f>
+        <v>-6.9470521967705645E-2</v>
+      </c>
+      <c r="Z32" s="59"/>
       <c r="AB32" s="16" t="s">
         <v>135</v>
       </c>
@@ -5121,39 +5173,39 @@
         <v>84</v>
       </c>
       <c r="G34" s="24">
-        <f t="shared" ref="G34" si="69">G12/G10</f>
+        <f t="shared" ref="G34" si="73">G12/G10</f>
         <v>0.44199839163650978</v>
       </c>
       <c r="H34" s="24">
-        <f t="shared" ref="H34" si="70">H12/H10</f>
+        <f t="shared" ref="H34" si="74">H12/H10</f>
         <v>0.43791337742692565</v>
       </c>
       <c r="I34" s="24">
-        <f t="shared" ref="I34:K34" si="71">I12/I10</f>
+        <f t="shared" ref="I34:K34" si="75">I12/I10</f>
         <v>0.4514618666111746</v>
       </c>
       <c r="J34" s="24">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>0.45492930086410049</v>
       </c>
       <c r="K34" s="24">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>0.45694183864915577</v>
       </c>
       <c r="L34" s="24">
-        <f t="shared" ref="L34" si="72">L12/L10</f>
+        <f t="shared" ref="L34" si="76">L12/L10</f>
         <v>0.4400542320356382</v>
       </c>
       <c r="M34" s="24">
-        <f t="shared" ref="M34" si="73">M12/M10</f>
+        <f t="shared" ref="M34" si="77">M12/M10</f>
         <v>0.44269596199524935</v>
       </c>
       <c r="N34" s="24">
-        <f t="shared" ref="N34:O34" si="74">N12/N10</f>
+        <f t="shared" ref="N34:O34" si="78">N12/N10</f>
         <v>0.37272295263741484</v>
       </c>
       <c r="O34" s="24">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>0.4475174627147443</v>
       </c>
       <c r="P34" s="24">
@@ -5169,15 +5221,15 @@
         <v>0.45811730395333761</v>
       </c>
       <c r="S34" s="24">
-        <f t="shared" ref="S34:T34" si="75">S12/S10</f>
+        <f t="shared" ref="S34:T34" si="79">S12/S10</f>
         <v>0.4650555192684519</v>
       </c>
       <c r="T34" s="24">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0.45901206304481823</v>
       </c>
       <c r="U34" s="24">
-        <f t="shared" ref="U34" si="76">U12/U10</f>
+        <f t="shared" ref="U34" si="80">U12/U10</f>
         <v>0.4661024744733695</v>
       </c>
       <c r="V34" s="24">
@@ -5185,25 +5237,26 @@
         <v>0.44981199934608479</v>
       </c>
       <c r="W34" s="24">
-        <f t="shared" ref="W34:X34" si="77">W12/W10</f>
+        <f t="shared" ref="W34:X34" si="81">W12/W10</f>
         <v>0.44257901789233084</v>
       </c>
       <c r="X34" s="24">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>0.42891475779196397</v>
       </c>
-      <c r="Y34" s="74">
-        <v>0.43</v>
-      </c>
-      <c r="Z34" s="74">
+      <c r="Y34" s="96">
+        <f t="shared" ref="Y34" si="82">Y12/Y10</f>
+        <v>0.43349475383373692</v>
+      </c>
+      <c r="Z34" s="60">
         <v>0.44</v>
       </c>
       <c r="AC34" s="24">
-        <f t="shared" ref="AC34" si="78">AC12/AC10</f>
+        <f t="shared" ref="AC34" si="83">AC12/AC10</f>
         <v>0.44671114860546568</v>
       </c>
       <c r="AD34" s="24">
-        <f t="shared" ref="AD34" si="79">AD12/AD10</f>
+        <f t="shared" ref="AD34" si="84">AD12/AD10</f>
         <v>0.43421650669732376</v>
       </c>
       <c r="AE34" s="24">
@@ -5214,9 +5267,9 @@
         <f>AF12/AF10</f>
         <v>0.4598372939413401</v>
       </c>
-      <c r="AG34" s="73">
+      <c r="AG34" s="59">
         <f>AG12/AG10</f>
-        <v>0.4353276392189005</v>
+        <v>0.43618780910183014</v>
       </c>
     </row>
     <row r="35" spans="2:33" x14ac:dyDescent="0.15">
@@ -5224,39 +5277,39 @@
         <v>85</v>
       </c>
       <c r="G35" s="24">
-        <f t="shared" ref="G35" si="80">G16/G10</f>
+        <f t="shared" ref="G35" si="85">G16/G10</f>
         <v>0.13409730599115385</v>
       </c>
       <c r="H35" s="24">
-        <f t="shared" ref="H35" si="81">H16/H10</f>
+        <f t="shared" ref="H35" si="86">H16/H10</f>
         <v>0.10273095796885018</v>
       </c>
       <c r="I35" s="24">
-        <f t="shared" ref="I35:K35" si="82">I16/I10</f>
+        <f t="shared" ref="I35:K35" si="87">I16/I10</f>
         <v>0.12985121215274151</v>
       </c>
       <c r="J35" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>0.12048311076197953</v>
       </c>
       <c r="K35" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v>0.14474671669793623</v>
       </c>
       <c r="L35" s="24">
-        <f t="shared" ref="L35" si="83">L16/L10</f>
+        <f t="shared" ref="L35" si="88">L16/L10</f>
         <v>0.11814836335463884</v>
       </c>
       <c r="M35" s="24">
-        <f t="shared" ref="M35" si="84">M16/M10</f>
+        <f t="shared" ref="M35" si="89">M16/M10</f>
         <v>0.11777513855898646</v>
       </c>
       <c r="N35" s="24">
-        <f t="shared" ref="N35:O35" si="85">N16/N10</f>
+        <f t="shared" ref="N35:O35" si="90">N16/N10</f>
         <v>-0.13274196103278951</v>
       </c>
       <c r="O35" s="24">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>0.16669813101755721</v>
       </c>
       <c r="P35" s="24">
@@ -5272,15 +5325,15 @@
         <v>0.15497407647440048</v>
       </c>
       <c r="S35" s="24">
-        <f t="shared" ref="S35:T35" si="86">S16/S10</f>
+        <f t="shared" ref="S35:T35" si="91">S16/S10</f>
         <v>0.17341606792945774</v>
       </c>
       <c r="T35" s="24">
-        <f t="shared" si="86"/>
+        <f t="shared" si="91"/>
         <v>0.12802676763229734</v>
       </c>
       <c r="U35" s="24">
-        <f t="shared" ref="U35" si="87">U16/U10</f>
+        <f t="shared" ref="U35" si="92">U16/U10</f>
         <v>0.14984822003495538</v>
       </c>
       <c r="V35" s="24">
@@ -5288,27 +5341,27 @@
         <v>0.11999346084682046</v>
       </c>
       <c r="W35" s="24">
-        <f t="shared" ref="W35:X35" si="88">W16/W10</f>
+        <f t="shared" ref="W35:X35" si="93">W16/W10</f>
         <v>0.13360132419011606</v>
       </c>
       <c r="X35" s="24">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>0.11918888471648527</v>
       </c>
-      <c r="Y35" s="74">
-        <f t="shared" ref="Y35:Z35" si="89">Y16/Y10</f>
-        <v>0.15514684105739732</v>
-      </c>
-      <c r="Z35" s="74">
-        <f t="shared" si="89"/>
-        <v>0.16820285049054209</v>
+      <c r="Y35" s="96">
+        <f t="shared" ref="Y35" si="94">Y16/Y10</f>
+        <v>0.1139628732849072</v>
+      </c>
+      <c r="Z35" s="60">
+        <f t="shared" ref="Y35:Z35" si="95">Z16/Z10</f>
+        <v>0.12883870366921207</v>
       </c>
       <c r="AC35" s="24">
-        <f t="shared" ref="AC35" si="90">AC16/AC10</f>
+        <f t="shared" ref="AC35" si="96">AC16/AC10</f>
         <v>0.64943630646521955</v>
       </c>
       <c r="AD35" s="24">
-        <f t="shared" ref="AD35" si="91">AD16/AD10</f>
+        <f t="shared" ref="AD35" si="97">AD16/AD10</f>
         <v>8.3282089671951415E-2</v>
       </c>
       <c r="AE35" s="24">
@@ -5319,9 +5372,9 @@
         <f>AF16/AF10</f>
         <v>0.14290301862556182</v>
       </c>
-      <c r="AG35" s="73">
+      <c r="AG35" s="59">
         <f>AG16/AG10</f>
-        <v>0.14491793899357078</v>
+        <v>0.12391695399160661</v>
       </c>
     </row>
     <row r="36" spans="2:33" x14ac:dyDescent="0.15">
@@ -5329,39 +5382,39 @@
         <v>86</v>
       </c>
       <c r="G36" s="24">
-        <f t="shared" ref="G36" si="92">G21/G10</f>
+        <f t="shared" ref="G36" si="98">G21/G10</f>
         <v>0.10977080820265367</v>
       </c>
       <c r="H36" s="24">
-        <f t="shared" ref="H36" si="93">H21/H10</f>
+        <f t="shared" ref="H36" si="99">H21/H10</f>
         <v>9.0356304672498569E-2</v>
       </c>
       <c r="I36" s="24">
-        <f t="shared" ref="I36:K36" si="94">I21/I10</f>
+        <f t="shared" ref="I36:K36" si="100">I21/I10</f>
         <v>0.11455623764436568</v>
       </c>
       <c r="J36" s="24">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>9.711311861743907E-2</v>
       </c>
       <c r="K36" s="24">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>0.12823639774859288</v>
       </c>
       <c r="L36" s="24">
-        <f t="shared" ref="L36" si="95">L21/L10</f>
+        <f t="shared" ref="L36" si="101">L21/L10</f>
         <v>0.1079798566724773</v>
       </c>
       <c r="M36" s="24">
-        <f t="shared" ref="M36" si="96">M21/M10</f>
+        <f t="shared" ref="M36" si="102">M21/M10</f>
         <v>8.3828186856690343E-2</v>
       </c>
       <c r="N36" s="24">
-        <f t="shared" ref="N36:O36" si="97">N21/N10</f>
+        <f t="shared" ref="N36:O36" si="103">N21/N10</f>
         <v>-0.12513860288293999</v>
       </c>
       <c r="O36" s="24">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>0.14328865395506901</v>
       </c>
       <c r="P36" s="24">
@@ -5377,15 +5430,15 @@
         <v>0.12224562540505506</v>
       </c>
       <c r="S36" s="24">
-        <f t="shared" ref="S36:T36" si="98">S21/S10</f>
+        <f t="shared" ref="S36:T36" si="104">S21/S10</f>
         <v>0.15300457217504887</v>
       </c>
       <c r="T36" s="24">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>0.11772475125473286</v>
       </c>
       <c r="U36" s="24">
-        <f t="shared" ref="U36" si="99">U21/U10</f>
+        <f t="shared" ref="U36" si="105">U21/U10</f>
         <v>0.12841504921350383</v>
       </c>
       <c r="V36" s="24">
@@ -5393,27 +5446,27 @@
         <v>0.11762301781919253</v>
       </c>
       <c r="W36" s="24">
-        <f t="shared" ref="W36:X36" si="100">W21/W10</f>
+        <f t="shared" ref="W36:X36" si="106">W21/W10</f>
         <v>0.11570899345787047</v>
       </c>
       <c r="X36" s="24">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>9.9962448366504045E-2</v>
       </c>
-      <c r="Y36" s="74">
-        <f t="shared" ref="Y36:Z36" si="101">Y21/Y10</f>
-        <v>0.12614384401193152</v>
-      </c>
-      <c r="Z36" s="74">
-        <f t="shared" si="101"/>
-        <v>0.13643918079667236</v>
+      <c r="Y36" s="96">
+        <f t="shared" ref="Y36" si="107">Y21/Y10</f>
+        <v>0.10008071025020179</v>
+      </c>
+      <c r="Z36" s="60">
+        <f t="shared" ref="Y36:Z36" si="108">Z21/Z10</f>
+        <v>0.1056630036630036</v>
       </c>
       <c r="AC36" s="24">
-        <f t="shared" ref="AC36" si="102">AC21/AC10</f>
+        <f t="shared" ref="AC36" si="109">AC21/AC10</f>
         <v>0.1404760078738144</v>
       </c>
       <c r="AD36" s="24">
-        <f t="shared" ref="AD36" si="103">AD21/AD10</f>
+        <f t="shared" ref="AD36" si="110">AD21/AD10</f>
         <v>6.7882255434056099E-2</v>
       </c>
       <c r="AE36" s="24">
@@ -5424,9 +5477,9 @@
         <f>AF21/AF10</f>
         <v>0.12943695140226918</v>
       </c>
-      <c r="AG36" s="73">
+      <c r="AG36" s="59">
         <f>AG21/AG10</f>
-        <v>0.12012365127532476</v>
+        <v>0.10531950013261167</v>
       </c>
     </row>
     <row r="37" spans="2:33" x14ac:dyDescent="0.15">
@@ -5434,39 +5487,39 @@
         <v>140</v>
       </c>
       <c r="G37" s="24">
-        <f t="shared" ref="G37" si="104">G20/G19</f>
+        <f t="shared" ref="G37" si="111">G20/G19</f>
         <v>0.14015748031496078</v>
       </c>
       <c r="H37" s="24">
-        <f t="shared" ref="H37" si="105">H20/H19</f>
+        <f t="shared" ref="H37" si="112">H20/H19</f>
         <v>0.15045135406218627</v>
       </c>
       <c r="I37" s="24">
-        <f t="shared" ref="I37:K37" si="106">I20/I19</f>
+        <f t="shared" ref="I37:K37" si="113">I20/I19</f>
         <v>0.14717273431448508</v>
       </c>
       <c r="J37" s="24">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>0.20434432823813364</v>
       </c>
       <c r="K37" s="24">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>0.12427930813581037</v>
       </c>
       <c r="L37" s="24">
-        <f t="shared" ref="L37" si="107">L20/L19</f>
+        <f t="shared" ref="L37" si="114">L20/L19</f>
         <v>0.10728582866293031</v>
       </c>
       <c r="M37" s="24">
-        <f t="shared" ref="M37" si="108">M20/M19</f>
+        <f t="shared" ref="M37" si="115">M20/M19</f>
         <v>3.8592508513053389E-2</v>
       </c>
       <c r="N37" s="24">
-        <f t="shared" ref="N37:O37" si="109">N20/N19</f>
+        <f t="shared" ref="N37:O37" si="116">N20/N19</f>
         <v>1.7412935323383082E-2</v>
       </c>
       <c r="O37" s="24">
-        <f t="shared" si="109"/>
+        <f t="shared" si="116"/>
         <v>0.11486880466472295</v>
       </c>
       <c r="P37" s="24">
@@ -5482,15 +5535,15 @@
         <v>0.18608414239482204</v>
       </c>
       <c r="S37" s="24">
-        <f t="shared" ref="S37:T37" si="110">S20/S19</f>
+        <f t="shared" ref="S37:T37" si="117">S20/S19</f>
         <v>0.11016144349477694</v>
       </c>
       <c r="T37" s="24">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>0.10926049300466348</v>
       </c>
       <c r="U37" s="24">
-        <f t="shared" ref="U37" si="111">U20/U19</f>
+        <f t="shared" ref="U37" si="118">U20/U19</f>
         <v>0.16407185628742516</v>
       </c>
       <c r="V37" s="24">
@@ -5498,25 +5551,26 @@
         <v>-4.7307132459970834E-2</v>
       </c>
       <c r="W37" s="24">
-        <f t="shared" ref="W37:X37" si="112">W20/W19</f>
+        <f t="shared" ref="W37:X37" si="119">W20/W19</f>
         <v>0.19693654266958391</v>
       </c>
       <c r="X37" s="24">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>0.19333333333333316</v>
       </c>
-      <c r="Y37" s="74">
+      <c r="Y37" s="96">
+        <f t="shared" ref="Y37" si="120">Y20/Y19</f>
+        <v>0.16046039268788079</v>
+      </c>
+      <c r="Z37" s="60">
         <v>0.2</v>
       </c>
-      <c r="Z37" s="74">
-        <v>0.2</v>
-      </c>
       <c r="AC37" s="24">
-        <f t="shared" ref="AC37" si="113">AC20/AC19</f>
+        <f t="shared" ref="AC37" si="121">AC20/AC19</f>
         <v>0.16079983336804837</v>
       </c>
       <c r="AD37" s="24">
-        <f t="shared" ref="AD37" si="114">AD20/AD19</f>
+        <f t="shared" ref="AD37" si="122">AD20/AD19</f>
         <v>8.6934798900824395E-2</v>
       </c>
       <c r="AE37" s="24">
@@ -5527,9 +5581,9 @@
         <f>AF20/AF19</f>
         <v>9.0963764847391479E-2</v>
       </c>
-      <c r="AG37" s="73">
+      <c r="AG37" s="59">
         <f>AG20/AG19</f>
-        <v>0.19797730503101854</v>
+        <v>0.18873351826386797</v>
       </c>
     </row>
     <row r="40" spans="2:33" x14ac:dyDescent="0.15">
@@ -5595,17 +5649,19 @@
       <c r="X41" s="34">
         <v>6490</v>
       </c>
-      <c r="Y41" s="80"/>
-      <c r="Z41" s="80"/>
+      <c r="Y41" s="98">
+        <v>6955</v>
+      </c>
+      <c r="Z41" s="66"/>
       <c r="AE41" s="34">
-        <f t="shared" ref="AE41:AE46" si="115">R41</f>
+        <f t="shared" ref="AE41:AE46" si="123">R41</f>
         <v>9889</v>
       </c>
       <c r="AF41" s="34">
         <f>V41</f>
         <v>8574</v>
       </c>
-      <c r="AG41" s="87"/>
+      <c r="AG41" s="73"/>
     </row>
     <row r="42" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
@@ -5665,17 +5721,19 @@
       <c r="X42" s="34">
         <v>4131</v>
       </c>
-      <c r="Y42" s="80"/>
-      <c r="Z42" s="80"/>
+      <c r="Y42" s="98">
+        <v>3847</v>
+      </c>
+      <c r="Z42" s="66"/>
       <c r="AE42" s="34">
-        <f t="shared" si="115"/>
+        <f t="shared" si="123"/>
         <v>3587</v>
       </c>
       <c r="AF42" s="34">
         <f>V42</f>
         <v>4423</v>
       </c>
-      <c r="AG42" s="87"/>
+      <c r="AG42" s="73"/>
     </row>
     <row r="43" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
@@ -5735,10 +5793,12 @@
       <c r="X43" s="35">
         <v>5437</v>
       </c>
-      <c r="Y43" s="81"/>
-      <c r="Z43" s="81"/>
+      <c r="Y43" s="99">
+        <v>4513</v>
+      </c>
+      <c r="Z43" s="67"/>
       <c r="AE43" s="35">
-        <f t="shared" si="115"/>
+        <f t="shared" si="123"/>
         <v>4463</v>
       </c>
       <c r="AF43" s="35">
@@ -5804,17 +5864,19 @@
       <c r="X44" s="34">
         <v>9326</v>
       </c>
-      <c r="Y44" s="80"/>
-      <c r="Z44" s="80"/>
+      <c r="Y44" s="98">
+        <v>8905</v>
+      </c>
+      <c r="Z44" s="66"/>
       <c r="AE44" s="34">
-        <f t="shared" si="115"/>
+        <f t="shared" si="123"/>
         <v>6854</v>
       </c>
       <c r="AF44" s="34">
         <f>V44</f>
         <v>8420</v>
       </c>
-      <c r="AG44" s="87"/>
+      <c r="AG44" s="73"/>
     </row>
     <row r="45" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
@@ -5874,14 +5936,16 @@
       <c r="X45" s="35">
         <v>2063</v>
       </c>
-      <c r="Y45" s="81"/>
-      <c r="Z45" s="81"/>
+      <c r="Y45" s="99">
+        <v>1815</v>
+      </c>
+      <c r="Z45" s="67"/>
       <c r="AE45" s="35">
-        <f t="shared" si="115"/>
+        <f t="shared" si="123"/>
         <v>1498</v>
       </c>
       <c r="AF45" s="35">
-        <f t="shared" ref="AF45:AF51" si="116">V45</f>
+        <f t="shared" ref="AF45:AF51" si="124">V45</f>
         <v>2129</v>
       </c>
     </row>
@@ -5890,85 +5954,88 @@
         <v>102</v>
       </c>
       <c r="G46" s="19">
-        <f t="shared" ref="G46:L46" si="117">SUM(G41:G45)</f>
+        <f t="shared" ref="G46:L46" si="125">SUM(G41:G45)</f>
         <v>15501</v>
       </c>
       <c r="H46" s="19">
-        <f t="shared" si="117"/>
+        <f t="shared" si="125"/>
         <v>15566</v>
       </c>
       <c r="I46" s="19">
-        <f t="shared" si="117"/>
+        <f t="shared" si="125"/>
         <v>15796</v>
       </c>
       <c r="J46" s="19">
-        <f t="shared" si="117"/>
+        <f t="shared" si="125"/>
         <v>16525</v>
       </c>
       <c r="K46" s="19">
-        <f t="shared" si="117"/>
+        <f t="shared" si="125"/>
         <v>16228</v>
       </c>
       <c r="L46" s="19">
-        <f t="shared" si="117"/>
+        <f t="shared" si="125"/>
         <v>16369</v>
       </c>
       <c r="M46" s="19">
-        <f t="shared" ref="M46:X46" si="118">SUM(M41:M45)</f>
+        <f t="shared" ref="M46:Y46" si="126">SUM(M41:M45)</f>
         <v>15744</v>
       </c>
       <c r="N46" s="19">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>20646</v>
       </c>
       <c r="O46" s="19">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>21937</v>
       </c>
       <c r="P46" s="35">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>23607</v>
       </c>
       <c r="Q46" s="35">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>24700</v>
       </c>
       <c r="R46" s="35">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>26291</v>
       </c>
       <c r="S46" s="35">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>26390</v>
       </c>
       <c r="T46" s="35">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>27177</v>
       </c>
       <c r="U46" s="35">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>26962</v>
       </c>
       <c r="V46" s="35">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>28213</v>
       </c>
       <c r="W46" s="35">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>28877</v>
       </c>
       <c r="X46" s="35">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>27447</v>
       </c>
-      <c r="Y46" s="81"/>
-      <c r="Z46" s="81"/>
+      <c r="Y46" s="35">
+        <f t="shared" si="126"/>
+        <v>26035</v>
+      </c>
+      <c r="Z46" s="67"/>
       <c r="AE46" s="35">
-        <f t="shared" si="115"/>
+        <f t="shared" si="123"/>
         <v>26291</v>
       </c>
       <c r="AF46" s="35">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>28213</v>
       </c>
     </row>
@@ -6030,14 +6097,16 @@
       <c r="X47" s="35">
         <v>4854</v>
       </c>
-      <c r="Y47" s="81"/>
-      <c r="Z47" s="81"/>
+      <c r="Y47" s="99">
+        <v>4939</v>
+      </c>
+      <c r="Z47" s="67"/>
       <c r="AE47" s="35">
-        <f t="shared" ref="AE47:AE50" si="119">R47</f>
+        <f t="shared" ref="AE47:AE50" si="127">R47</f>
         <v>4904</v>
       </c>
       <c r="AF47" s="35">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>4791</v>
       </c>
     </row>
@@ -6099,14 +6168,16 @@
       <c r="X48" s="35">
         <v>2809</v>
       </c>
-      <c r="Y48" s="81"/>
-      <c r="Z48" s="81"/>
+      <c r="Y48" s="99">
+        <v>2834</v>
+      </c>
+      <c r="Z48" s="67"/>
       <c r="AE48" s="35">
-        <f t="shared" si="119"/>
+        <f t="shared" si="127"/>
         <v>3113</v>
       </c>
       <c r="AF48" s="35">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>2926</v>
       </c>
     </row>
@@ -6186,17 +6257,20 @@
         <f>280+281</f>
         <v>561</v>
       </c>
-      <c r="Y49" s="81"/>
-      <c r="Z49" s="81"/>
+      <c r="Y49" s="99">
+        <f>277+281</f>
+        <v>558</v>
+      </c>
+      <c r="Z49" s="67"/>
       <c r="AE49" s="35">
-        <f t="shared" si="119"/>
+        <f t="shared" si="127"/>
         <v>511</v>
       </c>
       <c r="AF49" s="35">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>570</v>
       </c>
-      <c r="AG49" s="81"/>
+      <c r="AG49" s="67"/>
     </row>
     <row r="50" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
@@ -6256,14 +6330,16 @@
       <c r="X50" s="35">
         <v>3976</v>
       </c>
-      <c r="Y50" s="81"/>
-      <c r="Z50" s="81"/>
+      <c r="Y50" s="99">
+        <v>3928</v>
+      </c>
+      <c r="Z50" s="67"/>
       <c r="AE50" s="35">
-        <f t="shared" si="119"/>
+        <f t="shared" si="127"/>
         <v>2921</v>
       </c>
       <c r="AF50" s="35">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>3821</v>
       </c>
     </row>
@@ -6272,85 +6348,88 @@
         <v>107</v>
       </c>
       <c r="G51" s="19">
-        <f t="shared" ref="G51:L51" si="120">G46+SUM(G47:G50)</f>
+        <f t="shared" ref="G51:L51" si="128">G46+SUM(G47:G50)</f>
         <v>22483</v>
       </c>
       <c r="H51" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="128"/>
         <v>22677</v>
       </c>
       <c r="I51" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="128"/>
         <v>22921</v>
       </c>
       <c r="J51" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="128"/>
         <v>23717</v>
       </c>
       <c r="K51" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="128"/>
         <v>26249</v>
       </c>
       <c r="L51" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="128"/>
         <v>26602</v>
       </c>
       <c r="M51" s="19">
-        <f t="shared" ref="M51:X51" si="121">M46+SUM(M47:M50)</f>
+        <f t="shared" ref="M51:Y51" si="129">M46+SUM(M47:M50)</f>
         <v>26220</v>
       </c>
       <c r="N51" s="19">
-        <f t="shared" si="121"/>
+        <f t="shared" si="129"/>
         <v>31452</v>
       </c>
       <c r="O51" s="19">
-        <f t="shared" si="121"/>
+        <f t="shared" si="129"/>
         <v>33258</v>
       </c>
       <c r="P51" s="35">
-        <f t="shared" si="121"/>
+        <f t="shared" si="129"/>
         <v>34836</v>
       </c>
       <c r="Q51" s="35">
-        <f t="shared" si="121"/>
+        <f t="shared" si="129"/>
         <v>36185</v>
       </c>
       <c r="R51" s="35">
-        <f t="shared" si="121"/>
+        <f t="shared" si="129"/>
         <v>37740</v>
       </c>
       <c r="S51" s="35">
-        <f t="shared" si="121"/>
+        <f t="shared" si="129"/>
         <v>37917</v>
       </c>
       <c r="T51" s="35">
-        <f t="shared" si="121"/>
+        <f t="shared" si="129"/>
         <v>38917</v>
       </c>
       <c r="U51" s="35">
-        <f t="shared" si="121"/>
+        <f t="shared" si="129"/>
         <v>38577</v>
       </c>
       <c r="V51" s="35">
-        <f t="shared" si="121"/>
+        <f t="shared" si="129"/>
         <v>40321</v>
       </c>
       <c r="W51" s="35">
-        <f t="shared" si="121"/>
+        <f t="shared" si="129"/>
         <v>41088</v>
       </c>
       <c r="X51" s="35">
-        <f t="shared" si="121"/>
+        <f t="shared" si="129"/>
         <v>39647</v>
       </c>
-      <c r="Y51" s="81"/>
-      <c r="Z51" s="81"/>
+      <c r="Y51" s="35">
+        <f t="shared" si="129"/>
+        <v>38294</v>
+      </c>
+      <c r="Z51" s="67"/>
       <c r="AE51" s="35">
         <f>R51</f>
         <v>37740</v>
       </c>
       <c r="AF51" s="35">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>40321</v>
       </c>
     </row>
@@ -6431,17 +6510,19 @@
       <c r="X53" s="34">
         <v>500</v>
       </c>
-      <c r="Y53" s="80"/>
-      <c r="Z53" s="80"/>
+      <c r="Y53" s="98">
+        <v>500</v>
+      </c>
+      <c r="Z53" s="66"/>
       <c r="AE53" s="34">
         <f>R53</f>
         <v>0</v>
       </c>
       <c r="AF53" s="34">
-        <f t="shared" ref="AF53:AF54" si="122">V53</f>
+        <f t="shared" ref="AF53:AF54" si="130">V53</f>
         <v>500</v>
       </c>
-      <c r="AG53" s="87"/>
+      <c r="AG53" s="73"/>
     </row>
     <row r="54" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
@@ -6501,17 +6582,19 @@
       <c r="X54" s="34">
         <v>7</v>
       </c>
-      <c r="Y54" s="80"/>
-      <c r="Z54" s="80"/>
+      <c r="Y54" s="98">
+        <v>14</v>
+      </c>
+      <c r="Z54" s="66"/>
       <c r="AE54" s="34">
         <f>R54</f>
         <v>2</v>
       </c>
       <c r="AF54" s="34">
-        <f t="shared" si="122"/>
+        <f t="shared" si="130"/>
         <v>10</v>
       </c>
-      <c r="AG54" s="87"/>
+      <c r="AG54" s="73"/>
     </row>
     <row r="55" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
@@ -6571,14 +6654,16 @@
       <c r="X55" s="35">
         <v>2810</v>
       </c>
-      <c r="Y55" s="81"/>
-      <c r="Z55" s="81"/>
+      <c r="Y55" s="99">
+        <v>2675</v>
+      </c>
+      <c r="Z55" s="67"/>
       <c r="AE55" s="35">
-        <f t="shared" ref="AE55:AE58" si="123">R55</f>
+        <f t="shared" ref="AE55:AE58" si="131">R55</f>
         <v>2836</v>
       </c>
       <c r="AF55" s="35">
-        <f t="shared" ref="AF55:AF59" si="124">V55</f>
+        <f t="shared" ref="AF55:AF59" si="132">V55</f>
         <v>3358</v>
       </c>
     </row>
@@ -6640,14 +6725,16 @@
       <c r="X56" s="35">
         <v>426</v>
       </c>
-      <c r="Y56" s="81"/>
-      <c r="Z56" s="81"/>
+      <c r="Y56" s="99">
+        <v>435</v>
+      </c>
+      <c r="Z56" s="67"/>
       <c r="AE56" s="35">
-        <f t="shared" si="123"/>
+        <f t="shared" si="131"/>
         <v>467</v>
       </c>
       <c r="AF56" s="35">
-        <f t="shared" si="124"/>
+        <f t="shared" si="132"/>
         <v>420</v>
       </c>
     </row>
@@ -6709,14 +6796,16 @@
       <c r="X57" s="35">
         <v>6020</v>
       </c>
-      <c r="Y57" s="81"/>
-      <c r="Z57" s="81"/>
+      <c r="Y57" s="99">
+        <v>5594</v>
+      </c>
+      <c r="Z57" s="67"/>
       <c r="AE57" s="35">
-        <f t="shared" si="123"/>
+        <f t="shared" si="131"/>
         <v>6063</v>
       </c>
       <c r="AF57" s="35">
-        <f t="shared" si="124"/>
+        <f t="shared" si="132"/>
         <v>6220</v>
       </c>
     </row>
@@ -6778,14 +6867,16 @@
       <c r="X58" s="35">
         <v>436</v>
       </c>
-      <c r="Y58" s="81"/>
-      <c r="Z58" s="81"/>
+      <c r="Y58" s="99">
+        <v>330</v>
+      </c>
+      <c r="Z58" s="67"/>
       <c r="AE58" s="35">
-        <f t="shared" si="123"/>
+        <f t="shared" si="131"/>
         <v>306</v>
       </c>
       <c r="AF58" s="35">
-        <f t="shared" si="124"/>
+        <f t="shared" si="132"/>
         <v>222</v>
       </c>
     </row>
@@ -6794,85 +6885,88 @@
         <v>114</v>
       </c>
       <c r="G59" s="19">
-        <f t="shared" ref="G59:L59" si="125">SUM(G53:G58)</f>
+        <f t="shared" ref="G59:L59" si="133">SUM(G53:G58)</f>
         <v>6708</v>
       </c>
       <c r="H59" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="133"/>
         <v>7278</v>
       </c>
       <c r="I59" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="133"/>
         <v>7281</v>
       </c>
       <c r="J59" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="133"/>
         <v>7866</v>
       </c>
       <c r="K59" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="133"/>
         <v>8070</v>
       </c>
       <c r="L59" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="133"/>
         <v>8264</v>
       </c>
       <c r="M59" s="19">
-        <f t="shared" ref="M59:X59" si="126">SUM(M53:M58)</f>
+        <f t="shared" ref="M59:Y59" si="134">SUM(M53:M58)</f>
         <v>8280</v>
       </c>
       <c r="N59" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="134"/>
         <v>8284</v>
       </c>
       <c r="O59" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="134"/>
         <v>8619</v>
       </c>
       <c r="P59" s="35">
-        <f t="shared" si="126"/>
+        <f t="shared" si="134"/>
         <v>8871</v>
       </c>
       <c r="Q59" s="35">
-        <f t="shared" si="126"/>
+        <f t="shared" si="134"/>
         <v>8894</v>
       </c>
       <c r="R59" s="35">
-        <f t="shared" si="126"/>
+        <f t="shared" si="134"/>
         <v>9674</v>
       </c>
       <c r="S59" s="35">
-        <f t="shared" si="126"/>
+        <f t="shared" si="134"/>
         <v>8269</v>
       </c>
       <c r="T59" s="35">
-        <f t="shared" si="126"/>
+        <f t="shared" si="134"/>
         <v>8857</v>
       </c>
       <c r="U59" s="35">
-        <f t="shared" si="126"/>
+        <f t="shared" si="134"/>
         <v>8818</v>
       </c>
       <c r="V59" s="35">
-        <f t="shared" si="126"/>
+        <f t="shared" si="134"/>
         <v>10730</v>
       </c>
       <c r="W59" s="35">
-        <f t="shared" si="126"/>
+        <f t="shared" si="134"/>
         <v>10919</v>
       </c>
       <c r="X59" s="35">
-        <f t="shared" si="126"/>
+        <f t="shared" si="134"/>
         <v>10199</v>
       </c>
-      <c r="Y59" s="81"/>
-      <c r="Z59" s="81"/>
+      <c r="Y59" s="35">
+        <f t="shared" si="134"/>
+        <v>9548</v>
+      </c>
+      <c r="Z59" s="67"/>
       <c r="AE59" s="35">
         <f>R59</f>
         <v>9674</v>
       </c>
       <c r="AF59" s="35">
-        <f t="shared" si="124"/>
+        <f t="shared" si="132"/>
         <v>10730</v>
       </c>
     </row>
@@ -6934,8 +7028,10 @@
       <c r="X60" s="34">
         <v>8924</v>
       </c>
-      <c r="Y60" s="80"/>
-      <c r="Z60" s="80"/>
+      <c r="Y60" s="98">
+        <v>8925</v>
+      </c>
+      <c r="Z60" s="66"/>
       <c r="AE60" s="34">
         <f>R60</f>
         <v>9413</v>
@@ -6944,7 +7040,7 @@
         <f>V60</f>
         <v>8920</v>
       </c>
-      <c r="AG60" s="87"/>
+      <c r="AG60" s="73"/>
     </row>
     <row r="61" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
@@ -7004,14 +7100,16 @@
       <c r="X61" s="35">
         <v>2668</v>
       </c>
-      <c r="Y61" s="81"/>
-      <c r="Z61" s="81"/>
+      <c r="Y61" s="99">
+        <v>2692</v>
+      </c>
+      <c r="Z61" s="67"/>
       <c r="AE61" s="35">
-        <f t="shared" ref="AE61:AE63" si="127">R61</f>
+        <f t="shared" ref="AE61:AE63" si="135">R61</f>
         <v>2931</v>
       </c>
       <c r="AF61" s="35">
-        <f t="shared" ref="AF61:AF64" si="128">V61</f>
+        <f t="shared" ref="AF61:AF64" si="136">V61</f>
         <v>2777</v>
       </c>
     </row>
@@ -7073,14 +7171,16 @@
       <c r="X62" s="35">
         <v>2584</v>
       </c>
-      <c r="Y62" s="81"/>
-      <c r="Z62" s="81"/>
+      <c r="Y62" s="99">
+        <v>2598</v>
+      </c>
+      <c r="Z62" s="67"/>
       <c r="AE62" s="35">
-        <f t="shared" si="127"/>
+        <f t="shared" si="135"/>
         <v>2955</v>
       </c>
       <c r="AF62" s="35">
-        <f t="shared" si="128"/>
+        <f t="shared" si="136"/>
         <v>2613</v>
       </c>
     </row>
@@ -7142,14 +7242,16 @@
       <c r="X63" s="35">
         <v>0</v>
       </c>
-      <c r="Y63" s="81"/>
-      <c r="Z63" s="81"/>
+      <c r="Y63" s="99">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="67"/>
       <c r="AE63" s="35">
-        <f t="shared" si="127"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="AF63" s="35">
-        <f t="shared" si="128"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
     </row>
@@ -7158,85 +7260,88 @@
         <v>119</v>
       </c>
       <c r="G64" s="19">
-        <f t="shared" ref="G64:L64" si="129">G59+SUM(G60:G63)</f>
+        <f t="shared" ref="G64:L64" si="137">G59+SUM(G60:G63)</f>
         <v>13491</v>
       </c>
       <c r="H64" s="19">
-        <f t="shared" si="129"/>
+        <f t="shared" si="137"/>
         <v>13948</v>
       </c>
       <c r="I64" s="19">
-        <f t="shared" si="129"/>
+        <f t="shared" si="137"/>
         <v>13960</v>
       </c>
       <c r="J64" s="19">
-        <f t="shared" si="129"/>
+        <f t="shared" si="137"/>
         <v>14677</v>
       </c>
       <c r="K64" s="19">
-        <f t="shared" si="129"/>
+        <f t="shared" si="137"/>
         <v>17049</v>
       </c>
       <c r="L64" s="19">
-        <f t="shared" si="129"/>
+        <f t="shared" si="137"/>
         <v>17251</v>
       </c>
       <c r="M64" s="19">
-        <f t="shared" ref="M64:X64" si="130">M59+SUM(M60:M63)</f>
+        <f t="shared" ref="M64:Y64" si="138">M59+SUM(M60:M63)</f>
         <v>17175</v>
       </c>
       <c r="N64" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="138"/>
         <v>23287</v>
       </c>
       <c r="O64" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="138"/>
         <v>24034</v>
       </c>
       <c r="P64" s="35">
-        <f t="shared" si="130"/>
+        <f t="shared" si="138"/>
         <v>24196</v>
       </c>
       <c r="Q64" s="35">
-        <f t="shared" si="130"/>
+        <f t="shared" si="138"/>
         <v>24254</v>
       </c>
       <c r="R64" s="35">
-        <f t="shared" si="130"/>
+        <f t="shared" si="138"/>
         <v>24973</v>
       </c>
       <c r="S64" s="35">
-        <f t="shared" si="130"/>
+        <f t="shared" si="138"/>
         <v>23574</v>
       </c>
       <c r="T64" s="35">
-        <f t="shared" si="130"/>
+        <f t="shared" si="138"/>
         <v>23993</v>
       </c>
       <c r="U64" s="35">
-        <f t="shared" si="130"/>
+        <f t="shared" si="138"/>
         <v>23768</v>
       </c>
       <c r="V64" s="35">
-        <f t="shared" si="130"/>
+        <f t="shared" si="138"/>
         <v>25040</v>
       </c>
       <c r="W64" s="35">
-        <f t="shared" si="130"/>
+        <f t="shared" si="138"/>
         <v>25266</v>
       </c>
       <c r="X64" s="35">
-        <f t="shared" si="130"/>
+        <f t="shared" si="138"/>
         <v>24375</v>
       </c>
-      <c r="Y64" s="81"/>
-      <c r="Z64" s="81"/>
+      <c r="Y64" s="35">
+        <f t="shared" si="138"/>
+        <v>23763</v>
+      </c>
+      <c r="Z64" s="67"/>
       <c r="AE64" s="35">
         <f>R64</f>
         <v>24973</v>
       </c>
       <c r="AF64" s="35">
-        <f t="shared" si="128"/>
+        <f t="shared" si="136"/>
         <v>25040</v>
       </c>
     </row>
@@ -7315,8 +7420,10 @@
       <c r="X66" s="35">
         <v>15272</v>
       </c>
-      <c r="Y66" s="81"/>
-      <c r="Z66" s="81"/>
+      <c r="Y66" s="99">
+        <v>14531</v>
+      </c>
+      <c r="Z66" s="67"/>
       <c r="AE66" s="35">
         <f>R66</f>
         <v>12767</v>
@@ -7330,79 +7437,82 @@
         <v>121</v>
       </c>
       <c r="G67" s="19">
-        <f t="shared" ref="G67:X67" si="131">G66+G64</f>
+        <f t="shared" ref="G67:Y67" si="139">G66+G64</f>
         <v>22483</v>
       </c>
       <c r="H67" s="19">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>22677</v>
       </c>
       <c r="I67" s="19">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>22921</v>
       </c>
       <c r="J67" s="19">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>23717</v>
       </c>
       <c r="K67" s="19">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>26249</v>
       </c>
       <c r="L67" s="19">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>26602</v>
       </c>
       <c r="M67" s="19">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>26220</v>
       </c>
       <c r="N67" s="19">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>31342</v>
       </c>
       <c r="O67" s="19">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>33258</v>
       </c>
       <c r="P67" s="35">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>34836</v>
       </c>
       <c r="Q67" s="35">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>36185</v>
       </c>
       <c r="R67" s="35">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>37740</v>
       </c>
       <c r="S67" s="35">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>37917</v>
       </c>
       <c r="T67" s="35">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>38917</v>
       </c>
       <c r="U67" s="35">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>38577</v>
       </c>
       <c r="V67" s="35">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>40321</v>
       </c>
       <c r="W67" s="35">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>41088</v>
       </c>
       <c r="X67" s="35">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>39647</v>
       </c>
-      <c r="Y67" s="81"/>
-      <c r="Z67" s="81"/>
+      <c r="Y67" s="35">
+        <f t="shared" si="139"/>
+        <v>38294</v>
+      </c>
+      <c r="Z67" s="67"/>
       <c r="AE67" s="35">
         <f>AE66+AE64</f>
         <v>37740</v>
@@ -7433,79 +7543,82 @@
         <v>122</v>
       </c>
       <c r="G69" s="19">
-        <f t="shared" ref="G69:V69" si="132">G51-G64</f>
+        <f t="shared" ref="G69:V69" si="140">G51-G64</f>
         <v>8992</v>
       </c>
       <c r="H69" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>8729</v>
       </c>
       <c r="I69" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>8961</v>
       </c>
       <c r="J69" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>9040</v>
       </c>
       <c r="K69" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>9200</v>
       </c>
       <c r="L69" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>9351</v>
       </c>
       <c r="M69" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>9045</v>
       </c>
       <c r="N69" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>8165</v>
       </c>
       <c r="O69" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>9224</v>
       </c>
       <c r="P69" s="35">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>10640</v>
       </c>
       <c r="Q69" s="35">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>11931</v>
       </c>
       <c r="R69" s="35">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>12767</v>
       </c>
       <c r="S69" s="35">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>14343</v>
       </c>
       <c r="T69" s="35">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>14924</v>
       </c>
       <c r="U69" s="35">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>14809</v>
       </c>
       <c r="V69" s="35">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>15281</v>
       </c>
       <c r="W69" s="35">
-        <f t="shared" ref="W69:X69" si="133">W51-W64</f>
+        <f t="shared" ref="W69:X69" si="141">W51-W64</f>
         <v>15822</v>
       </c>
       <c r="X69" s="35">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>15272</v>
       </c>
-      <c r="Y69" s="81"/>
-      <c r="Z69" s="81"/>
+      <c r="Y69" s="35">
+        <f t="shared" ref="Y69" si="142">Y51-Y64</f>
+        <v>14531</v>
+      </c>
+      <c r="Z69" s="67"/>
       <c r="AE69" s="35">
         <f>AE51-AE64</f>
         <v>12767</v>
@@ -7520,79 +7633,82 @@
         <v>123</v>
       </c>
       <c r="G70" s="19">
-        <f t="shared" ref="G70:V70" si="134">G69/G23</f>
+        <f t="shared" ref="G70:V70" si="143">G69/G23</f>
         <v>5.6411543287327479</v>
       </c>
       <c r="H70" s="19">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>5.519792588845327</v>
       </c>
       <c r="I70" s="19">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>5.6974821973550354</v>
       </c>
       <c r="J70" s="19">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>5.7572283785505025</v>
       </c>
       <c r="K70" s="19">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>5.888376856118791</v>
       </c>
       <c r="L70" s="19">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>5.9919261822376013</v>
       </c>
       <c r="M70" s="19">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>5.8118614662982715</v>
       </c>
       <c r="N70" s="19">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>5.2484412161727834</v>
       </c>
       <c r="O70" s="19">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>5.9060058906390065</v>
       </c>
       <c r="P70" s="19">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>6.7641449459631282</v>
       </c>
       <c r="Q70" s="19">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>7.5608365019011403</v>
       </c>
       <c r="R70" s="19">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>8.0854971500949961</v>
       </c>
       <c r="S70" s="39">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>9.0669448131993171</v>
       </c>
       <c r="T70" s="39">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>9.4515516149461689</v>
       </c>
       <c r="U70" s="39">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>9.3787207093096896</v>
       </c>
       <c r="V70" s="39">
-        <f t="shared" si="134"/>
+        <f t="shared" si="143"/>
         <v>9.7207379134860048</v>
       </c>
       <c r="W70" s="39">
-        <f t="shared" ref="W70:X70" si="135">W69/W23</f>
+        <f t="shared" ref="W70:X70" si="144">W69/W23</f>
         <v>10.096356326973391</v>
       </c>
       <c r="X70" s="39">
-        <f t="shared" si="135"/>
+        <f t="shared" si="144"/>
         <v>9.7960230917254645</v>
       </c>
-      <c r="Y70" s="82"/>
-      <c r="Z70" s="82"/>
+      <c r="Y70" s="39">
+        <f t="shared" ref="Y70" si="145">Y69/Y23</f>
+        <v>9.4124886643347594</v>
+      </c>
+      <c r="Z70" s="68"/>
       <c r="AE70" s="39">
         <f>AE69/AE23</f>
         <v>8.1165962045837432</v>
@@ -7602,6 +7718,9 @@
         <v>9.6839303537762014</v>
       </c>
     </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="Y71" s="1"/>
+    </row>
     <row r="72" spans="2:33" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B72" s="32" t="s">
         <v>124</v>
@@ -7635,52 +7754,55 @@
         <v>0.31038776236214871</v>
       </c>
       <c r="O72" s="33">
-        <f t="shared" ref="O72:P72" si="136">O44/K44-1</f>
+        <f t="shared" ref="O72:P72" si="146">O44/K44-1</f>
         <v>0.14910025706940866</v>
       </c>
       <c r="P72" s="33">
-        <f t="shared" si="136"/>
+        <f t="shared" si="146"/>
         <v>-1.7583481206646212E-2</v>
       </c>
       <c r="Q72" s="33">
-        <f t="shared" ref="Q72:V72" si="137">Q44/M44-1</f>
+        <f t="shared" ref="Q72:V72" si="147">Q44/M44-1</f>
         <v>0.15257447907697608</v>
       </c>
       <c r="R72" s="33">
-        <f t="shared" si="137"/>
+        <f t="shared" si="147"/>
         <v>-6.963485815121484E-2</v>
       </c>
       <c r="S72" s="33">
-        <f t="shared" si="137"/>
+        <f t="shared" si="147"/>
         <v>-8.9485458612970081E-4</v>
       </c>
       <c r="T72" s="33">
-        <f t="shared" si="137"/>
+        <f t="shared" si="147"/>
         <v>6.8308702791461506E-2</v>
       </c>
       <c r="U72" s="33">
-        <f t="shared" si="137"/>
+        <f t="shared" si="147"/>
         <v>0.15045569998505903</v>
       </c>
       <c r="V72" s="33">
-        <f t="shared" si="137"/>
+        <f t="shared" si="147"/>
         <v>0.22847971987160776</v>
       </c>
       <c r="W72" s="33">
-        <f t="shared" ref="W72" si="138">W44/S44-1</f>
+        <f t="shared" ref="W72" si="148">W44/S44-1</f>
         <v>0.44230482161516638</v>
       </c>
       <c r="X72" s="33">
-        <f t="shared" ref="X72" si="139">X44/T44-1</f>
+        <f t="shared" ref="X72" si="149">X44/T44-1</f>
         <v>0.43344604980018442</v>
       </c>
-      <c r="Y72" s="73"/>
-      <c r="Z72" s="73"/>
+      <c r="Y72" s="33">
+        <f t="shared" ref="Y72" si="150">Y44/U44-1</f>
+        <v>0.15649350649350646</v>
+      </c>
+      <c r="Z72" s="59"/>
       <c r="AF72" s="33">
         <f>AF44/AE44-1</f>
         <v>0.22847971987160776</v>
       </c>
-      <c r="AG72" s="77"/>
+      <c r="AG72" s="63"/>
     </row>
     <row r="73" spans="2:33" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B73" s="32" t="s">
@@ -7690,90 +7812,93 @@
         <v>135</v>
       </c>
       <c r="H73" s="33">
-        <f t="shared" ref="H73:V73" si="140">H44/G44-1</f>
+        <f t="shared" ref="H73:V73" si="151">H44/G44-1</f>
         <v>3.0801607040367385E-2</v>
       </c>
       <c r="I73" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>5.0111358574609355E-3</v>
       </c>
       <c r="J73" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>3.8227146814404422E-2</v>
       </c>
       <c r="K73" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>3.7886872998932786E-2</v>
       </c>
       <c r="L73" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>6.2382176520993982E-2</v>
       </c>
       <c r="M73" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>-6.3236005807388307E-2</v>
       </c>
       <c r="N73" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>0.26864129498880662</v>
       </c>
       <c r="O73" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>-8.9860187321840646E-2</v>
       </c>
       <c r="P73" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>-9.1722595078299829E-2</v>
       </c>
       <c r="Q73" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>9.9014778325123176E-2</v>
       </c>
       <c r="R73" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>2.405498281786933E-2</v>
       </c>
       <c r="S73" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>-2.2614531660344328E-2</v>
       </c>
       <c r="T73" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>-2.8810270189580489E-2</v>
       </c>
       <c r="U73" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>0.18352290193667375</v>
       </c>
       <c r="V73" s="33">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>9.3506493506493538E-2</v>
       </c>
       <c r="W73" s="33">
-        <f t="shared" ref="W73" si="141">W44/V44-1</f>
+        <f t="shared" ref="W73" si="152">W44/V44-1</f>
         <v>0.14750593824228031</v>
       </c>
       <c r="X73" s="33">
-        <f t="shared" ref="X73" si="142">X44/W44-1</f>
+        <f t="shared" ref="X73" si="153">X44/W44-1</f>
         <v>-3.477540881805008E-2</v>
       </c>
-      <c r="Y73" s="73"/>
-      <c r="Z73" s="73"/>
+      <c r="Y73" s="33">
+        <f t="shared" ref="Y73" si="154">Y44/X44-1</f>
+        <v>-4.5142612052326836E-2</v>
+      </c>
+      <c r="Z73" s="59"/>
       <c r="AF73" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AG73" s="77"/>
+      <c r="AG73" s="63"/>
     </row>
     <row r="75" spans="2:33" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B75" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G75" s="45">
-        <f t="shared" ref="G75" si="143">G41+G42</f>
+        <f t="shared" ref="G75" si="155">G41+G42</f>
         <v>4269</v>
       </c>
       <c r="H75" s="45">
-        <f t="shared" ref="H75" si="144">H41+H42</f>
+        <f t="shared" ref="H75" si="156">H41+H42</f>
         <v>4041</v>
       </c>
       <c r="I75" s="45">
@@ -7785,11 +7910,11 @@
         <v>4663</v>
       </c>
       <c r="K75" s="45">
-        <f t="shared" ref="K75" si="145">K41+K42</f>
+        <f t="shared" ref="K75" si="157">K41+K42</f>
         <v>3644</v>
       </c>
       <c r="L75" s="45">
-        <f t="shared" ref="L75" si="146">L41+L42</f>
+        <f t="shared" ref="L75" si="158">L41+L42</f>
         <v>3502</v>
       </c>
       <c r="M75" s="45">
@@ -7805,63 +7930,66 @@
         <v>9480</v>
       </c>
       <c r="P75" s="45">
-        <f t="shared" ref="P75:V75" si="147">P41+P42</f>
+        <f t="shared" ref="P75:V75" si="159">P41+P42</f>
         <v>11812</v>
       </c>
       <c r="Q75" s="45">
-        <f t="shared" si="147"/>
+        <f t="shared" si="159"/>
         <v>12528</v>
       </c>
       <c r="R75" s="45">
-        <f t="shared" si="147"/>
+        <f t="shared" si="159"/>
         <v>13476</v>
       </c>
       <c r="S75" s="45">
-        <f t="shared" si="147"/>
+        <f t="shared" si="159"/>
         <v>13695</v>
       </c>
       <c r="T75" s="45">
-        <f t="shared" si="147"/>
+        <f t="shared" si="159"/>
         <v>15103</v>
       </c>
       <c r="U75" s="45">
-        <f t="shared" si="147"/>
+        <f t="shared" si="159"/>
         <v>13467</v>
       </c>
       <c r="V75" s="45">
-        <f t="shared" si="147"/>
+        <f t="shared" si="159"/>
         <v>12997</v>
       </c>
       <c r="W75" s="45">
-        <f t="shared" ref="W75:X75" si="148">W41+W42</f>
+        <f t="shared" ref="W75:X75" si="160">W41+W42</f>
         <v>11876</v>
       </c>
       <c r="X75" s="45">
-        <f t="shared" si="148"/>
+        <f t="shared" si="160"/>
         <v>10621</v>
       </c>
-      <c r="Y75" s="75"/>
-      <c r="Z75" s="75"/>
+      <c r="Y75" s="45">
+        <f t="shared" ref="Y75" si="161">Y41+Y42</f>
+        <v>10802</v>
+      </c>
+      <c r="Z75" s="61"/>
       <c r="AE75" s="49">
-        <f t="shared" ref="AE75:AF77" si="149">U75</f>
+        <f t="shared" ref="AE75:AF77" si="162">U75</f>
         <v>13467</v>
       </c>
       <c r="AF75" s="49">
-        <f t="shared" si="149"/>
+        <f t="shared" si="162"/>
         <v>12997</v>
       </c>
-      <c r="AG75" s="77"/>
+      <c r="AG75" s="63"/>
     </row>
     <row r="76" spans="2:33" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B76" s="32" t="s">
         <v>7</v>
       </c>
       <c r="G76" s="45">
-        <f t="shared" ref="G76" si="150">G53+G54+G60</f>
+        <f t="shared" ref="G76" si="163">G53+G54+G60</f>
         <v>3486</v>
       </c>
       <c r="H76" s="45">
-        <f t="shared" ref="H76" si="151">H53+H54+H60</f>
+        <f t="shared" ref="H76" si="164">H53+H54+H60</f>
         <v>3481</v>
       </c>
       <c r="I76" s="45">
@@ -7873,11 +8001,11 @@
         <v>3479</v>
       </c>
       <c r="K76" s="45">
-        <f t="shared" ref="K76" si="152">K53+K54+K60</f>
+        <f t="shared" ref="K76" si="165">K53+K54+K60</f>
         <v>3719</v>
       </c>
       <c r="L76" s="45">
-        <f t="shared" ref="L76" si="153">L53+L54+L60</f>
+        <f t="shared" ref="L76" si="166">L53+L54+L60</f>
         <v>3768</v>
       </c>
       <c r="M76" s="45">
@@ -7893,63 +8021,66 @@
         <v>9546</v>
       </c>
       <c r="P76" s="45">
-        <f t="shared" ref="P76:V76" si="154">P53+P54+P60</f>
+        <f t="shared" ref="P76:V76" si="167">P53+P54+P60</f>
         <v>9451</v>
       </c>
       <c r="Q76" s="45">
-        <f t="shared" si="154"/>
+        <f t="shared" si="167"/>
         <v>9416</v>
       </c>
       <c r="R76" s="45">
-        <f t="shared" si="154"/>
+        <f t="shared" si="167"/>
         <v>9415</v>
       </c>
       <c r="S76" s="45">
-        <f t="shared" si="154"/>
+        <f t="shared" si="167"/>
         <v>9430</v>
       </c>
       <c r="T76" s="45">
-        <f t="shared" si="154"/>
+        <f t="shared" si="167"/>
         <v>9426</v>
       </c>
       <c r="U76" s="45">
-        <f t="shared" si="154"/>
+        <f t="shared" si="167"/>
         <v>9418</v>
       </c>
       <c r="V76" s="45">
-        <f t="shared" si="154"/>
+        <f t="shared" si="167"/>
         <v>9430</v>
       </c>
       <c r="W76" s="45">
-        <f t="shared" ref="W76:X76" si="155">W53+W54+W60</f>
+        <f t="shared" ref="W76:X76" si="168">W53+W54+W60</f>
         <v>9431</v>
       </c>
       <c r="X76" s="45">
-        <f t="shared" si="155"/>
+        <f t="shared" si="168"/>
         <v>9431</v>
       </c>
-      <c r="Y76" s="75"/>
-      <c r="Z76" s="75"/>
+      <c r="Y76" s="45">
+        <f t="shared" ref="Y76" si="169">Y53+Y54+Y60</f>
+        <v>9439</v>
+      </c>
+      <c r="Z76" s="61"/>
       <c r="AE76" s="49">
-        <f t="shared" si="149"/>
+        <f t="shared" si="162"/>
         <v>9418</v>
       </c>
       <c r="AF76" s="49">
-        <f t="shared" si="149"/>
+        <f t="shared" si="162"/>
         <v>9430</v>
       </c>
-      <c r="AG76" s="77"/>
+      <c r="AG76" s="63"/>
     </row>
     <row r="77" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G77" s="19">
-        <f t="shared" ref="G77:H77" si="156">G75-G76</f>
+        <f t="shared" ref="G77:H77" si="170">G75-G76</f>
         <v>783</v>
       </c>
       <c r="H77" s="19">
-        <f t="shared" si="156"/>
+        <f t="shared" si="170"/>
         <v>560</v>
       </c>
       <c r="I77" s="19">
@@ -7961,11 +8092,11 @@
         <v>1184</v>
       </c>
       <c r="K77" s="19">
-        <f t="shared" ref="K77" si="157">K75-K76</f>
+        <f t="shared" ref="K77" si="171">K75-K76</f>
         <v>-75</v>
       </c>
       <c r="L77" s="19">
-        <f t="shared" ref="L77" si="158">L75-L76</f>
+        <f t="shared" ref="L77" si="172">L75-L76</f>
         <v>-266</v>
       </c>
       <c r="M77" s="19">
@@ -7981,49 +8112,52 @@
         <v>-66</v>
       </c>
       <c r="P77" s="19">
-        <f t="shared" ref="P77:V77" si="159">P75-P76</f>
+        <f t="shared" ref="P77:V77" si="173">P75-P76</f>
         <v>2361</v>
       </c>
       <c r="Q77" s="19">
-        <f t="shared" si="159"/>
+        <f t="shared" si="173"/>
         <v>3112</v>
       </c>
       <c r="R77" s="19">
-        <f t="shared" si="159"/>
+        <f t="shared" si="173"/>
         <v>4061</v>
       </c>
       <c r="S77" s="19">
-        <f t="shared" si="159"/>
+        <f t="shared" si="173"/>
         <v>4265</v>
       </c>
       <c r="T77" s="19">
-        <f t="shared" si="159"/>
+        <f t="shared" si="173"/>
         <v>5677</v>
       </c>
       <c r="U77" s="19">
-        <f t="shared" si="159"/>
+        <f t="shared" si="173"/>
         <v>4049</v>
       </c>
       <c r="V77" s="19">
-        <f t="shared" si="159"/>
+        <f t="shared" si="173"/>
         <v>3567</v>
       </c>
       <c r="W77" s="19">
-        <f t="shared" ref="W77:X77" si="160">W75-W76</f>
+        <f t="shared" ref="W77:X77" si="174">W75-W76</f>
         <v>2445</v>
       </c>
       <c r="X77" s="19">
-        <f t="shared" si="160"/>
+        <f t="shared" si="174"/>
         <v>1190</v>
       </c>
-      <c r="Y77" s="75"/>
-      <c r="Z77" s="75"/>
+      <c r="Y77" s="19">
+        <f t="shared" ref="Y77" si="175">Y75-Y76</f>
+        <v>1363</v>
+      </c>
+      <c r="Z77" s="61"/>
       <c r="AE77" s="49">
-        <f t="shared" si="149"/>
+        <f t="shared" si="162"/>
         <v>4049</v>
       </c>
       <c r="AF77" s="49">
-        <f t="shared" si="149"/>
+        <f t="shared" si="162"/>
         <v>3567</v>
       </c>
     </row>
@@ -8088,12 +8222,15 @@
       <c r="X79" s="1">
         <v>109.35</v>
       </c>
+      <c r="Y79" s="97">
+        <v>118.45</v>
+      </c>
       <c r="AE79" s="49">
-        <f t="shared" ref="AE79" si="161">U79</f>
+        <f t="shared" ref="AE79" si="176">U79</f>
         <v>136.55000000000001</v>
       </c>
       <c r="AF79" s="49">
-        <f t="shared" ref="AF79" si="162">V79</f>
+        <f t="shared" ref="AF79" si="177">V79</f>
         <v>118.85</v>
       </c>
     </row>
@@ -8106,81 +8243,84 @@
         <v>131026.8</v>
       </c>
       <c r="H80" s="19">
-        <f t="shared" ref="H80:V80" si="163">H79*H23</f>
+        <f t="shared" ref="H80:V80" si="178">H79*H23</f>
         <v>115015.22200000001</v>
       </c>
       <c r="I80" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="178"/>
         <v>134836.144</v>
       </c>
       <c r="J80" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="178"/>
         <v>122412.79199999999</v>
       </c>
       <c r="K80" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="178"/>
         <v>132022.80000000002</v>
       </c>
       <c r="L80" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="178"/>
         <v>145900.49399999998</v>
       </c>
       <c r="M80" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="178"/>
         <v>139102.09399999998</v>
       </c>
       <c r="N80" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="178"/>
         <v>153360.90599999999</v>
       </c>
       <c r="O80" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="178"/>
         <v>174749.802</v>
       </c>
       <c r="P80" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="178"/>
         <v>211883.09999999998</v>
       </c>
       <c r="Q80" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="178"/>
         <v>220273.02000000002</v>
       </c>
       <c r="R80" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="178"/>
         <v>212391.28999999998</v>
       </c>
       <c r="S80" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="178"/>
         <v>258893.75400000002</v>
       </c>
       <c r="T80" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="178"/>
         <v>260124.46000000002</v>
       </c>
       <c r="U80" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="178"/>
         <v>215612.45</v>
       </c>
       <c r="V80" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="178"/>
         <v>186832.19999999998</v>
       </c>
       <c r="W80" s="19">
-        <f t="shared" ref="W80:X80" si="164">W79*W23</f>
+        <f t="shared" ref="W80:X80" si="179">W79*W23</f>
         <v>166817.79499999998</v>
       </c>
       <c r="X80" s="19">
-        <f t="shared" si="164"/>
+        <f t="shared" si="179"/>
         <v>170476.65</v>
       </c>
-      <c r="Y80" s="75"/>
-      <c r="Z80" s="75"/>
+      <c r="Y80" s="19">
+        <f t="shared" ref="Y80" si="180">Y79*Y23</f>
+        <v>182863.11</v>
+      </c>
+      <c r="Z80" s="61"/>
       <c r="AE80" s="19">
-        <f t="shared" ref="AE80" si="165">AE79*AE23</f>
+        <f t="shared" ref="AE80" si="181">AE79*AE23</f>
         <v>214786.32250000004</v>
       </c>
       <c r="AF80" s="19">
-        <f t="shared" ref="AF80" si="166">AF79*AF23</f>
+        <f t="shared" ref="AF80" si="182">AF79*AF23</f>
         <v>187542.32874999999</v>
       </c>
     </row>
@@ -8193,84 +8333,87 @@
         <v>130243.8</v>
       </c>
       <c r="H81" s="45">
-        <f t="shared" ref="H81:V81" si="167">H80-H77</f>
+        <f t="shared" ref="H81:V81" si="183">H80-H77</f>
         <v>114455.22200000001</v>
       </c>
       <c r="I81" s="45">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>134277.144</v>
       </c>
       <c r="J81" s="45">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>121228.79199999999</v>
       </c>
       <c r="K81" s="45">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>132097.80000000002</v>
       </c>
       <c r="L81" s="45">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>146166.49399999998</v>
       </c>
       <c r="M81" s="45">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>139396.09399999998</v>
       </c>
       <c r="N81" s="45">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>154140.90599999999</v>
       </c>
       <c r="O81" s="45">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>174815.802</v>
       </c>
       <c r="P81" s="45">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>209522.09999999998</v>
       </c>
       <c r="Q81" s="45">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>217161.02000000002</v>
       </c>
       <c r="R81" s="45">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>208330.28999999998</v>
       </c>
       <c r="S81" s="45">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>254628.75400000002</v>
       </c>
       <c r="T81" s="45">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>254447.46000000002</v>
       </c>
       <c r="U81" s="45">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>211563.45</v>
       </c>
       <c r="V81" s="45">
-        <f t="shared" si="167"/>
+        <f t="shared" si="183"/>
         <v>183265.19999999998</v>
       </c>
       <c r="W81" s="45">
-        <f t="shared" ref="W81:X81" si="168">W80-W77</f>
+        <f t="shared" ref="W81:X81" si="184">W80-W77</f>
         <v>164372.79499999998</v>
       </c>
       <c r="X81" s="45">
-        <f t="shared" si="168"/>
+        <f t="shared" si="184"/>
         <v>169286.65</v>
       </c>
-      <c r="Y81" s="75"/>
-      <c r="Z81" s="75"/>
+      <c r="Y81" s="45">
+        <f t="shared" ref="Y81" si="185">Y80-Y77</f>
+        <v>181500.11</v>
+      </c>
+      <c r="Z81" s="61"/>
       <c r="AE81" s="45">
-        <f t="shared" ref="AE81" si="169">AE80-AE77</f>
+        <f t="shared" ref="AE81" si="186">AE80-AE77</f>
         <v>210737.32250000004</v>
       </c>
       <c r="AF81" s="45">
-        <f t="shared" ref="AF81" si="170">AF80-AF77</f>
+        <f t="shared" ref="AF81" si="187">AF80-AF77</f>
         <v>183975.32874999999</v>
       </c>
-      <c r="AG81" s="77"/>
+      <c r="AG81" s="63"/>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A83" s="55">
@@ -8281,67 +8424,67 @@
         <v>127</v>
       </c>
       <c r="G83" s="50">
-        <f t="shared" ref="G83:V83" si="171">G79/(SUM(D22:G22)*1000)</f>
+        <f t="shared" ref="G83:V83" si="188">G79/(SUM(D22:G22)*1000)</f>
         <v>119.98791208791225</v>
       </c>
       <c r="H83" s="50">
-        <f t="shared" si="171"/>
+        <f t="shared" si="188"/>
         <v>59.582014530484628</v>
       </c>
       <c r="I83" s="50">
-        <f t="shared" si="171"/>
+        <f t="shared" si="188"/>
         <v>44.634866014209614</v>
       </c>
       <c r="J83" s="50">
-        <f t="shared" si="171"/>
+        <f t="shared" si="188"/>
         <v>30.56593387664801</v>
       </c>
       <c r="K83" s="50">
-        <f t="shared" si="171"/>
+        <f t="shared" si="188"/>
         <v>30.834702361691683</v>
       </c>
       <c r="L83" s="50">
-        <f t="shared" si="171"/>
+        <f t="shared" si="188"/>
         <v>32.024950848116646</v>
       </c>
       <c r="M83" s="50">
-        <f t="shared" si="171"/>
+        <f t="shared" si="188"/>
         <v>32.343038540294323</v>
       </c>
       <c r="N83" s="50">
-        <f t="shared" si="171"/>
+        <f t="shared" si="188"/>
         <v>60.633483602321661</v>
       </c>
       <c r="O83" s="50">
-        <f t="shared" si="171"/>
+        <f t="shared" si="188"/>
         <v>64.9445710774839</v>
       </c>
       <c r="P83" s="50">
-        <f t="shared" si="171"/>
+        <f t="shared" si="188"/>
         <v>74.680627922741024</v>
       </c>
       <c r="Q83" s="50">
-        <f t="shared" si="171"/>
+        <f t="shared" si="188"/>
         <v>64.099973409562097</v>
       </c>
       <c r="R83" s="50">
-        <f t="shared" si="171"/>
+        <f t="shared" si="188"/>
         <v>36.941421208777982</v>
       </c>
       <c r="S83" s="50">
-        <f t="shared" si="171"/>
+        <f t="shared" si="188"/>
         <v>42.466447128142569</v>
       </c>
       <c r="T83" s="50">
-        <f t="shared" si="171"/>
+        <f t="shared" si="188"/>
         <v>42.183602880357142</v>
       </c>
       <c r="U83" s="50">
-        <f t="shared" si="171"/>
+        <f t="shared" si="188"/>
         <v>35.273648173511305</v>
       </c>
       <c r="V83" s="50">
-        <f t="shared" si="171"/>
+        <f t="shared" si="188"/>
         <v>31.02413791405122</v>
       </c>
       <c r="W83" s="50">
@@ -8352,12 +8495,15 @@
         <f>X79/(SUM(U22:X22)*1000)</f>
         <v>30.459501062652002</v>
       </c>
-      <c r="Y83" s="83"/>
-      <c r="Z83" s="83"/>
+      <c r="Y83" s="50">
+        <f>Y79/(SUM(V22:Y22)*1000)</f>
+        <v>33.754883901090423</v>
+      </c>
+      <c r="Z83" s="69"/>
       <c r="AC83" s="50"/>
       <c r="AD83" s="50"/>
       <c r="AE83" s="50">
-        <f t="shared" ref="AE83" si="172">AE79/(AE22*1000)</f>
+        <f t="shared" ref="AE83" si="189">AE79/(AE22*1000)</f>
         <v>37.504159682207103</v>
       </c>
       <c r="AF83" s="50">
@@ -8370,79 +8516,82 @@
         <v>139</v>
       </c>
       <c r="G85" s="24">
-        <f t="shared" ref="G85:X85" si="173">G44/(G10*1000)</f>
+        <f t="shared" ref="G85:X85" si="190">G44/(SUM(D10:G10)*1000)</f>
         <v>0.52543224768797758</v>
       </c>
       <c r="H85" s="24">
-        <f t="shared" si="173"/>
-        <v>0.57478131000640054</v>
+        <f t="shared" si="190"/>
+        <v>0.27885312079494873</v>
       </c>
       <c r="I85" s="24">
-        <f t="shared" si="173"/>
-        <v>0.56341691811466044</v>
+        <f t="shared" si="190"/>
+        <v>0.18715653406145233</v>
       </c>
       <c r="J85" s="24">
-        <f t="shared" si="173"/>
-        <v>0.55204241948153965</v>
+        <f t="shared" si="190"/>
+        <v>0.14372267811948769</v>
       </c>
       <c r="K85" s="24">
-        <f t="shared" si="173"/>
-        <v>0.54737335834896805</v>
+        <f t="shared" si="190"/>
+        <v>0.14650129302769341</v>
       </c>
       <c r="L85" s="24">
-        <f t="shared" si="173"/>
-        <v>0.60032926593066049</v>
+        <f t="shared" si="190"/>
+        <v>0.15200706211225815</v>
       </c>
       <c r="M85" s="24">
-        <f t="shared" si="173"/>
-        <v>0.57472288202692001</v>
+        <f t="shared" si="190"/>
+        <v>0.14069389930706983</v>
       </c>
       <c r="N85" s="24">
-        <f t="shared" si="173"/>
-        <v>1.1669570727071124</v>
+        <f t="shared" si="190"/>
+        <v>0.19696281046974842</v>
       </c>
       <c r="O85" s="24">
-        <f t="shared" si="173"/>
-        <v>0.63290541816122325</v>
+        <f t="shared" si="190"/>
+        <v>0.17958057690762513</v>
       </c>
       <c r="P85" s="24">
-        <f t="shared" si="173"/>
-        <v>0.541670372676332</v>
+        <f t="shared" si="190"/>
+        <v>0.1591990380090971</v>
       </c>
       <c r="Q85" s="24">
-        <f t="shared" si="173"/>
-        <v>0.64622960316694023</v>
+        <f t="shared" si="190"/>
+        <v>0.17381255356169009</v>
       </c>
       <c r="R85" s="24">
-        <f t="shared" si="173"/>
-        <v>0.55524951393389499</v>
+        <f t="shared" si="190"/>
+        <v>0.15389105932013109</v>
       </c>
       <c r="S85" s="24">
-        <f t="shared" si="173"/>
-        <v>0.5469464402351405</v>
+        <f t="shared" si="190"/>
+        <v>0.14502511257360584</v>
       </c>
       <c r="T85" s="24">
-        <f t="shared" si="173"/>
-        <v>0.57286255173021039</v>
+        <f t="shared" si="190"/>
+        <v>0.14050015116831513</v>
       </c>
       <c r="U85" s="24">
-        <f t="shared" si="173"/>
-        <v>0.70830650354153257</v>
+        <f t="shared" si="190"/>
+        <v>0.1644596326356258</v>
       </c>
       <c r="V85" s="24">
-        <f t="shared" si="173"/>
-        <v>0.68824587215955524</v>
+        <f t="shared" si="190"/>
+        <v>0.18026118604153285</v>
       </c>
       <c r="W85" s="24">
-        <f t="shared" si="173"/>
-        <v>0.7615669583037753</v>
+        <f t="shared" si="190"/>
+        <v>0.20492481282741942</v>
       </c>
       <c r="X85" s="24">
-        <f t="shared" si="173"/>
-        <v>0.70041306796845648</v>
-      </c>
-      <c r="Y85" s="73"/>
-      <c r="Z85" s="73"/>
+        <f t="shared" si="190"/>
+        <v>0.18991182519803687</v>
+      </c>
+      <c r="Y85" s="24">
+        <f>Y44/(SUM(V10:Y10)*1000)</f>
+        <v>0.17589776004424601</v>
+      </c>
+      <c r="Z85" s="59"/>
       <c r="AE85" s="24">
         <f>AE44/(AE10*1000)</f>
         <v>0.15389105932013114</v>
@@ -8461,67 +8610,67 @@
         <v>129</v>
       </c>
       <c r="G87" s="50">
-        <f t="shared" ref="G87:V87" si="174">G79/G70</f>
+        <f t="shared" ref="G87:V87" si="191">G79/G70</f>
         <v>14.571485765124555</v>
       </c>
       <c r="H87" s="50">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>13.176219727345631</v>
       </c>
       <c r="I87" s="50">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>15.046997433322176</v>
       </c>
       <c r="J87" s="50">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>13.541238053097345</v>
       </c>
       <c r="K87" s="50">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>14.350304347826089</v>
       </c>
       <c r="L87" s="50">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>15.60266217516843</v>
       </c>
       <c r="M87" s="50">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>15.378893753454946</v>
       </c>
       <c r="N87" s="50">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>18.782719657072874</v>
       </c>
       <c r="O87" s="50">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>18.945121639202082</v>
       </c>
       <c r="P87" s="50">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>19.913825187969923</v>
       </c>
       <c r="Q87" s="50">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>18.462242896655773</v>
       </c>
       <c r="R87" s="50">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>16.635959113339077</v>
       </c>
       <c r="S87" s="50">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>18.050181551976575</v>
       </c>
       <c r="T87" s="50">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>17.429942374698474</v>
       </c>
       <c r="U87" s="50">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>14.559555000337634</v>
       </c>
       <c r="V87" s="50">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>12.226438060336365</v>
       </c>
       <c r="W87" s="50">
@@ -8532,14 +8681,17 @@
         <f>X79/X70</f>
         <v>11.162693163960189</v>
       </c>
-      <c r="Y87" s="83"/>
-      <c r="Z87" s="83"/>
+      <c r="Y87" s="50">
+        <f>Y79/Y70</f>
+        <v>12.584344504851696</v>
+      </c>
+      <c r="Z87" s="69"/>
       <c r="AE87" s="50">
-        <f t="shared" ref="AE87:AF87" si="175">AE79/AE70</f>
+        <f t="shared" ref="AE87:AF87" si="192">AE79/AE70</f>
         <v>16.823554672201773</v>
       </c>
       <c r="AF87" s="50">
-        <f t="shared" si="175"/>
+        <f t="shared" si="192"/>
         <v>12.272909413650938</v>
       </c>
     </row>
@@ -8556,14 +8708,15 @@
     <hyperlink ref="K1" r:id="rId8" xr:uid="{74FF5F3B-8619-864D-ABDE-E47617F39080}"/>
     <hyperlink ref="W1" r:id="rId9" xr:uid="{76D5B407-C85A-4503-B44E-499286D0CC5A}"/>
     <hyperlink ref="X1" r:id="rId10" xr:uid="{EC9EE56E-4D74-AC4B-9794-A49F7045CE53}"/>
+    <hyperlink ref="Y1" r:id="rId11" xr:uid="{11DE8799-B151-B54C-8BFA-F82E5EDA60E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId11"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId12"/>
   <ignoredErrors>
-    <ignoredError sqref="S7:X7 O7:R7 AF3:AF6 AF8:AF9 AF11 AF13:AF14 AF17:AF18 AF20 AF23 AE3 AE5 AE4 AE6 AE8:AE9 AE11 AE13:AE23 J6 G7:K7 N6:O6 N7 M7 L7 AD3:AD6 AD8:AD9 AD23 AC8:AC9 AC3:AC6 AC1:AC2 AC17:AC23 Y13:Z13 Y14 Y17:Z17 Y18:Z18" formulaRange="1"/>
+    <ignoredError sqref="S7:Y7 O7:R7 AF3:AF6 AF8:AF9 AF11 AF13:AF14 AF17:AF18 AF20 AF23 AE3 AE5 AE4 AE6 AE8:AE9 AE11 AE13:AE23 J6 G7:K7 N6:O6 N7 M7 L7 AD3:AD6 AD8:AD9 AD23 AC8:AC9 AC3:AC6 AC1:AC2 AC17:AC23 Z13:Z14 Z17 Z18" formulaRange="1"/>
     <ignoredError sqref="AF7 AF10 AF12 AF19 AE43 AE45 AD10 AC12 AG12:AG16 AG19 AG21" formula="1"/>
     <ignoredError sqref="AC7:AE7 AE10 AE12 AD11:AD20 AC10:AC11 AC13:AC16" formula="1" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>